--- a/市場_2025改修/詳細設計_2025/26_詳細設計書(口座データ) .xlsx
+++ b/市場_2025改修/詳細設計_2025/26_詳細設計書(口座データ) .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\si001\市場_2025改修\詳細設計_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661D6277-C74D-41FD-972A-6269A62E0016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB1D65E-2F79-407D-BD92-ED38186BA527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="888" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="888" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="170" r:id="rId1"/>
@@ -19,9 +19,13 @@
     <sheet name="項目説明" sheetId="171" r:id="rId4"/>
     <sheet name="プログラム機能" sheetId="172" r:id="rId5"/>
     <sheet name="口座データファイル" sheetId="174" r:id="rId6"/>
-    <sheet name="全銀データ" sheetId="175" r:id="rId7"/>
+    <sheet name="全銀データ" sheetId="176" r:id="rId7"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
   <definedNames>
+    <definedName name="a">#REF!</definedName>
     <definedName name="範囲１" localSheetId="4">#REF!</definedName>
     <definedName name="範囲１" localSheetId="1">#REF!</definedName>
     <definedName name="範囲１" localSheetId="3">#REF!</definedName>
@@ -44,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="268">
   <si>
     <t>作成者</t>
   </si>
@@ -1787,6 +1791,78 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>左詰残スペース　半角カナ</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ザン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左詰残スペース  半角カナ</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ザン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハンカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑨　テナント合計</t>
+    <rPh sb="6" eb="8">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左詰残スペース　テナントコード＋カナ</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ザン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銀行名カナ</t>
+    <rPh sb="0" eb="2">
+      <t>ギンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>支店名カナ</t>
+    <rPh sb="0" eb="2">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
 </sst>
 </file>
 
@@ -1796,7 +1872,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <name val="明朝"/>
@@ -1910,6 +1986,26 @@
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="明朝"/>
+      <family val="1"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -2422,12 +2518,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2572,12 +2669,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2648,21 +2739,27 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2672,20 +2769,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2693,9 +2793,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2705,21 +2802,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2729,10 +2811,49 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
@@ -2741,84 +2862,54 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2838,18 +2929,42 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2 2" xfId="3" xr:uid="{9E0CB5B5-E4D8-4A36-A270-B7349B4DDFD3}"/>
     <cellStyle name="標準_生産計画ED書" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="標準_東京理科大DBレイアウト" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
@@ -2988,22 +3103,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5620EBD7-8C94-B0CF-4F28-954C22A82255}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3618C573-F7DD-4704-BFC0-151A2C90F540}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3011,8 +3126,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7610475" y="4962526"/>
-          <a:ext cx="2867025" cy="1562100"/>
+          <a:off x="7600950" y="4991100"/>
+          <a:ext cx="3419475" cy="2038349"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3055,7 +3170,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>・振替処理を行った結果を表わす。</a:t>
+            <a:t>・振替処理を行った結果を表わす。（受信時）</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3251,7 +3366,7 @@
         <xdr:cNvPr id="3" name="テキスト ボックス 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12CDCC42-0E74-A2F2-77A4-DCEA37C37DDF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40283468-5C52-45D7-ADE1-36E6A977347C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3444,8 +3559,8 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
@@ -3458,7 +3573,7 @@
         <xdr:cNvPr id="4" name="テキスト ボックス 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CF5A747-E52B-8F91-B7DC-071DC7D3B92F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAEC5E35-EEF1-4FD1-A0BA-981D640635C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3466,8 +3581,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6172200" y="2952751"/>
-          <a:ext cx="2447925" cy="1009650"/>
+          <a:off x="7572375" y="2657475"/>
+          <a:ext cx="2447925" cy="1304926"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3517,7 +3632,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3528,7 +3643,7 @@
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3541,7 +3656,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3552,7 +3667,7 @@
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3634,7 +3749,7 @@
         <xdr:cNvPr id="5" name="テキスト ボックス 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFF9FD89-FA54-F0F0-AE11-C532E1F027A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32F97BF8-38F8-49F6-936D-265F9B60BB43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3642,7 +3757,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6076950" y="266700"/>
+          <a:off x="7477125" y="266700"/>
           <a:ext cx="3181350" cy="885825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3780,6 +3895,46 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="アプリ構成"/>
+      <sheetName val="フロー"/>
+      <sheetName val="月間スケジュール"/>
+      <sheetName val="全銀"/>
+      <sheetName val="全銀データ"/>
+      <sheetName val="データ"/>
+      <sheetName val="メニュー"/>
+      <sheetName val="口座マスタ"/>
+      <sheetName val="納付書"/>
+      <sheetName val="調整入力"/>
+      <sheetName val="口座データ"/>
+      <sheetName val="入金消込"/>
+      <sheetName val="徴収簿"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4083,50 +4238,50 @@
     </row>
     <row r="6" spans="3:16" ht="22.5" customHeight="1">
       <c r="C6" s="13"/>
-      <c r="D6" s="96" t="s">
+      <c r="D6" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
       <c r="N6" s="14"/>
     </row>
     <row r="7" spans="3:16" ht="51" customHeight="1">
-      <c r="C7" s="98" t="s">
+      <c r="C7" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="100"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="90"/>
     </row>
     <row r="8" spans="3:16" ht="39" customHeight="1">
       <c r="C8" s="13"/>
-      <c r="D8" s="96" t="s">
+      <c r="D8" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97"/>
-      <c r="M8" s="97"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="87"/>
       <c r="N8" s="14"/>
     </row>
     <row r="9" spans="3:16" ht="22.5" customHeight="1" thickBot="1">
@@ -4145,23 +4300,23 @@
     </row>
     <row r="10" spans="3:16" ht="22.5" customHeight="1" thickTop="1"/>
     <row r="12" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F12" s="91" t="s">
+      <c r="F12" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="92"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="95"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="93"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
     </row>
     <row r="13" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F13" s="91" t="s">
+      <c r="F13" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="92"/>
+      <c r="G13" s="85"/>
       <c r="H13" s="29"/>
       <c r="I13" s="30"/>
       <c r="J13" s="30"/>
@@ -4171,46 +4326,46 @@
       <c r="N13" s="18"/>
     </row>
     <row r="14" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F14" s="91" t="s">
+      <c r="F14" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="92"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="95"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="93"/>
     </row>
     <row r="15" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F15" s="91" t="s">
+      <c r="F15" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="92"/>
-      <c r="H15" s="93" t="s">
+      <c r="G15" s="85"/>
+      <c r="H15" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="95"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="93"/>
     </row>
     <row r="16" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F16" s="91" t="s">
+      <c r="F16" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="92"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="95"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="93"/>
     </row>
     <row r="17" spans="6:16" ht="22.5" customHeight="1">
-      <c r="F17" s="91" t="s">
+      <c r="F17" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="92"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="94"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="95"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="93"/>
       <c r="N17" s="7" t="s">
         <v>70</v>
       </c>
@@ -4240,12 +4395,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="C7:N7"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:K12"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="F14:G14"/>
@@ -4254,6 +4403,12 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:K16"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="C7:N7"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4282,56 +4437,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="106" t="s">
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
       <c r="P1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="104" t="s">
+      <c r="Q1" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="R1" s="104"/>
+      <c r="R1" s="102"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
       <c r="P2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="105">
+      <c r="Q2" s="103">
         <v>45757</v>
       </c>
-      <c r="R2" s="104"/>
+      <c r="R2" s="102"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" customHeight="1">
       <c r="A3" s="25"/>
@@ -4357,433 +4512,433 @@
       <c r="A4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102" t="s">
+      <c r="C4" s="101"/>
+      <c r="D4" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102" t="s">
+      <c r="E4" s="101"/>
+      <c r="F4" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102" t="s">
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="102"/>
-      <c r="N4" s="102"/>
-      <c r="O4" s="102"/>
-      <c r="P4" s="102"/>
-      <c r="Q4" s="102"/>
-      <c r="R4" s="102"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="101"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" customHeight="1">
       <c r="A5" s="27">
         <v>1</v>
       </c>
-      <c r="B5" s="107">
+      <c r="B5" s="97">
         <v>45757</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="108" t="s">
+      <c r="C5" s="97"/>
+      <c r="D5" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108" t="s">
+      <c r="E5" s="98"/>
+      <c r="F5" s="98" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="111"/>
-      <c r="L5" s="111"/>
-      <c r="M5" s="111"/>
-      <c r="N5" s="111"/>
-      <c r="O5" s="111"/>
-      <c r="P5" s="111"/>
-      <c r="Q5" s="111"/>
-      <c r="R5" s="111"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="99"/>
+      <c r="R5" s="99"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" customHeight="1">
       <c r="A6" s="28">
         <v>2</v>
       </c>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="103"/>
-      <c r="O6" s="103"/>
-      <c r="P6" s="103"/>
-      <c r="Q6" s="103"/>
-      <c r="R6" s="103"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="94"/>
     </row>
     <row r="7" spans="1:18" ht="27" customHeight="1">
       <c r="A7" s="28">
         <v>3</v>
       </c>
-      <c r="B7" s="109"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="103"/>
-      <c r="R7" s="103"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="94"/>
+      <c r="R7" s="94"/>
     </row>
     <row r="8" spans="1:18" ht="27" customHeight="1">
       <c r="A8" s="28">
         <v>4</v>
       </c>
-      <c r="B8" s="109"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="103"/>
-      <c r="P8" s="103"/>
-      <c r="Q8" s="103"/>
-      <c r="R8" s="103"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
+      <c r="Q8" s="94"/>
+      <c r="R8" s="94"/>
     </row>
     <row r="9" spans="1:18" ht="27" customHeight="1">
       <c r="A9" s="28">
         <v>5</v>
       </c>
-      <c r="B9" s="109"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="103"/>
-      <c r="K9" s="103"/>
-      <c r="L9" s="103"/>
-      <c r="M9" s="103"/>
-      <c r="N9" s="103"/>
-      <c r="O9" s="103"/>
-      <c r="P9" s="103"/>
-      <c r="Q9" s="103"/>
-      <c r="R9" s="103"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="94"/>
     </row>
     <row r="10" spans="1:18" ht="27" customHeight="1">
       <c r="A10" s="28">
         <v>6</v>
       </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="103"/>
-      <c r="K10" s="103"/>
-      <c r="L10" s="103"/>
-      <c r="M10" s="103"/>
-      <c r="N10" s="103"/>
-      <c r="O10" s="103"/>
-      <c r="P10" s="103"/>
-      <c r="Q10" s="103"/>
-      <c r="R10" s="103"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="94"/>
     </row>
     <row r="11" spans="1:18" ht="27" customHeight="1">
       <c r="A11" s="28">
         <v>7</v>
       </c>
-      <c r="B11" s="109"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="103"/>
-      <c r="L11" s="103"/>
-      <c r="M11" s="103"/>
-      <c r="N11" s="103"/>
-      <c r="O11" s="103"/>
-      <c r="P11" s="103"/>
-      <c r="Q11" s="103"/>
-      <c r="R11" s="103"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="94"/>
+      <c r="R11" s="94"/>
     </row>
     <row r="12" spans="1:18" ht="27" customHeight="1">
       <c r="A12" s="28">
         <v>8</v>
       </c>
-      <c r="B12" s="109"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="103"/>
-      <c r="J12" s="103"/>
-      <c r="K12" s="103"/>
-      <c r="L12" s="103"/>
-      <c r="M12" s="103"/>
-      <c r="N12" s="103"/>
-      <c r="O12" s="103"/>
-      <c r="P12" s="103"/>
-      <c r="Q12" s="103"/>
-      <c r="R12" s="103"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="94"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="94"/>
     </row>
     <row r="13" spans="1:18" ht="27" customHeight="1">
       <c r="A13" s="28">
         <v>9</v>
       </c>
-      <c r="B13" s="109"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="103"/>
-      <c r="N13" s="103"/>
-      <c r="O13" s="103"/>
-      <c r="P13" s="103"/>
-      <c r="Q13" s="103"/>
-      <c r="R13" s="103"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="94"/>
     </row>
     <row r="14" spans="1:18" ht="27" customHeight="1">
       <c r="A14" s="28">
         <v>10</v>
       </c>
-      <c r="B14" s="109"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="103"/>
-      <c r="L14" s="103"/>
-      <c r="M14" s="103"/>
-      <c r="N14" s="103"/>
-      <c r="O14" s="103"/>
-      <c r="P14" s="103"/>
-      <c r="Q14" s="103"/>
-      <c r="R14" s="103"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="94"/>
+      <c r="P14" s="94"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="94"/>
     </row>
     <row r="15" spans="1:18" ht="27" customHeight="1">
       <c r="A15" s="28">
         <v>11</v>
       </c>
-      <c r="B15" s="109"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="103"/>
-      <c r="K15" s="103"/>
-      <c r="L15" s="103"/>
-      <c r="M15" s="103"/>
-      <c r="N15" s="103"/>
-      <c r="O15" s="103"/>
-      <c r="P15" s="103"/>
-      <c r="Q15" s="103"/>
-      <c r="R15" s="103"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="94"/>
+      <c r="O15" s="94"/>
+      <c r="P15" s="94"/>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="94"/>
     </row>
     <row r="16" spans="1:18" ht="27" customHeight="1">
       <c r="A16" s="28">
         <v>12</v>
       </c>
-      <c r="B16" s="109"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="103"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="103"/>
-      <c r="L16" s="103"/>
-      <c r="M16" s="103"/>
-      <c r="N16" s="103"/>
-      <c r="O16" s="103"/>
-      <c r="P16" s="103"/>
-      <c r="Q16" s="103"/>
-      <c r="R16" s="103"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="94"/>
     </row>
     <row r="17" spans="1:18" ht="27" customHeight="1">
       <c r="A17" s="28">
         <v>13</v>
       </c>
-      <c r="B17" s="109"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="103"/>
-      <c r="J17" s="103"/>
-      <c r="K17" s="103"/>
-      <c r="L17" s="103"/>
-      <c r="M17" s="103"/>
-      <c r="N17" s="103"/>
-      <c r="O17" s="103"/>
-      <c r="P17" s="103"/>
-      <c r="Q17" s="103"/>
-      <c r="R17" s="103"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="94"/>
+      <c r="P17" s="94"/>
+      <c r="Q17" s="94"/>
+      <c r="R17" s="94"/>
     </row>
     <row r="18" spans="1:18" ht="27" customHeight="1">
       <c r="A18" s="28">
         <v>14</v>
       </c>
-      <c r="B18" s="109"/>
-      <c r="C18" s="109"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="110"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="103"/>
-      <c r="L18" s="103"/>
-      <c r="M18" s="103"/>
-      <c r="N18" s="103"/>
-      <c r="O18" s="103"/>
-      <c r="P18" s="103"/>
-      <c r="Q18" s="103"/>
-      <c r="R18" s="103"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="94"/>
+      <c r="P18" s="94"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="94"/>
     </row>
     <row r="19" spans="1:18" ht="27" customHeight="1">
       <c r="A19" s="28">
         <v>15</v>
       </c>
-      <c r="B19" s="109"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="110"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="103"/>
-      <c r="L19" s="103"/>
-      <c r="M19" s="103"/>
-      <c r="N19" s="103"/>
-      <c r="O19" s="103"/>
-      <c r="P19" s="103"/>
-      <c r="Q19" s="103"/>
-      <c r="R19" s="103"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="94"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="94"/>
+      <c r="O19" s="94"/>
+      <c r="P19" s="94"/>
+      <c r="Q19" s="94"/>
+      <c r="R19" s="94"/>
     </row>
     <row r="20" spans="1:18" ht="27" customHeight="1">
       <c r="A20" s="28">
         <v>16</v>
       </c>
-      <c r="B20" s="109"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="110"/>
-      <c r="I20" s="103"/>
-      <c r="J20" s="103"/>
-      <c r="K20" s="103"/>
-      <c r="L20" s="103"/>
-      <c r="M20" s="103"/>
-      <c r="N20" s="103"/>
-      <c r="O20" s="103"/>
-      <c r="P20" s="103"/>
-      <c r="Q20" s="103"/>
-      <c r="R20" s="103"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="94"/>
     </row>
     <row r="21" spans="1:18" ht="27" customHeight="1">
       <c r="A21" s="28">
         <v>17</v>
       </c>
-      <c r="B21" s="109"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="110"/>
-      <c r="G21" s="110"/>
-      <c r="H21" s="110"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="103"/>
-      <c r="K21" s="103"/>
-      <c r="L21" s="103"/>
-      <c r="M21" s="103"/>
-      <c r="N21" s="103"/>
-      <c r="O21" s="103"/>
-      <c r="P21" s="103"/>
-      <c r="Q21" s="103"/>
-      <c r="R21" s="103"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
+      <c r="N21" s="94"/>
+      <c r="O21" s="94"/>
+      <c r="P21" s="94"/>
+      <c r="Q21" s="94"/>
+      <c r="R21" s="94"/>
     </row>
     <row r="22" spans="1:18" ht="27" customHeight="1">
       <c r="A22" s="28">
         <v>18</v>
       </c>
-      <c r="B22" s="109"/>
-      <c r="C22" s="109"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="110"/>
-      <c r="H22" s="110"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="103"/>
-      <c r="L22" s="103"/>
-      <c r="M22" s="103"/>
-      <c r="N22" s="103"/>
-      <c r="O22" s="103"/>
-      <c r="P22" s="103"/>
-      <c r="Q22" s="103"/>
-      <c r="R22" s="103"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="94"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="94"/>
     </row>
     <row r="23" spans="1:18" ht="27" customHeight="1"/>
     <row r="24" spans="1:18" ht="27" customHeight="1"/>
@@ -4794,14 +4949,62 @@
     <row r="29" spans="1:18" ht="27" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="I21:R21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:R22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="D1:O2"/>
+    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="I8:R8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:R6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="I11:R11"/>
+    <mergeCell ref="I12:R12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I9:R9"/>
+    <mergeCell ref="I10:R10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I15:R15"/>
+    <mergeCell ref="I16:R16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I13:R13"/>
+    <mergeCell ref="I14:R14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
     <mergeCell ref="I19:R19"/>
     <mergeCell ref="I20:R20"/>
     <mergeCell ref="B17:C17"/>
@@ -4818,62 +5021,14 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I15:R15"/>
-    <mergeCell ref="I16:R16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I13:R13"/>
-    <mergeCell ref="I14:R14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I11:R11"/>
-    <mergeCell ref="I12:R12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I9:R9"/>
-    <mergeCell ref="I10:R10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I8:R8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:R6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I5:R5"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="D1:O2"/>
-    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="I21:R21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:R22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -4899,213 +5054,213 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="30" customHeight="1">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="115" t="s">
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="115"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="115"/>
-      <c r="U1" s="116" t="str">
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="116"/>
+      <c r="T1" s="116"/>
+      <c r="U1" s="122" t="str">
         <f>表紙!C7</f>
         <v>施設使用料・償還金等料金計算及び納付書作成システム
 口座振替データ作成機能構築業務</v>
       </c>
-      <c r="V1" s="117"/>
-      <c r="W1" s="117"/>
-      <c r="X1" s="117"/>
-      <c r="Y1" s="117"/>
-      <c r="Z1" s="117"/>
-      <c r="AA1" s="117"/>
-      <c r="AB1" s="117"/>
-      <c r="AC1" s="117"/>
-      <c r="AD1" s="117"/>
-      <c r="AE1" s="117"/>
-      <c r="AF1" s="117"/>
-      <c r="AG1" s="117"/>
-      <c r="AH1" s="117"/>
-      <c r="AI1" s="118"/>
-      <c r="AJ1" s="119" t="s">
+      <c r="V1" s="123"/>
+      <c r="W1" s="123"/>
+      <c r="X1" s="123"/>
+      <c r="Y1" s="123"/>
+      <c r="Z1" s="123"/>
+      <c r="AA1" s="123"/>
+      <c r="AB1" s="123"/>
+      <c r="AC1" s="123"/>
+      <c r="AD1" s="123"/>
+      <c r="AE1" s="123"/>
+      <c r="AF1" s="123"/>
+      <c r="AG1" s="123"/>
+      <c r="AH1" s="123"/>
+      <c r="AI1" s="124"/>
+      <c r="AJ1" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="AK1" s="119"/>
-      <c r="AL1" s="119"/>
-      <c r="AM1" s="119"/>
-      <c r="AN1" s="119"/>
-      <c r="AO1" s="120" t="s">
+      <c r="AK1" s="120"/>
+      <c r="AL1" s="120"/>
+      <c r="AM1" s="120"/>
+      <c r="AN1" s="120"/>
+      <c r="AO1" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="AP1" s="120"/>
-      <c r="AQ1" s="120"/>
-      <c r="AR1" s="120"/>
-      <c r="AS1" s="120"/>
-      <c r="AT1" s="120"/>
-      <c r="AU1" s="120"/>
-      <c r="AV1" s="119" t="s">
+      <c r="AP1" s="115"/>
+      <c r="AQ1" s="115"/>
+      <c r="AR1" s="115"/>
+      <c r="AS1" s="115"/>
+      <c r="AT1" s="115"/>
+      <c r="AU1" s="115"/>
+      <c r="AV1" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="AW1" s="119"/>
-      <c r="AX1" s="119"/>
-      <c r="AY1" s="119"/>
-      <c r="AZ1" s="119"/>
-      <c r="BA1" s="120"/>
-      <c r="BB1" s="120"/>
-      <c r="BC1" s="120"/>
-      <c r="BD1" s="120"/>
-      <c r="BE1" s="120"/>
-      <c r="BF1" s="120"/>
+      <c r="AW1" s="120"/>
+      <c r="AX1" s="120"/>
+      <c r="AY1" s="120"/>
+      <c r="AZ1" s="120"/>
+      <c r="BA1" s="115"/>
+      <c r="BB1" s="115"/>
+      <c r="BC1" s="115"/>
+      <c r="BD1" s="115"/>
+      <c r="BE1" s="115"/>
+      <c r="BF1" s="115"/>
     </row>
     <row r="2" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="115" t="s">
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="115"/>
-      <c r="R2" s="115"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="115"/>
-      <c r="U2" s="121" t="str">
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="116"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="116"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="117" t="str">
         <f>表紙!H15</f>
         <v>口座データ</v>
       </c>
-      <c r="V2" s="122"/>
-      <c r="W2" s="122"/>
-      <c r="X2" s="122"/>
-      <c r="Y2" s="122"/>
-      <c r="Z2" s="122"/>
-      <c r="AA2" s="122"/>
-      <c r="AB2" s="122"/>
-      <c r="AC2" s="122"/>
-      <c r="AD2" s="122"/>
-      <c r="AE2" s="122"/>
-      <c r="AF2" s="122"/>
-      <c r="AG2" s="122"/>
-      <c r="AH2" s="122"/>
-      <c r="AI2" s="123"/>
-      <c r="AJ2" s="119" t="s">
+      <c r="V2" s="118"/>
+      <c r="W2" s="118"/>
+      <c r="X2" s="118"/>
+      <c r="Y2" s="118"/>
+      <c r="Z2" s="118"/>
+      <c r="AA2" s="118"/>
+      <c r="AB2" s="118"/>
+      <c r="AC2" s="118"/>
+      <c r="AD2" s="118"/>
+      <c r="AE2" s="118"/>
+      <c r="AF2" s="118"/>
+      <c r="AG2" s="118"/>
+      <c r="AH2" s="118"/>
+      <c r="AI2" s="119"/>
+      <c r="AJ2" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="119"/>
-      <c r="AL2" s="119"/>
-      <c r="AM2" s="119"/>
-      <c r="AN2" s="119"/>
-      <c r="AO2" s="124">
+      <c r="AK2" s="120"/>
+      <c r="AL2" s="120"/>
+      <c r="AM2" s="120"/>
+      <c r="AN2" s="120"/>
+      <c r="AO2" s="121">
         <v>45757</v>
       </c>
-      <c r="AP2" s="120"/>
-      <c r="AQ2" s="120"/>
-      <c r="AR2" s="120"/>
-      <c r="AS2" s="120"/>
-      <c r="AT2" s="120"/>
-      <c r="AU2" s="120"/>
-      <c r="AV2" s="119" t="s">
+      <c r="AP2" s="115"/>
+      <c r="AQ2" s="115"/>
+      <c r="AR2" s="115"/>
+      <c r="AS2" s="115"/>
+      <c r="AT2" s="115"/>
+      <c r="AU2" s="115"/>
+      <c r="AV2" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="AW2" s="119"/>
-      <c r="AX2" s="119"/>
-      <c r="AY2" s="119"/>
-      <c r="AZ2" s="119"/>
-      <c r="BA2" s="120"/>
-      <c r="BB2" s="120"/>
-      <c r="BC2" s="120"/>
-      <c r="BD2" s="120"/>
-      <c r="BE2" s="120"/>
-      <c r="BF2" s="120"/>
+      <c r="AW2" s="120"/>
+      <c r="AX2" s="120"/>
+      <c r="AY2" s="120"/>
+      <c r="AZ2" s="120"/>
+      <c r="BA2" s="115"/>
+      <c r="BB2" s="115"/>
+      <c r="BC2" s="115"/>
+      <c r="BD2" s="115"/>
+      <c r="BE2" s="115"/>
+      <c r="BF2" s="115"/>
     </row>
     <row r="3" spans="1:58" ht="15" customHeight="1">
-      <c r="A3" s="125" t="s">
+      <c r="A3" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="126"/>
-      <c r="M3" s="126"/>
-      <c r="N3" s="126"/>
-      <c r="O3" s="126"/>
-      <c r="P3" s="126"/>
-      <c r="Q3" s="126"/>
-      <c r="R3" s="126"/>
-      <c r="S3" s="126"/>
-      <c r="T3" s="126"/>
-      <c r="U3" s="126"/>
-      <c r="V3" s="126"/>
-      <c r="W3" s="126"/>
-      <c r="X3" s="126"/>
-      <c r="Y3" s="126"/>
-      <c r="Z3" s="126"/>
-      <c r="AA3" s="126"/>
-      <c r="AB3" s="126"/>
-      <c r="AC3" s="126"/>
-      <c r="AD3" s="126"/>
-      <c r="AE3" s="126"/>
-      <c r="AF3" s="126"/>
-      <c r="AG3" s="126"/>
-      <c r="AH3" s="126"/>
-      <c r="AI3" s="126"/>
-      <c r="AJ3" s="126"/>
-      <c r="AK3" s="126"/>
-      <c r="AL3" s="126"/>
-      <c r="AM3" s="126"/>
-      <c r="AN3" s="127"/>
-      <c r="AO3" s="125" t="s">
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="113"/>
+      <c r="M3" s="113"/>
+      <c r="N3" s="113"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="113"/>
+      <c r="Q3" s="113"/>
+      <c r="R3" s="113"/>
+      <c r="S3" s="113"/>
+      <c r="T3" s="113"/>
+      <c r="U3" s="113"/>
+      <c r="V3" s="113"/>
+      <c r="W3" s="113"/>
+      <c r="X3" s="113"/>
+      <c r="Y3" s="113"/>
+      <c r="Z3" s="113"/>
+      <c r="AA3" s="113"/>
+      <c r="AB3" s="113"/>
+      <c r="AC3" s="113"/>
+      <c r="AD3" s="113"/>
+      <c r="AE3" s="113"/>
+      <c r="AF3" s="113"/>
+      <c r="AG3" s="113"/>
+      <c r="AH3" s="113"/>
+      <c r="AI3" s="113"/>
+      <c r="AJ3" s="113"/>
+      <c r="AK3" s="113"/>
+      <c r="AL3" s="113"/>
+      <c r="AM3" s="113"/>
+      <c r="AN3" s="114"/>
+      <c r="AO3" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="AP3" s="126"/>
-      <c r="AQ3" s="126"/>
-      <c r="AR3" s="126"/>
-      <c r="AS3" s="126"/>
-      <c r="AT3" s="126"/>
-      <c r="AU3" s="126"/>
-      <c r="AV3" s="126"/>
-      <c r="AW3" s="126"/>
-      <c r="AX3" s="126"/>
-      <c r="AY3" s="126"/>
-      <c r="AZ3" s="126"/>
-      <c r="BA3" s="126"/>
-      <c r="BB3" s="126"/>
-      <c r="BC3" s="126"/>
-      <c r="BD3" s="126"/>
-      <c r="BE3" s="126"/>
-      <c r="BF3" s="127"/>
+      <c r="AP3" s="113"/>
+      <c r="AQ3" s="113"/>
+      <c r="AR3" s="113"/>
+      <c r="AS3" s="113"/>
+      <c r="AT3" s="113"/>
+      <c r="AU3" s="113"/>
+      <c r="AV3" s="113"/>
+      <c r="AW3" s="113"/>
+      <c r="AX3" s="113"/>
+      <c r="AY3" s="113"/>
+      <c r="AZ3" s="113"/>
+      <c r="BA3" s="113"/>
+      <c r="BB3" s="113"/>
+      <c r="BC3" s="113"/>
+      <c r="BD3" s="113"/>
+      <c r="BE3" s="113"/>
+      <c r="BF3" s="114"/>
     </row>
     <row r="4" spans="1:58">
       <c r="A4" s="2"/>
@@ -5116,428 +5271,428 @@
     <row r="5" spans="1:58" ht="11.25" customHeight="1">
       <c r="A5" s="2"/>
       <c r="AN5" s="3"/>
-      <c r="AO5" s="112" t="s">
+      <c r="AO5" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="AP5" s="103"/>
-      <c r="AQ5" s="103"/>
-      <c r="AR5" s="103"/>
-      <c r="AS5" s="103"/>
-      <c r="AT5" s="103"/>
-      <c r="AU5" s="113" t="s">
+      <c r="AP5" s="94"/>
+      <c r="AQ5" s="94"/>
+      <c r="AR5" s="94"/>
+      <c r="AS5" s="94"/>
+      <c r="AT5" s="94"/>
+      <c r="AU5" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="AV5" s="113"/>
-      <c r="AW5" s="113"/>
-      <c r="AX5" s="113"/>
-      <c r="AY5" s="113"/>
-      <c r="AZ5" s="113"/>
-      <c r="BA5" s="113"/>
-      <c r="BB5" s="113"/>
-      <c r="BC5" s="113"/>
-      <c r="BD5" s="113"/>
-      <c r="BE5" s="113"/>
-      <c r="BF5" s="114"/>
+      <c r="AV5" s="106"/>
+      <c r="AW5" s="106"/>
+      <c r="AX5" s="106"/>
+      <c r="AY5" s="106"/>
+      <c r="AZ5" s="106"/>
+      <c r="BA5" s="106"/>
+      <c r="BB5" s="106"/>
+      <c r="BC5" s="106"/>
+      <c r="BD5" s="106"/>
+      <c r="BE5" s="106"/>
+      <c r="BF5" s="107"/>
     </row>
     <row r="6" spans="1:58">
       <c r="A6" s="2"/>
       <c r="AN6" s="3"/>
-      <c r="AO6" s="112"/>
-      <c r="AP6" s="103"/>
-      <c r="AQ6" s="103"/>
-      <c r="AR6" s="103"/>
-      <c r="AS6" s="103"/>
-      <c r="AT6" s="103"/>
-      <c r="AU6" s="113"/>
-      <c r="AV6" s="113"/>
-      <c r="AW6" s="113"/>
-      <c r="AX6" s="113"/>
-      <c r="AY6" s="113"/>
-      <c r="AZ6" s="113"/>
-      <c r="BA6" s="113"/>
-      <c r="BB6" s="113"/>
-      <c r="BC6" s="113"/>
-      <c r="BD6" s="113"/>
-      <c r="BE6" s="113"/>
-      <c r="BF6" s="114"/>
+      <c r="AO6" s="105"/>
+      <c r="AP6" s="94"/>
+      <c r="AQ6" s="94"/>
+      <c r="AR6" s="94"/>
+      <c r="AS6" s="94"/>
+      <c r="AT6" s="94"/>
+      <c r="AU6" s="106"/>
+      <c r="AV6" s="106"/>
+      <c r="AW6" s="106"/>
+      <c r="AX6" s="106"/>
+      <c r="AY6" s="106"/>
+      <c r="AZ6" s="106"/>
+      <c r="BA6" s="106"/>
+      <c r="BB6" s="106"/>
+      <c r="BC6" s="106"/>
+      <c r="BD6" s="106"/>
+      <c r="BE6" s="106"/>
+      <c r="BF6" s="107"/>
     </row>
     <row r="7" spans="1:58" ht="11.25" customHeight="1">
       <c r="A7" s="2"/>
       <c r="AN7" s="3"/>
-      <c r="AO7" s="112" t="s">
+      <c r="AO7" s="105" t="s">
         <v>56</v>
       </c>
-      <c r="AP7" s="103"/>
-      <c r="AQ7" s="103"/>
-      <c r="AR7" s="103"/>
-      <c r="AS7" s="103"/>
-      <c r="AT7" s="103"/>
-      <c r="AU7" s="113" t="s">
+      <c r="AP7" s="94"/>
+      <c r="AQ7" s="94"/>
+      <c r="AR7" s="94"/>
+      <c r="AS7" s="94"/>
+      <c r="AT7" s="94"/>
+      <c r="AU7" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="AV7" s="113"/>
-      <c r="AW7" s="113"/>
-      <c r="AX7" s="113"/>
-      <c r="AY7" s="113"/>
-      <c r="AZ7" s="113"/>
-      <c r="BA7" s="113"/>
-      <c r="BB7" s="113"/>
-      <c r="BC7" s="113"/>
-      <c r="BD7" s="113"/>
-      <c r="BE7" s="113"/>
-      <c r="BF7" s="114"/>
+      <c r="AV7" s="106"/>
+      <c r="AW7" s="106"/>
+      <c r="AX7" s="106"/>
+      <c r="AY7" s="106"/>
+      <c r="AZ7" s="106"/>
+      <c r="BA7" s="106"/>
+      <c r="BB7" s="106"/>
+      <c r="BC7" s="106"/>
+      <c r="BD7" s="106"/>
+      <c r="BE7" s="106"/>
+      <c r="BF7" s="107"/>
     </row>
     <row r="8" spans="1:58">
       <c r="A8" s="2"/>
       <c r="AN8" s="3"/>
-      <c r="AO8" s="112"/>
-      <c r="AP8" s="103"/>
-      <c r="AQ8" s="103"/>
-      <c r="AR8" s="103"/>
-      <c r="AS8" s="103"/>
-      <c r="AT8" s="103"/>
-      <c r="AU8" s="113"/>
-      <c r="AV8" s="113"/>
-      <c r="AW8" s="113"/>
-      <c r="AX8" s="113"/>
-      <c r="AY8" s="113"/>
-      <c r="AZ8" s="113"/>
-      <c r="BA8" s="113"/>
-      <c r="BB8" s="113"/>
-      <c r="BC8" s="113"/>
-      <c r="BD8" s="113"/>
-      <c r="BE8" s="113"/>
-      <c r="BF8" s="114"/>
+      <c r="AO8" s="105"/>
+      <c r="AP8" s="94"/>
+      <c r="AQ8" s="94"/>
+      <c r="AR8" s="94"/>
+      <c r="AS8" s="94"/>
+      <c r="AT8" s="94"/>
+      <c r="AU8" s="106"/>
+      <c r="AV8" s="106"/>
+      <c r="AW8" s="106"/>
+      <c r="AX8" s="106"/>
+      <c r="AY8" s="106"/>
+      <c r="AZ8" s="106"/>
+      <c r="BA8" s="106"/>
+      <c r="BB8" s="106"/>
+      <c r="BC8" s="106"/>
+      <c r="BD8" s="106"/>
+      <c r="BE8" s="106"/>
+      <c r="BF8" s="107"/>
     </row>
     <row r="9" spans="1:58" ht="11.25" customHeight="1">
       <c r="A9" s="2"/>
       <c r="AN9" s="3"/>
-      <c r="AO9" s="112" t="s">
+      <c r="AO9" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="AP9" s="103"/>
-      <c r="AQ9" s="103"/>
-      <c r="AR9" s="103"/>
-      <c r="AS9" s="103"/>
-      <c r="AT9" s="103"/>
-      <c r="AU9" s="113" t="s">
+      <c r="AP9" s="94"/>
+      <c r="AQ9" s="94"/>
+      <c r="AR9" s="94"/>
+      <c r="AS9" s="94"/>
+      <c r="AT9" s="94"/>
+      <c r="AU9" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="AV9" s="113"/>
-      <c r="AW9" s="113"/>
-      <c r="AX9" s="113"/>
-      <c r="AY9" s="113"/>
-      <c r="AZ9" s="113"/>
-      <c r="BA9" s="113"/>
-      <c r="BB9" s="113"/>
-      <c r="BC9" s="113"/>
-      <c r="BD9" s="113"/>
-      <c r="BE9" s="113"/>
-      <c r="BF9" s="114"/>
+      <c r="AV9" s="106"/>
+      <c r="AW9" s="106"/>
+      <c r="AX9" s="106"/>
+      <c r="AY9" s="106"/>
+      <c r="AZ9" s="106"/>
+      <c r="BA9" s="106"/>
+      <c r="BB9" s="106"/>
+      <c r="BC9" s="106"/>
+      <c r="BD9" s="106"/>
+      <c r="BE9" s="106"/>
+      <c r="BF9" s="107"/>
     </row>
     <row r="10" spans="1:58">
       <c r="A10" s="2"/>
       <c r="AN10" s="3"/>
-      <c r="AO10" s="112"/>
-      <c r="AP10" s="103"/>
-      <c r="AQ10" s="103"/>
-      <c r="AR10" s="103"/>
-      <c r="AS10" s="103"/>
-      <c r="AT10" s="103"/>
-      <c r="AU10" s="113"/>
-      <c r="AV10" s="113"/>
-      <c r="AW10" s="113"/>
-      <c r="AX10" s="113"/>
-      <c r="AY10" s="113"/>
-      <c r="AZ10" s="113"/>
-      <c r="BA10" s="113"/>
-      <c r="BB10" s="113"/>
-      <c r="BC10" s="113"/>
-      <c r="BD10" s="113"/>
-      <c r="BE10" s="113"/>
-      <c r="BF10" s="114"/>
+      <c r="AO10" s="105"/>
+      <c r="AP10" s="94"/>
+      <c r="AQ10" s="94"/>
+      <c r="AR10" s="94"/>
+      <c r="AS10" s="94"/>
+      <c r="AT10" s="94"/>
+      <c r="AU10" s="106"/>
+      <c r="AV10" s="106"/>
+      <c r="AW10" s="106"/>
+      <c r="AX10" s="106"/>
+      <c r="AY10" s="106"/>
+      <c r="AZ10" s="106"/>
+      <c r="BA10" s="106"/>
+      <c r="BB10" s="106"/>
+      <c r="BC10" s="106"/>
+      <c r="BD10" s="106"/>
+      <c r="BE10" s="106"/>
+      <c r="BF10" s="107"/>
     </row>
     <row r="11" spans="1:58" ht="16.5" customHeight="1">
       <c r="A11" s="2"/>
       <c r="AN11" s="3"/>
-      <c r="AO11" s="128" t="s">
+      <c r="AO11" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="AP11" s="129"/>
-      <c r="AQ11" s="129"/>
-      <c r="AR11" s="129"/>
-      <c r="AS11" s="129"/>
-      <c r="AT11" s="129"/>
-      <c r="AU11" s="113" t="s">
+      <c r="AP11" s="109"/>
+      <c r="AQ11" s="109"/>
+      <c r="AR11" s="109"/>
+      <c r="AS11" s="109"/>
+      <c r="AT11" s="109"/>
+      <c r="AU11" s="106" t="s">
         <v>76</v>
       </c>
-      <c r="AV11" s="113"/>
-      <c r="AW11" s="113"/>
-      <c r="AX11" s="113"/>
-      <c r="AY11" s="113"/>
-      <c r="AZ11" s="113"/>
-      <c r="BA11" s="113"/>
-      <c r="BB11" s="113"/>
-      <c r="BC11" s="113"/>
-      <c r="BD11" s="113"/>
-      <c r="BE11" s="113"/>
-      <c r="BF11" s="114"/>
+      <c r="AV11" s="106"/>
+      <c r="AW11" s="106"/>
+      <c r="AX11" s="106"/>
+      <c r="AY11" s="106"/>
+      <c r="AZ11" s="106"/>
+      <c r="BA11" s="106"/>
+      <c r="BB11" s="106"/>
+      <c r="BC11" s="106"/>
+      <c r="BD11" s="106"/>
+      <c r="BE11" s="106"/>
+      <c r="BF11" s="107"/>
     </row>
     <row r="12" spans="1:58">
       <c r="A12" s="2"/>
       <c r="AN12" s="3"/>
-      <c r="AO12" s="130"/>
-      <c r="AP12" s="131"/>
-      <c r="AQ12" s="131"/>
-      <c r="AR12" s="131"/>
-      <c r="AS12" s="131"/>
-      <c r="AT12" s="131"/>
-      <c r="AU12" s="113"/>
-      <c r="AV12" s="113"/>
-      <c r="AW12" s="113"/>
-      <c r="AX12" s="113"/>
-      <c r="AY12" s="113"/>
-      <c r="AZ12" s="113"/>
-      <c r="BA12" s="113"/>
-      <c r="BB12" s="113"/>
-      <c r="BC12" s="113"/>
-      <c r="BD12" s="113"/>
-      <c r="BE12" s="113"/>
-      <c r="BF12" s="114"/>
+      <c r="AO12" s="110"/>
+      <c r="AP12" s="111"/>
+      <c r="AQ12" s="111"/>
+      <c r="AR12" s="111"/>
+      <c r="AS12" s="111"/>
+      <c r="AT12" s="111"/>
+      <c r="AU12" s="106"/>
+      <c r="AV12" s="106"/>
+      <c r="AW12" s="106"/>
+      <c r="AX12" s="106"/>
+      <c r="AY12" s="106"/>
+      <c r="AZ12" s="106"/>
+      <c r="BA12" s="106"/>
+      <c r="BB12" s="106"/>
+      <c r="BC12" s="106"/>
+      <c r="BD12" s="106"/>
+      <c r="BE12" s="106"/>
+      <c r="BF12" s="107"/>
     </row>
     <row r="13" spans="1:58">
       <c r="A13" s="2"/>
       <c r="AN13" s="3"/>
-      <c r="AO13" s="112" t="s">
+      <c r="AO13" s="105" t="s">
         <v>59</v>
       </c>
-      <c r="AP13" s="103"/>
-      <c r="AQ13" s="103"/>
-      <c r="AR13" s="103"/>
-      <c r="AS13" s="103"/>
-      <c r="AT13" s="103"/>
-      <c r="AU13" s="113"/>
-      <c r="AV13" s="113"/>
-      <c r="AW13" s="113"/>
-      <c r="AX13" s="113"/>
-      <c r="AY13" s="113"/>
-      <c r="AZ13" s="113"/>
-      <c r="BA13" s="113"/>
-      <c r="BB13" s="113"/>
-      <c r="BC13" s="113"/>
-      <c r="BD13" s="113"/>
-      <c r="BE13" s="113"/>
-      <c r="BF13" s="114"/>
+      <c r="AP13" s="94"/>
+      <c r="AQ13" s="94"/>
+      <c r="AR13" s="94"/>
+      <c r="AS13" s="94"/>
+      <c r="AT13" s="94"/>
+      <c r="AU13" s="106"/>
+      <c r="AV13" s="106"/>
+      <c r="AW13" s="106"/>
+      <c r="AX13" s="106"/>
+      <c r="AY13" s="106"/>
+      <c r="AZ13" s="106"/>
+      <c r="BA13" s="106"/>
+      <c r="BB13" s="106"/>
+      <c r="BC13" s="106"/>
+      <c r="BD13" s="106"/>
+      <c r="BE13" s="106"/>
+      <c r="BF13" s="107"/>
     </row>
     <row r="14" spans="1:58">
       <c r="A14" s="2"/>
       <c r="AN14" s="3"/>
-      <c r="AO14" s="112"/>
-      <c r="AP14" s="103"/>
-      <c r="AQ14" s="103"/>
-      <c r="AR14" s="103"/>
-      <c r="AS14" s="103"/>
-      <c r="AT14" s="103"/>
-      <c r="AU14" s="113"/>
-      <c r="AV14" s="113"/>
-      <c r="AW14" s="113"/>
-      <c r="AX14" s="113"/>
-      <c r="AY14" s="113"/>
-      <c r="AZ14" s="113"/>
-      <c r="BA14" s="113"/>
-      <c r="BB14" s="113"/>
-      <c r="BC14" s="113"/>
-      <c r="BD14" s="113"/>
-      <c r="BE14" s="113"/>
-      <c r="BF14" s="114"/>
+      <c r="AO14" s="105"/>
+      <c r="AP14" s="94"/>
+      <c r="AQ14" s="94"/>
+      <c r="AR14" s="94"/>
+      <c r="AS14" s="94"/>
+      <c r="AT14" s="94"/>
+      <c r="AU14" s="106"/>
+      <c r="AV14" s="106"/>
+      <c r="AW14" s="106"/>
+      <c r="AX14" s="106"/>
+      <c r="AY14" s="106"/>
+      <c r="AZ14" s="106"/>
+      <c r="BA14" s="106"/>
+      <c r="BB14" s="106"/>
+      <c r="BC14" s="106"/>
+      <c r="BD14" s="106"/>
+      <c r="BE14" s="106"/>
+      <c r="BF14" s="107"/>
     </row>
     <row r="15" spans="1:58">
       <c r="A15" s="2"/>
       <c r="AN15" s="3"/>
-      <c r="AO15" s="112" t="s">
+      <c r="AO15" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="AP15" s="103"/>
-      <c r="AQ15" s="103"/>
-      <c r="AR15" s="103"/>
-      <c r="AS15" s="103"/>
-      <c r="AT15" s="103"/>
-      <c r="AU15" s="113" t="s">
+      <c r="AP15" s="94"/>
+      <c r="AQ15" s="94"/>
+      <c r="AR15" s="94"/>
+      <c r="AS15" s="94"/>
+      <c r="AT15" s="94"/>
+      <c r="AU15" s="106" t="s">
         <v>77</v>
       </c>
-      <c r="AV15" s="113"/>
-      <c r="AW15" s="113"/>
-      <c r="AX15" s="113"/>
-      <c r="AY15" s="113"/>
-      <c r="AZ15" s="113"/>
-      <c r="BA15" s="113"/>
-      <c r="BB15" s="113"/>
-      <c r="BC15" s="113"/>
-      <c r="BD15" s="113"/>
-      <c r="BE15" s="113"/>
-      <c r="BF15" s="114"/>
+      <c r="AV15" s="106"/>
+      <c r="AW15" s="106"/>
+      <c r="AX15" s="106"/>
+      <c r="AY15" s="106"/>
+      <c r="AZ15" s="106"/>
+      <c r="BA15" s="106"/>
+      <c r="BB15" s="106"/>
+      <c r="BC15" s="106"/>
+      <c r="BD15" s="106"/>
+      <c r="BE15" s="106"/>
+      <c r="BF15" s="107"/>
     </row>
     <row r="16" spans="1:58">
       <c r="A16" s="2"/>
       <c r="AN16" s="3"/>
-      <c r="AO16" s="112"/>
-      <c r="AP16" s="103"/>
-      <c r="AQ16" s="103"/>
-      <c r="AR16" s="103"/>
-      <c r="AS16" s="103"/>
-      <c r="AT16" s="103"/>
-      <c r="AU16" s="113"/>
-      <c r="AV16" s="113"/>
-      <c r="AW16" s="113"/>
-      <c r="AX16" s="113"/>
-      <c r="AY16" s="113"/>
-      <c r="AZ16" s="113"/>
-      <c r="BA16" s="113"/>
-      <c r="BB16" s="113"/>
-      <c r="BC16" s="113"/>
-      <c r="BD16" s="113"/>
-      <c r="BE16" s="113"/>
-      <c r="BF16" s="114"/>
+      <c r="AO16" s="105"/>
+      <c r="AP16" s="94"/>
+      <c r="AQ16" s="94"/>
+      <c r="AR16" s="94"/>
+      <c r="AS16" s="94"/>
+      <c r="AT16" s="94"/>
+      <c r="AU16" s="106"/>
+      <c r="AV16" s="106"/>
+      <c r="AW16" s="106"/>
+      <c r="AX16" s="106"/>
+      <c r="AY16" s="106"/>
+      <c r="AZ16" s="106"/>
+      <c r="BA16" s="106"/>
+      <c r="BB16" s="106"/>
+      <c r="BC16" s="106"/>
+      <c r="BD16" s="106"/>
+      <c r="BE16" s="106"/>
+      <c r="BF16" s="107"/>
     </row>
     <row r="17" spans="1:58">
       <c r="A17" s="2"/>
       <c r="AN17" s="3"/>
-      <c r="AO17" s="112" t="s">
+      <c r="AO17" s="105" t="s">
         <v>60</v>
       </c>
-      <c r="AP17" s="103"/>
-      <c r="AQ17" s="103"/>
-      <c r="AR17" s="103"/>
-      <c r="AS17" s="103"/>
-      <c r="AT17" s="103"/>
-      <c r="AU17" s="113" t="s">
+      <c r="AP17" s="94"/>
+      <c r="AQ17" s="94"/>
+      <c r="AR17" s="94"/>
+      <c r="AS17" s="94"/>
+      <c r="AT17" s="94"/>
+      <c r="AU17" s="106" t="s">
         <v>78</v>
       </c>
-      <c r="AV17" s="113"/>
-      <c r="AW17" s="113"/>
-      <c r="AX17" s="113"/>
-      <c r="AY17" s="113"/>
-      <c r="AZ17" s="113"/>
-      <c r="BA17" s="113"/>
-      <c r="BB17" s="113"/>
-      <c r="BC17" s="113"/>
-      <c r="BD17" s="113"/>
-      <c r="BE17" s="113"/>
-      <c r="BF17" s="114"/>
+      <c r="AV17" s="106"/>
+      <c r="AW17" s="106"/>
+      <c r="AX17" s="106"/>
+      <c r="AY17" s="106"/>
+      <c r="AZ17" s="106"/>
+      <c r="BA17" s="106"/>
+      <c r="BB17" s="106"/>
+      <c r="BC17" s="106"/>
+      <c r="BD17" s="106"/>
+      <c r="BE17" s="106"/>
+      <c r="BF17" s="107"/>
     </row>
     <row r="18" spans="1:58">
       <c r="A18" s="2"/>
       <c r="AN18" s="3"/>
-      <c r="AO18" s="112"/>
-      <c r="AP18" s="103"/>
-      <c r="AQ18" s="103"/>
-      <c r="AR18" s="103"/>
-      <c r="AS18" s="103"/>
-      <c r="AT18" s="103"/>
-      <c r="AU18" s="113"/>
-      <c r="AV18" s="113"/>
-      <c r="AW18" s="113"/>
-      <c r="AX18" s="113"/>
-      <c r="AY18" s="113"/>
-      <c r="AZ18" s="113"/>
-      <c r="BA18" s="113"/>
-      <c r="BB18" s="113"/>
-      <c r="BC18" s="113"/>
-      <c r="BD18" s="113"/>
-      <c r="BE18" s="113"/>
-      <c r="BF18" s="114"/>
+      <c r="AO18" s="105"/>
+      <c r="AP18" s="94"/>
+      <c r="AQ18" s="94"/>
+      <c r="AR18" s="94"/>
+      <c r="AS18" s="94"/>
+      <c r="AT18" s="94"/>
+      <c r="AU18" s="106"/>
+      <c r="AV18" s="106"/>
+      <c r="AW18" s="106"/>
+      <c r="AX18" s="106"/>
+      <c r="AY18" s="106"/>
+      <c r="AZ18" s="106"/>
+      <c r="BA18" s="106"/>
+      <c r="BB18" s="106"/>
+      <c r="BC18" s="106"/>
+      <c r="BD18" s="106"/>
+      <c r="BE18" s="106"/>
+      <c r="BF18" s="107"/>
     </row>
     <row r="19" spans="1:58" ht="11.25" customHeight="1">
       <c r="A19" s="2"/>
       <c r="AN19" s="3"/>
-      <c r="AO19" s="112" t="s">
+      <c r="AO19" s="105" t="s">
         <v>246</v>
       </c>
-      <c r="AP19" s="103"/>
-      <c r="AQ19" s="103"/>
-      <c r="AR19" s="103"/>
-      <c r="AS19" s="103"/>
-      <c r="AT19" s="103"/>
-      <c r="AU19" s="113" t="s">
+      <c r="AP19" s="94"/>
+      <c r="AQ19" s="94"/>
+      <c r="AR19" s="94"/>
+      <c r="AS19" s="94"/>
+      <c r="AT19" s="94"/>
+      <c r="AU19" s="106" t="s">
         <v>247</v>
       </c>
-      <c r="AV19" s="113"/>
-      <c r="AW19" s="113"/>
-      <c r="AX19" s="113"/>
-      <c r="AY19" s="113"/>
-      <c r="AZ19" s="113"/>
-      <c r="BA19" s="113"/>
-      <c r="BB19" s="113"/>
-      <c r="BC19" s="113"/>
-      <c r="BD19" s="113"/>
-      <c r="BE19" s="113"/>
-      <c r="BF19" s="114"/>
+      <c r="AV19" s="106"/>
+      <c r="AW19" s="106"/>
+      <c r="AX19" s="106"/>
+      <c r="AY19" s="106"/>
+      <c r="AZ19" s="106"/>
+      <c r="BA19" s="106"/>
+      <c r="BB19" s="106"/>
+      <c r="BC19" s="106"/>
+      <c r="BD19" s="106"/>
+      <c r="BE19" s="106"/>
+      <c r="BF19" s="107"/>
     </row>
     <row r="20" spans="1:58">
       <c r="A20" s="2"/>
       <c r="AN20" s="3"/>
-      <c r="AO20" s="112"/>
-      <c r="AP20" s="103"/>
-      <c r="AQ20" s="103"/>
-      <c r="AR20" s="103"/>
-      <c r="AS20" s="103"/>
-      <c r="AT20" s="103"/>
-      <c r="AU20" s="113"/>
-      <c r="AV20" s="113"/>
-      <c r="AW20" s="113"/>
-      <c r="AX20" s="113"/>
-      <c r="AY20" s="113"/>
-      <c r="AZ20" s="113"/>
-      <c r="BA20" s="113"/>
-      <c r="BB20" s="113"/>
-      <c r="BC20" s="113"/>
-      <c r="BD20" s="113"/>
-      <c r="BE20" s="113"/>
-      <c r="BF20" s="114"/>
+      <c r="AO20" s="105"/>
+      <c r="AP20" s="94"/>
+      <c r="AQ20" s="94"/>
+      <c r="AR20" s="94"/>
+      <c r="AS20" s="94"/>
+      <c r="AT20" s="94"/>
+      <c r="AU20" s="106"/>
+      <c r="AV20" s="106"/>
+      <c r="AW20" s="106"/>
+      <c r="AX20" s="106"/>
+      <c r="AY20" s="106"/>
+      <c r="AZ20" s="106"/>
+      <c r="BA20" s="106"/>
+      <c r="BB20" s="106"/>
+      <c r="BC20" s="106"/>
+      <c r="BD20" s="106"/>
+      <c r="BE20" s="106"/>
+      <c r="BF20" s="107"/>
     </row>
     <row r="21" spans="1:58">
       <c r="A21" s="2"/>
       <c r="AN21" s="3"/>
-      <c r="AO21" s="112"/>
-      <c r="AP21" s="103"/>
-      <c r="AQ21" s="103"/>
-      <c r="AR21" s="103"/>
-      <c r="AS21" s="103"/>
-      <c r="AT21" s="103"/>
-      <c r="AU21" s="113"/>
-      <c r="AV21" s="113"/>
-      <c r="AW21" s="113"/>
-      <c r="AX21" s="113"/>
-      <c r="AY21" s="113"/>
-      <c r="AZ21" s="113"/>
-      <c r="BA21" s="113"/>
-      <c r="BB21" s="113"/>
-      <c r="BC21" s="113"/>
-      <c r="BD21" s="113"/>
-      <c r="BE21" s="113"/>
-      <c r="BF21" s="114"/>
+      <c r="AO21" s="105"/>
+      <c r="AP21" s="94"/>
+      <c r="AQ21" s="94"/>
+      <c r="AR21" s="94"/>
+      <c r="AS21" s="94"/>
+      <c r="AT21" s="94"/>
+      <c r="AU21" s="106"/>
+      <c r="AV21" s="106"/>
+      <c r="AW21" s="106"/>
+      <c r="AX21" s="106"/>
+      <c r="AY21" s="106"/>
+      <c r="AZ21" s="106"/>
+      <c r="BA21" s="106"/>
+      <c r="BB21" s="106"/>
+      <c r="BC21" s="106"/>
+      <c r="BD21" s="106"/>
+      <c r="BE21" s="106"/>
+      <c r="BF21" s="107"/>
     </row>
     <row r="22" spans="1:58">
       <c r="A22" s="2"/>
       <c r="AN22" s="3"/>
-      <c r="AO22" s="112"/>
-      <c r="AP22" s="103"/>
-      <c r="AQ22" s="103"/>
-      <c r="AR22" s="103"/>
-      <c r="AS22" s="103"/>
-      <c r="AT22" s="103"/>
-      <c r="AU22" s="113"/>
-      <c r="AV22" s="113"/>
-      <c r="AW22" s="113"/>
-      <c r="AX22" s="113"/>
-      <c r="AY22" s="113"/>
-      <c r="AZ22" s="113"/>
-      <c r="BA22" s="113"/>
-      <c r="BB22" s="113"/>
-      <c r="BC22" s="113"/>
-      <c r="BD22" s="113"/>
-      <c r="BE22" s="113"/>
-      <c r="BF22" s="114"/>
+      <c r="AO22" s="105"/>
+      <c r="AP22" s="94"/>
+      <c r="AQ22" s="94"/>
+      <c r="AR22" s="94"/>
+      <c r="AS22" s="94"/>
+      <c r="AT22" s="94"/>
+      <c r="AU22" s="106"/>
+      <c r="AV22" s="106"/>
+      <c r="AW22" s="106"/>
+      <c r="AX22" s="106"/>
+      <c r="AY22" s="106"/>
+      <c r="AZ22" s="106"/>
+      <c r="BA22" s="106"/>
+      <c r="BB22" s="106"/>
+      <c r="BC22" s="106"/>
+      <c r="BD22" s="106"/>
+      <c r="BE22" s="106"/>
+      <c r="BF22" s="107"/>
     </row>
     <row r="23" spans="1:58">
       <c r="A23" s="2"/>
@@ -5548,354 +5703,354 @@
     <row r="24" spans="1:58">
       <c r="A24" s="2"/>
       <c r="AN24" s="3"/>
-      <c r="AO24" s="112"/>
-      <c r="AP24" s="103"/>
-      <c r="AQ24" s="103"/>
-      <c r="AR24" s="103"/>
-      <c r="AS24" s="103"/>
-      <c r="AT24" s="103"/>
-      <c r="AU24" s="113"/>
-      <c r="AV24" s="113"/>
-      <c r="AW24" s="113"/>
-      <c r="AX24" s="113"/>
-      <c r="AY24" s="113"/>
-      <c r="AZ24" s="113"/>
-      <c r="BA24" s="113"/>
-      <c r="BB24" s="113"/>
-      <c r="BC24" s="113"/>
-      <c r="BD24" s="113"/>
-      <c r="BE24" s="113"/>
-      <c r="BF24" s="114"/>
+      <c r="AO24" s="105"/>
+      <c r="AP24" s="94"/>
+      <c r="AQ24" s="94"/>
+      <c r="AR24" s="94"/>
+      <c r="AS24" s="94"/>
+      <c r="AT24" s="94"/>
+      <c r="AU24" s="106"/>
+      <c r="AV24" s="106"/>
+      <c r="AW24" s="106"/>
+      <c r="AX24" s="106"/>
+      <c r="AY24" s="106"/>
+      <c r="AZ24" s="106"/>
+      <c r="BA24" s="106"/>
+      <c r="BB24" s="106"/>
+      <c r="BC24" s="106"/>
+      <c r="BD24" s="106"/>
+      <c r="BE24" s="106"/>
+      <c r="BF24" s="107"/>
     </row>
     <row r="25" spans="1:58">
       <c r="A25" s="2"/>
       <c r="AN25" s="3"/>
-      <c r="AO25" s="112"/>
-      <c r="AP25" s="103"/>
-      <c r="AQ25" s="103"/>
-      <c r="AR25" s="103"/>
-      <c r="AS25" s="103"/>
-      <c r="AT25" s="103"/>
-      <c r="AU25" s="113"/>
-      <c r="AV25" s="113"/>
-      <c r="AW25" s="113"/>
-      <c r="AX25" s="113"/>
-      <c r="AY25" s="113"/>
-      <c r="AZ25" s="113"/>
-      <c r="BA25" s="113"/>
-      <c r="BB25" s="113"/>
-      <c r="BC25" s="113"/>
-      <c r="BD25" s="113"/>
-      <c r="BE25" s="113"/>
-      <c r="BF25" s="114"/>
+      <c r="AO25" s="105"/>
+      <c r="AP25" s="94"/>
+      <c r="AQ25" s="94"/>
+      <c r="AR25" s="94"/>
+      <c r="AS25" s="94"/>
+      <c r="AT25" s="94"/>
+      <c r="AU25" s="106"/>
+      <c r="AV25" s="106"/>
+      <c r="AW25" s="106"/>
+      <c r="AX25" s="106"/>
+      <c r="AY25" s="106"/>
+      <c r="AZ25" s="106"/>
+      <c r="BA25" s="106"/>
+      <c r="BB25" s="106"/>
+      <c r="BC25" s="106"/>
+      <c r="BD25" s="106"/>
+      <c r="BE25" s="106"/>
+      <c r="BF25" s="107"/>
     </row>
     <row r="26" spans="1:58">
       <c r="A26" s="2"/>
       <c r="AN26" s="3"/>
-      <c r="AO26" s="112"/>
-      <c r="AP26" s="103"/>
-      <c r="AQ26" s="103"/>
-      <c r="AR26" s="103"/>
-      <c r="AS26" s="103"/>
-      <c r="AT26" s="103"/>
-      <c r="AU26" s="113"/>
-      <c r="AV26" s="113"/>
-      <c r="AW26" s="113"/>
-      <c r="AX26" s="113"/>
-      <c r="AY26" s="113"/>
-      <c r="AZ26" s="113"/>
-      <c r="BA26" s="113"/>
-      <c r="BB26" s="113"/>
-      <c r="BC26" s="113"/>
-      <c r="BD26" s="113"/>
-      <c r="BE26" s="113"/>
-      <c r="BF26" s="114"/>
+      <c r="AO26" s="105"/>
+      <c r="AP26" s="94"/>
+      <c r="AQ26" s="94"/>
+      <c r="AR26" s="94"/>
+      <c r="AS26" s="94"/>
+      <c r="AT26" s="94"/>
+      <c r="AU26" s="106"/>
+      <c r="AV26" s="106"/>
+      <c r="AW26" s="106"/>
+      <c r="AX26" s="106"/>
+      <c r="AY26" s="106"/>
+      <c r="AZ26" s="106"/>
+      <c r="BA26" s="106"/>
+      <c r="BB26" s="106"/>
+      <c r="BC26" s="106"/>
+      <c r="BD26" s="106"/>
+      <c r="BE26" s="106"/>
+      <c r="BF26" s="107"/>
     </row>
     <row r="27" spans="1:58">
       <c r="A27" s="2"/>
       <c r="AN27" s="3"/>
-      <c r="AO27" s="112"/>
-      <c r="AP27" s="103"/>
-      <c r="AQ27" s="103"/>
-      <c r="AR27" s="103"/>
-      <c r="AS27" s="103"/>
-      <c r="AT27" s="103"/>
-      <c r="AU27" s="113"/>
-      <c r="AV27" s="113"/>
-      <c r="AW27" s="113"/>
-      <c r="AX27" s="113"/>
-      <c r="AY27" s="113"/>
-      <c r="AZ27" s="113"/>
-      <c r="BA27" s="113"/>
-      <c r="BB27" s="113"/>
-      <c r="BC27" s="113"/>
-      <c r="BD27" s="113"/>
-      <c r="BE27" s="113"/>
-      <c r="BF27" s="114"/>
+      <c r="AO27" s="105"/>
+      <c r="AP27" s="94"/>
+      <c r="AQ27" s="94"/>
+      <c r="AR27" s="94"/>
+      <c r="AS27" s="94"/>
+      <c r="AT27" s="94"/>
+      <c r="AU27" s="106"/>
+      <c r="AV27" s="106"/>
+      <c r="AW27" s="106"/>
+      <c r="AX27" s="106"/>
+      <c r="AY27" s="106"/>
+      <c r="AZ27" s="106"/>
+      <c r="BA27" s="106"/>
+      <c r="BB27" s="106"/>
+      <c r="BC27" s="106"/>
+      <c r="BD27" s="106"/>
+      <c r="BE27" s="106"/>
+      <c r="BF27" s="107"/>
     </row>
     <row r="28" spans="1:58">
       <c r="A28" s="2"/>
       <c r="AN28" s="3"/>
-      <c r="AO28" s="112"/>
-      <c r="AP28" s="103"/>
-      <c r="AQ28" s="103"/>
-      <c r="AR28" s="103"/>
-      <c r="AS28" s="103"/>
-      <c r="AT28" s="103"/>
-      <c r="AU28" s="113"/>
-      <c r="AV28" s="113"/>
-      <c r="AW28" s="113"/>
-      <c r="AX28" s="113"/>
-      <c r="AY28" s="113"/>
-      <c r="AZ28" s="113"/>
-      <c r="BA28" s="113"/>
-      <c r="BB28" s="113"/>
-      <c r="BC28" s="113"/>
-      <c r="BD28" s="113"/>
-      <c r="BE28" s="113"/>
-      <c r="BF28" s="114"/>
+      <c r="AO28" s="105"/>
+      <c r="AP28" s="94"/>
+      <c r="AQ28" s="94"/>
+      <c r="AR28" s="94"/>
+      <c r="AS28" s="94"/>
+      <c r="AT28" s="94"/>
+      <c r="AU28" s="106"/>
+      <c r="AV28" s="106"/>
+      <c r="AW28" s="106"/>
+      <c r="AX28" s="106"/>
+      <c r="AY28" s="106"/>
+      <c r="AZ28" s="106"/>
+      <c r="BA28" s="106"/>
+      <c r="BB28" s="106"/>
+      <c r="BC28" s="106"/>
+      <c r="BD28" s="106"/>
+      <c r="BE28" s="106"/>
+      <c r="BF28" s="107"/>
     </row>
     <row r="29" spans="1:58">
       <c r="A29" s="2"/>
       <c r="AN29" s="3"/>
-      <c r="AO29" s="112"/>
-      <c r="AP29" s="103"/>
-      <c r="AQ29" s="103"/>
-      <c r="AR29" s="103"/>
-      <c r="AS29" s="103"/>
-      <c r="AT29" s="103"/>
-      <c r="AU29" s="113"/>
-      <c r="AV29" s="113"/>
-      <c r="AW29" s="113"/>
-      <c r="AX29" s="113"/>
-      <c r="AY29" s="113"/>
-      <c r="AZ29" s="113"/>
-      <c r="BA29" s="113"/>
-      <c r="BB29" s="113"/>
-      <c r="BC29" s="113"/>
-      <c r="BD29" s="113"/>
-      <c r="BE29" s="113"/>
-      <c r="BF29" s="114"/>
+      <c r="AO29" s="105"/>
+      <c r="AP29" s="94"/>
+      <c r="AQ29" s="94"/>
+      <c r="AR29" s="94"/>
+      <c r="AS29" s="94"/>
+      <c r="AT29" s="94"/>
+      <c r="AU29" s="106"/>
+      <c r="AV29" s="106"/>
+      <c r="AW29" s="106"/>
+      <c r="AX29" s="106"/>
+      <c r="AY29" s="106"/>
+      <c r="AZ29" s="106"/>
+      <c r="BA29" s="106"/>
+      <c r="BB29" s="106"/>
+      <c r="BC29" s="106"/>
+      <c r="BD29" s="106"/>
+      <c r="BE29" s="106"/>
+      <c r="BF29" s="107"/>
     </row>
     <row r="30" spans="1:58">
       <c r="A30" s="2"/>
       <c r="AN30" s="3"/>
-      <c r="AO30" s="112"/>
-      <c r="AP30" s="103"/>
-      <c r="AQ30" s="103"/>
-      <c r="AR30" s="103"/>
-      <c r="AS30" s="103"/>
-      <c r="AT30" s="103"/>
-      <c r="AU30" s="113"/>
-      <c r="AV30" s="113"/>
-      <c r="AW30" s="113"/>
-      <c r="AX30" s="113"/>
-      <c r="AY30" s="113"/>
-      <c r="AZ30" s="113"/>
-      <c r="BA30" s="113"/>
-      <c r="BB30" s="113"/>
-      <c r="BC30" s="113"/>
-      <c r="BD30" s="113"/>
-      <c r="BE30" s="113"/>
-      <c r="BF30" s="114"/>
+      <c r="AO30" s="105"/>
+      <c r="AP30" s="94"/>
+      <c r="AQ30" s="94"/>
+      <c r="AR30" s="94"/>
+      <c r="AS30" s="94"/>
+      <c r="AT30" s="94"/>
+      <c r="AU30" s="106"/>
+      <c r="AV30" s="106"/>
+      <c r="AW30" s="106"/>
+      <c r="AX30" s="106"/>
+      <c r="AY30" s="106"/>
+      <c r="AZ30" s="106"/>
+      <c r="BA30" s="106"/>
+      <c r="BB30" s="106"/>
+      <c r="BC30" s="106"/>
+      <c r="BD30" s="106"/>
+      <c r="BE30" s="106"/>
+      <c r="BF30" s="107"/>
     </row>
     <row r="31" spans="1:58">
       <c r="A31" s="2"/>
       <c r="AN31" s="3"/>
-      <c r="AO31" s="112"/>
-      <c r="AP31" s="103"/>
-      <c r="AQ31" s="103"/>
-      <c r="AR31" s="103"/>
-      <c r="AS31" s="103"/>
-      <c r="AT31" s="103"/>
-      <c r="AU31" s="113"/>
-      <c r="AV31" s="113"/>
-      <c r="AW31" s="113"/>
-      <c r="AX31" s="113"/>
-      <c r="AY31" s="113"/>
-      <c r="AZ31" s="113"/>
-      <c r="BA31" s="113"/>
-      <c r="BB31" s="113"/>
-      <c r="BC31" s="113"/>
-      <c r="BD31" s="113"/>
-      <c r="BE31" s="113"/>
-      <c r="BF31" s="114"/>
+      <c r="AO31" s="105"/>
+      <c r="AP31" s="94"/>
+      <c r="AQ31" s="94"/>
+      <c r="AR31" s="94"/>
+      <c r="AS31" s="94"/>
+      <c r="AT31" s="94"/>
+      <c r="AU31" s="106"/>
+      <c r="AV31" s="106"/>
+      <c r="AW31" s="106"/>
+      <c r="AX31" s="106"/>
+      <c r="AY31" s="106"/>
+      <c r="AZ31" s="106"/>
+      <c r="BA31" s="106"/>
+      <c r="BB31" s="106"/>
+      <c r="BC31" s="106"/>
+      <c r="BD31" s="106"/>
+      <c r="BE31" s="106"/>
+      <c r="BF31" s="107"/>
     </row>
     <row r="32" spans="1:58">
       <c r="A32" s="2"/>
       <c r="AN32" s="3"/>
-      <c r="AO32" s="112"/>
-      <c r="AP32" s="103"/>
-      <c r="AQ32" s="103"/>
-      <c r="AR32" s="103"/>
-      <c r="AS32" s="103"/>
-      <c r="AT32" s="103"/>
-      <c r="AU32" s="113"/>
-      <c r="AV32" s="113"/>
-      <c r="AW32" s="113"/>
-      <c r="AX32" s="113"/>
-      <c r="AY32" s="113"/>
-      <c r="AZ32" s="113"/>
-      <c r="BA32" s="113"/>
-      <c r="BB32" s="113"/>
-      <c r="BC32" s="113"/>
-      <c r="BD32" s="113"/>
-      <c r="BE32" s="113"/>
-      <c r="BF32" s="114"/>
+      <c r="AO32" s="105"/>
+      <c r="AP32" s="94"/>
+      <c r="AQ32" s="94"/>
+      <c r="AR32" s="94"/>
+      <c r="AS32" s="94"/>
+      <c r="AT32" s="94"/>
+      <c r="AU32" s="106"/>
+      <c r="AV32" s="106"/>
+      <c r="AW32" s="106"/>
+      <c r="AX32" s="106"/>
+      <c r="AY32" s="106"/>
+      <c r="AZ32" s="106"/>
+      <c r="BA32" s="106"/>
+      <c r="BB32" s="106"/>
+      <c r="BC32" s="106"/>
+      <c r="BD32" s="106"/>
+      <c r="BE32" s="106"/>
+      <c r="BF32" s="107"/>
     </row>
     <row r="33" spans="1:58">
       <c r="A33" s="2"/>
       <c r="AN33" s="3"/>
-      <c r="AO33" s="112"/>
-      <c r="AP33" s="103"/>
-      <c r="AQ33" s="103"/>
-      <c r="AR33" s="103"/>
-      <c r="AS33" s="103"/>
-      <c r="AT33" s="103"/>
-      <c r="AU33" s="113"/>
-      <c r="AV33" s="113"/>
-      <c r="AW33" s="113"/>
-      <c r="AX33" s="113"/>
-      <c r="AY33" s="113"/>
-      <c r="AZ33" s="113"/>
-      <c r="BA33" s="113"/>
-      <c r="BB33" s="113"/>
-      <c r="BC33" s="113"/>
-      <c r="BD33" s="113"/>
-      <c r="BE33" s="113"/>
-      <c r="BF33" s="114"/>
+      <c r="AO33" s="105"/>
+      <c r="AP33" s="94"/>
+      <c r="AQ33" s="94"/>
+      <c r="AR33" s="94"/>
+      <c r="AS33" s="94"/>
+      <c r="AT33" s="94"/>
+      <c r="AU33" s="106"/>
+      <c r="AV33" s="106"/>
+      <c r="AW33" s="106"/>
+      <c r="AX33" s="106"/>
+      <c r="AY33" s="106"/>
+      <c r="AZ33" s="106"/>
+      <c r="BA33" s="106"/>
+      <c r="BB33" s="106"/>
+      <c r="BC33" s="106"/>
+      <c r="BD33" s="106"/>
+      <c r="BE33" s="106"/>
+      <c r="BF33" s="107"/>
     </row>
     <row r="34" spans="1:58">
       <c r="A34" s="2"/>
       <c r="AN34" s="3"/>
-      <c r="AO34" s="112"/>
-      <c r="AP34" s="103"/>
-      <c r="AQ34" s="103"/>
-      <c r="AR34" s="103"/>
-      <c r="AS34" s="103"/>
-      <c r="AT34" s="103"/>
-      <c r="AU34" s="113"/>
-      <c r="AV34" s="113"/>
-      <c r="AW34" s="113"/>
-      <c r="AX34" s="113"/>
-      <c r="AY34" s="113"/>
-      <c r="AZ34" s="113"/>
-      <c r="BA34" s="113"/>
-      <c r="BB34" s="113"/>
-      <c r="BC34" s="113"/>
-      <c r="BD34" s="113"/>
-      <c r="BE34" s="113"/>
-      <c r="BF34" s="114"/>
+      <c r="AO34" s="105"/>
+      <c r="AP34" s="94"/>
+      <c r="AQ34" s="94"/>
+      <c r="AR34" s="94"/>
+      <c r="AS34" s="94"/>
+      <c r="AT34" s="94"/>
+      <c r="AU34" s="106"/>
+      <c r="AV34" s="106"/>
+      <c r="AW34" s="106"/>
+      <c r="AX34" s="106"/>
+      <c r="AY34" s="106"/>
+      <c r="AZ34" s="106"/>
+      <c r="BA34" s="106"/>
+      <c r="BB34" s="106"/>
+      <c r="BC34" s="106"/>
+      <c r="BD34" s="106"/>
+      <c r="BE34" s="106"/>
+      <c r="BF34" s="107"/>
     </row>
     <row r="35" spans="1:58">
       <c r="A35" s="2"/>
       <c r="AN35" s="3"/>
-      <c r="AO35" s="112"/>
-      <c r="AP35" s="103"/>
-      <c r="AQ35" s="103"/>
-      <c r="AR35" s="103"/>
-      <c r="AS35" s="103"/>
-      <c r="AT35" s="103"/>
-      <c r="AU35" s="113"/>
-      <c r="AV35" s="113"/>
-      <c r="AW35" s="113"/>
-      <c r="AX35" s="113"/>
-      <c r="AY35" s="113"/>
-      <c r="AZ35" s="113"/>
-      <c r="BA35" s="113"/>
-      <c r="BB35" s="113"/>
-      <c r="BC35" s="113"/>
-      <c r="BD35" s="113"/>
-      <c r="BE35" s="113"/>
-      <c r="BF35" s="114"/>
+      <c r="AO35" s="105"/>
+      <c r="AP35" s="94"/>
+      <c r="AQ35" s="94"/>
+      <c r="AR35" s="94"/>
+      <c r="AS35" s="94"/>
+      <c r="AT35" s="94"/>
+      <c r="AU35" s="106"/>
+      <c r="AV35" s="106"/>
+      <c r="AW35" s="106"/>
+      <c r="AX35" s="106"/>
+      <c r="AY35" s="106"/>
+      <c r="AZ35" s="106"/>
+      <c r="BA35" s="106"/>
+      <c r="BB35" s="106"/>
+      <c r="BC35" s="106"/>
+      <c r="BD35" s="106"/>
+      <c r="BE35" s="106"/>
+      <c r="BF35" s="107"/>
     </row>
     <row r="36" spans="1:58">
       <c r="A36" s="2"/>
       <c r="AN36" s="3"/>
-      <c r="AO36" s="112"/>
-      <c r="AP36" s="103"/>
-      <c r="AQ36" s="103"/>
-      <c r="AR36" s="103"/>
-      <c r="AS36" s="103"/>
-      <c r="AT36" s="103"/>
-      <c r="AU36" s="113"/>
-      <c r="AV36" s="113"/>
-      <c r="AW36" s="113"/>
-      <c r="AX36" s="113"/>
-      <c r="AY36" s="113"/>
-      <c r="AZ36" s="113"/>
-      <c r="BA36" s="113"/>
-      <c r="BB36" s="113"/>
-      <c r="BC36" s="113"/>
-      <c r="BD36" s="113"/>
-      <c r="BE36" s="113"/>
-      <c r="BF36" s="114"/>
+      <c r="AO36" s="105"/>
+      <c r="AP36" s="94"/>
+      <c r="AQ36" s="94"/>
+      <c r="AR36" s="94"/>
+      <c r="AS36" s="94"/>
+      <c r="AT36" s="94"/>
+      <c r="AU36" s="106"/>
+      <c r="AV36" s="106"/>
+      <c r="AW36" s="106"/>
+      <c r="AX36" s="106"/>
+      <c r="AY36" s="106"/>
+      <c r="AZ36" s="106"/>
+      <c r="BA36" s="106"/>
+      <c r="BB36" s="106"/>
+      <c r="BC36" s="106"/>
+      <c r="BD36" s="106"/>
+      <c r="BE36" s="106"/>
+      <c r="BF36" s="107"/>
     </row>
     <row r="37" spans="1:58">
       <c r="A37" s="2"/>
       <c r="AN37" s="3"/>
-      <c r="AO37" s="112"/>
-      <c r="AP37" s="103"/>
-      <c r="AQ37" s="103"/>
-      <c r="AR37" s="103"/>
-      <c r="AS37" s="103"/>
-      <c r="AT37" s="103"/>
-      <c r="AU37" s="113"/>
-      <c r="AV37" s="113"/>
-      <c r="AW37" s="113"/>
-      <c r="AX37" s="113"/>
-      <c r="AY37" s="113"/>
-      <c r="AZ37" s="113"/>
-      <c r="BA37" s="113"/>
-      <c r="BB37" s="113"/>
-      <c r="BC37" s="113"/>
-      <c r="BD37" s="113"/>
-      <c r="BE37" s="113"/>
-      <c r="BF37" s="114"/>
+      <c r="AO37" s="105"/>
+      <c r="AP37" s="94"/>
+      <c r="AQ37" s="94"/>
+      <c r="AR37" s="94"/>
+      <c r="AS37" s="94"/>
+      <c r="AT37" s="94"/>
+      <c r="AU37" s="106"/>
+      <c r="AV37" s="106"/>
+      <c r="AW37" s="106"/>
+      <c r="AX37" s="106"/>
+      <c r="AY37" s="106"/>
+      <c r="AZ37" s="106"/>
+      <c r="BA37" s="106"/>
+      <c r="BB37" s="106"/>
+      <c r="BC37" s="106"/>
+      <c r="BD37" s="106"/>
+      <c r="BE37" s="106"/>
+      <c r="BF37" s="107"/>
     </row>
     <row r="38" spans="1:58">
       <c r="A38" s="2"/>
       <c r="AN38" s="3"/>
-      <c r="AO38" s="112"/>
-      <c r="AP38" s="103"/>
-      <c r="AQ38" s="103"/>
-      <c r="AR38" s="103"/>
-      <c r="AS38" s="103"/>
-      <c r="AT38" s="103"/>
-      <c r="AU38" s="113"/>
-      <c r="AV38" s="113"/>
-      <c r="AW38" s="113"/>
-      <c r="AX38" s="113"/>
-      <c r="AY38" s="113"/>
-      <c r="AZ38" s="113"/>
-      <c r="BA38" s="113"/>
-      <c r="BB38" s="113"/>
-      <c r="BC38" s="113"/>
-      <c r="BD38" s="113"/>
-      <c r="BE38" s="113"/>
-      <c r="BF38" s="114"/>
+      <c r="AO38" s="105"/>
+      <c r="AP38" s="94"/>
+      <c r="AQ38" s="94"/>
+      <c r="AR38" s="94"/>
+      <c r="AS38" s="94"/>
+      <c r="AT38" s="94"/>
+      <c r="AU38" s="106"/>
+      <c r="AV38" s="106"/>
+      <c r="AW38" s="106"/>
+      <c r="AX38" s="106"/>
+      <c r="AY38" s="106"/>
+      <c r="AZ38" s="106"/>
+      <c r="BA38" s="106"/>
+      <c r="BB38" s="106"/>
+      <c r="BC38" s="106"/>
+      <c r="BD38" s="106"/>
+      <c r="BE38" s="106"/>
+      <c r="BF38" s="107"/>
     </row>
     <row r="39" spans="1:58">
       <c r="A39" s="2"/>
       <c r="AN39" s="3"/>
-      <c r="AO39" s="112"/>
-      <c r="AP39" s="103"/>
-      <c r="AQ39" s="103"/>
-      <c r="AR39" s="103"/>
-      <c r="AS39" s="103"/>
-      <c r="AT39" s="103"/>
-      <c r="AU39" s="113"/>
-      <c r="AV39" s="113"/>
-      <c r="AW39" s="113"/>
-      <c r="AX39" s="113"/>
-      <c r="AY39" s="113"/>
-      <c r="AZ39" s="113"/>
-      <c r="BA39" s="113"/>
-      <c r="BB39" s="113"/>
-      <c r="BC39" s="113"/>
-      <c r="BD39" s="113"/>
-      <c r="BE39" s="113"/>
-      <c r="BF39" s="114"/>
+      <c r="AO39" s="105"/>
+      <c r="AP39" s="94"/>
+      <c r="AQ39" s="94"/>
+      <c r="AR39" s="94"/>
+      <c r="AS39" s="94"/>
+      <c r="AT39" s="94"/>
+      <c r="AU39" s="106"/>
+      <c r="AV39" s="106"/>
+      <c r="AW39" s="106"/>
+      <c r="AX39" s="106"/>
+      <c r="AY39" s="106"/>
+      <c r="AZ39" s="106"/>
+      <c r="BA39" s="106"/>
+      <c r="BB39" s="106"/>
+      <c r="BC39" s="106"/>
+      <c r="BD39" s="106"/>
+      <c r="BE39" s="106"/>
+      <c r="BF39" s="107"/>
     </row>
     <row r="40" spans="1:58">
       <c r="A40" s="2"/>
@@ -6013,45 +6168,6 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="AO21:AT22"/>
-    <mergeCell ref="AU21:BF22"/>
-    <mergeCell ref="AO15:AT16"/>
-    <mergeCell ref="AU15:BF16"/>
-    <mergeCell ref="AO17:AT18"/>
-    <mergeCell ref="AU17:BF18"/>
-    <mergeCell ref="AO19:AT20"/>
-    <mergeCell ref="AU19:BF20"/>
-    <mergeCell ref="AO9:AT10"/>
-    <mergeCell ref="AU9:BF10"/>
-    <mergeCell ref="AO11:AT12"/>
-    <mergeCell ref="AU11:BF12"/>
-    <mergeCell ref="AO13:AT14"/>
-    <mergeCell ref="AU13:BF14"/>
-    <mergeCell ref="A3:AN3"/>
-    <mergeCell ref="AO3:BF3"/>
-    <mergeCell ref="AO5:AT6"/>
-    <mergeCell ref="AU5:BF6"/>
-    <mergeCell ref="AO7:AT8"/>
-    <mergeCell ref="AU7:BF8"/>
-    <mergeCell ref="BA1:BF1"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="U2:AI2"/>
-    <mergeCell ref="AJ2:AN2"/>
-    <mergeCell ref="AO2:AU2"/>
-    <mergeCell ref="AV2:AZ2"/>
-    <mergeCell ref="BA2:BF2"/>
-    <mergeCell ref="AV1:AZ1"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="U1:AI1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AO1:AU1"/>
-    <mergeCell ref="AO24:AT25"/>
-    <mergeCell ref="AU24:BF25"/>
-    <mergeCell ref="AO26:AT27"/>
-    <mergeCell ref="AU26:BF27"/>
-    <mergeCell ref="AO28:AT29"/>
-    <mergeCell ref="AU28:BF29"/>
     <mergeCell ref="AO36:AT37"/>
     <mergeCell ref="AU36:BF37"/>
     <mergeCell ref="AO38:AT39"/>
@@ -6062,6 +6178,45 @@
     <mergeCell ref="AU32:BF33"/>
     <mergeCell ref="AO34:AT35"/>
     <mergeCell ref="AU34:BF35"/>
+    <mergeCell ref="AO24:AT25"/>
+    <mergeCell ref="AU24:BF25"/>
+    <mergeCell ref="AO26:AT27"/>
+    <mergeCell ref="AU26:BF27"/>
+    <mergeCell ref="AO28:AT29"/>
+    <mergeCell ref="AU28:BF29"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="U1:AI1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AO1:AU1"/>
+    <mergeCell ref="BA1:BF1"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="U2:AI2"/>
+    <mergeCell ref="AJ2:AN2"/>
+    <mergeCell ref="AO2:AU2"/>
+    <mergeCell ref="AV2:AZ2"/>
+    <mergeCell ref="BA2:BF2"/>
+    <mergeCell ref="AV1:AZ1"/>
+    <mergeCell ref="A3:AN3"/>
+    <mergeCell ref="AO3:BF3"/>
+    <mergeCell ref="AO5:AT6"/>
+    <mergeCell ref="AU5:BF6"/>
+    <mergeCell ref="AO7:AT8"/>
+    <mergeCell ref="AU7:BF8"/>
+    <mergeCell ref="AO9:AT10"/>
+    <mergeCell ref="AU9:BF10"/>
+    <mergeCell ref="AO11:AT12"/>
+    <mergeCell ref="AU11:BF12"/>
+    <mergeCell ref="AO13:AT14"/>
+    <mergeCell ref="AU13:BF14"/>
+    <mergeCell ref="AO21:AT22"/>
+    <mergeCell ref="AU21:BF22"/>
+    <mergeCell ref="AO15:AT16"/>
+    <mergeCell ref="AU15:BF16"/>
+    <mergeCell ref="AO17:AT18"/>
+    <mergeCell ref="AU17:BF18"/>
+    <mergeCell ref="AO19:AT20"/>
+    <mergeCell ref="AU19:BF20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6087,27 +6242,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="34" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="137" t="s">
+      <c r="B1" s="127"/>
+      <c r="C1" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="138"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="140" t="str">
+      <c r="D1" s="129"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="131" t="str">
         <f>表紙!C7</f>
         <v>施設使用料・償還金等料金計算及び納付書作成システム
 口座振替データ作成機能構築業務</v>
       </c>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
-      <c r="L1" s="141"/>
-      <c r="M1" s="142"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="133"/>
       <c r="N1" s="23" t="s">
         <v>0</v>
       </c>
@@ -6122,24 +6277,24 @@
       </c>
     </row>
     <row r="2" spans="1:17" s="34" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="136"/>
-      <c r="B2" s="136"/>
-      <c r="C2" s="137" t="s">
+      <c r="A2" s="127"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="138"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="143" t="str">
+      <c r="D2" s="129"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="134" t="str">
         <f>表紙!H15</f>
         <v>口座データ</v>
       </c>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="144"/>
-      <c r="M2" s="145"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="136"/>
       <c r="N2" s="23" t="s">
         <v>4</v>
       </c>
@@ -6152,42 +6307,42 @@
       <c r="Q2" s="35"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="132"/>
-      <c r="C4" s="132" t="s">
+      <c r="B4" s="125"/>
+      <c r="C4" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132" t="s">
+      <c r="D4" s="125"/>
+      <c r="E4" s="125" t="s">
         <v>31</v>
       </c>
       <c r="F4" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="132" t="s">
+      <c r="G4" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132"/>
-      <c r="K4" s="132" t="s">
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="132"/>
-      <c r="M4" s="132"/>
-      <c r="N4" s="132"/>
-      <c r="O4" s="132"/>
-      <c r="P4" s="132"/>
-      <c r="Q4" s="132"/>
+      <c r="L4" s="125"/>
+      <c r="M4" s="125"/>
+      <c r="N4" s="125"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="125"/>
+      <c r="Q4" s="125"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="132"/>
-      <c r="B5" s="132"/>
-      <c r="C5" s="132"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
+      <c r="A5" s="125"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
       <c r="F5" s="38" t="s">
         <v>35</v>
       </c>
@@ -6203,23 +6358,23 @@
       <c r="J5" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="132"/>
-      <c r="L5" s="132"/>
-      <c r="M5" s="132"/>
-      <c r="N5" s="132"/>
-      <c r="O5" s="132"/>
-      <c r="P5" s="132"/>
-      <c r="Q5" s="132"/>
+      <c r="K5" s="125"/>
+      <c r="L5" s="125"/>
+      <c r="M5" s="125"/>
+      <c r="N5" s="125"/>
+      <c r="O5" s="125"/>
+      <c r="P5" s="125"/>
+      <c r="Q5" s="125"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="132" t="s">
+      <c r="A6" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="132"/>
-      <c r="C6" s="132" t="s">
+      <c r="B6" s="125"/>
+      <c r="C6" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="132"/>
+      <c r="D6" s="125"/>
       <c r="E6" s="40" t="s">
         <v>41</v>
       </c>
@@ -6228,25 +6383,25 @@
       <c r="H6" s="38"/>
       <c r="I6" s="38"/>
       <c r="J6" s="38"/>
-      <c r="K6" s="133" t="s">
+      <c r="K6" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="133"/>
-      <c r="M6" s="133"/>
-      <c r="N6" s="133"/>
-      <c r="O6" s="133"/>
-      <c r="P6" s="133"/>
-      <c r="Q6" s="133"/>
+      <c r="L6" s="126"/>
+      <c r="M6" s="126"/>
+      <c r="N6" s="126"/>
+      <c r="O6" s="126"/>
+      <c r="P6" s="126"/>
+      <c r="Q6" s="126"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="132" t="s">
+      <c r="A7" s="125" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="132"/>
-      <c r="C7" s="132" t="s">
+      <c r="B7" s="125"/>
+      <c r="C7" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="132"/>
+      <c r="D7" s="125"/>
       <c r="E7" s="40" t="s">
         <v>41</v>
       </c>
@@ -6255,25 +6410,25 @@
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="38"/>
-      <c r="K7" s="133" t="s">
+      <c r="K7" s="126" t="s">
         <v>62</v>
       </c>
-      <c r="L7" s="133"/>
-      <c r="M7" s="133"/>
-      <c r="N7" s="133"/>
-      <c r="O7" s="133"/>
-      <c r="P7" s="133"/>
-      <c r="Q7" s="133"/>
+      <c r="L7" s="126"/>
+      <c r="M7" s="126"/>
+      <c r="N7" s="126"/>
+      <c r="O7" s="126"/>
+      <c r="P7" s="126"/>
+      <c r="Q7" s="126"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="132" t="s">
+      <c r="A8" s="125" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="132"/>
-      <c r="C8" s="132" t="s">
+      <c r="B8" s="125"/>
+      <c r="C8" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="132"/>
+      <c r="D8" s="125"/>
       <c r="E8" s="40" t="s">
         <v>41</v>
       </c>
@@ -6282,25 +6437,25 @@
       <c r="H8" s="38"/>
       <c r="I8" s="38"/>
       <c r="J8" s="38"/>
-      <c r="K8" s="133" t="s">
+      <c r="K8" s="126" t="s">
         <v>63</v>
       </c>
-      <c r="L8" s="133"/>
-      <c r="M8" s="133"/>
-      <c r="N8" s="133"/>
-      <c r="O8" s="133"/>
-      <c r="P8" s="133"/>
-      <c r="Q8" s="133"/>
+      <c r="L8" s="126"/>
+      <c r="M8" s="126"/>
+      <c r="N8" s="126"/>
+      <c r="O8" s="126"/>
+      <c r="P8" s="126"/>
+      <c r="Q8" s="126"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="132" t="s">
+      <c r="A9" s="125" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="132"/>
-      <c r="C9" s="132" t="s">
+      <c r="B9" s="125"/>
+      <c r="C9" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="132"/>
+      <c r="D9" s="125"/>
       <c r="E9" s="40" t="s">
         <v>41</v>
       </c>
@@ -6309,25 +6464,25 @@
       <c r="H9" s="38"/>
       <c r="I9" s="38"/>
       <c r="J9" s="38"/>
-      <c r="K9" s="133" t="s">
+      <c r="K9" s="126" t="s">
         <v>64</v>
       </c>
-      <c r="L9" s="133"/>
-      <c r="M9" s="133"/>
-      <c r="N9" s="133"/>
-      <c r="O9" s="133"/>
-      <c r="P9" s="133"/>
-      <c r="Q9" s="133"/>
+      <c r="L9" s="126"/>
+      <c r="M9" s="126"/>
+      <c r="N9" s="126"/>
+      <c r="O9" s="126"/>
+      <c r="P9" s="126"/>
+      <c r="Q9" s="126"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="132" t="s">
+      <c r="A10" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="132"/>
-      <c r="C10" s="132" t="s">
+      <c r="B10" s="125"/>
+      <c r="C10" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="132"/>
+      <c r="D10" s="125"/>
       <c r="E10" s="40" t="s">
         <v>41</v>
       </c>
@@ -6336,25 +6491,25 @@
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
       <c r="J10" s="38"/>
-      <c r="K10" s="133" t="s">
+      <c r="K10" s="126" t="s">
         <v>67</v>
       </c>
-      <c r="L10" s="133"/>
-      <c r="M10" s="133"/>
-      <c r="N10" s="133"/>
-      <c r="O10" s="133"/>
-      <c r="P10" s="133"/>
-      <c r="Q10" s="133"/>
+      <c r="L10" s="126"/>
+      <c r="M10" s="126"/>
+      <c r="N10" s="126"/>
+      <c r="O10" s="126"/>
+      <c r="P10" s="126"/>
+      <c r="Q10" s="126"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="132" t="s">
+      <c r="A11" s="125" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="132"/>
-      <c r="C11" s="132" t="s">
+      <c r="B11" s="125"/>
+      <c r="C11" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="132"/>
+      <c r="D11" s="125"/>
       <c r="E11" s="40" t="s">
         <v>41</v>
       </c>
@@ -6363,44 +6518,44 @@
       <c r="H11" s="38"/>
       <c r="I11" s="38"/>
       <c r="J11" s="38"/>
-      <c r="K11" s="133" t="s">
+      <c r="K11" s="126" t="s">
         <v>69</v>
       </c>
-      <c r="L11" s="133"/>
-      <c r="M11" s="133"/>
-      <c r="N11" s="133"/>
-      <c r="O11" s="133"/>
-      <c r="P11" s="133"/>
-      <c r="Q11" s="133"/>
+      <c r="L11" s="126"/>
+      <c r="M11" s="126"/>
+      <c r="N11" s="126"/>
+      <c r="O11" s="126"/>
+      <c r="P11" s="126"/>
+      <c r="Q11" s="126"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="132"/>
-      <c r="B12" s="132"/>
-      <c r="C12" s="132"/>
-      <c r="D12" s="132"/>
+      <c r="A12" s="125"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
       <c r="E12" s="40"/>
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
       <c r="J12" s="38"/>
-      <c r="K12" s="133"/>
-      <c r="L12" s="133"/>
-      <c r="M12" s="133"/>
-      <c r="N12" s="133"/>
-      <c r="O12" s="133"/>
-      <c r="P12" s="133"/>
-      <c r="Q12" s="133"/>
+      <c r="K12" s="126"/>
+      <c r="L12" s="126"/>
+      <c r="M12" s="126"/>
+      <c r="N12" s="126"/>
+      <c r="O12" s="126"/>
+      <c r="P12" s="126"/>
+      <c r="Q12" s="126"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="134" t="s">
+      <c r="A13" s="137" t="s">
         <v>246</v>
       </c>
-      <c r="B13" s="135"/>
-      <c r="C13" s="132" t="s">
+      <c r="B13" s="138"/>
+      <c r="C13" s="125" t="s">
         <v>248</v>
       </c>
-      <c r="D13" s="132"/>
+      <c r="D13" s="125"/>
       <c r="E13" s="40" t="s">
         <v>41</v>
       </c>
@@ -6413,25 +6568,25 @@
         <v>226</v>
       </c>
       <c r="J13" s="38"/>
-      <c r="K13" s="133" t="s">
+      <c r="K13" s="126" t="s">
         <v>250</v>
       </c>
-      <c r="L13" s="133"/>
-      <c r="M13" s="133"/>
-      <c r="N13" s="133"/>
-      <c r="O13" s="133"/>
-      <c r="P13" s="133"/>
-      <c r="Q13" s="133"/>
+      <c r="L13" s="126"/>
+      <c r="M13" s="126"/>
+      <c r="N13" s="126"/>
+      <c r="O13" s="126"/>
+      <c r="P13" s="126"/>
+      <c r="Q13" s="126"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="132" t="s">
+      <c r="A14" s="125" t="s">
         <v>251</v>
       </c>
-      <c r="B14" s="132"/>
-      <c r="C14" s="132" t="s">
+      <c r="B14" s="125"/>
+      <c r="C14" s="125" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="132"/>
+      <c r="D14" s="125"/>
       <c r="E14" s="40" t="s">
         <v>41</v>
       </c>
@@ -6442,25 +6597,25 @@
       </c>
       <c r="I14" s="38"/>
       <c r="J14" s="38"/>
-      <c r="K14" s="133" t="s">
+      <c r="K14" s="126" t="s">
         <v>253</v>
       </c>
-      <c r="L14" s="133"/>
-      <c r="M14" s="133"/>
-      <c r="N14" s="133"/>
-      <c r="O14" s="133"/>
-      <c r="P14" s="133"/>
-      <c r="Q14" s="133"/>
+      <c r="L14" s="126"/>
+      <c r="M14" s="126"/>
+      <c r="N14" s="126"/>
+      <c r="O14" s="126"/>
+      <c r="P14" s="126"/>
+      <c r="Q14" s="126"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="132" t="s">
+      <c r="A15" s="125" t="s">
         <v>252</v>
       </c>
-      <c r="B15" s="132"/>
-      <c r="C15" s="132" t="s">
+      <c r="B15" s="125"/>
+      <c r="C15" s="125" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="132"/>
+      <c r="D15" s="125"/>
       <c r="E15" s="40" t="s">
         <v>41</v>
       </c>
@@ -6471,25 +6626,25 @@
       </c>
       <c r="I15" s="38"/>
       <c r="J15" s="38"/>
-      <c r="K15" s="133" t="s">
+      <c r="K15" s="126" t="s">
         <v>249</v>
       </c>
-      <c r="L15" s="133"/>
-      <c r="M15" s="133"/>
-      <c r="N15" s="133"/>
-      <c r="O15" s="133"/>
-      <c r="P15" s="133"/>
-      <c r="Q15" s="133"/>
+      <c r="L15" s="126"/>
+      <c r="M15" s="126"/>
+      <c r="N15" s="126"/>
+      <c r="O15" s="126"/>
+      <c r="P15" s="126"/>
+      <c r="Q15" s="126"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="132" t="s">
+      <c r="A16" s="125" t="s">
         <v>255</v>
       </c>
-      <c r="B16" s="132"/>
-      <c r="C16" s="132" t="s">
+      <c r="B16" s="125"/>
+      <c r="C16" s="125" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="132"/>
+      <c r="D16" s="125"/>
       <c r="E16" s="40" t="s">
         <v>41</v>
       </c>
@@ -6500,25 +6655,25 @@
       </c>
       <c r="I16" s="38"/>
       <c r="J16" s="38"/>
-      <c r="K16" s="133" t="s">
+      <c r="K16" s="126" t="s">
         <v>254</v>
       </c>
-      <c r="L16" s="133"/>
-      <c r="M16" s="133"/>
-      <c r="N16" s="133"/>
-      <c r="O16" s="133"/>
-      <c r="P16" s="133"/>
-      <c r="Q16" s="133"/>
+      <c r="L16" s="126"/>
+      <c r="M16" s="126"/>
+      <c r="N16" s="126"/>
+      <c r="O16" s="126"/>
+      <c r="P16" s="126"/>
+      <c r="Q16" s="126"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="132" t="s">
+      <c r="A17" s="125" t="s">
         <v>257</v>
       </c>
-      <c r="B17" s="132"/>
-      <c r="C17" s="132" t="s">
+      <c r="B17" s="125"/>
+      <c r="C17" s="125" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="132"/>
+      <c r="D17" s="125"/>
       <c r="E17" s="40" t="s">
         <v>41</v>
       </c>
@@ -6529,128 +6684,109 @@
       </c>
       <c r="I17" s="38"/>
       <c r="J17" s="38"/>
-      <c r="K17" s="133" t="s">
+      <c r="K17" s="126" t="s">
         <v>256</v>
       </c>
-      <c r="L17" s="133"/>
-      <c r="M17" s="133"/>
-      <c r="N17" s="133"/>
-      <c r="O17" s="133"/>
-      <c r="P17" s="133"/>
-      <c r="Q17" s="133"/>
+      <c r="L17" s="126"/>
+      <c r="M17" s="126"/>
+      <c r="N17" s="126"/>
+      <c r="O17" s="126"/>
+      <c r="P17" s="126"/>
+      <c r="Q17" s="126"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="132"/>
-      <c r="B18" s="132"/>
-      <c r="C18" s="132"/>
-      <c r="D18" s="132"/>
+      <c r="A18" s="125"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="125"/>
       <c r="E18" s="40"/>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
       <c r="H18" s="38"/>
       <c r="I18" s="38"/>
       <c r="J18" s="38"/>
-      <c r="K18" s="133"/>
-      <c r="L18" s="133"/>
-      <c r="M18" s="133"/>
-      <c r="N18" s="133"/>
-      <c r="O18" s="133"/>
-      <c r="P18" s="133"/>
-      <c r="Q18" s="133"/>
+      <c r="K18" s="126"/>
+      <c r="L18" s="126"/>
+      <c r="M18" s="126"/>
+      <c r="N18" s="126"/>
+      <c r="O18" s="126"/>
+      <c r="P18" s="126"/>
+      <c r="Q18" s="126"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="132"/>
-      <c r="B19" s="132"/>
-      <c r="C19" s="132"/>
-      <c r="D19" s="132"/>
+      <c r="A19" s="125"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="125"/>
       <c r="E19" s="40"/>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
       <c r="H19" s="38"/>
       <c r="I19" s="38"/>
       <c r="J19" s="38"/>
-      <c r="K19" s="133"/>
-      <c r="L19" s="133"/>
-      <c r="M19" s="133"/>
-      <c r="N19" s="133"/>
-      <c r="O19" s="133"/>
-      <c r="P19" s="133"/>
-      <c r="Q19" s="133"/>
+      <c r="K19" s="126"/>
+      <c r="L19" s="126"/>
+      <c r="M19" s="126"/>
+      <c r="N19" s="126"/>
+      <c r="O19" s="126"/>
+      <c r="P19" s="126"/>
+      <c r="Q19" s="126"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="132"/>
-      <c r="B20" s="132"/>
-      <c r="C20" s="132"/>
-      <c r="D20" s="132"/>
+      <c r="A20" s="125"/>
+      <c r="B20" s="125"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="125"/>
       <c r="E20" s="40"/>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="38"/>
       <c r="I20" s="38"/>
       <c r="J20" s="38"/>
-      <c r="K20" s="133"/>
-      <c r="L20" s="133"/>
-      <c r="M20" s="133"/>
-      <c r="N20" s="133"/>
-      <c r="O20" s="133"/>
-      <c r="P20" s="133"/>
-      <c r="Q20" s="133"/>
+      <c r="K20" s="126"/>
+      <c r="L20" s="126"/>
+      <c r="M20" s="126"/>
+      <c r="N20" s="126"/>
+      <c r="O20" s="126"/>
+      <c r="P20" s="126"/>
+      <c r="Q20" s="126"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="132"/>
-      <c r="B21" s="132"/>
-      <c r="C21" s="132"/>
-      <c r="D21" s="132"/>
+      <c r="A21" s="125"/>
+      <c r="B21" s="125"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="125"/>
       <c r="E21" s="40"/>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="38"/>
       <c r="I21" s="38"/>
       <c r="J21" s="38"/>
-      <c r="K21" s="133"/>
-      <c r="L21" s="133"/>
-      <c r="M21" s="133"/>
-      <c r="N21" s="133"/>
-      <c r="O21" s="133"/>
-      <c r="P21" s="133"/>
-      <c r="Q21" s="133"/>
+      <c r="K21" s="126"/>
+      <c r="L21" s="126"/>
+      <c r="M21" s="126"/>
+      <c r="N21" s="126"/>
+      <c r="O21" s="126"/>
+      <c r="P21" s="126"/>
+      <c r="Q21" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="K20:Q20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="K21:Q21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="K18:Q18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="K19:Q19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="K16:Q16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="K17:Q17"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:Q5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="K12:Q12"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="K8:Q8"/>
@@ -6660,21 +6796,40 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="K9:Q9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="K12:Q12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="K15:Q15"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="K13:Q13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:Q5"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6689,7 +6844,7 @@
   </sheetPr>
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4:Q4"/>
     </sheetView>
   </sheetViews>
@@ -6701,27 +6856,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="34" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="137" t="s">
+      <c r="B1" s="127"/>
+      <c r="C1" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="138"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="140" t="str">
+      <c r="D1" s="129"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="131" t="str">
         <f>表紙!C7</f>
         <v>施設使用料・償還金等料金計算及び納付書作成システム
 口座振替データ作成機能構築業務</v>
       </c>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
-      <c r="L1" s="141"/>
-      <c r="M1" s="142"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="133"/>
       <c r="N1" s="23" t="s">
         <v>0</v>
       </c>
@@ -6734,24 +6889,24 @@
       <c r="Q1" s="33"/>
     </row>
     <row r="2" spans="1:17" s="34" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="136"/>
-      <c r="B2" s="136"/>
-      <c r="C2" s="137" t="s">
+      <c r="A2" s="127"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="138"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="143" t="str">
+      <c r="D2" s="129"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="134" t="str">
         <f>表紙!H15</f>
         <v>口座データ</v>
       </c>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="144"/>
-      <c r="M2" s="145"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="136"/>
       <c r="N2" s="23" t="s">
         <v>4</v>
       </c>
@@ -6764,206 +6919,206 @@
       <c r="Q2" s="37"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="132"/>
-      <c r="C4" s="132" t="s">
+      <c r="B4" s="125"/>
+      <c r="C4" s="125" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132"/>
-      <c r="K4" s="132"/>
-      <c r="L4" s="132"/>
-      <c r="M4" s="132"/>
-      <c r="N4" s="132"/>
-      <c r="O4" s="132"/>
-      <c r="P4" s="132"/>
-      <c r="Q4" s="132"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="125"/>
+      <c r="M4" s="125"/>
+      <c r="N4" s="125"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="125"/>
+      <c r="Q4" s="125"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="41" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="42"/>
-      <c r="C5" s="152" t="s">
+      <c r="C5" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="153"/>
-      <c r="E5" s="153"/>
-      <c r="F5" s="153"/>
-      <c r="G5" s="153"/>
-      <c r="H5" s="153"/>
-      <c r="I5" s="153"/>
-      <c r="J5" s="153"/>
-      <c r="K5" s="153"/>
-      <c r="L5" s="153"/>
-      <c r="M5" s="153"/>
-      <c r="N5" s="153"/>
-      <c r="O5" s="153"/>
-      <c r="P5" s="153"/>
-      <c r="Q5" s="154"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="140"/>
+      <c r="L5" s="140"/>
+      <c r="M5" s="140"/>
+      <c r="N5" s="140"/>
+      <c r="O5" s="140"/>
+      <c r="P5" s="140"/>
+      <c r="Q5" s="141"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="43"/>
       <c r="B6" s="44"/>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="142" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="147"/>
-      <c r="K6" s="147"/>
-      <c r="L6" s="147"/>
-      <c r="M6" s="147"/>
-      <c r="N6" s="147"/>
-      <c r="O6" s="147"/>
-      <c r="P6" s="147"/>
-      <c r="Q6" s="148"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="143"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="143"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="143"/>
+      <c r="N6" s="143"/>
+      <c r="O6" s="143"/>
+      <c r="P6" s="143"/>
+      <c r="Q6" s="144"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="43"/>
       <c r="B7" s="44"/>
-      <c r="C7" s="146"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
-      <c r="H7" s="147"/>
-      <c r="I7" s="147"/>
-      <c r="J7" s="147"/>
-      <c r="K7" s="147"/>
-      <c r="L7" s="147"/>
-      <c r="M7" s="147"/>
-      <c r="N7" s="147"/>
-      <c r="O7" s="147"/>
-      <c r="P7" s="147"/>
-      <c r="Q7" s="148"/>
+      <c r="C7" s="142"/>
+      <c r="D7" s="143"/>
+      <c r="E7" s="143"/>
+      <c r="F7" s="143"/>
+      <c r="G7" s="143"/>
+      <c r="H7" s="143"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="143"/>
+      <c r="L7" s="143"/>
+      <c r="M7" s="143"/>
+      <c r="N7" s="143"/>
+      <c r="O7" s="143"/>
+      <c r="P7" s="143"/>
+      <c r="Q7" s="144"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="43"/>
       <c r="B8" s="44"/>
-      <c r="C8" s="146"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="147"/>
-      <c r="G8" s="147"/>
-      <c r="H8" s="147"/>
-      <c r="I8" s="147"/>
-      <c r="J8" s="147"/>
-      <c r="K8" s="147"/>
-      <c r="L8" s="147"/>
-      <c r="M8" s="147"/>
-      <c r="N8" s="147"/>
-      <c r="O8" s="147"/>
-      <c r="P8" s="147"/>
-      <c r="Q8" s="148"/>
+      <c r="C8" s="142"/>
+      <c r="D8" s="143"/>
+      <c r="E8" s="143"/>
+      <c r="F8" s="143"/>
+      <c r="G8" s="143"/>
+      <c r="H8" s="143"/>
+      <c r="I8" s="143"/>
+      <c r="J8" s="143"/>
+      <c r="K8" s="143"/>
+      <c r="L8" s="143"/>
+      <c r="M8" s="143"/>
+      <c r="N8" s="143"/>
+      <c r="O8" s="143"/>
+      <c r="P8" s="143"/>
+      <c r="Q8" s="144"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="45"/>
       <c r="B9" s="46"/>
-      <c r="C9" s="149"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="150"/>
-      <c r="F9" s="150"/>
-      <c r="G9" s="150"/>
-      <c r="H9" s="150"/>
-      <c r="I9" s="150"/>
-      <c r="J9" s="150"/>
-      <c r="K9" s="150"/>
-      <c r="L9" s="150"/>
-      <c r="M9" s="150"/>
-      <c r="N9" s="150"/>
-      <c r="O9" s="150"/>
-      <c r="P9" s="150"/>
-      <c r="Q9" s="151"/>
+      <c r="C9" s="145"/>
+      <c r="D9" s="146"/>
+      <c r="E9" s="146"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="146"/>
+      <c r="I9" s="146"/>
+      <c r="J9" s="146"/>
+      <c r="K9" s="146"/>
+      <c r="L9" s="146"/>
+      <c r="M9" s="146"/>
+      <c r="N9" s="146"/>
+      <c r="O9" s="146"/>
+      <c r="P9" s="146"/>
+      <c r="Q9" s="147"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="41" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="42"/>
-      <c r="C10" s="152"/>
-      <c r="D10" s="153"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="153"/>
-      <c r="G10" s="153"/>
-      <c r="H10" s="153"/>
-      <c r="I10" s="153"/>
-      <c r="J10" s="153"/>
-      <c r="K10" s="153"/>
-      <c r="L10" s="153"/>
-      <c r="M10" s="153"/>
-      <c r="N10" s="153"/>
-      <c r="O10" s="153"/>
-      <c r="P10" s="153"/>
-      <c r="Q10" s="154"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="140"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="140"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="140"/>
+      <c r="K10" s="140"/>
+      <c r="L10" s="140"/>
+      <c r="M10" s="140"/>
+      <c r="N10" s="140"/>
+      <c r="O10" s="140"/>
+      <c r="P10" s="140"/>
+      <c r="Q10" s="141"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="43"/>
       <c r="B11" s="44"/>
-      <c r="C11" s="146"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="147"/>
-      <c r="H11" s="147"/>
-      <c r="I11" s="147"/>
-      <c r="J11" s="147"/>
-      <c r="K11" s="147"/>
-      <c r="L11" s="147"/>
-      <c r="M11" s="147"/>
-      <c r="N11" s="147"/>
-      <c r="O11" s="147"/>
-      <c r="P11" s="147"/>
-      <c r="Q11" s="148"/>
+      <c r="C11" s="142"/>
+      <c r="D11" s="143"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="143"/>
+      <c r="G11" s="143"/>
+      <c r="H11" s="143"/>
+      <c r="I11" s="143"/>
+      <c r="J11" s="143"/>
+      <c r="K11" s="143"/>
+      <c r="L11" s="143"/>
+      <c r="M11" s="143"/>
+      <c r="N11" s="143"/>
+      <c r="O11" s="143"/>
+      <c r="P11" s="143"/>
+      <c r="Q11" s="144"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="43"/>
       <c r="B12" s="44"/>
-      <c r="C12" s="146"/>
-      <c r="D12" s="147"/>
-      <c r="E12" s="147"/>
-      <c r="F12" s="147"/>
-      <c r="G12" s="147"/>
-      <c r="H12" s="147"/>
-      <c r="I12" s="147"/>
-      <c r="J12" s="147"/>
-      <c r="K12" s="147"/>
-      <c r="L12" s="147"/>
-      <c r="M12" s="147"/>
-      <c r="N12" s="147"/>
-      <c r="O12" s="147"/>
-      <c r="P12" s="147"/>
-      <c r="Q12" s="148"/>
+      <c r="C12" s="142"/>
+      <c r="D12" s="143"/>
+      <c r="E12" s="143"/>
+      <c r="F12" s="143"/>
+      <c r="G12" s="143"/>
+      <c r="H12" s="143"/>
+      <c r="I12" s="143"/>
+      <c r="J12" s="143"/>
+      <c r="K12" s="143"/>
+      <c r="L12" s="143"/>
+      <c r="M12" s="143"/>
+      <c r="N12" s="143"/>
+      <c r="O12" s="143"/>
+      <c r="P12" s="143"/>
+      <c r="Q12" s="144"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="45"/>
       <c r="B13" s="46"/>
-      <c r="C13" s="149"/>
-      <c r="D13" s="150"/>
-      <c r="E13" s="150"/>
-      <c r="F13" s="150"/>
-      <c r="G13" s="150"/>
-      <c r="H13" s="150"/>
-      <c r="I13" s="150"/>
-      <c r="J13" s="150"/>
-      <c r="K13" s="150"/>
-      <c r="L13" s="150"/>
-      <c r="M13" s="150"/>
-      <c r="N13" s="150"/>
-      <c r="O13" s="150"/>
-      <c r="P13" s="150"/>
-      <c r="Q13" s="151"/>
+      <c r="C13" s="145"/>
+      <c r="D13" s="146"/>
+      <c r="E13" s="146"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="146"/>
+      <c r="I13" s="146"/>
+      <c r="J13" s="146"/>
+      <c r="K13" s="146"/>
+      <c r="L13" s="146"/>
+      <c r="M13" s="146"/>
+      <c r="N13" s="146"/>
+      <c r="O13" s="146"/>
+      <c r="P13" s="146"/>
+      <c r="Q13" s="147"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="41" t="s">
@@ -6972,397 +7127,390 @@
       <c r="B14" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="152"/>
-      <c r="D14" s="153"/>
-      <c r="E14" s="153"/>
-      <c r="F14" s="153"/>
-      <c r="G14" s="153"/>
-      <c r="H14" s="153"/>
-      <c r="I14" s="153"/>
-      <c r="J14" s="153"/>
-      <c r="K14" s="153"/>
-      <c r="L14" s="153"/>
-      <c r="M14" s="153"/>
-      <c r="N14" s="153"/>
-      <c r="O14" s="153"/>
-      <c r="P14" s="153"/>
-      <c r="Q14" s="154"/>
+      <c r="C14" s="139"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="140"/>
+      <c r="I14" s="140"/>
+      <c r="J14" s="140"/>
+      <c r="K14" s="140"/>
+      <c r="L14" s="140"/>
+      <c r="M14" s="140"/>
+      <c r="N14" s="140"/>
+      <c r="O14" s="140"/>
+      <c r="P14" s="140"/>
+      <c r="Q14" s="141"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="43"/>
       <c r="B15" s="44"/>
-      <c r="C15" s="146" t="s">
+      <c r="C15" s="142" t="s">
         <v>261</v>
       </c>
-      <c r="D15" s="147"/>
-      <c r="E15" s="147"/>
-      <c r="F15" s="147"/>
-      <c r="G15" s="147"/>
-      <c r="H15" s="147"/>
-      <c r="I15" s="147"/>
-      <c r="J15" s="147"/>
-      <c r="K15" s="147"/>
-      <c r="L15" s="147"/>
-      <c r="M15" s="147"/>
-      <c r="N15" s="147"/>
-      <c r="O15" s="147"/>
-      <c r="P15" s="147"/>
-      <c r="Q15" s="148"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="143"/>
+      <c r="K15" s="143"/>
+      <c r="L15" s="143"/>
+      <c r="M15" s="143"/>
+      <c r="N15" s="143"/>
+      <c r="O15" s="143"/>
+      <c r="P15" s="143"/>
+      <c r="Q15" s="144"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="43"/>
       <c r="B16" s="44"/>
-      <c r="C16" s="146"/>
-      <c r="D16" s="147"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="147"/>
-      <c r="H16" s="147"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="147"/>
-      <c r="K16" s="147"/>
-      <c r="L16" s="147"/>
-      <c r="M16" s="147"/>
-      <c r="N16" s="147"/>
-      <c r="O16" s="147"/>
-      <c r="P16" s="147"/>
-      <c r="Q16" s="148"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="143"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="143"/>
+      <c r="J16" s="143"/>
+      <c r="K16" s="143"/>
+      <c r="L16" s="143"/>
+      <c r="M16" s="143"/>
+      <c r="N16" s="143"/>
+      <c r="O16" s="143"/>
+      <c r="P16" s="143"/>
+      <c r="Q16" s="144"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="43"/>
       <c r="B17" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="146" t="s">
+      <c r="C17" s="142" t="s">
         <v>259</v>
       </c>
-      <c r="D17" s="147"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="147"/>
-      <c r="H17" s="147"/>
-      <c r="I17" s="147"/>
-      <c r="J17" s="147"/>
-      <c r="K17" s="147"/>
-      <c r="L17" s="147"/>
-      <c r="M17" s="147"/>
-      <c r="N17" s="147"/>
-      <c r="O17" s="147"/>
-      <c r="P17" s="147"/>
-      <c r="Q17" s="148"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="143"/>
+      <c r="H17" s="143"/>
+      <c r="I17" s="143"/>
+      <c r="J17" s="143"/>
+      <c r="K17" s="143"/>
+      <c r="L17" s="143"/>
+      <c r="M17" s="143"/>
+      <c r="N17" s="143"/>
+      <c r="O17" s="143"/>
+      <c r="P17" s="143"/>
+      <c r="Q17" s="144"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="43"/>
       <c r="B18" s="44"/>
-      <c r="C18" s="146"/>
-      <c r="D18" s="147"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="147"/>
-      <c r="G18" s="147"/>
-      <c r="H18" s="147"/>
-      <c r="I18" s="147"/>
-      <c r="J18" s="147"/>
-      <c r="K18" s="147"/>
-      <c r="L18" s="147"/>
-      <c r="M18" s="147"/>
-      <c r="N18" s="147"/>
-      <c r="O18" s="147"/>
-      <c r="P18" s="147"/>
-      <c r="Q18" s="148"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="143"/>
+      <c r="E18" s="143"/>
+      <c r="F18" s="143"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="143"/>
+      <c r="I18" s="143"/>
+      <c r="J18" s="143"/>
+      <c r="K18" s="143"/>
+      <c r="L18" s="143"/>
+      <c r="M18" s="143"/>
+      <c r="N18" s="143"/>
+      <c r="O18" s="143"/>
+      <c r="P18" s="143"/>
+      <c r="Q18" s="144"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="43"/>
       <c r="B19" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="146" t="s">
+      <c r="C19" s="142" t="s">
         <v>260</v>
       </c>
-      <c r="D19" s="147"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="147"/>
-      <c r="H19" s="147"/>
-      <c r="I19" s="147"/>
-      <c r="J19" s="147"/>
-      <c r="K19" s="147"/>
-      <c r="L19" s="147"/>
-      <c r="M19" s="147"/>
-      <c r="N19" s="147"/>
-      <c r="O19" s="147"/>
-      <c r="P19" s="147"/>
-      <c r="Q19" s="148"/>
+      <c r="D19" s="143"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="143"/>
+      <c r="K19" s="143"/>
+      <c r="L19" s="143"/>
+      <c r="M19" s="143"/>
+      <c r="N19" s="143"/>
+      <c r="O19" s="143"/>
+      <c r="P19" s="143"/>
+      <c r="Q19" s="144"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="43"/>
       <c r="B20" s="44"/>
-      <c r="C20" s="146"/>
-      <c r="D20" s="147"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="147"/>
-      <c r="K20" s="147"/>
-      <c r="L20" s="147"/>
-      <c r="M20" s="147"/>
-      <c r="N20" s="147"/>
-      <c r="O20" s="147"/>
-      <c r="P20" s="147"/>
-      <c r="Q20" s="148"/>
+      <c r="C20" s="142"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="143"/>
+      <c r="J20" s="143"/>
+      <c r="K20" s="143"/>
+      <c r="L20" s="143"/>
+      <c r="M20" s="143"/>
+      <c r="N20" s="143"/>
+      <c r="O20" s="143"/>
+      <c r="P20" s="143"/>
+      <c r="Q20" s="144"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="43"/>
       <c r="B21" s="44"/>
-      <c r="C21" s="146"/>
-      <c r="D21" s="147"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="147"/>
-      <c r="K21" s="147"/>
-      <c r="L21" s="147"/>
-      <c r="M21" s="147"/>
-      <c r="N21" s="147"/>
-      <c r="O21" s="147"/>
-      <c r="P21" s="147"/>
-      <c r="Q21" s="148"/>
+      <c r="C21" s="142"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="143"/>
+      <c r="F21" s="143"/>
+      <c r="G21" s="143"/>
+      <c r="H21" s="143"/>
+      <c r="I21" s="143"/>
+      <c r="J21" s="143"/>
+      <c r="K21" s="143"/>
+      <c r="L21" s="143"/>
+      <c r="M21" s="143"/>
+      <c r="N21" s="143"/>
+      <c r="O21" s="143"/>
+      <c r="P21" s="143"/>
+      <c r="Q21" s="144"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="42"/>
-      <c r="C22" s="152"/>
-      <c r="D22" s="153"/>
-      <c r="E22" s="153"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="153"/>
-      <c r="K22" s="153"/>
-      <c r="L22" s="153"/>
-      <c r="M22" s="153"/>
-      <c r="N22" s="153"/>
-      <c r="O22" s="153"/>
-      <c r="P22" s="153"/>
-      <c r="Q22" s="154"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="140"/>
+      <c r="E22" s="140"/>
+      <c r="F22" s="140"/>
+      <c r="G22" s="140"/>
+      <c r="H22" s="140"/>
+      <c r="I22" s="140"/>
+      <c r="J22" s="140"/>
+      <c r="K22" s="140"/>
+      <c r="L22" s="140"/>
+      <c r="M22" s="140"/>
+      <c r="N22" s="140"/>
+      <c r="O22" s="140"/>
+      <c r="P22" s="140"/>
+      <c r="Q22" s="141"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="43"/>
       <c r="B23" s="44"/>
-      <c r="C23" s="146"/>
-      <c r="D23" s="147"/>
-      <c r="E23" s="147"/>
-      <c r="F23" s="147"/>
-      <c r="G23" s="147"/>
-      <c r="H23" s="147"/>
-      <c r="I23" s="147"/>
-      <c r="J23" s="147"/>
-      <c r="K23" s="147"/>
-      <c r="L23" s="147"/>
-      <c r="M23" s="147"/>
-      <c r="N23" s="147"/>
-      <c r="O23" s="147"/>
-      <c r="P23" s="147"/>
-      <c r="Q23" s="148"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="143"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="143"/>
+      <c r="G23" s="143"/>
+      <c r="H23" s="143"/>
+      <c r="I23" s="143"/>
+      <c r="J23" s="143"/>
+      <c r="K23" s="143"/>
+      <c r="L23" s="143"/>
+      <c r="M23" s="143"/>
+      <c r="N23" s="143"/>
+      <c r="O23" s="143"/>
+      <c r="P23" s="143"/>
+      <c r="Q23" s="144"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="45"/>
       <c r="B24" s="46"/>
-      <c r="C24" s="149"/>
-      <c r="D24" s="150"/>
-      <c r="E24" s="150"/>
-      <c r="F24" s="150"/>
-      <c r="G24" s="150"/>
-      <c r="H24" s="150"/>
-      <c r="I24" s="150"/>
-      <c r="J24" s="150"/>
-      <c r="K24" s="150"/>
-      <c r="L24" s="150"/>
-      <c r="M24" s="150"/>
-      <c r="N24" s="150"/>
-      <c r="O24" s="150"/>
-      <c r="P24" s="150"/>
-      <c r="Q24" s="151"/>
+      <c r="C24" s="145"/>
+      <c r="D24" s="146"/>
+      <c r="E24" s="146"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="146"/>
+      <c r="I24" s="146"/>
+      <c r="J24" s="146"/>
+      <c r="K24" s="146"/>
+      <c r="L24" s="146"/>
+      <c r="M24" s="146"/>
+      <c r="N24" s="146"/>
+      <c r="O24" s="146"/>
+      <c r="P24" s="146"/>
+      <c r="Q24" s="147"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="41" t="s">
         <v>60</v>
       </c>
       <c r="B25" s="42"/>
-      <c r="C25" s="152"/>
-      <c r="D25" s="153"/>
-      <c r="E25" s="153"/>
-      <c r="F25" s="153"/>
-      <c r="G25" s="153"/>
-      <c r="H25" s="153"/>
-      <c r="I25" s="153"/>
-      <c r="J25" s="153"/>
-      <c r="K25" s="153"/>
-      <c r="L25" s="153"/>
-      <c r="M25" s="153"/>
-      <c r="N25" s="153"/>
-      <c r="O25" s="153"/>
-      <c r="P25" s="153"/>
-      <c r="Q25" s="154"/>
+      <c r="C25" s="139"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="140"/>
+      <c r="F25" s="140"/>
+      <c r="G25" s="140"/>
+      <c r="H25" s="140"/>
+      <c r="I25" s="140"/>
+      <c r="J25" s="140"/>
+      <c r="K25" s="140"/>
+      <c r="L25" s="140"/>
+      <c r="M25" s="140"/>
+      <c r="N25" s="140"/>
+      <c r="O25" s="140"/>
+      <c r="P25" s="140"/>
+      <c r="Q25" s="141"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="43"/>
       <c r="B26" s="44"/>
-      <c r="C26" s="146"/>
-      <c r="D26" s="147"/>
-      <c r="E26" s="147"/>
-      <c r="F26" s="147"/>
-      <c r="G26" s="147"/>
-      <c r="H26" s="147"/>
-      <c r="I26" s="147"/>
-      <c r="J26" s="147"/>
-      <c r="K26" s="147"/>
-      <c r="L26" s="147"/>
-      <c r="M26" s="147"/>
-      <c r="N26" s="147"/>
-      <c r="O26" s="147"/>
-      <c r="P26" s="147"/>
-      <c r="Q26" s="148"/>
+      <c r="C26" s="142"/>
+      <c r="D26" s="143"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="143"/>
+      <c r="J26" s="143"/>
+      <c r="K26" s="143"/>
+      <c r="L26" s="143"/>
+      <c r="M26" s="143"/>
+      <c r="N26" s="143"/>
+      <c r="O26" s="143"/>
+      <c r="P26" s="143"/>
+      <c r="Q26" s="144"/>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="43"/>
       <c r="B27" s="44"/>
-      <c r="C27" s="146"/>
-      <c r="D27" s="147"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="147"/>
-      <c r="G27" s="147"/>
-      <c r="H27" s="147"/>
-      <c r="I27" s="147"/>
-      <c r="J27" s="147"/>
-      <c r="K27" s="147"/>
-      <c r="L27" s="147"/>
-      <c r="M27" s="147"/>
-      <c r="N27" s="147"/>
-      <c r="O27" s="147"/>
-      <c r="P27" s="147"/>
-      <c r="Q27" s="148"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="143"/>
+      <c r="E27" s="143"/>
+      <c r="F27" s="143"/>
+      <c r="G27" s="143"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="143"/>
+      <c r="K27" s="143"/>
+      <c r="L27" s="143"/>
+      <c r="M27" s="143"/>
+      <c r="N27" s="143"/>
+      <c r="O27" s="143"/>
+      <c r="P27" s="143"/>
+      <c r="Q27" s="144"/>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="43"/>
       <c r="B28" s="44"/>
-      <c r="C28" s="146"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="147"/>
-      <c r="F28" s="147"/>
-      <c r="G28" s="147"/>
-      <c r="H28" s="147"/>
-      <c r="I28" s="147"/>
-      <c r="J28" s="147"/>
-      <c r="K28" s="147"/>
-      <c r="L28" s="147"/>
-      <c r="M28" s="147"/>
-      <c r="N28" s="147"/>
-      <c r="O28" s="147"/>
-      <c r="P28" s="147"/>
-      <c r="Q28" s="148"/>
+      <c r="C28" s="142"/>
+      <c r="D28" s="143"/>
+      <c r="E28" s="143"/>
+      <c r="F28" s="143"/>
+      <c r="G28" s="143"/>
+      <c r="H28" s="143"/>
+      <c r="I28" s="143"/>
+      <c r="J28" s="143"/>
+      <c r="K28" s="143"/>
+      <c r="L28" s="143"/>
+      <c r="M28" s="143"/>
+      <c r="N28" s="143"/>
+      <c r="O28" s="143"/>
+      <c r="P28" s="143"/>
+      <c r="Q28" s="144"/>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="45"/>
       <c r="B29" s="46"/>
-      <c r="C29" s="149"/>
-      <c r="D29" s="150"/>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
-      <c r="N29" s="150"/>
-      <c r="O29" s="150"/>
-      <c r="P29" s="150"/>
-      <c r="Q29" s="151"/>
+      <c r="C29" s="145"/>
+      <c r="D29" s="146"/>
+      <c r="E29" s="146"/>
+      <c r="F29" s="146"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="146"/>
+      <c r="J29" s="146"/>
+      <c r="K29" s="146"/>
+      <c r="L29" s="146"/>
+      <c r="M29" s="146"/>
+      <c r="N29" s="146"/>
+      <c r="O29" s="146"/>
+      <c r="P29" s="146"/>
+      <c r="Q29" s="147"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="41" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="42"/>
-      <c r="C30" s="152"/>
-      <c r="D30" s="153"/>
-      <c r="E30" s="153"/>
-      <c r="F30" s="153"/>
-      <c r="G30" s="153"/>
-      <c r="H30" s="153"/>
-      <c r="I30" s="153"/>
-      <c r="J30" s="153"/>
-      <c r="K30" s="153"/>
-      <c r="L30" s="153"/>
-      <c r="M30" s="153"/>
-      <c r="N30" s="153"/>
-      <c r="O30" s="153"/>
-      <c r="P30" s="153"/>
-      <c r="Q30" s="154"/>
+      <c r="C30" s="139"/>
+      <c r="D30" s="140"/>
+      <c r="E30" s="140"/>
+      <c r="F30" s="140"/>
+      <c r="G30" s="140"/>
+      <c r="H30" s="140"/>
+      <c r="I30" s="140"/>
+      <c r="J30" s="140"/>
+      <c r="K30" s="140"/>
+      <c r="L30" s="140"/>
+      <c r="M30" s="140"/>
+      <c r="N30" s="140"/>
+      <c r="O30" s="140"/>
+      <c r="P30" s="140"/>
+      <c r="Q30" s="141"/>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="43"/>
       <c r="B31" s="44"/>
-      <c r="C31" s="146" t="s">
+      <c r="C31" s="142" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="147"/>
-      <c r="E31" s="147"/>
-      <c r="F31" s="147"/>
-      <c r="G31" s="147"/>
-      <c r="H31" s="147"/>
-      <c r="I31" s="147"/>
-      <c r="J31" s="147"/>
-      <c r="K31" s="147"/>
-      <c r="L31" s="147"/>
-      <c r="M31" s="147"/>
-      <c r="N31" s="147"/>
-      <c r="O31" s="147"/>
-      <c r="P31" s="147"/>
-      <c r="Q31" s="148"/>
+      <c r="D31" s="143"/>
+      <c r="E31" s="143"/>
+      <c r="F31" s="143"/>
+      <c r="G31" s="143"/>
+      <c r="H31" s="143"/>
+      <c r="I31" s="143"/>
+      <c r="J31" s="143"/>
+      <c r="K31" s="143"/>
+      <c r="L31" s="143"/>
+      <c r="M31" s="143"/>
+      <c r="N31" s="143"/>
+      <c r="O31" s="143"/>
+      <c r="P31" s="143"/>
+      <c r="Q31" s="144"/>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="45"/>
       <c r="B32" s="46"/>
-      <c r="C32" s="149"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="150"/>
-      <c r="N32" s="150"/>
-      <c r="O32" s="150"/>
-      <c r="P32" s="150"/>
-      <c r="Q32" s="151"/>
+      <c r="C32" s="145"/>
+      <c r="D32" s="146"/>
+      <c r="E32" s="146"/>
+      <c r="F32" s="146"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="146"/>
+      <c r="I32" s="146"/>
+      <c r="J32" s="146"/>
+      <c r="K32" s="146"/>
+      <c r="L32" s="146"/>
+      <c r="M32" s="146"/>
+      <c r="N32" s="146"/>
+      <c r="O32" s="146"/>
+      <c r="P32" s="146"/>
+      <c r="Q32" s="147"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C10:Q10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="C5:Q5"/>
-    <mergeCell ref="C6:Q6"/>
-    <mergeCell ref="C7:Q7"/>
-    <mergeCell ref="C8:Q8"/>
-    <mergeCell ref="C9:Q9"/>
+    <mergeCell ref="C27:Q27"/>
+    <mergeCell ref="C29:Q29"/>
+    <mergeCell ref="C30:Q30"/>
+    <mergeCell ref="C31:Q31"/>
+    <mergeCell ref="C32:Q32"/>
+    <mergeCell ref="C28:Q28"/>
     <mergeCell ref="C26:Q26"/>
     <mergeCell ref="C11:Q11"/>
     <mergeCell ref="C12:Q12"/>
@@ -7379,12 +7527,19 @@
     <mergeCell ref="C20:Q20"/>
     <mergeCell ref="C18:Q18"/>
     <mergeCell ref="C16:Q16"/>
-    <mergeCell ref="C27:Q27"/>
-    <mergeCell ref="C29:Q29"/>
-    <mergeCell ref="C30:Q30"/>
-    <mergeCell ref="C31:Q31"/>
-    <mergeCell ref="C32:Q32"/>
-    <mergeCell ref="C28:Q28"/>
+    <mergeCell ref="C10:Q10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="C5:Q5"/>
+    <mergeCell ref="C6:Q6"/>
+    <mergeCell ref="C7:Q7"/>
+    <mergeCell ref="C8:Q8"/>
+    <mergeCell ref="C9:Q9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7397,8 +7552,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:AC89"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7409,7 +7564,7 @@
     <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.875" customWidth="1"/>
-    <col min="11" max="11" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.625" customWidth="1"/>
     <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.75" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.875" customWidth="1"/>
@@ -7451,7 +7606,7 @@
       <c r="V2" s="50"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="82" t="s">
         <v>235</v>
       </c>
       <c r="C3" s="52" t="s">
@@ -7484,20 +7639,20 @@
       <c r="V3" s="53"/>
     </row>
     <row r="4" spans="1:22" s="47" customFormat="1">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="77" t="s">
         <v>79</v>
       </c>
       <c r="B4" s="55" t="s">
         <v>80</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>81</v>
+        <v>266</v>
       </c>
       <c r="D4" s="55" t="s">
         <v>82</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>83</v>
+        <v>267</v>
       </c>
       <c r="F4" s="55" t="s">
         <v>84</v>
@@ -7514,16 +7669,16 @@
       <c r="J4" t="s">
         <v>225</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="L4" s="71" t="s">
+      <c r="L4" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="M4" s="77" t="s">
+      <c r="M4" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="76" t="s">
         <v>90</v>
       </c>
       <c r="O4" s="47" t="s">
@@ -7547,55 +7702,55 @@
       <c r="U4" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="V4" s="60" t="s">
+      <c r="V4" s="58" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="56.25" customHeight="1">
       <c r="A5" s="51"/>
-      <c r="J5" s="85" t="s">
+      <c r="J5" s="83" t="s">
         <v>226</v>
       </c>
-      <c r="K5" s="80" t="s">
+      <c r="K5" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="L5" s="81" t="s">
+      <c r="L5" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="M5" s="82" t="s">
+      <c r="M5" s="80" t="s">
         <v>181</v>
       </c>
-      <c r="N5" s="78" t="s">
+      <c r="N5" s="76" t="s">
         <v>184</v>
       </c>
-      <c r="O5" s="83" t="s">
+      <c r="O5" s="81" t="s">
         <v>185</v>
       </c>
       <c r="V5" s="53"/>
     </row>
     <row r="6" spans="1:22" ht="14.25" thickBot="1">
-      <c r="A6" s="61"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="63"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="60"/>
+      <c r="V6" s="61"/>
     </row>
     <row r="7" spans="1:22" ht="14.25" thickBot="1"/>
     <row r="8" spans="1:22">
@@ -7613,125 +7768,188 @@
       <c r="H8" s="49"/>
       <c r="I8" s="49"/>
       <c r="J8" s="49"/>
-      <c r="K8" s="50"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="50"/>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="51"/>
-      <c r="E9" s="52" t="s">
+      <c r="B9" s="155"/>
+      <c r="C9" s="155"/>
+      <c r="D9" s="155"/>
+      <c r="E9" s="156" t="s">
         <v>111</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="155" t="s">
         <v>112</v>
       </c>
-      <c r="K9" s="53"/>
+      <c r="G9" s="155"/>
+      <c r="H9" s="155"/>
+      <c r="I9" s="155"/>
+      <c r="J9" s="155"/>
+      <c r="K9" s="155"/>
+      <c r="L9" s="155"/>
+      <c r="M9" s="53"/>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="51"/>
-      <c r="E10" s="52"/>
-      <c r="K10" s="53"/>
+      <c r="A10" s="82" t="s">
+        <v>235</v>
+      </c>
+      <c r="B10" s="155"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="156"/>
+      <c r="F10" s="156" t="s">
+        <v>237</v>
+      </c>
+      <c r="G10" s="155"/>
+      <c r="H10" s="156" t="s">
+        <v>239</v>
+      </c>
+      <c r="I10" s="156" t="s">
+        <v>240</v>
+      </c>
+      <c r="J10" s="156" t="s">
+        <v>241</v>
+      </c>
+      <c r="K10" s="156" t="s">
+        <v>242</v>
+      </c>
+      <c r="L10" s="156" t="s">
+        <v>236</v>
+      </c>
+      <c r="M10" s="163" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="11" spans="1:22" s="47" customFormat="1">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="157" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="158" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="158" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="159" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="55" t="s">
+      <c r="F11" s="157" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="55" t="s">
+      <c r="G11" s="159" t="s">
         <v>83</v>
       </c>
-      <c r="H11" s="55" t="s">
+      <c r="H11" s="157" t="s">
         <v>84</v>
       </c>
-      <c r="I11" s="55" t="s">
+      <c r="I11" s="157" t="s">
         <v>85</v>
       </c>
-      <c r="J11" s="55" t="s">
+      <c r="J11" s="157" t="s">
         <v>86</v>
       </c>
-      <c r="K11" s="56" t="s">
+      <c r="K11" s="157" t="s">
         <v>100</v>
+      </c>
+      <c r="L11" s="157" t="s">
+        <v>266</v>
+      </c>
+      <c r="M11" s="56" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:22" s="47" customFormat="1">
       <c r="A12" s="54">
         <v>1001</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="160" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="160" t="s">
         <v>102</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="161" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="E12" s="162" t="s">
         <v>103</v>
       </c>
-      <c r="F12" s="57" t="s">
+      <c r="F12" s="160" t="s">
         <v>104</v>
       </c>
-      <c r="G12" s="57" t="s">
+      <c r="G12" s="162" t="s">
         <v>105</v>
       </c>
-      <c r="H12" s="57" t="s">
+      <c r="H12" s="160" t="s">
         <v>106</v>
       </c>
-      <c r="I12" s="57" t="s">
+      <c r="I12" s="160" t="s">
         <v>107</v>
       </c>
-      <c r="J12" s="57" t="s">
+      <c r="J12" s="160" t="s">
         <v>108</v>
       </c>
-      <c r="K12" s="59" t="s">
+      <c r="K12" s="160" t="s">
         <v>109</v>
       </c>
+      <c r="L12" s="158"/>
+      <c r="M12" s="58"/>
     </row>
     <row r="13" spans="1:22" s="47" customFormat="1">
       <c r="A13" s="54"/>
-      <c r="B13" s="47">
+      <c r="B13" s="158">
         <v>1002</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="160" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="57" t="s">
+      <c r="D13" s="160" t="s">
         <v>102</v>
       </c>
-      <c r="E13" s="58" t="s">
+      <c r="E13" s="161" t="s">
         <v>102</v>
       </c>
-      <c r="K13" s="60"/>
-    </row>
-    <row r="14" spans="1:22">
-      <c r="A14" s="51"/>
-      <c r="K14" s="53"/>
-    </row>
-    <row r="15" spans="1:22" ht="14.25" thickBot="1">
-      <c r="A15" s="61"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="63"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="158"/>
+      <c r="H13" s="158"/>
+      <c r="I13" s="158"/>
+      <c r="J13" s="158"/>
+      <c r="K13" s="158"/>
+      <c r="L13" s="158"/>
+      <c r="M13" s="58"/>
+    </row>
+    <row r="14" spans="1:22" ht="14.25" thickBot="1">
+      <c r="A14" s="59"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="61"/>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="155"/>
+      <c r="B15" s="155"/>
+      <c r="C15" s="155"/>
+      <c r="D15" s="155"/>
+      <c r="E15" s="155"/>
+      <c r="F15" s="155"/>
+      <c r="G15" s="155"/>
+      <c r="H15" s="155"/>
+      <c r="I15" s="155"/>
+      <c r="J15" s="155"/>
+      <c r="K15" s="155"/>
     </row>
     <row r="17" spans="1:23" ht="14.25" thickBot="1"/>
     <row r="18" spans="1:23">
@@ -7778,64 +7996,64 @@
       <c r="W20" s="53"/>
     </row>
     <row r="21" spans="1:23" s="47" customFormat="1">
-      <c r="A21" s="66" t="s">
+      <c r="A21" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="64" t="s">
+      <c r="B21" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="D21" s="64" t="s">
+      <c r="D21" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="E21" s="64" t="s">
+      <c r="E21" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="F21" s="64" t="s">
+      <c r="F21" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="G21" s="65" t="s">
+      <c r="G21" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="H21" s="65" t="s">
+      <c r="H21" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="I21" s="65" t="s">
+      <c r="I21" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="J21" s="64" t="s">
+      <c r="J21" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="K21" s="64" t="s">
+      <c r="K21" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="L21" s="64" t="s">
+      <c r="L21" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="M21" s="64" t="s">
+      <c r="M21" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="N21" s="64" t="s">
+      <c r="N21" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="O21" s="68" t="s">
+      <c r="O21" s="66" t="s">
         <v>165</v>
       </c>
-      <c r="P21" s="65" t="s">
+      <c r="P21" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="Q21" s="65" t="s">
+      <c r="Q21" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="R21" s="65" t="s">
+      <c r="R21" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="S21" s="64" t="s">
+      <c r="S21" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="T21" s="64" t="s">
+      <c r="T21" s="62" t="s">
         <v>132</v>
       </c>
       <c r="U21" s="47" t="s">
@@ -7844,7 +8062,7 @@
       <c r="V21" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="W21" s="69" t="s">
+      <c r="W21" s="67" t="s">
         <v>135</v>
       </c>
     </row>
@@ -7882,13 +8100,13 @@
       <c r="N22" s="47">
         <v>0</v>
       </c>
-      <c r="O22" s="67">
+      <c r="O22" s="65">
         <v>0</v>
       </c>
       <c r="S22" s="47">
         <v>0</v>
       </c>
-      <c r="W22" s="69"/>
+      <c r="W22" s="67"/>
     </row>
     <row r="23" spans="1:23" s="47" customFormat="1">
       <c r="A23" s="54">
@@ -7918,7 +8136,7 @@
       <c r="L23" s="47">
         <v>0</v>
       </c>
-      <c r="W23" s="60"/>
+      <c r="W23" s="58"/>
     </row>
     <row r="24" spans="1:23" s="47" customFormat="1">
       <c r="A24" s="54">
@@ -7948,7 +8166,7 @@
       <c r="L24" s="47">
         <v>0</v>
       </c>
-      <c r="W24" s="60"/>
+      <c r="W24" s="58"/>
     </row>
     <row r="25" spans="1:23" s="47" customFormat="1">
       <c r="A25" s="54">
@@ -7978,7 +8196,7 @@
       <c r="L25" s="47">
         <v>0</v>
       </c>
-      <c r="W25" s="60"/>
+      <c r="W25" s="58"/>
     </row>
     <row r="26" spans="1:23" s="47" customFormat="1">
       <c r="A26" s="54">
@@ -8008,7 +8226,7 @@
       <c r="L26" s="47">
         <v>0</v>
       </c>
-      <c r="W26" s="60"/>
+      <c r="W26" s="58"/>
     </row>
     <row r="27" spans="1:23" s="47" customFormat="1">
       <c r="A27" s="54">
@@ -8038,7 +8256,7 @@
       <c r="L27" s="47">
         <v>0</v>
       </c>
-      <c r="W27" s="60"/>
+      <c r="W27" s="58"/>
     </row>
     <row r="28" spans="1:23" s="47" customFormat="1">
       <c r="A28" s="54">
@@ -8068,7 +8286,7 @@
       <c r="L28" s="47">
         <v>0</v>
       </c>
-      <c r="W28" s="60"/>
+      <c r="W28" s="58"/>
     </row>
     <row r="29" spans="1:23" s="47" customFormat="1">
       <c r="A29" s="54">
@@ -8098,7 +8316,7 @@
       <c r="L29" s="47">
         <v>0</v>
       </c>
-      <c r="W29" s="60"/>
+      <c r="W29" s="58"/>
     </row>
     <row r="30" spans="1:23" s="47" customFormat="1">
       <c r="A30" s="54">
@@ -8140,36 +8358,36 @@
       <c r="S30" s="47">
         <v>0</v>
       </c>
-      <c r="W30" s="60"/>
+      <c r="W30" s="58"/>
     </row>
     <row r="31" spans="1:23">
       <c r="A31" s="51"/>
       <c r="W31" s="53"/>
     </row>
     <row r="32" spans="1:23" ht="14.25" thickBot="1">
-      <c r="A32" s="61"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="62"/>
-      <c r="M32" s="62"/>
-      <c r="N32" s="62"/>
-      <c r="O32" s="62"/>
-      <c r="P32" s="62"/>
-      <c r="Q32" s="62"/>
-      <c r="R32" s="62"/>
-      <c r="S32" s="62"/>
-      <c r="T32" s="62"/>
-      <c r="U32" s="62"/>
-      <c r="V32" s="62"/>
-      <c r="W32" s="63"/>
+      <c r="A32" s="59"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="60"/>
+      <c r="N32" s="60"/>
+      <c r="O32" s="60"/>
+      <c r="P32" s="60"/>
+      <c r="Q32" s="60"/>
+      <c r="R32" s="60"/>
+      <c r="S32" s="60"/>
+      <c r="T32" s="60"/>
+      <c r="U32" s="60"/>
+      <c r="V32" s="60"/>
+      <c r="W32" s="61"/>
     </row>
     <row r="34" spans="1:25" ht="14.25" thickBot="1"/>
     <row r="35" spans="1:25">
@@ -8218,70 +8436,70 @@
       <c r="Y37" s="53"/>
     </row>
     <row r="38" spans="1:25" s="47" customFormat="1">
-      <c r="A38" s="66" t="s">
+      <c r="A38" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="B38" s="64" t="s">
+      <c r="B38" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="64" t="s">
+      <c r="C38" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="D38" s="64" t="s">
+      <c r="D38" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="E38" s="64" t="s">
+      <c r="E38" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="F38" s="64" t="s">
+      <c r="F38" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="G38" s="65" t="s">
+      <c r="G38" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="H38" s="65" t="s">
+      <c r="H38" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="I38" s="65" t="s">
+      <c r="I38" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="J38" s="65" t="s">
+      <c r="J38" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="K38" s="64" t="s">
+      <c r="K38" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="L38" s="64" t="s">
+      <c r="L38" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="M38" s="64" t="s">
+      <c r="M38" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="N38" s="64" t="s">
+      <c r="N38" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="O38" s="70" t="s">
+      <c r="O38" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="P38" s="64" t="s">
+      <c r="P38" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="Q38" s="64" t="s">
+      <c r="Q38" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="R38" s="65" t="s">
+      <c r="R38" s="63" t="s">
         <v>159</v>
       </c>
-      <c r="S38" s="65" t="s">
+      <c r="S38" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="T38" s="65" t="s">
+      <c r="T38" s="63" t="s">
         <v>160</v>
       </c>
-      <c r="U38" s="64" t="s">
+      <c r="U38" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="V38" s="64" t="s">
+      <c r="V38" s="62" t="s">
         <v>132</v>
       </c>
       <c r="W38" s="47" t="s">
@@ -8290,7 +8508,7 @@
       <c r="X38" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="Y38" s="60"/>
+      <c r="Y38" s="58"/>
     </row>
     <row r="39" spans="1:25" s="47" customFormat="1">
       <c r="A39" s="54">
@@ -8323,7 +8541,7 @@
       <c r="N39" s="47">
         <v>17922</v>
       </c>
-      <c r="O39" s="71">
+      <c r="O39" s="69">
         <v>727110</v>
       </c>
       <c r="P39" s="47">
@@ -8335,7 +8553,7 @@
       <c r="U39" s="47">
         <v>-799820</v>
       </c>
-      <c r="Y39" s="60"/>
+      <c r="Y39" s="58"/>
     </row>
     <row r="40" spans="1:25" s="47" customFormat="1">
       <c r="A40" s="54">
@@ -8368,7 +8586,7 @@
       <c r="N40" s="47">
         <v>38838</v>
       </c>
-      <c r="Y40" s="60"/>
+      <c r="Y40" s="58"/>
     </row>
     <row r="41" spans="1:25" s="47" customFormat="1">
       <c r="A41" s="54">
@@ -8401,7 +8619,7 @@
       <c r="N41" s="47">
         <v>17185</v>
       </c>
-      <c r="Y41" s="60"/>
+      <c r="Y41" s="58"/>
     </row>
     <row r="42" spans="1:25" s="47" customFormat="1">
       <c r="A42" s="54">
@@ -8434,7 +8652,7 @@
       <c r="N42" s="47">
         <v>17735</v>
       </c>
-      <c r="Y42" s="60"/>
+      <c r="Y42" s="58"/>
     </row>
     <row r="43" spans="1:25" s="47" customFormat="1">
       <c r="A43" s="54">
@@ -8467,7 +8685,7 @@
       <c r="N43" s="47">
         <v>1284</v>
       </c>
-      <c r="Y43" s="60"/>
+      <c r="Y43" s="58"/>
     </row>
     <row r="44" spans="1:25" s="47" customFormat="1">
       <c r="A44" s="54">
@@ -8500,7 +8718,7 @@
       <c r="N44" s="47">
         <v>764</v>
       </c>
-      <c r="Y44" s="60"/>
+      <c r="Y44" s="58"/>
     </row>
     <row r="45" spans="1:25" s="47" customFormat="1">
       <c r="A45" s="54">
@@ -8533,7 +8751,7 @@
       <c r="N45" s="47">
         <v>138235</v>
       </c>
-      <c r="Y45" s="60"/>
+      <c r="Y45" s="58"/>
     </row>
     <row r="46" spans="1:25" s="47" customFormat="1">
       <c r="A46" s="54">
@@ -8566,7 +8784,7 @@
       <c r="N46" s="47">
         <v>23916</v>
       </c>
-      <c r="Y46" s="60"/>
+      <c r="Y46" s="58"/>
     </row>
     <row r="47" spans="1:25" s="47" customFormat="1">
       <c r="A47" s="54">
@@ -8599,7 +8817,7 @@
       <c r="N47" s="47">
         <v>117041</v>
       </c>
-      <c r="Y47" s="60"/>
+      <c r="Y47" s="58"/>
     </row>
     <row r="48" spans="1:25" s="47" customFormat="1">
       <c r="A48" s="54">
@@ -8632,7 +8850,7 @@
       <c r="N48" s="47">
         <v>86107</v>
       </c>
-      <c r="Y48" s="60"/>
+      <c r="Y48" s="58"/>
     </row>
     <row r="49" spans="1:25" s="47" customFormat="1">
       <c r="A49" s="54">
@@ -8665,7 +8883,7 @@
       <c r="N49" s="47">
         <v>17762</v>
       </c>
-      <c r="Y49" s="60"/>
+      <c r="Y49" s="58"/>
     </row>
     <row r="50" spans="1:25" s="47" customFormat="1">
       <c r="A50" s="54">
@@ -8698,7 +8916,7 @@
       <c r="N50" s="47">
         <v>1180</v>
       </c>
-      <c r="Y50" s="60"/>
+      <c r="Y50" s="58"/>
     </row>
     <row r="51" spans="1:25" s="47" customFormat="1">
       <c r="A51" s="54">
@@ -8731,7 +8949,7 @@
       <c r="N51" s="47">
         <v>17922</v>
       </c>
-      <c r="Y51" s="60"/>
+      <c r="Y51" s="58"/>
     </row>
     <row r="52" spans="1:25" s="47" customFormat="1">
       <c r="A52" s="54">
@@ -8764,7 +8982,7 @@
       <c r="N52" s="47">
         <v>75643</v>
       </c>
-      <c r="Y52" s="60"/>
+      <c r="Y52" s="58"/>
     </row>
     <row r="53" spans="1:25" s="47" customFormat="1">
       <c r="A53" s="54">
@@ -8797,7 +9015,7 @@
       <c r="N53" s="47">
         <v>17735</v>
       </c>
-      <c r="Y53" s="60"/>
+      <c r="Y53" s="58"/>
     </row>
     <row r="54" spans="1:25" s="47" customFormat="1">
       <c r="A54" s="54">
@@ -8830,7 +9048,7 @@
       <c r="N54" s="47">
         <v>17735</v>
       </c>
-      <c r="Y54" s="60"/>
+      <c r="Y54" s="58"/>
     </row>
     <row r="55" spans="1:25" s="47" customFormat="1">
       <c r="A55" s="54">
@@ -8863,7 +9081,7 @@
       <c r="N55" s="47">
         <v>17735</v>
       </c>
-      <c r="Y55" s="60"/>
+      <c r="Y55" s="58"/>
     </row>
     <row r="56" spans="1:25" s="47" customFormat="1">
       <c r="A56" s="54">
@@ -8896,7 +9114,7 @@
       <c r="N56" s="47">
         <v>22817</v>
       </c>
-      <c r="Y56" s="60"/>
+      <c r="Y56" s="58"/>
     </row>
     <row r="57" spans="1:25" s="47" customFormat="1">
       <c r="A57" s="54">
@@ -8929,7 +9147,7 @@
       <c r="N57" s="47">
         <v>13932</v>
       </c>
-      <c r="Y57" s="60"/>
+      <c r="Y57" s="58"/>
     </row>
     <row r="58" spans="1:25" s="47" customFormat="1">
       <c r="A58" s="54">
@@ -8962,7 +9180,7 @@
       <c r="N58" s="47">
         <v>56804</v>
       </c>
-      <c r="Y58" s="60"/>
+      <c r="Y58" s="58"/>
     </row>
     <row r="59" spans="1:25" s="47" customFormat="1">
       <c r="A59" s="54">
@@ -8995,7 +9213,7 @@
       <c r="N59" s="47">
         <v>19715</v>
       </c>
-      <c r="Y59" s="60"/>
+      <c r="Y59" s="58"/>
     </row>
     <row r="60" spans="1:25" s="47" customFormat="1">
       <c r="A60" s="54">
@@ -9028,7 +9246,7 @@
       <c r="N60" s="47">
         <v>3079</v>
       </c>
-      <c r="Y60" s="60"/>
+      <c r="Y60" s="58"/>
     </row>
     <row r="61" spans="1:25" s="47" customFormat="1">
       <c r="A61" s="54">
@@ -9061,7 +9279,7 @@
       <c r="N61" s="47">
         <v>6029</v>
       </c>
-      <c r="Y61" s="60"/>
+      <c r="Y61" s="58"/>
     </row>
     <row r="62" spans="1:25" s="47" customFormat="1">
       <c r="A62" s="54">
@@ -9094,7 +9312,7 @@
       <c r="N62" s="47">
         <v>7140</v>
       </c>
-      <c r="Y62" s="60"/>
+      <c r="Y62" s="58"/>
     </row>
     <row r="63" spans="1:25" s="47" customFormat="1">
       <c r="A63" s="54">
@@ -9127,7 +9345,7 @@
       <c r="N63" s="47">
         <v>622</v>
       </c>
-      <c r="Y63" s="60"/>
+      <c r="Y63" s="58"/>
     </row>
     <row r="64" spans="1:25" s="47" customFormat="1">
       <c r="A64" s="54">
@@ -9160,7 +9378,7 @@
       <c r="N64" s="47">
         <v>20545</v>
       </c>
-      <c r="Y64" s="60"/>
+      <c r="Y64" s="58"/>
     </row>
     <row r="65" spans="1:29" s="47" customFormat="1">
       <c r="A65" s="54">
@@ -9193,7 +9411,7 @@
       <c r="N65" s="47">
         <v>24398</v>
       </c>
-      <c r="Y65" s="60"/>
+      <c r="Y65" s="58"/>
     </row>
     <row r="66" spans="1:29" s="47" customFormat="1">
       <c r="A66" s="54">
@@ -9238,34 +9456,34 @@
       <c r="U66" s="47">
         <v>-410904</v>
       </c>
-      <c r="Y66" s="60"/>
+      <c r="Y66" s="58"/>
     </row>
     <row r="67" spans="1:29" ht="14.25" thickBot="1">
-      <c r="A67" s="61"/>
-      <c r="B67" s="62"/>
-      <c r="C67" s="62"/>
-      <c r="D67" s="62"/>
-      <c r="E67" s="62"/>
-      <c r="F67" s="62"/>
-      <c r="G67" s="62"/>
-      <c r="H67" s="62"/>
-      <c r="I67" s="62"/>
-      <c r="J67" s="62"/>
-      <c r="K67" s="62"/>
-      <c r="L67" s="62"/>
-      <c r="M67" s="62"/>
-      <c r="N67" s="62"/>
-      <c r="O67" s="62"/>
-      <c r="P67" s="62"/>
-      <c r="Q67" s="62"/>
-      <c r="R67" s="62"/>
-      <c r="S67" s="62"/>
-      <c r="T67" s="62"/>
-      <c r="U67" s="62"/>
-      <c r="V67" s="62"/>
-      <c r="W67" s="62"/>
-      <c r="X67" s="62"/>
-      <c r="Y67" s="63"/>
+      <c r="A67" s="59"/>
+      <c r="B67" s="60"/>
+      <c r="C67" s="60"/>
+      <c r="D67" s="60"/>
+      <c r="E67" s="60"/>
+      <c r="F67" s="60"/>
+      <c r="G67" s="60"/>
+      <c r="H67" s="60"/>
+      <c r="I67" s="60"/>
+      <c r="J67" s="60"/>
+      <c r="K67" s="60"/>
+      <c r="L67" s="60"/>
+      <c r="M67" s="60"/>
+      <c r="N67" s="60"/>
+      <c r="O67" s="60"/>
+      <c r="P67" s="60"/>
+      <c r="Q67" s="60"/>
+      <c r="R67" s="60"/>
+      <c r="S67" s="60"/>
+      <c r="T67" s="60"/>
+      <c r="U67" s="60"/>
+      <c r="V67" s="60"/>
+      <c r="W67" s="60"/>
+      <c r="X67" s="60"/>
+      <c r="Y67" s="61"/>
     </row>
     <row r="69" spans="1:29" ht="14.25" thickBot="1"/>
     <row r="70" spans="1:29">
@@ -9314,82 +9532,82 @@
       <c r="AC71" s="53"/>
     </row>
     <row r="72" spans="1:29" s="47" customFormat="1">
-      <c r="A72" s="66" t="s">
+      <c r="A72" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="B72" s="64" t="s">
+      <c r="B72" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="C72" s="64" t="s">
+      <c r="C72" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="D72" s="64" t="s">
+      <c r="D72" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="E72" s="64" t="s">
+      <c r="E72" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="F72" s="64" t="s">
+      <c r="F72" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="G72" s="65" t="s">
+      <c r="G72" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="H72" s="65" t="s">
+      <c r="H72" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="I72" s="65" t="s">
+      <c r="I72" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="J72" s="65" t="s">
+      <c r="J72" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="K72" s="65" t="s">
+      <c r="K72" s="63" t="s">
         <v>172</v>
       </c>
-      <c r="L72" s="64" t="s">
+      <c r="L72" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="M72" s="64" t="s">
+      <c r="M72" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="N72" s="64" t="s">
+      <c r="N72" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="O72" s="64" t="s">
+      <c r="O72" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="P72" s="65" t="s">
+      <c r="P72" s="63" t="s">
         <v>174</v>
       </c>
-      <c r="Q72" s="65" t="s">
+      <c r="Q72" s="63" t="s">
         <v>175</v>
       </c>
-      <c r="R72" s="65" t="s">
+      <c r="R72" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="S72" s="64" t="s">
+      <c r="S72" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="T72" s="64" t="s">
+      <c r="T72" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="U72" s="76" t="s">
+      <c r="U72" s="74" t="s">
         <v>181</v>
       </c>
-      <c r="V72" s="64" t="s">
+      <c r="V72" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="W72" s="64" t="s">
+      <c r="W72" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="X72" s="64" t="s">
+      <c r="X72" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="Y72" s="64" t="s">
+      <c r="Y72" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="Z72" s="64" t="s">
+      <c r="Z72" s="62" t="s">
         <v>132</v>
       </c>
       <c r="AA72" s="47" t="s">
@@ -9398,7 +9616,7 @@
       <c r="AB72" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="AC72" s="60"/>
+      <c r="AC72" s="58"/>
     </row>
     <row r="73" spans="1:29" s="47" customFormat="1">
       <c r="A73" s="54">
@@ -9443,13 +9661,13 @@
       <c r="T73" s="47">
         <v>1713</v>
       </c>
-      <c r="U73" s="77">
+      <c r="U73" s="75">
         <v>18847</v>
       </c>
       <c r="Y73" s="47">
         <v>-18847</v>
       </c>
-      <c r="AC73" s="60"/>
+      <c r="AC73" s="58"/>
     </row>
     <row r="74" spans="1:29" s="47" customFormat="1">
       <c r="A74" s="54">
@@ -9485,7 +9703,7 @@
       <c r="P74" s="47">
         <v>1980</v>
       </c>
-      <c r="AC74" s="60"/>
+      <c r="AC74" s="58"/>
     </row>
     <row r="75" spans="1:29" s="47" customFormat="1">
       <c r="A75" s="54">
@@ -9521,7 +9739,7 @@
       <c r="P75" s="47">
         <v>1980</v>
       </c>
-      <c r="AC75" s="60"/>
+      <c r="AC75" s="58"/>
     </row>
     <row r="76" spans="1:29" s="47" customFormat="1">
       <c r="A76" s="54">
@@ -9557,7 +9775,7 @@
       <c r="P76" s="47">
         <v>1980</v>
       </c>
-      <c r="AC76" s="60"/>
+      <c r="AC76" s="58"/>
     </row>
     <row r="77" spans="1:29" s="47" customFormat="1">
       <c r="A77" s="54">
@@ -9593,7 +9811,7 @@
       <c r="P77" s="47">
         <v>673</v>
       </c>
-      <c r="AC77" s="60"/>
+      <c r="AC77" s="58"/>
     </row>
     <row r="78" spans="1:29" s="47" customFormat="1">
       <c r="A78" s="54">
@@ -9644,60 +9862,60 @@
       <c r="Y78" s="47">
         <v>-14484</v>
       </c>
-      <c r="AC78" s="60"/>
+      <c r="AC78" s="58"/>
     </row>
     <row r="79" spans="1:29" s="47" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A79" s="72">
+      <c r="A79" s="70">
         <v>2</v>
       </c>
-      <c r="B79" s="73">
+      <c r="B79" s="71">
         <v>1002</v>
       </c>
-      <c r="C79" s="73" t="s">
+      <c r="C79" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="D79" s="74">
+      <c r="D79" s="72">
         <v>3</v>
       </c>
-      <c r="E79" s="74" t="s">
+      <c r="E79" s="72" t="s">
         <v>179</v>
       </c>
-      <c r="F79" s="74">
+      <c r="F79" s="72">
         <v>259</v>
       </c>
-      <c r="G79" s="74"/>
-      <c r="H79" s="74"/>
-      <c r="I79" s="74"/>
-      <c r="J79" s="74"/>
-      <c r="K79" s="74"/>
-      <c r="L79" s="74">
+      <c r="G79" s="72"/>
+      <c r="H79" s="72"/>
+      <c r="I79" s="72"/>
+      <c r="J79" s="72"/>
+      <c r="K79" s="72"/>
+      <c r="L79" s="72">
         <v>19</v>
       </c>
-      <c r="M79" s="74">
+      <c r="M79" s="72">
         <v>5</v>
       </c>
-      <c r="N79" s="74">
+      <c r="N79" s="72">
         <v>14</v>
       </c>
-      <c r="O79" s="74">
+      <c r="O79" s="72">
         <v>1006</v>
       </c>
-      <c r="P79" s="74">
+      <c r="P79" s="72">
         <v>990</v>
       </c>
-      <c r="Q79" s="74"/>
-      <c r="R79" s="74"/>
-      <c r="S79" s="74"/>
-      <c r="T79" s="74"/>
-      <c r="U79" s="74"/>
-      <c r="V79" s="74"/>
-      <c r="W79" s="74"/>
-      <c r="X79" s="74"/>
-      <c r="Y79" s="74"/>
-      <c r="Z79" s="74"/>
-      <c r="AA79" s="74"/>
-      <c r="AB79" s="74"/>
-      <c r="AC79" s="75"/>
+      <c r="Q79" s="72"/>
+      <c r="R79" s="72"/>
+      <c r="S79" s="72"/>
+      <c r="T79" s="72"/>
+      <c r="U79" s="72"/>
+      <c r="V79" s="72"/>
+      <c r="W79" s="72"/>
+      <c r="X79" s="72"/>
+      <c r="Y79" s="72"/>
+      <c r="Z79" s="72"/>
+      <c r="AA79" s="72"/>
+      <c r="AB79" s="72"/>
+      <c r="AC79" s="73"/>
     </row>
     <row r="81" spans="1:9" ht="14.25" thickBot="1"/>
     <row r="82" spans="1:9">
@@ -9730,7 +9948,7 @@
       <c r="B84" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="C84" s="78" t="s">
+      <c r="C84" s="76" t="s">
         <v>183</v>
       </c>
       <c r="I84" s="53"/>
@@ -9740,7 +9958,7 @@
       <c r="B85" s="57">
         <v>1001</v>
       </c>
-      <c r="C85" s="78"/>
+      <c r="C85" s="76"/>
       <c r="I85" s="53"/>
     </row>
     <row r="86" spans="1:9">
@@ -9750,15 +9968,15 @@
       <c r="I86" s="53"/>
     </row>
     <row r="87" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A87" s="61"/>
-      <c r="B87" s="74"/>
-      <c r="C87" s="74"/>
-      <c r="D87" s="62"/>
-      <c r="E87" s="62"/>
-      <c r="F87" s="62"/>
-      <c r="G87" s="62"/>
-      <c r="H87" s="62"/>
-      <c r="I87" s="63"/>
+      <c r="A87" s="59"/>
+      <c r="B87" s="72"/>
+      <c r="C87" s="72"/>
+      <c r="D87" s="60"/>
+      <c r="E87" s="60"/>
+      <c r="F87" s="60"/>
+      <c r="G87" s="60"/>
+      <c r="H87" s="60"/>
+      <c r="I87" s="61"/>
     </row>
     <row r="88" spans="1:9">
       <c r="B88" s="47"/>
@@ -9775,763 +9993,764 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A2B8A4-F399-4B13-B754-4DA577BBC601}">
-  <sheetPr codeName="Sheet7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54BE7692-7AD4-4778-B75E-8DA7A0309643}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.875" customWidth="1"/>
-    <col min="6" max="6" width="18.375" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="150" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="150" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="150"/>
+    <col min="5" max="5" width="30.875" style="150" customWidth="1"/>
+    <col min="6" max="6" width="18.375" style="150" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="150"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="148" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="86" t="s">
+      <c r="B1" s="149"/>
+      <c r="C1" s="148" t="s">
         <v>191</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="148" t="s">
         <v>192</v>
       </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="87">
+      <c r="A2" s="149">
         <v>1</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="148" t="s">
         <v>190</v>
       </c>
-      <c r="C2" s="88">
+      <c r="C2" s="151">
         <v>9</v>
       </c>
-      <c r="D2" s="88">
+      <c r="D2" s="151">
         <v>1</v>
       </c>
-      <c r="E2" s="87" t="s">
+      <c r="E2" s="149" t="s">
         <v>197</v>
       </c>
-      <c r="F2" s="87"/>
+      <c r="F2" s="149"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="87">
+      <c r="A3" s="149">
         <v>2</v>
       </c>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="149" t="s">
         <v>222</v>
       </c>
-      <c r="C3" s="87">
+      <c r="C3" s="149">
         <v>9</v>
       </c>
-      <c r="D3" s="87">
+      <c r="D3" s="149">
         <v>2</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="149" t="s">
         <v>223</v>
       </c>
-      <c r="F3" s="87"/>
+      <c r="F3" s="149"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="87">
+      <c r="A4" s="149">
         <v>3</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="149" t="s">
         <v>224</v>
       </c>
-      <c r="C4" s="87">
+      <c r="C4" s="149">
         <v>9</v>
       </c>
-      <c r="D4" s="87">
+      <c r="D4" s="149">
         <v>1</v>
       </c>
-      <c r="E4" s="86" t="s">
+      <c r="E4" s="148" t="s">
         <v>233</v>
       </c>
-      <c r="F4" s="86"/>
+      <c r="F4" s="148"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="87">
+      <c r="A5" s="149">
         <v>4</v>
       </c>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="149" t="s">
         <v>232</v>
       </c>
-      <c r="C5" s="87">
+      <c r="C5" s="149">
         <v>9</v>
       </c>
-      <c r="D5" s="87">
+      <c r="D5" s="149">
         <v>10</v>
       </c>
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="148" t="s">
         <v>206</v>
       </c>
-      <c r="F5" s="86"/>
+      <c r="F5" s="148"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="87">
+      <c r="A6" s="149">
         <v>5</v>
       </c>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="149" t="s">
         <v>231</v>
       </c>
-      <c r="C6" s="89" t="s">
+      <c r="C6" s="152" t="s">
         <v>193</v>
       </c>
-      <c r="D6" s="87">
+      <c r="D6" s="149">
         <v>40</v>
       </c>
-      <c r="E6" s="86" t="s">
+      <c r="E6" s="148" t="s">
         <v>220</v>
       </c>
-      <c r="F6" s="86"/>
+      <c r="F6" s="148"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="87">
+      <c r="A7" s="149">
         <v>6</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="149" t="s">
         <v>225</v>
       </c>
-      <c r="C7" s="87">
+      <c r="C7" s="149">
         <v>9</v>
       </c>
-      <c r="D7" s="87">
+      <c r="D7" s="149">
         <v>4</v>
       </c>
-      <c r="E7" s="86" t="s">
+      <c r="E7" s="153" t="s">
         <v>226</v>
       </c>
-      <c r="F7" s="86" t="s">
+      <c r="F7" s="148" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="87">
+      <c r="A8" s="149">
         <v>7</v>
       </c>
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="153" t="s">
         <v>227</v>
       </c>
-      <c r="C8" s="87">
+      <c r="C8" s="149">
         <v>9</v>
       </c>
-      <c r="D8" s="87">
+      <c r="D8" s="149">
         <v>4</v>
       </c>
-      <c r="E8" s="87"/>
-      <c r="F8" s="86" t="s">
+      <c r="E8" s="149"/>
+      <c r="F8" s="148" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="87">
+      <c r="A9" s="149">
         <v>8</v>
       </c>
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="148" t="s">
         <v>228</v>
       </c>
-      <c r="C9" s="89" t="s">
+      <c r="C9" s="152" t="s">
         <v>193</v>
       </c>
-      <c r="D9" s="87">
+      <c r="D9" s="149">
         <v>15</v>
       </c>
-      <c r="E9" s="86" t="s">
+      <c r="E9" s="148" t="s">
+        <v>262</v>
+      </c>
+      <c r="F9" s="148" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="149">
+        <v>9</v>
+      </c>
+      <c r="B10" s="148" t="s">
+        <v>229</v>
+      </c>
+      <c r="C10" s="149">
+        <v>9</v>
+      </c>
+      <c r="D10" s="149">
+        <v>3</v>
+      </c>
+      <c r="E10" s="149"/>
+      <c r="F10" s="148" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="149">
+        <v>10</v>
+      </c>
+      <c r="B11" s="148" t="s">
+        <v>230</v>
+      </c>
+      <c r="C11" s="152" t="s">
+        <v>193</v>
+      </c>
+      <c r="D11" s="149">
+        <v>15</v>
+      </c>
+      <c r="E11" s="148" t="s">
+        <v>262</v>
+      </c>
+      <c r="F11" s="148" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="149">
+        <v>11</v>
+      </c>
+      <c r="B12" s="148" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" s="149">
+        <v>9</v>
+      </c>
+      <c r="D12" s="149">
+        <v>1</v>
+      </c>
+      <c r="E12" s="149"/>
+      <c r="F12" s="148" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="149">
+        <v>12</v>
+      </c>
+      <c r="B13" s="153" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="149">
+        <v>9</v>
+      </c>
+      <c r="D13" s="149">
+        <v>7</v>
+      </c>
+      <c r="E13" s="149"/>
+      <c r="F13" s="148" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="149">
+        <v>13</v>
+      </c>
+      <c r="B14" s="148" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" s="152" t="s">
+        <v>193</v>
+      </c>
+      <c r="D14" s="149">
+        <v>17</v>
+      </c>
+      <c r="E14" s="148" t="s">
+        <v>195</v>
+      </c>
+      <c r="F14" s="148"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="148" t="s">
+        <v>187</v>
+      </c>
+      <c r="B17" s="149"/>
+      <c r="C17" s="148" t="s">
+        <v>191</v>
+      </c>
+      <c r="D17" s="148" t="s">
+        <v>192</v>
+      </c>
+      <c r="E17" s="149"/>
+      <c r="F17" s="149"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="149">
+        <v>1</v>
+      </c>
+      <c r="B18" s="148" t="s">
+        <v>190</v>
+      </c>
+      <c r="C18" s="151">
+        <v>9</v>
+      </c>
+      <c r="D18" s="151">
+        <v>1</v>
+      </c>
+      <c r="E18" s="149" t="s">
+        <v>198</v>
+      </c>
+      <c r="F18" s="149"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="149">
+        <v>2</v>
+      </c>
+      <c r="B19" s="148" t="s">
+        <v>208</v>
+      </c>
+      <c r="C19" s="149">
+        <v>9</v>
+      </c>
+      <c r="D19" s="149">
+        <v>4</v>
+      </c>
+      <c r="E19" s="149"/>
+      <c r="F19" s="148" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="149">
+        <v>3</v>
+      </c>
+      <c r="B20" s="148" t="s">
+        <v>209</v>
+      </c>
+      <c r="C20" s="152" t="s">
+        <v>193</v>
+      </c>
+      <c r="D20" s="149">
+        <v>15</v>
+      </c>
+      <c r="E20" s="148" t="s">
+        <v>262</v>
+      </c>
+      <c r="F20" s="148" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="149">
+        <v>4</v>
+      </c>
+      <c r="B21" s="148" t="s">
+        <v>210</v>
+      </c>
+      <c r="C21" s="149">
+        <v>9</v>
+      </c>
+      <c r="D21" s="149">
+        <v>3</v>
+      </c>
+      <c r="E21" s="149"/>
+      <c r="F21" s="148" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="149">
+        <v>5</v>
+      </c>
+      <c r="B22" s="148" t="s">
+        <v>211</v>
+      </c>
+      <c r="C22" s="152" t="s">
+        <v>193</v>
+      </c>
+      <c r="D22" s="149">
+        <v>15</v>
+      </c>
+      <c r="E22" s="148" t="s">
+        <v>263</v>
+      </c>
+      <c r="F22" s="148" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="149">
+        <v>6</v>
+      </c>
+      <c r="B23" s="148" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23" s="152" t="s">
+        <v>193</v>
+      </c>
+      <c r="D23" s="149">
+        <v>4</v>
+      </c>
+      <c r="E23" s="148" t="s">
+        <v>195</v>
+      </c>
+      <c r="F23" s="148"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="149">
+        <v>7</v>
+      </c>
+      <c r="B24" s="148" t="s">
+        <v>212</v>
+      </c>
+      <c r="C24" s="149">
+        <v>9</v>
+      </c>
+      <c r="D24" s="149">
+        <v>1</v>
+      </c>
+      <c r="E24" s="148" t="s">
+        <v>213</v>
+      </c>
+      <c r="F24" s="148" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="149">
+        <v>8</v>
+      </c>
+      <c r="B25" s="148" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="149">
+        <v>9</v>
+      </c>
+      <c r="D25" s="149">
+        <v>7</v>
+      </c>
+      <c r="E25" s="148" t="s">
+        <v>221</v>
+      </c>
+      <c r="F25" s="148" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="149">
+        <v>9</v>
+      </c>
+      <c r="B26" s="148" t="s">
+        <v>214</v>
+      </c>
+      <c r="C26" s="152" t="s">
+        <v>193</v>
+      </c>
+      <c r="D26" s="149">
+        <v>30</v>
+      </c>
+      <c r="E26" s="148" t="s">
         <v>220</v>
       </c>
-      <c r="F9" s="86" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="87">
+      <c r="F26" s="148" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="149">
+        <v>10</v>
+      </c>
+      <c r="B27" s="148" t="s">
+        <v>215</v>
+      </c>
+      <c r="C27" s="149">
         <v>9</v>
       </c>
-      <c r="B10" s="86" t="s">
-        <v>229</v>
-      </c>
-      <c r="C10" s="87">
+      <c r="D27" s="154">
+        <v>10</v>
+      </c>
+      <c r="E27" s="148" t="s">
+        <v>221</v>
+      </c>
+      <c r="F27" s="148" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="149">
+        <v>11</v>
+      </c>
+      <c r="B28" s="148" t="s">
+        <v>216</v>
+      </c>
+      <c r="C28" s="149">
         <v>9</v>
       </c>
-      <c r="D10" s="87">
+      <c r="D28" s="154">
+        <v>1</v>
+      </c>
+      <c r="E28" s="148" t="s">
+        <v>234</v>
+      </c>
+      <c r="F28" s="148"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="149">
+        <v>12</v>
+      </c>
+      <c r="B29" s="148" t="s">
+        <v>217</v>
+      </c>
+      <c r="C29" s="152" t="s">
+        <v>193</v>
+      </c>
+      <c r="D29" s="154">
+        <v>20</v>
+      </c>
+      <c r="E29" s="148" t="s">
+        <v>265</v>
+      </c>
+      <c r="F29" s="148" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="149">
+        <v>13</v>
+      </c>
+      <c r="B30" s="148" t="s">
+        <v>218</v>
+      </c>
+      <c r="C30" s="149">
+        <v>9</v>
+      </c>
+      <c r="D30" s="149">
+        <v>1</v>
+      </c>
+      <c r="E30" s="148" t="s">
+        <v>219</v>
+      </c>
+      <c r="F30" s="148"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="149">
+        <v>14</v>
+      </c>
+      <c r="B31" s="148" t="s">
+        <v>194</v>
+      </c>
+      <c r="C31" s="152" t="s">
+        <v>193</v>
+      </c>
+      <c r="D31" s="149">
+        <v>8</v>
+      </c>
+      <c r="E31" s="148" t="s">
+        <v>195</v>
+      </c>
+      <c r="F31" s="148"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="149" t="s">
+        <v>188</v>
+      </c>
+      <c r="B34" s="149"/>
+      <c r="C34" s="148" t="s">
+        <v>191</v>
+      </c>
+      <c r="D34" s="148" t="s">
+        <v>192</v>
+      </c>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="149">
+        <v>1</v>
+      </c>
+      <c r="B35" s="148" t="s">
+        <v>190</v>
+      </c>
+      <c r="C35" s="151">
+        <v>9</v>
+      </c>
+      <c r="D35" s="151">
+        <v>1</v>
+      </c>
+      <c r="E35" s="149" t="s">
+        <v>199</v>
+      </c>
+      <c r="F35" s="149"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="149">
+        <v>2</v>
+      </c>
+      <c r="B36" s="149" t="s">
+        <v>200</v>
+      </c>
+      <c r="C36" s="151">
+        <v>9</v>
+      </c>
+      <c r="D36" s="149">
+        <v>6</v>
+      </c>
+      <c r="E36" s="148" t="s">
+        <v>207</v>
+      </c>
+      <c r="F36" s="148"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="149">
         <v>3</v>
       </c>
-      <c r="E10" s="87"/>
-      <c r="F10" s="86" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="87">
-        <v>10</v>
-      </c>
-      <c r="B11" s="86" t="s">
-        <v>230</v>
-      </c>
-      <c r="C11" s="89" t="s">
+      <c r="B37" s="148" t="s">
+        <v>201</v>
+      </c>
+      <c r="C37" s="151">
+        <v>9</v>
+      </c>
+      <c r="D37" s="149">
+        <v>12</v>
+      </c>
+      <c r="E37" s="148" t="s">
+        <v>207</v>
+      </c>
+      <c r="F37" s="148"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="149">
+        <v>4</v>
+      </c>
+      <c r="B38" s="148" t="s">
+        <v>202</v>
+      </c>
+      <c r="C38" s="151">
+        <v>9</v>
+      </c>
+      <c r="D38" s="149">
+        <v>6</v>
+      </c>
+      <c r="E38" s="148" t="s">
+        <v>206</v>
+      </c>
+      <c r="F38" s="148"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="149">
+        <v>5</v>
+      </c>
+      <c r="B39" s="148" t="s">
+        <v>204</v>
+      </c>
+      <c r="C39" s="151">
+        <v>9</v>
+      </c>
+      <c r="D39" s="149">
+        <v>12</v>
+      </c>
+      <c r="E39" s="148" t="s">
+        <v>206</v>
+      </c>
+      <c r="F39" s="148"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="149">
+        <v>6</v>
+      </c>
+      <c r="B40" s="148" t="s">
+        <v>203</v>
+      </c>
+      <c r="C40" s="151">
+        <v>9</v>
+      </c>
+      <c r="D40" s="149">
+        <v>6</v>
+      </c>
+      <c r="E40" s="148" t="s">
+        <v>206</v>
+      </c>
+      <c r="F40" s="148"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="149">
+        <v>7</v>
+      </c>
+      <c r="B41" s="148" t="s">
+        <v>205</v>
+      </c>
+      <c r="C41" s="151">
+        <v>9</v>
+      </c>
+      <c r="D41" s="149">
+        <v>12</v>
+      </c>
+      <c r="E41" s="148" t="s">
+        <v>206</v>
+      </c>
+      <c r="F41" s="148"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="149">
+        <v>8</v>
+      </c>
+      <c r="B42" s="148" t="s">
+        <v>194</v>
+      </c>
+      <c r="C42" s="152" t="s">
         <v>193</v>
       </c>
-      <c r="D11" s="87">
-        <v>15</v>
-      </c>
-      <c r="E11" s="86" t="s">
-        <v>220</v>
-      </c>
-      <c r="F11" s="86" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="87">
-        <v>11</v>
-      </c>
-      <c r="B12" s="86" t="s">
-        <v>212</v>
-      </c>
-      <c r="C12" s="87">
+      <c r="D42" s="149">
+        <v>65</v>
+      </c>
+      <c r="E42" s="148" t="s">
+        <v>195</v>
+      </c>
+      <c r="F42" s="148"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="148" t="s">
+        <v>189</v>
+      </c>
+      <c r="B45" s="149"/>
+      <c r="C45" s="148" t="s">
+        <v>191</v>
+      </c>
+      <c r="D45" s="148" t="s">
+        <v>192</v>
+      </c>
+      <c r="E45" s="149"/>
+      <c r="F45" s="149"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="149">
+        <v>1</v>
+      </c>
+      <c r="B46" s="148" t="s">
+        <v>190</v>
+      </c>
+      <c r="C46" s="151">
         <v>9</v>
       </c>
-      <c r="D12" s="87">
+      <c r="D46" s="151">
         <v>1</v>
       </c>
-      <c r="E12" s="87"/>
-      <c r="F12" s="86" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="87">
-        <v>12</v>
-      </c>
-      <c r="B13" s="86" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="87">
-        <v>9</v>
-      </c>
-      <c r="D13" s="87">
-        <v>7</v>
-      </c>
-      <c r="E13" s="87"/>
-      <c r="F13" s="86" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="87">
-        <v>13</v>
-      </c>
-      <c r="B14" s="86" t="s">
+      <c r="E46" s="149" t="s">
+        <v>196</v>
+      </c>
+      <c r="F46" s="149"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="149">
+        <v>2</v>
+      </c>
+      <c r="B47" s="148" t="s">
         <v>194</v>
       </c>
-      <c r="C14" s="89" t="s">
+      <c r="C47" s="152" t="s">
         <v>193</v>
       </c>
-      <c r="D14" s="87">
-        <v>17</v>
-      </c>
-      <c r="E14" s="86" t="s">
+      <c r="D47" s="151">
+        <v>119</v>
+      </c>
+      <c r="E47" s="148" t="s">
         <v>195</v>
       </c>
-      <c r="F14" s="86"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="86" t="s">
-        <v>187</v>
-      </c>
-      <c r="B17" s="87"/>
-      <c r="C17" s="86" t="s">
-        <v>191</v>
-      </c>
-      <c r="D17" s="86" t="s">
-        <v>192</v>
-      </c>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="87">
-        <v>1</v>
-      </c>
-      <c r="B18" s="86" t="s">
-        <v>190</v>
-      </c>
-      <c r="C18" s="88">
-        <v>9</v>
-      </c>
-      <c r="D18" s="88">
-        <v>1</v>
-      </c>
-      <c r="E18" s="87" t="s">
-        <v>198</v>
-      </c>
-      <c r="F18" s="87"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="87">
-        <v>2</v>
-      </c>
-      <c r="B19" s="86" t="s">
-        <v>208</v>
-      </c>
-      <c r="C19" s="87">
-        <v>9</v>
-      </c>
-      <c r="D19" s="87">
-        <v>4</v>
-      </c>
-      <c r="E19" s="87"/>
-      <c r="F19" s="86" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="87">
-        <v>3</v>
-      </c>
-      <c r="B20" s="86" t="s">
-        <v>209</v>
-      </c>
-      <c r="C20" s="89" t="s">
-        <v>193</v>
-      </c>
-      <c r="D20" s="87">
-        <v>15</v>
-      </c>
-      <c r="E20" s="86" t="s">
-        <v>220</v>
-      </c>
-      <c r="F20" s="86" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="87">
-        <v>4</v>
-      </c>
-      <c r="B21" s="86" t="s">
-        <v>210</v>
-      </c>
-      <c r="C21" s="87">
-        <v>9</v>
-      </c>
-      <c r="D21" s="87">
-        <v>3</v>
-      </c>
-      <c r="E21" s="87"/>
-      <c r="F21" s="86" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="87">
-        <v>5</v>
-      </c>
-      <c r="B22" s="86" t="s">
-        <v>211</v>
-      </c>
-      <c r="C22" s="89" t="s">
-        <v>193</v>
-      </c>
-      <c r="D22" s="87">
-        <v>15</v>
-      </c>
-      <c r="E22" s="86" t="s">
-        <v>220</v>
-      </c>
-      <c r="F22" s="86" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="87">
-        <v>6</v>
-      </c>
-      <c r="B23" s="86" t="s">
-        <v>194</v>
-      </c>
-      <c r="C23" s="89" t="s">
-        <v>193</v>
-      </c>
-      <c r="D23" s="87">
-        <v>4</v>
-      </c>
-      <c r="E23" s="86" t="s">
-        <v>195</v>
-      </c>
-      <c r="F23" s="86"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="87">
-        <v>7</v>
-      </c>
-      <c r="B24" s="86" t="s">
-        <v>212</v>
-      </c>
-      <c r="C24" s="87">
-        <v>9</v>
-      </c>
-      <c r="D24" s="87">
-        <v>1</v>
-      </c>
-      <c r="E24" s="86" t="s">
-        <v>213</v>
-      </c>
-      <c r="F24" s="86" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="87">
-        <v>8</v>
-      </c>
-      <c r="B25" s="86" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="87">
-        <v>9</v>
-      </c>
-      <c r="D25" s="87">
-        <v>7</v>
-      </c>
-      <c r="E25" s="86" t="s">
-        <v>221</v>
-      </c>
-      <c r="F25" s="86" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="87">
-        <v>9</v>
-      </c>
-      <c r="B26" s="86" t="s">
-        <v>214</v>
-      </c>
-      <c r="C26" s="89" t="s">
-        <v>193</v>
-      </c>
-      <c r="D26" s="87">
-        <v>30</v>
-      </c>
-      <c r="E26" s="86" t="s">
-        <v>220</v>
-      </c>
-      <c r="F26" s="86" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="87">
-        <v>10</v>
-      </c>
-      <c r="B27" s="86" t="s">
-        <v>215</v>
-      </c>
-      <c r="C27" s="87">
-        <v>9</v>
-      </c>
-      <c r="D27" s="90">
-        <v>10</v>
-      </c>
-      <c r="E27" s="86" t="s">
-        <v>221</v>
-      </c>
-      <c r="F27" s="86" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="87">
-        <v>11</v>
-      </c>
-      <c r="B28" s="86" t="s">
-        <v>216</v>
-      </c>
-      <c r="C28" s="87">
-        <v>9</v>
-      </c>
-      <c r="D28" s="90">
-        <v>1</v>
-      </c>
-      <c r="E28" s="86" t="s">
-        <v>234</v>
-      </c>
-      <c r="F28" s="86"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="87">
-        <v>12</v>
-      </c>
-      <c r="B29" s="86" t="s">
-        <v>217</v>
-      </c>
-      <c r="C29" s="89" t="s">
-        <v>193</v>
-      </c>
-      <c r="D29" s="90">
-        <v>20</v>
-      </c>
-      <c r="E29" s="86" t="s">
-        <v>220</v>
-      </c>
-      <c r="F29" s="86" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="87">
-        <v>13</v>
-      </c>
-      <c r="B30" s="86" t="s">
-        <v>218</v>
-      </c>
-      <c r="C30" s="87">
-        <v>9</v>
-      </c>
-      <c r="D30" s="87">
-        <v>1</v>
-      </c>
-      <c r="E30" s="86" t="s">
-        <v>219</v>
-      </c>
-      <c r="F30" s="86"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="87">
-        <v>14</v>
-      </c>
-      <c r="B31" s="86" t="s">
-        <v>194</v>
-      </c>
-      <c r="C31" s="89" t="s">
-        <v>193</v>
-      </c>
-      <c r="D31" s="87">
-        <v>8</v>
-      </c>
-      <c r="E31" s="86" t="s">
-        <v>195</v>
-      </c>
-      <c r="F31" s="86"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="87" t="s">
-        <v>188</v>
-      </c>
-      <c r="B34" s="87"/>
-      <c r="C34" s="86" t="s">
-        <v>191</v>
-      </c>
-      <c r="D34" s="86" t="s">
-        <v>192</v>
-      </c>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="87">
-        <v>1</v>
-      </c>
-      <c r="B35" s="86" t="s">
-        <v>190</v>
-      </c>
-      <c r="C35" s="88">
-        <v>9</v>
-      </c>
-      <c r="D35" s="88">
-        <v>1</v>
-      </c>
-      <c r="E35" s="87" t="s">
-        <v>199</v>
-      </c>
-      <c r="F35" s="87"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="87">
-        <v>2</v>
-      </c>
-      <c r="B36" s="87" t="s">
-        <v>200</v>
-      </c>
-      <c r="C36" s="88">
-        <v>9</v>
-      </c>
-      <c r="D36" s="87">
-        <v>6</v>
-      </c>
-      <c r="E36" s="86" t="s">
-        <v>207</v>
-      </c>
-      <c r="F36" s="86"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="87">
-        <v>3</v>
-      </c>
-      <c r="B37" s="86" t="s">
-        <v>201</v>
-      </c>
-      <c r="C37" s="88">
-        <v>9</v>
-      </c>
-      <c r="D37" s="87">
-        <v>12</v>
-      </c>
-      <c r="E37" s="86" t="s">
-        <v>207</v>
-      </c>
-      <c r="F37" s="86"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="87">
-        <v>4</v>
-      </c>
-      <c r="B38" s="86" t="s">
-        <v>202</v>
-      </c>
-      <c r="C38" s="88">
-        <v>9</v>
-      </c>
-      <c r="D38" s="87">
-        <v>6</v>
-      </c>
-      <c r="E38" s="86" t="s">
-        <v>206</v>
-      </c>
-      <c r="F38" s="86"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="87">
-        <v>5</v>
-      </c>
-      <c r="B39" s="86" t="s">
-        <v>204</v>
-      </c>
-      <c r="C39" s="88">
-        <v>9</v>
-      </c>
-      <c r="D39" s="87">
-        <v>12</v>
-      </c>
-      <c r="E39" s="86" t="s">
-        <v>206</v>
-      </c>
-      <c r="F39" s="86"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="87">
-        <v>6</v>
-      </c>
-      <c r="B40" s="86" t="s">
-        <v>203</v>
-      </c>
-      <c r="C40" s="88">
-        <v>9</v>
-      </c>
-      <c r="D40" s="87">
-        <v>6</v>
-      </c>
-      <c r="E40" s="86" t="s">
-        <v>206</v>
-      </c>
-      <c r="F40" s="86"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="87">
-        <v>7</v>
-      </c>
-      <c r="B41" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="C41" s="88">
-        <v>9</v>
-      </c>
-      <c r="D41" s="87">
-        <v>12</v>
-      </c>
-      <c r="E41" s="86" t="s">
-        <v>206</v>
-      </c>
-      <c r="F41" s="86"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="87">
-        <v>8</v>
-      </c>
-      <c r="B42" s="86" t="s">
-        <v>194</v>
-      </c>
-      <c r="C42" s="89" t="s">
-        <v>193</v>
-      </c>
-      <c r="D42" s="87">
-        <v>65</v>
-      </c>
-      <c r="E42" s="86" t="s">
-        <v>195</v>
-      </c>
-      <c r="F42" s="86"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="86" t="s">
-        <v>189</v>
-      </c>
-      <c r="B45" s="87"/>
-      <c r="C45" s="86" t="s">
-        <v>191</v>
-      </c>
-      <c r="D45" s="86" t="s">
-        <v>192</v>
-      </c>
-      <c r="E45" s="87"/>
-      <c r="F45" s="87"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="87">
-        <v>1</v>
-      </c>
-      <c r="B46" s="86" t="s">
-        <v>190</v>
-      </c>
-      <c r="C46" s="88">
-        <v>9</v>
-      </c>
-      <c r="D46" s="88">
-        <v>1</v>
-      </c>
-      <c r="E46" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="F46" s="87"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="87">
-        <v>2</v>
-      </c>
-      <c r="B47" s="86" t="s">
-        <v>194</v>
-      </c>
-      <c r="C47" s="89" t="s">
-        <v>193</v>
-      </c>
-      <c r="D47" s="88">
-        <v>119</v>
-      </c>
-      <c r="E47" s="86" t="s">
-        <v>195</v>
-      </c>
-      <c r="F47" s="86"/>
+      <c r="F47" s="148"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/市場_2025改修/詳細設計_2025/26_詳細設計書(口座データ) .xlsx
+++ b/市場_2025改修/詳細設計_2025/26_詳細設計書(口座データ) .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\si001\市場_2025改修\詳細設計_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB1D65E-2F79-407D-BD92-ED38186BA527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0F875D-C008-4EB8-A0B2-9F3AD6CC91E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="888" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8535" yWindow="2445" windowWidth="18180" windowHeight="9885" tabRatio="888" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="170" r:id="rId1"/>
@@ -21,9 +21,6 @@
     <sheet name="口座データファイル" sheetId="174" r:id="rId6"/>
     <sheet name="全銀データ" sheetId="176" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <definedNames>
     <definedName name="a">#REF!</definedName>
     <definedName name="範囲１" localSheetId="4">#REF!</definedName>
@@ -48,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="269">
   <si>
     <t>作成者</t>
   </si>
@@ -1862,6 +1859,10 @@
       <t>メイ</t>
     </rPh>
     <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>③</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2524,7 +2525,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2739,196 +2740,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3"/>
@@ -2940,27 +2751,206 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3897,46 +3887,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="アプリ構成"/>
-      <sheetName val="フロー"/>
-      <sheetName val="月間スケジュール"/>
-      <sheetName val="全銀"/>
-      <sheetName val="全銀データ"/>
-      <sheetName val="データ"/>
-      <sheetName val="メニュー"/>
-      <sheetName val="口座マスタ"/>
-      <sheetName val="納付書"/>
-      <sheetName val="調整入力"/>
-      <sheetName val="口座データ"/>
-      <sheetName val="入金消込"/>
-      <sheetName val="徴収簿"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -4238,50 +4188,50 @@
     </row>
     <row r="6" spans="3:16" ht="22.5" customHeight="1">
       <c r="C6" s="13"/>
-      <c r="D6" s="86" t="s">
+      <c r="D6" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
       <c r="N6" s="14"/>
     </row>
     <row r="7" spans="3:16" ht="51" customHeight="1">
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="90"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="103"/>
     </row>
     <row r="8" spans="3:16" ht="39" customHeight="1">
       <c r="C8" s="13"/>
-      <c r="D8" s="86" t="s">
+      <c r="D8" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="87"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
       <c r="N8" s="14"/>
     </row>
     <row r="9" spans="3:16" ht="22.5" customHeight="1" thickBot="1">
@@ -4300,23 +4250,23 @@
     </row>
     <row r="10" spans="3:16" ht="22.5" customHeight="1" thickTop="1"/>
     <row r="12" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F12" s="84" t="s">
+      <c r="F12" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="85"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="93"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="98"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
     </row>
     <row r="13" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F13" s="84" t="s">
+      <c r="F13" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="85"/>
+      <c r="G13" s="95"/>
       <c r="H13" s="29"/>
       <c r="I13" s="30"/>
       <c r="J13" s="30"/>
@@ -4326,46 +4276,46 @@
       <c r="N13" s="18"/>
     </row>
     <row r="14" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F14" s="84" t="s">
+      <c r="F14" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="85"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="93"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="98"/>
     </row>
     <row r="15" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F15" s="84" t="s">
+      <c r="F15" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="85"/>
-      <c r="H15" s="91" t="s">
+      <c r="G15" s="95"/>
+      <c r="H15" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="I15" s="92"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="93"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="98"/>
     </row>
     <row r="16" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F16" s="84" t="s">
+      <c r="F16" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="85"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="93"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="98"/>
     </row>
     <row r="17" spans="6:16" ht="22.5" customHeight="1">
-      <c r="F17" s="84" t="s">
+      <c r="F17" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="85"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="93"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="98"/>
       <c r="N17" s="7" t="s">
         <v>70</v>
       </c>
@@ -4395,6 +4345,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="C7:N7"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:K12"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="F14:G14"/>
@@ -4403,12 +4359,6 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:K16"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="C7:N7"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4437,56 +4387,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="104" t="s">
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
       <c r="P1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="102" t="s">
+      <c r="Q1" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="R1" s="102"/>
+      <c r="R1" s="107"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A2" s="100"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
       <c r="P2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="103">
+      <c r="Q2" s="108">
         <v>45757</v>
       </c>
-      <c r="R2" s="102"/>
+      <c r="R2" s="107"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" customHeight="1">
       <c r="A3" s="25"/>
@@ -4512,433 +4462,433 @@
       <c r="A4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101" t="s">
+      <c r="C4" s="105"/>
+      <c r="D4" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101" t="s">
+      <c r="E4" s="105"/>
+      <c r="F4" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101" t="s">
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="101"/>
-      <c r="P4" s="101"/>
-      <c r="Q4" s="101"/>
-      <c r="R4" s="101"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="105"/>
+      <c r="Q4" s="105"/>
+      <c r="R4" s="105"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" customHeight="1">
       <c r="A5" s="27">
         <v>1</v>
       </c>
-      <c r="B5" s="97">
+      <c r="B5" s="110">
         <v>45757</v>
       </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="98" t="s">
+      <c r="C5" s="110"/>
+      <c r="D5" s="111" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98" t="s">
+      <c r="E5" s="111"/>
+      <c r="F5" s="111" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="99"/>
-      <c r="J5" s="99"/>
-      <c r="K5" s="99"/>
-      <c r="L5" s="99"/>
-      <c r="M5" s="99"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="99"/>
-      <c r="P5" s="99"/>
-      <c r="Q5" s="99"/>
-      <c r="R5" s="99"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="114"/>
+      <c r="M5" s="114"/>
+      <c r="N5" s="114"/>
+      <c r="O5" s="114"/>
+      <c r="P5" s="114"/>
+      <c r="Q5" s="114"/>
+      <c r="R5" s="114"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" customHeight="1">
       <c r="A6" s="28">
         <v>2</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="94"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="106"/>
+      <c r="O6" s="106"/>
+      <c r="P6" s="106"/>
+      <c r="Q6" s="106"/>
+      <c r="R6" s="106"/>
     </row>
     <row r="7" spans="1:18" ht="27" customHeight="1">
       <c r="A7" s="28">
         <v>3</v>
       </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="94"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="106"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="106"/>
+      <c r="R7" s="106"/>
     </row>
     <row r="8" spans="1:18" ht="27" customHeight="1">
       <c r="A8" s="28">
         <v>4</v>
       </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="94"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="106"/>
+      <c r="Q8" s="106"/>
+      <c r="R8" s="106"/>
     </row>
     <row r="9" spans="1:18" ht="27" customHeight="1">
       <c r="A9" s="28">
         <v>5</v>
       </c>
-      <c r="B9" s="95"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="94"/>
+      <c r="B9" s="112"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="113"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="106"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="106"/>
+      <c r="O9" s="106"/>
+      <c r="P9" s="106"/>
+      <c r="Q9" s="106"/>
+      <c r="R9" s="106"/>
     </row>
     <row r="10" spans="1:18" ht="27" customHeight="1">
       <c r="A10" s="28">
         <v>6</v>
       </c>
-      <c r="B10" s="95"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="94"/>
-      <c r="P10" s="94"/>
-      <c r="Q10" s="94"/>
-      <c r="R10" s="94"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="106"/>
+      <c r="L10" s="106"/>
+      <c r="M10" s="106"/>
+      <c r="N10" s="106"/>
+      <c r="O10" s="106"/>
+      <c r="P10" s="106"/>
+      <c r="Q10" s="106"/>
+      <c r="R10" s="106"/>
     </row>
     <row r="11" spans="1:18" ht="27" customHeight="1">
       <c r="A11" s="28">
         <v>7</v>
       </c>
-      <c r="B11" s="95"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="94"/>
-      <c r="N11" s="94"/>
-      <c r="O11" s="94"/>
-      <c r="P11" s="94"/>
-      <c r="Q11" s="94"/>
-      <c r="R11" s="94"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="106"/>
+      <c r="M11" s="106"/>
+      <c r="N11" s="106"/>
+      <c r="O11" s="106"/>
+      <c r="P11" s="106"/>
+      <c r="Q11" s="106"/>
+      <c r="R11" s="106"/>
     </row>
     <row r="12" spans="1:18" ht="27" customHeight="1">
       <c r="A12" s="28">
         <v>8</v>
       </c>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="94"/>
-      <c r="Q12" s="94"/>
-      <c r="R12" s="94"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="106"/>
+      <c r="K12" s="106"/>
+      <c r="L12" s="106"/>
+      <c r="M12" s="106"/>
+      <c r="N12" s="106"/>
+      <c r="O12" s="106"/>
+      <c r="P12" s="106"/>
+      <c r="Q12" s="106"/>
+      <c r="R12" s="106"/>
     </row>
     <row r="13" spans="1:18" ht="27" customHeight="1">
       <c r="A13" s="28">
         <v>9</v>
       </c>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="94"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="106"/>
+      <c r="M13" s="106"/>
+      <c r="N13" s="106"/>
+      <c r="O13" s="106"/>
+      <c r="P13" s="106"/>
+      <c r="Q13" s="106"/>
+      <c r="R13" s="106"/>
     </row>
     <row r="14" spans="1:18" ht="27" customHeight="1">
       <c r="A14" s="28">
         <v>10</v>
       </c>
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="94"/>
-      <c r="N14" s="94"/>
-      <c r="O14" s="94"/>
-      <c r="P14" s="94"/>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="94"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="106"/>
+      <c r="K14" s="106"/>
+      <c r="L14" s="106"/>
+      <c r="M14" s="106"/>
+      <c r="N14" s="106"/>
+      <c r="O14" s="106"/>
+      <c r="P14" s="106"/>
+      <c r="Q14" s="106"/>
+      <c r="R14" s="106"/>
     </row>
     <row r="15" spans="1:18" ht="27" customHeight="1">
       <c r="A15" s="28">
         <v>11</v>
       </c>
-      <c r="B15" s="95"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="94"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="94"/>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="94"/>
-      <c r="R15" s="94"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="106"/>
+      <c r="K15" s="106"/>
+      <c r="L15" s="106"/>
+      <c r="M15" s="106"/>
+      <c r="N15" s="106"/>
+      <c r="O15" s="106"/>
+      <c r="P15" s="106"/>
+      <c r="Q15" s="106"/>
+      <c r="R15" s="106"/>
     </row>
     <row r="16" spans="1:18" ht="27" customHeight="1">
       <c r="A16" s="28">
         <v>12</v>
       </c>
-      <c r="B16" s="95"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="94"/>
-      <c r="O16" s="94"/>
-      <c r="P16" s="94"/>
-      <c r="Q16" s="94"/>
-      <c r="R16" s="94"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="106"/>
+      <c r="L16" s="106"/>
+      <c r="M16" s="106"/>
+      <c r="N16" s="106"/>
+      <c r="O16" s="106"/>
+      <c r="P16" s="106"/>
+      <c r="Q16" s="106"/>
+      <c r="R16" s="106"/>
     </row>
     <row r="17" spans="1:18" ht="27" customHeight="1">
       <c r="A17" s="28">
         <v>13</v>
       </c>
-      <c r="B17" s="95"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="94"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="94"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="94"/>
-      <c r="O17" s="94"/>
-      <c r="P17" s="94"/>
-      <c r="Q17" s="94"/>
-      <c r="R17" s="94"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="106"/>
+      <c r="K17" s="106"/>
+      <c r="L17" s="106"/>
+      <c r="M17" s="106"/>
+      <c r="N17" s="106"/>
+      <c r="O17" s="106"/>
+      <c r="P17" s="106"/>
+      <c r="Q17" s="106"/>
+      <c r="R17" s="106"/>
     </row>
     <row r="18" spans="1:18" ht="27" customHeight="1">
       <c r="A18" s="28">
         <v>14</v>
       </c>
-      <c r="B18" s="95"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="94"/>
-      <c r="J18" s="94"/>
-      <c r="K18" s="94"/>
-      <c r="L18" s="94"/>
-      <c r="M18" s="94"/>
-      <c r="N18" s="94"/>
-      <c r="O18" s="94"/>
-      <c r="P18" s="94"/>
-      <c r="Q18" s="94"/>
-      <c r="R18" s="94"/>
+      <c r="B18" s="112"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="106"/>
+      <c r="J18" s="106"/>
+      <c r="K18" s="106"/>
+      <c r="L18" s="106"/>
+      <c r="M18" s="106"/>
+      <c r="N18" s="106"/>
+      <c r="O18" s="106"/>
+      <c r="P18" s="106"/>
+      <c r="Q18" s="106"/>
+      <c r="R18" s="106"/>
     </row>
     <row r="19" spans="1:18" ht="27" customHeight="1">
       <c r="A19" s="28">
         <v>15</v>
       </c>
-      <c r="B19" s="95"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="94"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="94"/>
-      <c r="M19" s="94"/>
-      <c r="N19" s="94"/>
-      <c r="O19" s="94"/>
-      <c r="P19" s="94"/>
-      <c r="Q19" s="94"/>
-      <c r="R19" s="94"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="113"/>
+      <c r="H19" s="113"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="106"/>
+      <c r="L19" s="106"/>
+      <c r="M19" s="106"/>
+      <c r="N19" s="106"/>
+      <c r="O19" s="106"/>
+      <c r="P19" s="106"/>
+      <c r="Q19" s="106"/>
+      <c r="R19" s="106"/>
     </row>
     <row r="20" spans="1:18" ht="27" customHeight="1">
       <c r="A20" s="28">
         <v>16</v>
       </c>
-      <c r="B20" s="95"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="94"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="94"/>
-      <c r="L20" s="94"/>
-      <c r="M20" s="94"/>
-      <c r="N20" s="94"/>
-      <c r="O20" s="94"/>
-      <c r="P20" s="94"/>
-      <c r="Q20" s="94"/>
-      <c r="R20" s="94"/>
+      <c r="B20" s="112"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="106"/>
+      <c r="K20" s="106"/>
+      <c r="L20" s="106"/>
+      <c r="M20" s="106"/>
+      <c r="N20" s="106"/>
+      <c r="O20" s="106"/>
+      <c r="P20" s="106"/>
+      <c r="Q20" s="106"/>
+      <c r="R20" s="106"/>
     </row>
     <row r="21" spans="1:18" ht="27" customHeight="1">
       <c r="A21" s="28">
         <v>17</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
-      <c r="N21" s="94"/>
-      <c r="O21" s="94"/>
-      <c r="P21" s="94"/>
-      <c r="Q21" s="94"/>
-      <c r="R21" s="94"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="106"/>
+      <c r="K21" s="106"/>
+      <c r="L21" s="106"/>
+      <c r="M21" s="106"/>
+      <c r="N21" s="106"/>
+      <c r="O21" s="106"/>
+      <c r="P21" s="106"/>
+      <c r="Q21" s="106"/>
+      <c r="R21" s="106"/>
     </row>
     <row r="22" spans="1:18" ht="27" customHeight="1">
       <c r="A22" s="28">
         <v>18</v>
       </c>
-      <c r="B22" s="95"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="94"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="94"/>
-      <c r="L22" s="94"/>
-      <c r="M22" s="94"/>
-      <c r="N22" s="94"/>
-      <c r="O22" s="94"/>
-      <c r="P22" s="94"/>
-      <c r="Q22" s="94"/>
-      <c r="R22" s="94"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="106"/>
+      <c r="K22" s="106"/>
+      <c r="L22" s="106"/>
+      <c r="M22" s="106"/>
+      <c r="N22" s="106"/>
+      <c r="O22" s="106"/>
+      <c r="P22" s="106"/>
+      <c r="Q22" s="106"/>
+      <c r="R22" s="106"/>
     </row>
     <row r="23" spans="1:18" ht="27" customHeight="1"/>
     <row r="24" spans="1:18" ht="27" customHeight="1"/>
@@ -4949,30 +4899,46 @@
     <row r="29" spans="1:18" ht="27" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="D1:O2"/>
-    <mergeCell ref="I4:R4"/>
-    <mergeCell ref="I8:R8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:R6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="I21:R21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:R22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I19:R19"/>
+    <mergeCell ref="I20:R20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I17:R17"/>
+    <mergeCell ref="I18:R18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I15:R15"/>
+    <mergeCell ref="I16:R16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I13:R13"/>
+    <mergeCell ref="I14:R14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
     <mergeCell ref="I11:R11"/>
     <mergeCell ref="I12:R12"/>
     <mergeCell ref="B9:C9"/>
@@ -4989,46 +4955,30 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I15:R15"/>
-    <mergeCell ref="I16:R16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I13:R13"/>
-    <mergeCell ref="I14:R14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I19:R19"/>
-    <mergeCell ref="I20:R20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I17:R17"/>
-    <mergeCell ref="I18:R18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I21:R21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:R22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I8:R8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:R6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="D1:O2"/>
+    <mergeCell ref="I4:R4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -5054,213 +5004,213 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="30" customHeight="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="116" t="s">
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="116"/>
-      <c r="R1" s="116"/>
-      <c r="S1" s="116"/>
-      <c r="T1" s="116"/>
-      <c r="U1" s="122" t="str">
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="118"/>
+      <c r="T1" s="118"/>
+      <c r="U1" s="119" t="str">
         <f>表紙!C7</f>
         <v>施設使用料・償還金等料金計算及び納付書作成システム
 口座振替データ作成機能構築業務</v>
       </c>
-      <c r="V1" s="123"/>
-      <c r="W1" s="123"/>
-      <c r="X1" s="123"/>
-      <c r="Y1" s="123"/>
-      <c r="Z1" s="123"/>
-      <c r="AA1" s="123"/>
-      <c r="AB1" s="123"/>
-      <c r="AC1" s="123"/>
-      <c r="AD1" s="123"/>
-      <c r="AE1" s="123"/>
-      <c r="AF1" s="123"/>
-      <c r="AG1" s="123"/>
-      <c r="AH1" s="123"/>
-      <c r="AI1" s="124"/>
-      <c r="AJ1" s="120" t="s">
+      <c r="V1" s="120"/>
+      <c r="W1" s="120"/>
+      <c r="X1" s="120"/>
+      <c r="Y1" s="120"/>
+      <c r="Z1" s="120"/>
+      <c r="AA1" s="120"/>
+      <c r="AB1" s="120"/>
+      <c r="AC1" s="120"/>
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="120"/>
+      <c r="AG1" s="120"/>
+      <c r="AH1" s="120"/>
+      <c r="AI1" s="121"/>
+      <c r="AJ1" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="AK1" s="120"/>
-      <c r="AL1" s="120"/>
-      <c r="AM1" s="120"/>
-      <c r="AN1" s="120"/>
-      <c r="AO1" s="115" t="s">
+      <c r="AK1" s="122"/>
+      <c r="AL1" s="122"/>
+      <c r="AM1" s="122"/>
+      <c r="AN1" s="122"/>
+      <c r="AO1" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="AP1" s="115"/>
-      <c r="AQ1" s="115"/>
-      <c r="AR1" s="115"/>
-      <c r="AS1" s="115"/>
-      <c r="AT1" s="115"/>
-      <c r="AU1" s="115"/>
-      <c r="AV1" s="120" t="s">
+      <c r="AP1" s="123"/>
+      <c r="AQ1" s="123"/>
+      <c r="AR1" s="123"/>
+      <c r="AS1" s="123"/>
+      <c r="AT1" s="123"/>
+      <c r="AU1" s="123"/>
+      <c r="AV1" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="AW1" s="120"/>
-      <c r="AX1" s="120"/>
-      <c r="AY1" s="120"/>
-      <c r="AZ1" s="120"/>
-      <c r="BA1" s="115"/>
-      <c r="BB1" s="115"/>
-      <c r="BC1" s="115"/>
-      <c r="BD1" s="115"/>
-      <c r="BE1" s="115"/>
-      <c r="BF1" s="115"/>
+      <c r="AW1" s="122"/>
+      <c r="AX1" s="122"/>
+      <c r="AY1" s="122"/>
+      <c r="AZ1" s="122"/>
+      <c r="BA1" s="123"/>
+      <c r="BB1" s="123"/>
+      <c r="BC1" s="123"/>
+      <c r="BD1" s="123"/>
+      <c r="BE1" s="123"/>
+      <c r="BF1" s="123"/>
     </row>
     <row r="2" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A2" s="100"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="116" t="s">
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="116"/>
-      <c r="P2" s="116"/>
-      <c r="Q2" s="116"/>
-      <c r="R2" s="116"/>
-      <c r="S2" s="116"/>
-      <c r="T2" s="116"/>
-      <c r="U2" s="117" t="str">
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="118"/>
+      <c r="R2" s="118"/>
+      <c r="S2" s="118"/>
+      <c r="T2" s="118"/>
+      <c r="U2" s="124" t="str">
         <f>表紙!H15</f>
         <v>口座データ</v>
       </c>
-      <c r="V2" s="118"/>
-      <c r="W2" s="118"/>
-      <c r="X2" s="118"/>
-      <c r="Y2" s="118"/>
-      <c r="Z2" s="118"/>
-      <c r="AA2" s="118"/>
-      <c r="AB2" s="118"/>
-      <c r="AC2" s="118"/>
-      <c r="AD2" s="118"/>
-      <c r="AE2" s="118"/>
-      <c r="AF2" s="118"/>
-      <c r="AG2" s="118"/>
-      <c r="AH2" s="118"/>
-      <c r="AI2" s="119"/>
-      <c r="AJ2" s="120" t="s">
+      <c r="V2" s="125"/>
+      <c r="W2" s="125"/>
+      <c r="X2" s="125"/>
+      <c r="Y2" s="125"/>
+      <c r="Z2" s="125"/>
+      <c r="AA2" s="125"/>
+      <c r="AB2" s="125"/>
+      <c r="AC2" s="125"/>
+      <c r="AD2" s="125"/>
+      <c r="AE2" s="125"/>
+      <c r="AF2" s="125"/>
+      <c r="AG2" s="125"/>
+      <c r="AH2" s="125"/>
+      <c r="AI2" s="126"/>
+      <c r="AJ2" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="120"/>
-      <c r="AL2" s="120"/>
-      <c r="AM2" s="120"/>
-      <c r="AN2" s="120"/>
-      <c r="AO2" s="121">
+      <c r="AK2" s="122"/>
+      <c r="AL2" s="122"/>
+      <c r="AM2" s="122"/>
+      <c r="AN2" s="122"/>
+      <c r="AO2" s="127">
         <v>45757</v>
       </c>
-      <c r="AP2" s="115"/>
-      <c r="AQ2" s="115"/>
-      <c r="AR2" s="115"/>
-      <c r="AS2" s="115"/>
-      <c r="AT2" s="115"/>
-      <c r="AU2" s="115"/>
-      <c r="AV2" s="120" t="s">
+      <c r="AP2" s="123"/>
+      <c r="AQ2" s="123"/>
+      <c r="AR2" s="123"/>
+      <c r="AS2" s="123"/>
+      <c r="AT2" s="123"/>
+      <c r="AU2" s="123"/>
+      <c r="AV2" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="AW2" s="120"/>
-      <c r="AX2" s="120"/>
-      <c r="AY2" s="120"/>
-      <c r="AZ2" s="120"/>
-      <c r="BA2" s="115"/>
-      <c r="BB2" s="115"/>
-      <c r="BC2" s="115"/>
-      <c r="BD2" s="115"/>
-      <c r="BE2" s="115"/>
-      <c r="BF2" s="115"/>
+      <c r="AW2" s="122"/>
+      <c r="AX2" s="122"/>
+      <c r="AY2" s="122"/>
+      <c r="AZ2" s="122"/>
+      <c r="BA2" s="123"/>
+      <c r="BB2" s="123"/>
+      <c r="BC2" s="123"/>
+      <c r="BD2" s="123"/>
+      <c r="BE2" s="123"/>
+      <c r="BF2" s="123"/>
     </row>
     <row r="3" spans="1:58" ht="15" customHeight="1">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
-      <c r="U3" s="113"/>
-      <c r="V3" s="113"/>
-      <c r="W3" s="113"/>
-      <c r="X3" s="113"/>
-      <c r="Y3" s="113"/>
-      <c r="Z3" s="113"/>
-      <c r="AA3" s="113"/>
-      <c r="AB3" s="113"/>
-      <c r="AC3" s="113"/>
-      <c r="AD3" s="113"/>
-      <c r="AE3" s="113"/>
-      <c r="AF3" s="113"/>
-      <c r="AG3" s="113"/>
-      <c r="AH3" s="113"/>
-      <c r="AI3" s="113"/>
-      <c r="AJ3" s="113"/>
-      <c r="AK3" s="113"/>
-      <c r="AL3" s="113"/>
-      <c r="AM3" s="113"/>
-      <c r="AN3" s="114"/>
-      <c r="AO3" s="112" t="s">
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="129"/>
+      <c r="O3" s="129"/>
+      <c r="P3" s="129"/>
+      <c r="Q3" s="129"/>
+      <c r="R3" s="129"/>
+      <c r="S3" s="129"/>
+      <c r="T3" s="129"/>
+      <c r="U3" s="129"/>
+      <c r="V3" s="129"/>
+      <c r="W3" s="129"/>
+      <c r="X3" s="129"/>
+      <c r="Y3" s="129"/>
+      <c r="Z3" s="129"/>
+      <c r="AA3" s="129"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="129"/>
+      <c r="AD3" s="129"/>
+      <c r="AE3" s="129"/>
+      <c r="AF3" s="129"/>
+      <c r="AG3" s="129"/>
+      <c r="AH3" s="129"/>
+      <c r="AI3" s="129"/>
+      <c r="AJ3" s="129"/>
+      <c r="AK3" s="129"/>
+      <c r="AL3" s="129"/>
+      <c r="AM3" s="129"/>
+      <c r="AN3" s="130"/>
+      <c r="AO3" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="AP3" s="113"/>
-      <c r="AQ3" s="113"/>
-      <c r="AR3" s="113"/>
-      <c r="AS3" s="113"/>
-      <c r="AT3" s="113"/>
-      <c r="AU3" s="113"/>
-      <c r="AV3" s="113"/>
-      <c r="AW3" s="113"/>
-      <c r="AX3" s="113"/>
-      <c r="AY3" s="113"/>
-      <c r="AZ3" s="113"/>
-      <c r="BA3" s="113"/>
-      <c r="BB3" s="113"/>
-      <c r="BC3" s="113"/>
-      <c r="BD3" s="113"/>
-      <c r="BE3" s="113"/>
-      <c r="BF3" s="114"/>
+      <c r="AP3" s="129"/>
+      <c r="AQ3" s="129"/>
+      <c r="AR3" s="129"/>
+      <c r="AS3" s="129"/>
+      <c r="AT3" s="129"/>
+      <c r="AU3" s="129"/>
+      <c r="AV3" s="129"/>
+      <c r="AW3" s="129"/>
+      <c r="AX3" s="129"/>
+      <c r="AY3" s="129"/>
+      <c r="AZ3" s="129"/>
+      <c r="BA3" s="129"/>
+      <c r="BB3" s="129"/>
+      <c r="BC3" s="129"/>
+      <c r="BD3" s="129"/>
+      <c r="BE3" s="129"/>
+      <c r="BF3" s="130"/>
     </row>
     <row r="4" spans="1:58">
       <c r="A4" s="2"/>
@@ -5271,428 +5221,428 @@
     <row r="5" spans="1:58" ht="11.25" customHeight="1">
       <c r="A5" s="2"/>
       <c r="AN5" s="3"/>
-      <c r="AO5" s="105" t="s">
+      <c r="AO5" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="AP5" s="94"/>
-      <c r="AQ5" s="94"/>
-      <c r="AR5" s="94"/>
-      <c r="AS5" s="94"/>
-      <c r="AT5" s="94"/>
-      <c r="AU5" s="106" t="s">
+      <c r="AP5" s="106"/>
+      <c r="AQ5" s="106"/>
+      <c r="AR5" s="106"/>
+      <c r="AS5" s="106"/>
+      <c r="AT5" s="106"/>
+      <c r="AU5" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="AV5" s="106"/>
-      <c r="AW5" s="106"/>
-      <c r="AX5" s="106"/>
-      <c r="AY5" s="106"/>
-      <c r="AZ5" s="106"/>
-      <c r="BA5" s="106"/>
-      <c r="BB5" s="106"/>
-      <c r="BC5" s="106"/>
-      <c r="BD5" s="106"/>
-      <c r="BE5" s="106"/>
-      <c r="BF5" s="107"/>
+      <c r="AV5" s="116"/>
+      <c r="AW5" s="116"/>
+      <c r="AX5" s="116"/>
+      <c r="AY5" s="116"/>
+      <c r="AZ5" s="116"/>
+      <c r="BA5" s="116"/>
+      <c r="BB5" s="116"/>
+      <c r="BC5" s="116"/>
+      <c r="BD5" s="116"/>
+      <c r="BE5" s="116"/>
+      <c r="BF5" s="117"/>
     </row>
     <row r="6" spans="1:58">
       <c r="A6" s="2"/>
       <c r="AN6" s="3"/>
-      <c r="AO6" s="105"/>
-      <c r="AP6" s="94"/>
-      <c r="AQ6" s="94"/>
-      <c r="AR6" s="94"/>
-      <c r="AS6" s="94"/>
-      <c r="AT6" s="94"/>
-      <c r="AU6" s="106"/>
-      <c r="AV6" s="106"/>
-      <c r="AW6" s="106"/>
-      <c r="AX6" s="106"/>
-      <c r="AY6" s="106"/>
-      <c r="AZ6" s="106"/>
-      <c r="BA6" s="106"/>
-      <c r="BB6" s="106"/>
-      <c r="BC6" s="106"/>
-      <c r="BD6" s="106"/>
-      <c r="BE6" s="106"/>
-      <c r="BF6" s="107"/>
+      <c r="AO6" s="115"/>
+      <c r="AP6" s="106"/>
+      <c r="AQ6" s="106"/>
+      <c r="AR6" s="106"/>
+      <c r="AS6" s="106"/>
+      <c r="AT6" s="106"/>
+      <c r="AU6" s="116"/>
+      <c r="AV6" s="116"/>
+      <c r="AW6" s="116"/>
+      <c r="AX6" s="116"/>
+      <c r="AY6" s="116"/>
+      <c r="AZ6" s="116"/>
+      <c r="BA6" s="116"/>
+      <c r="BB6" s="116"/>
+      <c r="BC6" s="116"/>
+      <c r="BD6" s="116"/>
+      <c r="BE6" s="116"/>
+      <c r="BF6" s="117"/>
     </row>
     <row r="7" spans="1:58" ht="11.25" customHeight="1">
       <c r="A7" s="2"/>
       <c r="AN7" s="3"/>
-      <c r="AO7" s="105" t="s">
+      <c r="AO7" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="AP7" s="94"/>
-      <c r="AQ7" s="94"/>
-      <c r="AR7" s="94"/>
-      <c r="AS7" s="94"/>
-      <c r="AT7" s="94"/>
-      <c r="AU7" s="106" t="s">
+      <c r="AP7" s="106"/>
+      <c r="AQ7" s="106"/>
+      <c r="AR7" s="106"/>
+      <c r="AS7" s="106"/>
+      <c r="AT7" s="106"/>
+      <c r="AU7" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="AV7" s="106"/>
-      <c r="AW7" s="106"/>
-      <c r="AX7" s="106"/>
-      <c r="AY7" s="106"/>
-      <c r="AZ7" s="106"/>
-      <c r="BA7" s="106"/>
-      <c r="BB7" s="106"/>
-      <c r="BC7" s="106"/>
-      <c r="BD7" s="106"/>
-      <c r="BE7" s="106"/>
-      <c r="BF7" s="107"/>
+      <c r="AV7" s="116"/>
+      <c r="AW7" s="116"/>
+      <c r="AX7" s="116"/>
+      <c r="AY7" s="116"/>
+      <c r="AZ7" s="116"/>
+      <c r="BA7" s="116"/>
+      <c r="BB7" s="116"/>
+      <c r="BC7" s="116"/>
+      <c r="BD7" s="116"/>
+      <c r="BE7" s="116"/>
+      <c r="BF7" s="117"/>
     </row>
     <row r="8" spans="1:58">
       <c r="A8" s="2"/>
       <c r="AN8" s="3"/>
-      <c r="AO8" s="105"/>
-      <c r="AP8" s="94"/>
-      <c r="AQ8" s="94"/>
-      <c r="AR8" s="94"/>
-      <c r="AS8" s="94"/>
-      <c r="AT8" s="94"/>
-      <c r="AU8" s="106"/>
-      <c r="AV8" s="106"/>
-      <c r="AW8" s="106"/>
-      <c r="AX8" s="106"/>
-      <c r="AY8" s="106"/>
-      <c r="AZ8" s="106"/>
-      <c r="BA8" s="106"/>
-      <c r="BB8" s="106"/>
-      <c r="BC8" s="106"/>
-      <c r="BD8" s="106"/>
-      <c r="BE8" s="106"/>
-      <c r="BF8" s="107"/>
+      <c r="AO8" s="115"/>
+      <c r="AP8" s="106"/>
+      <c r="AQ8" s="106"/>
+      <c r="AR8" s="106"/>
+      <c r="AS8" s="106"/>
+      <c r="AT8" s="106"/>
+      <c r="AU8" s="116"/>
+      <c r="AV8" s="116"/>
+      <c r="AW8" s="116"/>
+      <c r="AX8" s="116"/>
+      <c r="AY8" s="116"/>
+      <c r="AZ8" s="116"/>
+      <c r="BA8" s="116"/>
+      <c r="BB8" s="116"/>
+      <c r="BC8" s="116"/>
+      <c r="BD8" s="116"/>
+      <c r="BE8" s="116"/>
+      <c r="BF8" s="117"/>
     </row>
     <row r="9" spans="1:58" ht="11.25" customHeight="1">
       <c r="A9" s="2"/>
       <c r="AN9" s="3"/>
-      <c r="AO9" s="105" t="s">
+      <c r="AO9" s="115" t="s">
         <v>57</v>
       </c>
-      <c r="AP9" s="94"/>
-      <c r="AQ9" s="94"/>
-      <c r="AR9" s="94"/>
-      <c r="AS9" s="94"/>
-      <c r="AT9" s="94"/>
-      <c r="AU9" s="106" t="s">
+      <c r="AP9" s="106"/>
+      <c r="AQ9" s="106"/>
+      <c r="AR9" s="106"/>
+      <c r="AS9" s="106"/>
+      <c r="AT9" s="106"/>
+      <c r="AU9" s="116" t="s">
         <v>74</v>
       </c>
-      <c r="AV9" s="106"/>
-      <c r="AW9" s="106"/>
-      <c r="AX9" s="106"/>
-      <c r="AY9" s="106"/>
-      <c r="AZ9" s="106"/>
-      <c r="BA9" s="106"/>
-      <c r="BB9" s="106"/>
-      <c r="BC9" s="106"/>
-      <c r="BD9" s="106"/>
-      <c r="BE9" s="106"/>
-      <c r="BF9" s="107"/>
+      <c r="AV9" s="116"/>
+      <c r="AW9" s="116"/>
+      <c r="AX9" s="116"/>
+      <c r="AY9" s="116"/>
+      <c r="AZ9" s="116"/>
+      <c r="BA9" s="116"/>
+      <c r="BB9" s="116"/>
+      <c r="BC9" s="116"/>
+      <c r="BD9" s="116"/>
+      <c r="BE9" s="116"/>
+      <c r="BF9" s="117"/>
     </row>
     <row r="10" spans="1:58">
       <c r="A10" s="2"/>
       <c r="AN10" s="3"/>
-      <c r="AO10" s="105"/>
-      <c r="AP10" s="94"/>
-      <c r="AQ10" s="94"/>
-      <c r="AR10" s="94"/>
-      <c r="AS10" s="94"/>
-      <c r="AT10" s="94"/>
-      <c r="AU10" s="106"/>
-      <c r="AV10" s="106"/>
-      <c r="AW10" s="106"/>
-      <c r="AX10" s="106"/>
-      <c r="AY10" s="106"/>
-      <c r="AZ10" s="106"/>
-      <c r="BA10" s="106"/>
-      <c r="BB10" s="106"/>
-      <c r="BC10" s="106"/>
-      <c r="BD10" s="106"/>
-      <c r="BE10" s="106"/>
-      <c r="BF10" s="107"/>
+      <c r="AO10" s="115"/>
+      <c r="AP10" s="106"/>
+      <c r="AQ10" s="106"/>
+      <c r="AR10" s="106"/>
+      <c r="AS10" s="106"/>
+      <c r="AT10" s="106"/>
+      <c r="AU10" s="116"/>
+      <c r="AV10" s="116"/>
+      <c r="AW10" s="116"/>
+      <c r="AX10" s="116"/>
+      <c r="AY10" s="116"/>
+      <c r="AZ10" s="116"/>
+      <c r="BA10" s="116"/>
+      <c r="BB10" s="116"/>
+      <c r="BC10" s="116"/>
+      <c r="BD10" s="116"/>
+      <c r="BE10" s="116"/>
+      <c r="BF10" s="117"/>
     </row>
     <row r="11" spans="1:58" ht="16.5" customHeight="1">
       <c r="A11" s="2"/>
       <c r="AN11" s="3"/>
-      <c r="AO11" s="108" t="s">
+      <c r="AO11" s="131" t="s">
         <v>58</v>
       </c>
-      <c r="AP11" s="109"/>
-      <c r="AQ11" s="109"/>
-      <c r="AR11" s="109"/>
-      <c r="AS11" s="109"/>
-      <c r="AT11" s="109"/>
-      <c r="AU11" s="106" t="s">
+      <c r="AP11" s="132"/>
+      <c r="AQ11" s="132"/>
+      <c r="AR11" s="132"/>
+      <c r="AS11" s="132"/>
+      <c r="AT11" s="132"/>
+      <c r="AU11" s="116" t="s">
         <v>76</v>
       </c>
-      <c r="AV11" s="106"/>
-      <c r="AW11" s="106"/>
-      <c r="AX11" s="106"/>
-      <c r="AY11" s="106"/>
-      <c r="AZ11" s="106"/>
-      <c r="BA11" s="106"/>
-      <c r="BB11" s="106"/>
-      <c r="BC11" s="106"/>
-      <c r="BD11" s="106"/>
-      <c r="BE11" s="106"/>
-      <c r="BF11" s="107"/>
+      <c r="AV11" s="116"/>
+      <c r="AW11" s="116"/>
+      <c r="AX11" s="116"/>
+      <c r="AY11" s="116"/>
+      <c r="AZ11" s="116"/>
+      <c r="BA11" s="116"/>
+      <c r="BB11" s="116"/>
+      <c r="BC11" s="116"/>
+      <c r="BD11" s="116"/>
+      <c r="BE11" s="116"/>
+      <c r="BF11" s="117"/>
     </row>
     <row r="12" spans="1:58">
       <c r="A12" s="2"/>
       <c r="AN12" s="3"/>
-      <c r="AO12" s="110"/>
-      <c r="AP12" s="111"/>
-      <c r="AQ12" s="111"/>
-      <c r="AR12" s="111"/>
-      <c r="AS12" s="111"/>
-      <c r="AT12" s="111"/>
-      <c r="AU12" s="106"/>
-      <c r="AV12" s="106"/>
-      <c r="AW12" s="106"/>
-      <c r="AX12" s="106"/>
-      <c r="AY12" s="106"/>
-      <c r="AZ12" s="106"/>
-      <c r="BA12" s="106"/>
-      <c r="BB12" s="106"/>
-      <c r="BC12" s="106"/>
-      <c r="BD12" s="106"/>
-      <c r="BE12" s="106"/>
-      <c r="BF12" s="107"/>
+      <c r="AO12" s="133"/>
+      <c r="AP12" s="134"/>
+      <c r="AQ12" s="134"/>
+      <c r="AR12" s="134"/>
+      <c r="AS12" s="134"/>
+      <c r="AT12" s="134"/>
+      <c r="AU12" s="116"/>
+      <c r="AV12" s="116"/>
+      <c r="AW12" s="116"/>
+      <c r="AX12" s="116"/>
+      <c r="AY12" s="116"/>
+      <c r="AZ12" s="116"/>
+      <c r="BA12" s="116"/>
+      <c r="BB12" s="116"/>
+      <c r="BC12" s="116"/>
+      <c r="BD12" s="116"/>
+      <c r="BE12" s="116"/>
+      <c r="BF12" s="117"/>
     </row>
     <row r="13" spans="1:58">
       <c r="A13" s="2"/>
       <c r="AN13" s="3"/>
-      <c r="AO13" s="105" t="s">
+      <c r="AO13" s="115" t="s">
         <v>59</v>
       </c>
-      <c r="AP13" s="94"/>
-      <c r="AQ13" s="94"/>
-      <c r="AR13" s="94"/>
-      <c r="AS13" s="94"/>
-      <c r="AT13" s="94"/>
-      <c r="AU13" s="106"/>
-      <c r="AV13" s="106"/>
-      <c r="AW13" s="106"/>
-      <c r="AX13" s="106"/>
-      <c r="AY13" s="106"/>
-      <c r="AZ13" s="106"/>
-      <c r="BA13" s="106"/>
-      <c r="BB13" s="106"/>
-      <c r="BC13" s="106"/>
-      <c r="BD13" s="106"/>
-      <c r="BE13" s="106"/>
-      <c r="BF13" s="107"/>
+      <c r="AP13" s="106"/>
+      <c r="AQ13" s="106"/>
+      <c r="AR13" s="106"/>
+      <c r="AS13" s="106"/>
+      <c r="AT13" s="106"/>
+      <c r="AU13" s="116"/>
+      <c r="AV13" s="116"/>
+      <c r="AW13" s="116"/>
+      <c r="AX13" s="116"/>
+      <c r="AY13" s="116"/>
+      <c r="AZ13" s="116"/>
+      <c r="BA13" s="116"/>
+      <c r="BB13" s="116"/>
+      <c r="BC13" s="116"/>
+      <c r="BD13" s="116"/>
+      <c r="BE13" s="116"/>
+      <c r="BF13" s="117"/>
     </row>
     <row r="14" spans="1:58">
       <c r="A14" s="2"/>
       <c r="AN14" s="3"/>
-      <c r="AO14" s="105"/>
-      <c r="AP14" s="94"/>
-      <c r="AQ14" s="94"/>
-      <c r="AR14" s="94"/>
-      <c r="AS14" s="94"/>
-      <c r="AT14" s="94"/>
-      <c r="AU14" s="106"/>
-      <c r="AV14" s="106"/>
-      <c r="AW14" s="106"/>
-      <c r="AX14" s="106"/>
-      <c r="AY14" s="106"/>
-      <c r="AZ14" s="106"/>
-      <c r="BA14" s="106"/>
-      <c r="BB14" s="106"/>
-      <c r="BC14" s="106"/>
-      <c r="BD14" s="106"/>
-      <c r="BE14" s="106"/>
-      <c r="BF14" s="107"/>
+      <c r="AO14" s="115"/>
+      <c r="AP14" s="106"/>
+      <c r="AQ14" s="106"/>
+      <c r="AR14" s="106"/>
+      <c r="AS14" s="106"/>
+      <c r="AT14" s="106"/>
+      <c r="AU14" s="116"/>
+      <c r="AV14" s="116"/>
+      <c r="AW14" s="116"/>
+      <c r="AX14" s="116"/>
+      <c r="AY14" s="116"/>
+      <c r="AZ14" s="116"/>
+      <c r="BA14" s="116"/>
+      <c r="BB14" s="116"/>
+      <c r="BC14" s="116"/>
+      <c r="BD14" s="116"/>
+      <c r="BE14" s="116"/>
+      <c r="BF14" s="117"/>
     </row>
     <row r="15" spans="1:58">
       <c r="A15" s="2"/>
       <c r="AN15" s="3"/>
-      <c r="AO15" s="105" t="s">
+      <c r="AO15" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="AP15" s="94"/>
-      <c r="AQ15" s="94"/>
-      <c r="AR15" s="94"/>
-      <c r="AS15" s="94"/>
-      <c r="AT15" s="94"/>
-      <c r="AU15" s="106" t="s">
+      <c r="AP15" s="106"/>
+      <c r="AQ15" s="106"/>
+      <c r="AR15" s="106"/>
+      <c r="AS15" s="106"/>
+      <c r="AT15" s="106"/>
+      <c r="AU15" s="116" t="s">
         <v>77</v>
       </c>
-      <c r="AV15" s="106"/>
-      <c r="AW15" s="106"/>
-      <c r="AX15" s="106"/>
-      <c r="AY15" s="106"/>
-      <c r="AZ15" s="106"/>
-      <c r="BA15" s="106"/>
-      <c r="BB15" s="106"/>
-      <c r="BC15" s="106"/>
-      <c r="BD15" s="106"/>
-      <c r="BE15" s="106"/>
-      <c r="BF15" s="107"/>
+      <c r="AV15" s="116"/>
+      <c r="AW15" s="116"/>
+      <c r="AX15" s="116"/>
+      <c r="AY15" s="116"/>
+      <c r="AZ15" s="116"/>
+      <c r="BA15" s="116"/>
+      <c r="BB15" s="116"/>
+      <c r="BC15" s="116"/>
+      <c r="BD15" s="116"/>
+      <c r="BE15" s="116"/>
+      <c r="BF15" s="117"/>
     </row>
     <row r="16" spans="1:58">
       <c r="A16" s="2"/>
       <c r="AN16" s="3"/>
-      <c r="AO16" s="105"/>
-      <c r="AP16" s="94"/>
-      <c r="AQ16" s="94"/>
-      <c r="AR16" s="94"/>
-      <c r="AS16" s="94"/>
-      <c r="AT16" s="94"/>
-      <c r="AU16" s="106"/>
-      <c r="AV16" s="106"/>
-      <c r="AW16" s="106"/>
-      <c r="AX16" s="106"/>
-      <c r="AY16" s="106"/>
-      <c r="AZ16" s="106"/>
-      <c r="BA16" s="106"/>
-      <c r="BB16" s="106"/>
-      <c r="BC16" s="106"/>
-      <c r="BD16" s="106"/>
-      <c r="BE16" s="106"/>
-      <c r="BF16" s="107"/>
+      <c r="AO16" s="115"/>
+      <c r="AP16" s="106"/>
+      <c r="AQ16" s="106"/>
+      <c r="AR16" s="106"/>
+      <c r="AS16" s="106"/>
+      <c r="AT16" s="106"/>
+      <c r="AU16" s="116"/>
+      <c r="AV16" s="116"/>
+      <c r="AW16" s="116"/>
+      <c r="AX16" s="116"/>
+      <c r="AY16" s="116"/>
+      <c r="AZ16" s="116"/>
+      <c r="BA16" s="116"/>
+      <c r="BB16" s="116"/>
+      <c r="BC16" s="116"/>
+      <c r="BD16" s="116"/>
+      <c r="BE16" s="116"/>
+      <c r="BF16" s="117"/>
     </row>
     <row r="17" spans="1:58">
       <c r="A17" s="2"/>
       <c r="AN17" s="3"/>
-      <c r="AO17" s="105" t="s">
+      <c r="AO17" s="115" t="s">
         <v>60</v>
       </c>
-      <c r="AP17" s="94"/>
-      <c r="AQ17" s="94"/>
-      <c r="AR17" s="94"/>
-      <c r="AS17" s="94"/>
-      <c r="AT17" s="94"/>
-      <c r="AU17" s="106" t="s">
+      <c r="AP17" s="106"/>
+      <c r="AQ17" s="106"/>
+      <c r="AR17" s="106"/>
+      <c r="AS17" s="106"/>
+      <c r="AT17" s="106"/>
+      <c r="AU17" s="116" t="s">
         <v>78</v>
       </c>
-      <c r="AV17" s="106"/>
-      <c r="AW17" s="106"/>
-      <c r="AX17" s="106"/>
-      <c r="AY17" s="106"/>
-      <c r="AZ17" s="106"/>
-      <c r="BA17" s="106"/>
-      <c r="BB17" s="106"/>
-      <c r="BC17" s="106"/>
-      <c r="BD17" s="106"/>
-      <c r="BE17" s="106"/>
-      <c r="BF17" s="107"/>
+      <c r="AV17" s="116"/>
+      <c r="AW17" s="116"/>
+      <c r="AX17" s="116"/>
+      <c r="AY17" s="116"/>
+      <c r="AZ17" s="116"/>
+      <c r="BA17" s="116"/>
+      <c r="BB17" s="116"/>
+      <c r="BC17" s="116"/>
+      <c r="BD17" s="116"/>
+      <c r="BE17" s="116"/>
+      <c r="BF17" s="117"/>
     </row>
     <row r="18" spans="1:58">
       <c r="A18" s="2"/>
       <c r="AN18" s="3"/>
-      <c r="AO18" s="105"/>
-      <c r="AP18" s="94"/>
-      <c r="AQ18" s="94"/>
-      <c r="AR18" s="94"/>
-      <c r="AS18" s="94"/>
-      <c r="AT18" s="94"/>
-      <c r="AU18" s="106"/>
-      <c r="AV18" s="106"/>
-      <c r="AW18" s="106"/>
-      <c r="AX18" s="106"/>
-      <c r="AY18" s="106"/>
-      <c r="AZ18" s="106"/>
-      <c r="BA18" s="106"/>
-      <c r="BB18" s="106"/>
-      <c r="BC18" s="106"/>
-      <c r="BD18" s="106"/>
-      <c r="BE18" s="106"/>
-      <c r="BF18" s="107"/>
+      <c r="AO18" s="115"/>
+      <c r="AP18" s="106"/>
+      <c r="AQ18" s="106"/>
+      <c r="AR18" s="106"/>
+      <c r="AS18" s="106"/>
+      <c r="AT18" s="106"/>
+      <c r="AU18" s="116"/>
+      <c r="AV18" s="116"/>
+      <c r="AW18" s="116"/>
+      <c r="AX18" s="116"/>
+      <c r="AY18" s="116"/>
+      <c r="AZ18" s="116"/>
+      <c r="BA18" s="116"/>
+      <c r="BB18" s="116"/>
+      <c r="BC18" s="116"/>
+      <c r="BD18" s="116"/>
+      <c r="BE18" s="116"/>
+      <c r="BF18" s="117"/>
     </row>
     <row r="19" spans="1:58" ht="11.25" customHeight="1">
       <c r="A19" s="2"/>
       <c r="AN19" s="3"/>
-      <c r="AO19" s="105" t="s">
+      <c r="AO19" s="115" t="s">
         <v>246</v>
       </c>
-      <c r="AP19" s="94"/>
-      <c r="AQ19" s="94"/>
-      <c r="AR19" s="94"/>
-      <c r="AS19" s="94"/>
-      <c r="AT19" s="94"/>
-      <c r="AU19" s="106" t="s">
+      <c r="AP19" s="106"/>
+      <c r="AQ19" s="106"/>
+      <c r="AR19" s="106"/>
+      <c r="AS19" s="106"/>
+      <c r="AT19" s="106"/>
+      <c r="AU19" s="116" t="s">
         <v>247</v>
       </c>
-      <c r="AV19" s="106"/>
-      <c r="AW19" s="106"/>
-      <c r="AX19" s="106"/>
-      <c r="AY19" s="106"/>
-      <c r="AZ19" s="106"/>
-      <c r="BA19" s="106"/>
-      <c r="BB19" s="106"/>
-      <c r="BC19" s="106"/>
-      <c r="BD19" s="106"/>
-      <c r="BE19" s="106"/>
-      <c r="BF19" s="107"/>
+      <c r="AV19" s="116"/>
+      <c r="AW19" s="116"/>
+      <c r="AX19" s="116"/>
+      <c r="AY19" s="116"/>
+      <c r="AZ19" s="116"/>
+      <c r="BA19" s="116"/>
+      <c r="BB19" s="116"/>
+      <c r="BC19" s="116"/>
+      <c r="BD19" s="116"/>
+      <c r="BE19" s="116"/>
+      <c r="BF19" s="117"/>
     </row>
     <row r="20" spans="1:58">
       <c r="A20" s="2"/>
       <c r="AN20" s="3"/>
-      <c r="AO20" s="105"/>
-      <c r="AP20" s="94"/>
-      <c r="AQ20" s="94"/>
-      <c r="AR20" s="94"/>
-      <c r="AS20" s="94"/>
-      <c r="AT20" s="94"/>
-      <c r="AU20" s="106"/>
-      <c r="AV20" s="106"/>
-      <c r="AW20" s="106"/>
-      <c r="AX20" s="106"/>
-      <c r="AY20" s="106"/>
-      <c r="AZ20" s="106"/>
-      <c r="BA20" s="106"/>
-      <c r="BB20" s="106"/>
-      <c r="BC20" s="106"/>
-      <c r="BD20" s="106"/>
-      <c r="BE20" s="106"/>
-      <c r="BF20" s="107"/>
+      <c r="AO20" s="115"/>
+      <c r="AP20" s="106"/>
+      <c r="AQ20" s="106"/>
+      <c r="AR20" s="106"/>
+      <c r="AS20" s="106"/>
+      <c r="AT20" s="106"/>
+      <c r="AU20" s="116"/>
+      <c r="AV20" s="116"/>
+      <c r="AW20" s="116"/>
+      <c r="AX20" s="116"/>
+      <c r="AY20" s="116"/>
+      <c r="AZ20" s="116"/>
+      <c r="BA20" s="116"/>
+      <c r="BB20" s="116"/>
+      <c r="BC20" s="116"/>
+      <c r="BD20" s="116"/>
+      <c r="BE20" s="116"/>
+      <c r="BF20" s="117"/>
     </row>
     <row r="21" spans="1:58">
       <c r="A21" s="2"/>
       <c r="AN21" s="3"/>
-      <c r="AO21" s="105"/>
-      <c r="AP21" s="94"/>
-      <c r="AQ21" s="94"/>
-      <c r="AR21" s="94"/>
-      <c r="AS21" s="94"/>
-      <c r="AT21" s="94"/>
-      <c r="AU21" s="106"/>
-      <c r="AV21" s="106"/>
-      <c r="AW21" s="106"/>
-      <c r="AX21" s="106"/>
-      <c r="AY21" s="106"/>
-      <c r="AZ21" s="106"/>
-      <c r="BA21" s="106"/>
-      <c r="BB21" s="106"/>
-      <c r="BC21" s="106"/>
-      <c r="BD21" s="106"/>
-      <c r="BE21" s="106"/>
-      <c r="BF21" s="107"/>
+      <c r="AO21" s="115"/>
+      <c r="AP21" s="106"/>
+      <c r="AQ21" s="106"/>
+      <c r="AR21" s="106"/>
+      <c r="AS21" s="106"/>
+      <c r="AT21" s="106"/>
+      <c r="AU21" s="116"/>
+      <c r="AV21" s="116"/>
+      <c r="AW21" s="116"/>
+      <c r="AX21" s="116"/>
+      <c r="AY21" s="116"/>
+      <c r="AZ21" s="116"/>
+      <c r="BA21" s="116"/>
+      <c r="BB21" s="116"/>
+      <c r="BC21" s="116"/>
+      <c r="BD21" s="116"/>
+      <c r="BE21" s="116"/>
+      <c r="BF21" s="117"/>
     </row>
     <row r="22" spans="1:58">
       <c r="A22" s="2"/>
       <c r="AN22" s="3"/>
-      <c r="AO22" s="105"/>
-      <c r="AP22" s="94"/>
-      <c r="AQ22" s="94"/>
-      <c r="AR22" s="94"/>
-      <c r="AS22" s="94"/>
-      <c r="AT22" s="94"/>
-      <c r="AU22" s="106"/>
-      <c r="AV22" s="106"/>
-      <c r="AW22" s="106"/>
-      <c r="AX22" s="106"/>
-      <c r="AY22" s="106"/>
-      <c r="AZ22" s="106"/>
-      <c r="BA22" s="106"/>
-      <c r="BB22" s="106"/>
-      <c r="BC22" s="106"/>
-      <c r="BD22" s="106"/>
-      <c r="BE22" s="106"/>
-      <c r="BF22" s="107"/>
+      <c r="AO22" s="115"/>
+      <c r="AP22" s="106"/>
+      <c r="AQ22" s="106"/>
+      <c r="AR22" s="106"/>
+      <c r="AS22" s="106"/>
+      <c r="AT22" s="106"/>
+      <c r="AU22" s="116"/>
+      <c r="AV22" s="116"/>
+      <c r="AW22" s="116"/>
+      <c r="AX22" s="116"/>
+      <c r="AY22" s="116"/>
+      <c r="AZ22" s="116"/>
+      <c r="BA22" s="116"/>
+      <c r="BB22" s="116"/>
+      <c r="BC22" s="116"/>
+      <c r="BD22" s="116"/>
+      <c r="BE22" s="116"/>
+      <c r="BF22" s="117"/>
     </row>
     <row r="23" spans="1:58">
       <c r="A23" s="2"/>
@@ -5703,354 +5653,354 @@
     <row r="24" spans="1:58">
       <c r="A24" s="2"/>
       <c r="AN24" s="3"/>
-      <c r="AO24" s="105"/>
-      <c r="AP24" s="94"/>
-      <c r="AQ24" s="94"/>
-      <c r="AR24" s="94"/>
-      <c r="AS24" s="94"/>
-      <c r="AT24" s="94"/>
-      <c r="AU24" s="106"/>
-      <c r="AV24" s="106"/>
-      <c r="AW24" s="106"/>
-      <c r="AX24" s="106"/>
-      <c r="AY24" s="106"/>
-      <c r="AZ24" s="106"/>
-      <c r="BA24" s="106"/>
-      <c r="BB24" s="106"/>
-      <c r="BC24" s="106"/>
-      <c r="BD24" s="106"/>
-      <c r="BE24" s="106"/>
-      <c r="BF24" s="107"/>
+      <c r="AO24" s="115"/>
+      <c r="AP24" s="106"/>
+      <c r="AQ24" s="106"/>
+      <c r="AR24" s="106"/>
+      <c r="AS24" s="106"/>
+      <c r="AT24" s="106"/>
+      <c r="AU24" s="116"/>
+      <c r="AV24" s="116"/>
+      <c r="AW24" s="116"/>
+      <c r="AX24" s="116"/>
+      <c r="AY24" s="116"/>
+      <c r="AZ24" s="116"/>
+      <c r="BA24" s="116"/>
+      <c r="BB24" s="116"/>
+      <c r="BC24" s="116"/>
+      <c r="BD24" s="116"/>
+      <c r="BE24" s="116"/>
+      <c r="BF24" s="117"/>
     </row>
     <row r="25" spans="1:58">
       <c r="A25" s="2"/>
       <c r="AN25" s="3"/>
-      <c r="AO25" s="105"/>
-      <c r="AP25" s="94"/>
-      <c r="AQ25" s="94"/>
-      <c r="AR25" s="94"/>
-      <c r="AS25" s="94"/>
-      <c r="AT25" s="94"/>
-      <c r="AU25" s="106"/>
-      <c r="AV25" s="106"/>
-      <c r="AW25" s="106"/>
-      <c r="AX25" s="106"/>
-      <c r="AY25" s="106"/>
-      <c r="AZ25" s="106"/>
-      <c r="BA25" s="106"/>
-      <c r="BB25" s="106"/>
-      <c r="BC25" s="106"/>
-      <c r="BD25" s="106"/>
-      <c r="BE25" s="106"/>
-      <c r="BF25" s="107"/>
+      <c r="AO25" s="115"/>
+      <c r="AP25" s="106"/>
+      <c r="AQ25" s="106"/>
+      <c r="AR25" s="106"/>
+      <c r="AS25" s="106"/>
+      <c r="AT25" s="106"/>
+      <c r="AU25" s="116"/>
+      <c r="AV25" s="116"/>
+      <c r="AW25" s="116"/>
+      <c r="AX25" s="116"/>
+      <c r="AY25" s="116"/>
+      <c r="AZ25" s="116"/>
+      <c r="BA25" s="116"/>
+      <c r="BB25" s="116"/>
+      <c r="BC25" s="116"/>
+      <c r="BD25" s="116"/>
+      <c r="BE25" s="116"/>
+      <c r="BF25" s="117"/>
     </row>
     <row r="26" spans="1:58">
       <c r="A26" s="2"/>
       <c r="AN26" s="3"/>
-      <c r="AO26" s="105"/>
-      <c r="AP26" s="94"/>
-      <c r="AQ26" s="94"/>
-      <c r="AR26" s="94"/>
-      <c r="AS26" s="94"/>
-      <c r="AT26" s="94"/>
-      <c r="AU26" s="106"/>
-      <c r="AV26" s="106"/>
-      <c r="AW26" s="106"/>
-      <c r="AX26" s="106"/>
-      <c r="AY26" s="106"/>
-      <c r="AZ26" s="106"/>
-      <c r="BA26" s="106"/>
-      <c r="BB26" s="106"/>
-      <c r="BC26" s="106"/>
-      <c r="BD26" s="106"/>
-      <c r="BE26" s="106"/>
-      <c r="BF26" s="107"/>
+      <c r="AO26" s="115"/>
+      <c r="AP26" s="106"/>
+      <c r="AQ26" s="106"/>
+      <c r="AR26" s="106"/>
+      <c r="AS26" s="106"/>
+      <c r="AT26" s="106"/>
+      <c r="AU26" s="116"/>
+      <c r="AV26" s="116"/>
+      <c r="AW26" s="116"/>
+      <c r="AX26" s="116"/>
+      <c r="AY26" s="116"/>
+      <c r="AZ26" s="116"/>
+      <c r="BA26" s="116"/>
+      <c r="BB26" s="116"/>
+      <c r="BC26" s="116"/>
+      <c r="BD26" s="116"/>
+      <c r="BE26" s="116"/>
+      <c r="BF26" s="117"/>
     </row>
     <row r="27" spans="1:58">
       <c r="A27" s="2"/>
       <c r="AN27" s="3"/>
-      <c r="AO27" s="105"/>
-      <c r="AP27" s="94"/>
-      <c r="AQ27" s="94"/>
-      <c r="AR27" s="94"/>
-      <c r="AS27" s="94"/>
-      <c r="AT27" s="94"/>
-      <c r="AU27" s="106"/>
-      <c r="AV27" s="106"/>
-      <c r="AW27" s="106"/>
-      <c r="AX27" s="106"/>
-      <c r="AY27" s="106"/>
-      <c r="AZ27" s="106"/>
-      <c r="BA27" s="106"/>
-      <c r="BB27" s="106"/>
-      <c r="BC27" s="106"/>
-      <c r="BD27" s="106"/>
-      <c r="BE27" s="106"/>
-      <c r="BF27" s="107"/>
+      <c r="AO27" s="115"/>
+      <c r="AP27" s="106"/>
+      <c r="AQ27" s="106"/>
+      <c r="AR27" s="106"/>
+      <c r="AS27" s="106"/>
+      <c r="AT27" s="106"/>
+      <c r="AU27" s="116"/>
+      <c r="AV27" s="116"/>
+      <c r="AW27" s="116"/>
+      <c r="AX27" s="116"/>
+      <c r="AY27" s="116"/>
+      <c r="AZ27" s="116"/>
+      <c r="BA27" s="116"/>
+      <c r="BB27" s="116"/>
+      <c r="BC27" s="116"/>
+      <c r="BD27" s="116"/>
+      <c r="BE27" s="116"/>
+      <c r="BF27" s="117"/>
     </row>
     <row r="28" spans="1:58">
       <c r="A28" s="2"/>
       <c r="AN28" s="3"/>
-      <c r="AO28" s="105"/>
-      <c r="AP28" s="94"/>
-      <c r="AQ28" s="94"/>
-      <c r="AR28" s="94"/>
-      <c r="AS28" s="94"/>
-      <c r="AT28" s="94"/>
-      <c r="AU28" s="106"/>
-      <c r="AV28" s="106"/>
-      <c r="AW28" s="106"/>
-      <c r="AX28" s="106"/>
-      <c r="AY28" s="106"/>
-      <c r="AZ28" s="106"/>
-      <c r="BA28" s="106"/>
-      <c r="BB28" s="106"/>
-      <c r="BC28" s="106"/>
-      <c r="BD28" s="106"/>
-      <c r="BE28" s="106"/>
-      <c r="BF28" s="107"/>
+      <c r="AO28" s="115"/>
+      <c r="AP28" s="106"/>
+      <c r="AQ28" s="106"/>
+      <c r="AR28" s="106"/>
+      <c r="AS28" s="106"/>
+      <c r="AT28" s="106"/>
+      <c r="AU28" s="116"/>
+      <c r="AV28" s="116"/>
+      <c r="AW28" s="116"/>
+      <c r="AX28" s="116"/>
+      <c r="AY28" s="116"/>
+      <c r="AZ28" s="116"/>
+      <c r="BA28" s="116"/>
+      <c r="BB28" s="116"/>
+      <c r="BC28" s="116"/>
+      <c r="BD28" s="116"/>
+      <c r="BE28" s="116"/>
+      <c r="BF28" s="117"/>
     </row>
     <row r="29" spans="1:58">
       <c r="A29" s="2"/>
       <c r="AN29" s="3"/>
-      <c r="AO29" s="105"/>
-      <c r="AP29" s="94"/>
-      <c r="AQ29" s="94"/>
-      <c r="AR29" s="94"/>
-      <c r="AS29" s="94"/>
-      <c r="AT29" s="94"/>
-      <c r="AU29" s="106"/>
-      <c r="AV29" s="106"/>
-      <c r="AW29" s="106"/>
-      <c r="AX29" s="106"/>
-      <c r="AY29" s="106"/>
-      <c r="AZ29" s="106"/>
-      <c r="BA29" s="106"/>
-      <c r="BB29" s="106"/>
-      <c r="BC29" s="106"/>
-      <c r="BD29" s="106"/>
-      <c r="BE29" s="106"/>
-      <c r="BF29" s="107"/>
+      <c r="AO29" s="115"/>
+      <c r="AP29" s="106"/>
+      <c r="AQ29" s="106"/>
+      <c r="AR29" s="106"/>
+      <c r="AS29" s="106"/>
+      <c r="AT29" s="106"/>
+      <c r="AU29" s="116"/>
+      <c r="AV29" s="116"/>
+      <c r="AW29" s="116"/>
+      <c r="AX29" s="116"/>
+      <c r="AY29" s="116"/>
+      <c r="AZ29" s="116"/>
+      <c r="BA29" s="116"/>
+      <c r="BB29" s="116"/>
+      <c r="BC29" s="116"/>
+      <c r="BD29" s="116"/>
+      <c r="BE29" s="116"/>
+      <c r="BF29" s="117"/>
     </row>
     <row r="30" spans="1:58">
       <c r="A30" s="2"/>
       <c r="AN30" s="3"/>
-      <c r="AO30" s="105"/>
-      <c r="AP30" s="94"/>
-      <c r="AQ30" s="94"/>
-      <c r="AR30" s="94"/>
-      <c r="AS30" s="94"/>
-      <c r="AT30" s="94"/>
-      <c r="AU30" s="106"/>
-      <c r="AV30" s="106"/>
-      <c r="AW30" s="106"/>
-      <c r="AX30" s="106"/>
-      <c r="AY30" s="106"/>
-      <c r="AZ30" s="106"/>
-      <c r="BA30" s="106"/>
-      <c r="BB30" s="106"/>
-      <c r="BC30" s="106"/>
-      <c r="BD30" s="106"/>
-      <c r="BE30" s="106"/>
-      <c r="BF30" s="107"/>
+      <c r="AO30" s="115"/>
+      <c r="AP30" s="106"/>
+      <c r="AQ30" s="106"/>
+      <c r="AR30" s="106"/>
+      <c r="AS30" s="106"/>
+      <c r="AT30" s="106"/>
+      <c r="AU30" s="116"/>
+      <c r="AV30" s="116"/>
+      <c r="AW30" s="116"/>
+      <c r="AX30" s="116"/>
+      <c r="AY30" s="116"/>
+      <c r="AZ30" s="116"/>
+      <c r="BA30" s="116"/>
+      <c r="BB30" s="116"/>
+      <c r="BC30" s="116"/>
+      <c r="BD30" s="116"/>
+      <c r="BE30" s="116"/>
+      <c r="BF30" s="117"/>
     </row>
     <row r="31" spans="1:58">
       <c r="A31" s="2"/>
       <c r="AN31" s="3"/>
-      <c r="AO31" s="105"/>
-      <c r="AP31" s="94"/>
-      <c r="AQ31" s="94"/>
-      <c r="AR31" s="94"/>
-      <c r="AS31" s="94"/>
-      <c r="AT31" s="94"/>
-      <c r="AU31" s="106"/>
-      <c r="AV31" s="106"/>
-      <c r="AW31" s="106"/>
-      <c r="AX31" s="106"/>
-      <c r="AY31" s="106"/>
-      <c r="AZ31" s="106"/>
-      <c r="BA31" s="106"/>
-      <c r="BB31" s="106"/>
-      <c r="BC31" s="106"/>
-      <c r="BD31" s="106"/>
-      <c r="BE31" s="106"/>
-      <c r="BF31" s="107"/>
+      <c r="AO31" s="115"/>
+      <c r="AP31" s="106"/>
+      <c r="AQ31" s="106"/>
+      <c r="AR31" s="106"/>
+      <c r="AS31" s="106"/>
+      <c r="AT31" s="106"/>
+      <c r="AU31" s="116"/>
+      <c r="AV31" s="116"/>
+      <c r="AW31" s="116"/>
+      <c r="AX31" s="116"/>
+      <c r="AY31" s="116"/>
+      <c r="AZ31" s="116"/>
+      <c r="BA31" s="116"/>
+      <c r="BB31" s="116"/>
+      <c r="BC31" s="116"/>
+      <c r="BD31" s="116"/>
+      <c r="BE31" s="116"/>
+      <c r="BF31" s="117"/>
     </row>
     <row r="32" spans="1:58">
       <c r="A32" s="2"/>
       <c r="AN32" s="3"/>
-      <c r="AO32" s="105"/>
-      <c r="AP32" s="94"/>
-      <c r="AQ32" s="94"/>
-      <c r="AR32" s="94"/>
-      <c r="AS32" s="94"/>
-      <c r="AT32" s="94"/>
-      <c r="AU32" s="106"/>
-      <c r="AV32" s="106"/>
-      <c r="AW32" s="106"/>
-      <c r="AX32" s="106"/>
-      <c r="AY32" s="106"/>
-      <c r="AZ32" s="106"/>
-      <c r="BA32" s="106"/>
-      <c r="BB32" s="106"/>
-      <c r="BC32" s="106"/>
-      <c r="BD32" s="106"/>
-      <c r="BE32" s="106"/>
-      <c r="BF32" s="107"/>
+      <c r="AO32" s="115"/>
+      <c r="AP32" s="106"/>
+      <c r="AQ32" s="106"/>
+      <c r="AR32" s="106"/>
+      <c r="AS32" s="106"/>
+      <c r="AT32" s="106"/>
+      <c r="AU32" s="116"/>
+      <c r="AV32" s="116"/>
+      <c r="AW32" s="116"/>
+      <c r="AX32" s="116"/>
+      <c r="AY32" s="116"/>
+      <c r="AZ32" s="116"/>
+      <c r="BA32" s="116"/>
+      <c r="BB32" s="116"/>
+      <c r="BC32" s="116"/>
+      <c r="BD32" s="116"/>
+      <c r="BE32" s="116"/>
+      <c r="BF32" s="117"/>
     </row>
     <row r="33" spans="1:58">
       <c r="A33" s="2"/>
       <c r="AN33" s="3"/>
-      <c r="AO33" s="105"/>
-      <c r="AP33" s="94"/>
-      <c r="AQ33" s="94"/>
-      <c r="AR33" s="94"/>
-      <c r="AS33" s="94"/>
-      <c r="AT33" s="94"/>
-      <c r="AU33" s="106"/>
-      <c r="AV33" s="106"/>
-      <c r="AW33" s="106"/>
-      <c r="AX33" s="106"/>
-      <c r="AY33" s="106"/>
-      <c r="AZ33" s="106"/>
-      <c r="BA33" s="106"/>
-      <c r="BB33" s="106"/>
-      <c r="BC33" s="106"/>
-      <c r="BD33" s="106"/>
-      <c r="BE33" s="106"/>
-      <c r="BF33" s="107"/>
+      <c r="AO33" s="115"/>
+      <c r="AP33" s="106"/>
+      <c r="AQ33" s="106"/>
+      <c r="AR33" s="106"/>
+      <c r="AS33" s="106"/>
+      <c r="AT33" s="106"/>
+      <c r="AU33" s="116"/>
+      <c r="AV33" s="116"/>
+      <c r="AW33" s="116"/>
+      <c r="AX33" s="116"/>
+      <c r="AY33" s="116"/>
+      <c r="AZ33" s="116"/>
+      <c r="BA33" s="116"/>
+      <c r="BB33" s="116"/>
+      <c r="BC33" s="116"/>
+      <c r="BD33" s="116"/>
+      <c r="BE33" s="116"/>
+      <c r="BF33" s="117"/>
     </row>
     <row r="34" spans="1:58">
       <c r="A34" s="2"/>
       <c r="AN34" s="3"/>
-      <c r="AO34" s="105"/>
-      <c r="AP34" s="94"/>
-      <c r="AQ34" s="94"/>
-      <c r="AR34" s="94"/>
-      <c r="AS34" s="94"/>
-      <c r="AT34" s="94"/>
-      <c r="AU34" s="106"/>
-      <c r="AV34" s="106"/>
-      <c r="AW34" s="106"/>
-      <c r="AX34" s="106"/>
-      <c r="AY34" s="106"/>
-      <c r="AZ34" s="106"/>
-      <c r="BA34" s="106"/>
-      <c r="BB34" s="106"/>
-      <c r="BC34" s="106"/>
-      <c r="BD34" s="106"/>
-      <c r="BE34" s="106"/>
-      <c r="BF34" s="107"/>
+      <c r="AO34" s="115"/>
+      <c r="AP34" s="106"/>
+      <c r="AQ34" s="106"/>
+      <c r="AR34" s="106"/>
+      <c r="AS34" s="106"/>
+      <c r="AT34" s="106"/>
+      <c r="AU34" s="116"/>
+      <c r="AV34" s="116"/>
+      <c r="AW34" s="116"/>
+      <c r="AX34" s="116"/>
+      <c r="AY34" s="116"/>
+      <c r="AZ34" s="116"/>
+      <c r="BA34" s="116"/>
+      <c r="BB34" s="116"/>
+      <c r="BC34" s="116"/>
+      <c r="BD34" s="116"/>
+      <c r="BE34" s="116"/>
+      <c r="BF34" s="117"/>
     </row>
     <row r="35" spans="1:58">
       <c r="A35" s="2"/>
       <c r="AN35" s="3"/>
-      <c r="AO35" s="105"/>
-      <c r="AP35" s="94"/>
-      <c r="AQ35" s="94"/>
-      <c r="AR35" s="94"/>
-      <c r="AS35" s="94"/>
-      <c r="AT35" s="94"/>
-      <c r="AU35" s="106"/>
-      <c r="AV35" s="106"/>
-      <c r="AW35" s="106"/>
-      <c r="AX35" s="106"/>
-      <c r="AY35" s="106"/>
-      <c r="AZ35" s="106"/>
-      <c r="BA35" s="106"/>
-      <c r="BB35" s="106"/>
-      <c r="BC35" s="106"/>
-      <c r="BD35" s="106"/>
-      <c r="BE35" s="106"/>
-      <c r="BF35" s="107"/>
+      <c r="AO35" s="115"/>
+      <c r="AP35" s="106"/>
+      <c r="AQ35" s="106"/>
+      <c r="AR35" s="106"/>
+      <c r="AS35" s="106"/>
+      <c r="AT35" s="106"/>
+      <c r="AU35" s="116"/>
+      <c r="AV35" s="116"/>
+      <c r="AW35" s="116"/>
+      <c r="AX35" s="116"/>
+      <c r="AY35" s="116"/>
+      <c r="AZ35" s="116"/>
+      <c r="BA35" s="116"/>
+      <c r="BB35" s="116"/>
+      <c r="BC35" s="116"/>
+      <c r="BD35" s="116"/>
+      <c r="BE35" s="116"/>
+      <c r="BF35" s="117"/>
     </row>
     <row r="36" spans="1:58">
       <c r="A36" s="2"/>
       <c r="AN36" s="3"/>
-      <c r="AO36" s="105"/>
-      <c r="AP36" s="94"/>
-      <c r="AQ36" s="94"/>
-      <c r="AR36" s="94"/>
-      <c r="AS36" s="94"/>
-      <c r="AT36" s="94"/>
-      <c r="AU36" s="106"/>
-      <c r="AV36" s="106"/>
-      <c r="AW36" s="106"/>
-      <c r="AX36" s="106"/>
-      <c r="AY36" s="106"/>
-      <c r="AZ36" s="106"/>
-      <c r="BA36" s="106"/>
-      <c r="BB36" s="106"/>
-      <c r="BC36" s="106"/>
-      <c r="BD36" s="106"/>
-      <c r="BE36" s="106"/>
-      <c r="BF36" s="107"/>
+      <c r="AO36" s="115"/>
+      <c r="AP36" s="106"/>
+      <c r="AQ36" s="106"/>
+      <c r="AR36" s="106"/>
+      <c r="AS36" s="106"/>
+      <c r="AT36" s="106"/>
+      <c r="AU36" s="116"/>
+      <c r="AV36" s="116"/>
+      <c r="AW36" s="116"/>
+      <c r="AX36" s="116"/>
+      <c r="AY36" s="116"/>
+      <c r="AZ36" s="116"/>
+      <c r="BA36" s="116"/>
+      <c r="BB36" s="116"/>
+      <c r="BC36" s="116"/>
+      <c r="BD36" s="116"/>
+      <c r="BE36" s="116"/>
+      <c r="BF36" s="117"/>
     </row>
     <row r="37" spans="1:58">
       <c r="A37" s="2"/>
       <c r="AN37" s="3"/>
-      <c r="AO37" s="105"/>
-      <c r="AP37" s="94"/>
-      <c r="AQ37" s="94"/>
-      <c r="AR37" s="94"/>
-      <c r="AS37" s="94"/>
-      <c r="AT37" s="94"/>
-      <c r="AU37" s="106"/>
-      <c r="AV37" s="106"/>
-      <c r="AW37" s="106"/>
-      <c r="AX37" s="106"/>
-      <c r="AY37" s="106"/>
-      <c r="AZ37" s="106"/>
-      <c r="BA37" s="106"/>
-      <c r="BB37" s="106"/>
-      <c r="BC37" s="106"/>
-      <c r="BD37" s="106"/>
-      <c r="BE37" s="106"/>
-      <c r="BF37" s="107"/>
+      <c r="AO37" s="115"/>
+      <c r="AP37" s="106"/>
+      <c r="AQ37" s="106"/>
+      <c r="AR37" s="106"/>
+      <c r="AS37" s="106"/>
+      <c r="AT37" s="106"/>
+      <c r="AU37" s="116"/>
+      <c r="AV37" s="116"/>
+      <c r="AW37" s="116"/>
+      <c r="AX37" s="116"/>
+      <c r="AY37" s="116"/>
+      <c r="AZ37" s="116"/>
+      <c r="BA37" s="116"/>
+      <c r="BB37" s="116"/>
+      <c r="BC37" s="116"/>
+      <c r="BD37" s="116"/>
+      <c r="BE37" s="116"/>
+      <c r="BF37" s="117"/>
     </row>
     <row r="38" spans="1:58">
       <c r="A38" s="2"/>
       <c r="AN38" s="3"/>
-      <c r="AO38" s="105"/>
-      <c r="AP38" s="94"/>
-      <c r="AQ38" s="94"/>
-      <c r="AR38" s="94"/>
-      <c r="AS38" s="94"/>
-      <c r="AT38" s="94"/>
-      <c r="AU38" s="106"/>
-      <c r="AV38" s="106"/>
-      <c r="AW38" s="106"/>
-      <c r="AX38" s="106"/>
-      <c r="AY38" s="106"/>
-      <c r="AZ38" s="106"/>
-      <c r="BA38" s="106"/>
-      <c r="BB38" s="106"/>
-      <c r="BC38" s="106"/>
-      <c r="BD38" s="106"/>
-      <c r="BE38" s="106"/>
-      <c r="BF38" s="107"/>
+      <c r="AO38" s="115"/>
+      <c r="AP38" s="106"/>
+      <c r="AQ38" s="106"/>
+      <c r="AR38" s="106"/>
+      <c r="AS38" s="106"/>
+      <c r="AT38" s="106"/>
+      <c r="AU38" s="116"/>
+      <c r="AV38" s="116"/>
+      <c r="AW38" s="116"/>
+      <c r="AX38" s="116"/>
+      <c r="AY38" s="116"/>
+      <c r="AZ38" s="116"/>
+      <c r="BA38" s="116"/>
+      <c r="BB38" s="116"/>
+      <c r="BC38" s="116"/>
+      <c r="BD38" s="116"/>
+      <c r="BE38" s="116"/>
+      <c r="BF38" s="117"/>
     </row>
     <row r="39" spans="1:58">
       <c r="A39" s="2"/>
       <c r="AN39" s="3"/>
-      <c r="AO39" s="105"/>
-      <c r="AP39" s="94"/>
-      <c r="AQ39" s="94"/>
-      <c r="AR39" s="94"/>
-      <c r="AS39" s="94"/>
-      <c r="AT39" s="94"/>
-      <c r="AU39" s="106"/>
-      <c r="AV39" s="106"/>
-      <c r="AW39" s="106"/>
-      <c r="AX39" s="106"/>
-      <c r="AY39" s="106"/>
-      <c r="AZ39" s="106"/>
-      <c r="BA39" s="106"/>
-      <c r="BB39" s="106"/>
-      <c r="BC39" s="106"/>
-      <c r="BD39" s="106"/>
-      <c r="BE39" s="106"/>
-      <c r="BF39" s="107"/>
+      <c r="AO39" s="115"/>
+      <c r="AP39" s="106"/>
+      <c r="AQ39" s="106"/>
+      <c r="AR39" s="106"/>
+      <c r="AS39" s="106"/>
+      <c r="AT39" s="106"/>
+      <c r="AU39" s="116"/>
+      <c r="AV39" s="116"/>
+      <c r="AW39" s="116"/>
+      <c r="AX39" s="116"/>
+      <c r="AY39" s="116"/>
+      <c r="AZ39" s="116"/>
+      <c r="BA39" s="116"/>
+      <c r="BB39" s="116"/>
+      <c r="BC39" s="116"/>
+      <c r="BD39" s="116"/>
+      <c r="BE39" s="116"/>
+      <c r="BF39" s="117"/>
     </row>
     <row r="40" spans="1:58">
       <c r="A40" s="2"/>
@@ -6168,6 +6118,45 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="AO21:AT22"/>
+    <mergeCell ref="AU21:BF22"/>
+    <mergeCell ref="AO15:AT16"/>
+    <mergeCell ref="AU15:BF16"/>
+    <mergeCell ref="AO17:AT18"/>
+    <mergeCell ref="AU17:BF18"/>
+    <mergeCell ref="AO19:AT20"/>
+    <mergeCell ref="AU19:BF20"/>
+    <mergeCell ref="AO9:AT10"/>
+    <mergeCell ref="AU9:BF10"/>
+    <mergeCell ref="AO11:AT12"/>
+    <mergeCell ref="AU11:BF12"/>
+    <mergeCell ref="AO13:AT14"/>
+    <mergeCell ref="AU13:BF14"/>
+    <mergeCell ref="A3:AN3"/>
+    <mergeCell ref="AO3:BF3"/>
+    <mergeCell ref="AO5:AT6"/>
+    <mergeCell ref="AU5:BF6"/>
+    <mergeCell ref="AO7:AT8"/>
+    <mergeCell ref="AU7:BF8"/>
+    <mergeCell ref="BA1:BF1"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="U2:AI2"/>
+    <mergeCell ref="AJ2:AN2"/>
+    <mergeCell ref="AO2:AU2"/>
+    <mergeCell ref="AV2:AZ2"/>
+    <mergeCell ref="BA2:BF2"/>
+    <mergeCell ref="AV1:AZ1"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="U1:AI1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AO1:AU1"/>
+    <mergeCell ref="AO24:AT25"/>
+    <mergeCell ref="AU24:BF25"/>
+    <mergeCell ref="AO26:AT27"/>
+    <mergeCell ref="AU26:BF27"/>
+    <mergeCell ref="AO28:AT29"/>
+    <mergeCell ref="AU28:BF29"/>
     <mergeCell ref="AO36:AT37"/>
     <mergeCell ref="AU36:BF37"/>
     <mergeCell ref="AO38:AT39"/>
@@ -6178,45 +6167,6 @@
     <mergeCell ref="AU32:BF33"/>
     <mergeCell ref="AO34:AT35"/>
     <mergeCell ref="AU34:BF35"/>
-    <mergeCell ref="AO24:AT25"/>
-    <mergeCell ref="AU24:BF25"/>
-    <mergeCell ref="AO26:AT27"/>
-    <mergeCell ref="AU26:BF27"/>
-    <mergeCell ref="AO28:AT29"/>
-    <mergeCell ref="AU28:BF29"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="U1:AI1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AO1:AU1"/>
-    <mergeCell ref="BA1:BF1"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="U2:AI2"/>
-    <mergeCell ref="AJ2:AN2"/>
-    <mergeCell ref="AO2:AU2"/>
-    <mergeCell ref="AV2:AZ2"/>
-    <mergeCell ref="BA2:BF2"/>
-    <mergeCell ref="AV1:AZ1"/>
-    <mergeCell ref="A3:AN3"/>
-    <mergeCell ref="AO3:BF3"/>
-    <mergeCell ref="AO5:AT6"/>
-    <mergeCell ref="AU5:BF6"/>
-    <mergeCell ref="AO7:AT8"/>
-    <mergeCell ref="AU7:BF8"/>
-    <mergeCell ref="AO9:AT10"/>
-    <mergeCell ref="AU9:BF10"/>
-    <mergeCell ref="AO11:AT12"/>
-    <mergeCell ref="AU11:BF12"/>
-    <mergeCell ref="AO13:AT14"/>
-    <mergeCell ref="AU13:BF14"/>
-    <mergeCell ref="AO21:AT22"/>
-    <mergeCell ref="AU21:BF22"/>
-    <mergeCell ref="AO15:AT16"/>
-    <mergeCell ref="AU15:BF16"/>
-    <mergeCell ref="AO17:AT18"/>
-    <mergeCell ref="AU17:BF18"/>
-    <mergeCell ref="AO19:AT20"/>
-    <mergeCell ref="AU19:BF20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6242,27 +6192,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="34" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="139" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="128" t="s">
+      <c r="B1" s="139"/>
+      <c r="C1" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="129"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="131" t="str">
+      <c r="D1" s="141"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="143" t="str">
         <f>表紙!C7</f>
         <v>施設使用料・償還金等料金計算及び納付書作成システム
 口座振替データ作成機能構築業務</v>
       </c>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="133"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
+      <c r="L1" s="144"/>
+      <c r="M1" s="145"/>
       <c r="N1" s="23" t="s">
         <v>0</v>
       </c>
@@ -6277,24 +6227,24 @@
       </c>
     </row>
     <row r="2" spans="1:17" s="34" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="127"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="128" t="s">
+      <c r="A2" s="139"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="134" t="str">
+      <c r="D2" s="141"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="146" t="str">
         <f>表紙!H15</f>
         <v>口座データ</v>
       </c>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="136"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="148"/>
       <c r="N2" s="23" t="s">
         <v>4</v>
       </c>
@@ -6307,42 +6257,42 @@
       <c r="Q2" s="35"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="125" t="s">
+      <c r="A4" s="135" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="125"/>
-      <c r="C4" s="125" t="s">
+      <c r="B4" s="135"/>
+      <c r="C4" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125" t="s">
+      <c r="D4" s="135"/>
+      <c r="E4" s="135" t="s">
         <v>31</v>
       </c>
       <c r="F4" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="125" t="s">
+      <c r="G4" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125" t="s">
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="135"/>
+      <c r="K4" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="125"/>
-      <c r="M4" s="125"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="125"/>
-      <c r="P4" s="125"/>
-      <c r="Q4" s="125"/>
+      <c r="L4" s="135"/>
+      <c r="M4" s="135"/>
+      <c r="N4" s="135"/>
+      <c r="O4" s="135"/>
+      <c r="P4" s="135"/>
+      <c r="Q4" s="135"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="125"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
+      <c r="A5" s="135"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
       <c r="F5" s="38" t="s">
         <v>35</v>
       </c>
@@ -6358,23 +6308,23 @@
       <c r="J5" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="125"/>
-      <c r="L5" s="125"/>
-      <c r="M5" s="125"/>
-      <c r="N5" s="125"/>
-      <c r="O5" s="125"/>
-      <c r="P5" s="125"/>
-      <c r="Q5" s="125"/>
+      <c r="K5" s="135"/>
+      <c r="L5" s="135"/>
+      <c r="M5" s="135"/>
+      <c r="N5" s="135"/>
+      <c r="O5" s="135"/>
+      <c r="P5" s="135"/>
+      <c r="Q5" s="135"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="125" t="s">
+      <c r="A6" s="135" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125" t="s">
+      <c r="B6" s="135"/>
+      <c r="C6" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="125"/>
+      <c r="D6" s="135"/>
       <c r="E6" s="40" t="s">
         <v>41</v>
       </c>
@@ -6383,25 +6333,25 @@
       <c r="H6" s="38"/>
       <c r="I6" s="38"/>
       <c r="J6" s="38"/>
-      <c r="K6" s="126" t="s">
+      <c r="K6" s="136" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="126"/>
-      <c r="M6" s="126"/>
-      <c r="N6" s="126"/>
-      <c r="O6" s="126"/>
-      <c r="P6" s="126"/>
-      <c r="Q6" s="126"/>
+      <c r="L6" s="136"/>
+      <c r="M6" s="136"/>
+      <c r="N6" s="136"/>
+      <c r="O6" s="136"/>
+      <c r="P6" s="136"/>
+      <c r="Q6" s="136"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="135" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125" t="s">
+      <c r="B7" s="135"/>
+      <c r="C7" s="135" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="125"/>
+      <c r="D7" s="135"/>
       <c r="E7" s="40" t="s">
         <v>41</v>
       </c>
@@ -6410,25 +6360,25 @@
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="38"/>
-      <c r="K7" s="126" t="s">
+      <c r="K7" s="136" t="s">
         <v>62</v>
       </c>
-      <c r="L7" s="126"/>
-      <c r="M7" s="126"/>
-      <c r="N7" s="126"/>
-      <c r="O7" s="126"/>
-      <c r="P7" s="126"/>
-      <c r="Q7" s="126"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="136"/>
+      <c r="N7" s="136"/>
+      <c r="O7" s="136"/>
+      <c r="P7" s="136"/>
+      <c r="Q7" s="136"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="125" t="s">
+      <c r="A8" s="135" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125" t="s">
+      <c r="B8" s="135"/>
+      <c r="C8" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="125"/>
+      <c r="D8" s="135"/>
       <c r="E8" s="40" t="s">
         <v>41</v>
       </c>
@@ -6437,25 +6387,25 @@
       <c r="H8" s="38"/>
       <c r="I8" s="38"/>
       <c r="J8" s="38"/>
-      <c r="K8" s="126" t="s">
+      <c r="K8" s="136" t="s">
         <v>63</v>
       </c>
-      <c r="L8" s="126"/>
-      <c r="M8" s="126"/>
-      <c r="N8" s="126"/>
-      <c r="O8" s="126"/>
-      <c r="P8" s="126"/>
-      <c r="Q8" s="126"/>
+      <c r="L8" s="136"/>
+      <c r="M8" s="136"/>
+      <c r="N8" s="136"/>
+      <c r="O8" s="136"/>
+      <c r="P8" s="136"/>
+      <c r="Q8" s="136"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="125" t="s">
+      <c r="A9" s="135" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="125"/>
-      <c r="C9" s="125" t="s">
+      <c r="B9" s="135"/>
+      <c r="C9" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="125"/>
+      <c r="D9" s="135"/>
       <c r="E9" s="40" t="s">
         <v>41</v>
       </c>
@@ -6464,25 +6414,25 @@
       <c r="H9" s="38"/>
       <c r="I9" s="38"/>
       <c r="J9" s="38"/>
-      <c r="K9" s="126" t="s">
+      <c r="K9" s="136" t="s">
         <v>64</v>
       </c>
-      <c r="L9" s="126"/>
-      <c r="M9" s="126"/>
-      <c r="N9" s="126"/>
-      <c r="O9" s="126"/>
-      <c r="P9" s="126"/>
-      <c r="Q9" s="126"/>
+      <c r="L9" s="136"/>
+      <c r="M9" s="136"/>
+      <c r="N9" s="136"/>
+      <c r="O9" s="136"/>
+      <c r="P9" s="136"/>
+      <c r="Q9" s="136"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="125" t="s">
+      <c r="A10" s="135" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="125"/>
-      <c r="C10" s="125" t="s">
+      <c r="B10" s="135"/>
+      <c r="C10" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="125"/>
+      <c r="D10" s="135"/>
       <c r="E10" s="40" t="s">
         <v>41</v>
       </c>
@@ -6491,25 +6441,25 @@
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
       <c r="J10" s="38"/>
-      <c r="K10" s="126" t="s">
+      <c r="K10" s="136" t="s">
         <v>67</v>
       </c>
-      <c r="L10" s="126"/>
-      <c r="M10" s="126"/>
-      <c r="N10" s="126"/>
-      <c r="O10" s="126"/>
-      <c r="P10" s="126"/>
-      <c r="Q10" s="126"/>
+      <c r="L10" s="136"/>
+      <c r="M10" s="136"/>
+      <c r="N10" s="136"/>
+      <c r="O10" s="136"/>
+      <c r="P10" s="136"/>
+      <c r="Q10" s="136"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="125" t="s">
+      <c r="A11" s="135" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="125"/>
-      <c r="C11" s="125" t="s">
+      <c r="B11" s="135"/>
+      <c r="C11" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="125"/>
+      <c r="D11" s="135"/>
       <c r="E11" s="40" t="s">
         <v>41</v>
       </c>
@@ -6518,44 +6468,44 @@
       <c r="H11" s="38"/>
       <c r="I11" s="38"/>
       <c r="J11" s="38"/>
-      <c r="K11" s="126" t="s">
+      <c r="K11" s="136" t="s">
         <v>69</v>
       </c>
-      <c r="L11" s="126"/>
-      <c r="M11" s="126"/>
-      <c r="N11" s="126"/>
-      <c r="O11" s="126"/>
-      <c r="P11" s="126"/>
-      <c r="Q11" s="126"/>
+      <c r="L11" s="136"/>
+      <c r="M11" s="136"/>
+      <c r="N11" s="136"/>
+      <c r="O11" s="136"/>
+      <c r="P11" s="136"/>
+      <c r="Q11" s="136"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="125"/>
-      <c r="B12" s="125"/>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
+      <c r="A12" s="135"/>
+      <c r="B12" s="135"/>
+      <c r="C12" s="135"/>
+      <c r="D12" s="135"/>
       <c r="E12" s="40"/>
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
       <c r="J12" s="38"/>
-      <c r="K12" s="126"/>
-      <c r="L12" s="126"/>
-      <c r="M12" s="126"/>
-      <c r="N12" s="126"/>
-      <c r="O12" s="126"/>
-      <c r="P12" s="126"/>
-      <c r="Q12" s="126"/>
+      <c r="K12" s="136"/>
+      <c r="L12" s="136"/>
+      <c r="M12" s="136"/>
+      <c r="N12" s="136"/>
+      <c r="O12" s="136"/>
+      <c r="P12" s="136"/>
+      <c r="Q12" s="136"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="137" t="s">
         <v>246</v>
       </c>
       <c r="B13" s="138"/>
-      <c r="C13" s="125" t="s">
+      <c r="C13" s="135" t="s">
         <v>248</v>
       </c>
-      <c r="D13" s="125"/>
+      <c r="D13" s="135"/>
       <c r="E13" s="40" t="s">
         <v>41</v>
       </c>
@@ -6568,25 +6518,25 @@
         <v>226</v>
       </c>
       <c r="J13" s="38"/>
-      <c r="K13" s="126" t="s">
+      <c r="K13" s="136" t="s">
         <v>250</v>
       </c>
-      <c r="L13" s="126"/>
-      <c r="M13" s="126"/>
-      <c r="N13" s="126"/>
-      <c r="O13" s="126"/>
-      <c r="P13" s="126"/>
-      <c r="Q13" s="126"/>
+      <c r="L13" s="136"/>
+      <c r="M13" s="136"/>
+      <c r="N13" s="136"/>
+      <c r="O13" s="136"/>
+      <c r="P13" s="136"/>
+      <c r="Q13" s="136"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="125" t="s">
+      <c r="A14" s="135" t="s">
         <v>251</v>
       </c>
-      <c r="B14" s="125"/>
-      <c r="C14" s="125" t="s">
+      <c r="B14" s="135"/>
+      <c r="C14" s="135" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="125"/>
+      <c r="D14" s="135"/>
       <c r="E14" s="40" t="s">
         <v>41</v>
       </c>
@@ -6597,25 +6547,25 @@
       </c>
       <c r="I14" s="38"/>
       <c r="J14" s="38"/>
-      <c r="K14" s="126" t="s">
+      <c r="K14" s="136" t="s">
         <v>253</v>
       </c>
-      <c r="L14" s="126"/>
-      <c r="M14" s="126"/>
-      <c r="N14" s="126"/>
-      <c r="O14" s="126"/>
-      <c r="P14" s="126"/>
-      <c r="Q14" s="126"/>
+      <c r="L14" s="136"/>
+      <c r="M14" s="136"/>
+      <c r="N14" s="136"/>
+      <c r="O14" s="136"/>
+      <c r="P14" s="136"/>
+      <c r="Q14" s="136"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="125" t="s">
+      <c r="A15" s="135" t="s">
         <v>252</v>
       </c>
-      <c r="B15" s="125"/>
-      <c r="C15" s="125" t="s">
+      <c r="B15" s="135"/>
+      <c r="C15" s="135" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="125"/>
+      <c r="D15" s="135"/>
       <c r="E15" s="40" t="s">
         <v>41</v>
       </c>
@@ -6626,25 +6576,25 @@
       </c>
       <c r="I15" s="38"/>
       <c r="J15" s="38"/>
-      <c r="K15" s="126" t="s">
+      <c r="K15" s="136" t="s">
         <v>249</v>
       </c>
-      <c r="L15" s="126"/>
-      <c r="M15" s="126"/>
-      <c r="N15" s="126"/>
-      <c r="O15" s="126"/>
-      <c r="P15" s="126"/>
-      <c r="Q15" s="126"/>
+      <c r="L15" s="136"/>
+      <c r="M15" s="136"/>
+      <c r="N15" s="136"/>
+      <c r="O15" s="136"/>
+      <c r="P15" s="136"/>
+      <c r="Q15" s="136"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="125" t="s">
+      <c r="A16" s="135" t="s">
         <v>255</v>
       </c>
-      <c r="B16" s="125"/>
-      <c r="C16" s="125" t="s">
+      <c r="B16" s="135"/>
+      <c r="C16" s="135" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="125"/>
+      <c r="D16" s="135"/>
       <c r="E16" s="40" t="s">
         <v>41</v>
       </c>
@@ -6655,25 +6605,25 @@
       </c>
       <c r="I16" s="38"/>
       <c r="J16" s="38"/>
-      <c r="K16" s="126" t="s">
+      <c r="K16" s="136" t="s">
         <v>254</v>
       </c>
-      <c r="L16" s="126"/>
-      <c r="M16" s="126"/>
-      <c r="N16" s="126"/>
-      <c r="O16" s="126"/>
-      <c r="P16" s="126"/>
-      <c r="Q16" s="126"/>
+      <c r="L16" s="136"/>
+      <c r="M16" s="136"/>
+      <c r="N16" s="136"/>
+      <c r="O16" s="136"/>
+      <c r="P16" s="136"/>
+      <c r="Q16" s="136"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="125" t="s">
+      <c r="A17" s="135" t="s">
         <v>257</v>
       </c>
-      <c r="B17" s="125"/>
-      <c r="C17" s="125" t="s">
+      <c r="B17" s="135"/>
+      <c r="C17" s="135" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="125"/>
+      <c r="D17" s="135"/>
       <c r="E17" s="40" t="s">
         <v>41</v>
       </c>
@@ -6684,94 +6634,143 @@
       </c>
       <c r="I17" s="38"/>
       <c r="J17" s="38"/>
-      <c r="K17" s="126" t="s">
+      <c r="K17" s="136" t="s">
         <v>256</v>
       </c>
-      <c r="L17" s="126"/>
-      <c r="M17" s="126"/>
-      <c r="N17" s="126"/>
-      <c r="O17" s="126"/>
-      <c r="P17" s="126"/>
-      <c r="Q17" s="126"/>
+      <c r="L17" s="136"/>
+      <c r="M17" s="136"/>
+      <c r="N17" s="136"/>
+      <c r="O17" s="136"/>
+      <c r="P17" s="136"/>
+      <c r="Q17" s="136"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="125"/>
-      <c r="B18" s="125"/>
-      <c r="C18" s="125"/>
-      <c r="D18" s="125"/>
+      <c r="A18" s="135"/>
+      <c r="B18" s="135"/>
+      <c r="C18" s="135"/>
+      <c r="D18" s="135"/>
       <c r="E18" s="40"/>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
       <c r="H18" s="38"/>
       <c r="I18" s="38"/>
       <c r="J18" s="38"/>
-      <c r="K18" s="126"/>
-      <c r="L18" s="126"/>
-      <c r="M18" s="126"/>
-      <c r="N18" s="126"/>
-      <c r="O18" s="126"/>
-      <c r="P18" s="126"/>
-      <c r="Q18" s="126"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="136"/>
+      <c r="M18" s="136"/>
+      <c r="N18" s="136"/>
+      <c r="O18" s="136"/>
+      <c r="P18" s="136"/>
+      <c r="Q18" s="136"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="125"/>
-      <c r="B19" s="125"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="125"/>
+      <c r="A19" s="135"/>
+      <c r="B19" s="135"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="135"/>
       <c r="E19" s="40"/>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
       <c r="H19" s="38"/>
       <c r="I19" s="38"/>
       <c r="J19" s="38"/>
-      <c r="K19" s="126"/>
-      <c r="L19" s="126"/>
-      <c r="M19" s="126"/>
-      <c r="N19" s="126"/>
-      <c r="O19" s="126"/>
-      <c r="P19" s="126"/>
-      <c r="Q19" s="126"/>
+      <c r="K19" s="136"/>
+      <c r="L19" s="136"/>
+      <c r="M19" s="136"/>
+      <c r="N19" s="136"/>
+      <c r="O19" s="136"/>
+      <c r="P19" s="136"/>
+      <c r="Q19" s="136"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="125"/>
-      <c r="B20" s="125"/>
-      <c r="C20" s="125"/>
-      <c r="D20" s="125"/>
+      <c r="A20" s="135"/>
+      <c r="B20" s="135"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="135"/>
       <c r="E20" s="40"/>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="38"/>
       <c r="I20" s="38"/>
       <c r="J20" s="38"/>
-      <c r="K20" s="126"/>
-      <c r="L20" s="126"/>
-      <c r="M20" s="126"/>
-      <c r="N20" s="126"/>
-      <c r="O20" s="126"/>
-      <c r="P20" s="126"/>
-      <c r="Q20" s="126"/>
+      <c r="K20" s="136"/>
+      <c r="L20" s="136"/>
+      <c r="M20" s="136"/>
+      <c r="N20" s="136"/>
+      <c r="O20" s="136"/>
+      <c r="P20" s="136"/>
+      <c r="Q20" s="136"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="125"/>
-      <c r="B21" s="125"/>
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
+      <c r="A21" s="135"/>
+      <c r="B21" s="135"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="135"/>
       <c r="E21" s="40"/>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="38"/>
       <c r="I21" s="38"/>
       <c r="J21" s="38"/>
-      <c r="K21" s="126"/>
-      <c r="L21" s="126"/>
-      <c r="M21" s="126"/>
-      <c r="N21" s="126"/>
-      <c r="O21" s="126"/>
-      <c r="P21" s="126"/>
-      <c r="Q21" s="126"/>
+      <c r="K21" s="136"/>
+      <c r="L21" s="136"/>
+      <c r="M21" s="136"/>
+      <c r="N21" s="136"/>
+      <c r="O21" s="136"/>
+      <c r="P21" s="136"/>
+      <c r="Q21" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:Q5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="K8:Q8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="K12:Q12"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="K15:Q15"/>
@@ -6781,55 +6780,6 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="K14:Q14"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="K12:Q12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="K8:Q8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="K10:Q10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="K9:Q9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:Q5"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="K16:Q16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="K17:Q17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="K18:Q18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="K19:Q19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="K20:Q20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6856,27 +6806,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="34" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="139" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="128" t="s">
+      <c r="B1" s="139"/>
+      <c r="C1" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="129"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="131" t="str">
+      <c r="D1" s="141"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="143" t="str">
         <f>表紙!C7</f>
         <v>施設使用料・償還金等料金計算及び納付書作成システム
 口座振替データ作成機能構築業務</v>
       </c>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="133"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
+      <c r="L1" s="144"/>
+      <c r="M1" s="145"/>
       <c r="N1" s="23" t="s">
         <v>0</v>
       </c>
@@ -6889,24 +6839,24 @@
       <c r="Q1" s="33"/>
     </row>
     <row r="2" spans="1:17" s="34" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="127"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="128" t="s">
+      <c r="A2" s="139"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="134" t="str">
+      <c r="D2" s="141"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="146" t="str">
         <f>表紙!H15</f>
         <v>口座データ</v>
       </c>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="136"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="148"/>
       <c r="N2" s="23" t="s">
         <v>4</v>
       </c>
@@ -6919,206 +6869,206 @@
       <c r="Q2" s="37"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="125" t="s">
+      <c r="A4" s="135" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="125"/>
-      <c r="C4" s="125" t="s">
+      <c r="B4" s="135"/>
+      <c r="C4" s="135" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="125"/>
-      <c r="M4" s="125"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="125"/>
-      <c r="P4" s="125"/>
-      <c r="Q4" s="125"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="135"/>
+      <c r="K4" s="135"/>
+      <c r="L4" s="135"/>
+      <c r="M4" s="135"/>
+      <c r="N4" s="135"/>
+      <c r="O4" s="135"/>
+      <c r="P4" s="135"/>
+      <c r="Q4" s="135"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="41" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="42"/>
-      <c r="C5" s="139" t="s">
+      <c r="C5" s="155" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="140"/>
-      <c r="K5" s="140"/>
-      <c r="L5" s="140"/>
-      <c r="M5" s="140"/>
-      <c r="N5" s="140"/>
-      <c r="O5" s="140"/>
-      <c r="P5" s="140"/>
-      <c r="Q5" s="141"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="156"/>
+      <c r="F5" s="156"/>
+      <c r="G5" s="156"/>
+      <c r="H5" s="156"/>
+      <c r="I5" s="156"/>
+      <c r="J5" s="156"/>
+      <c r="K5" s="156"/>
+      <c r="L5" s="156"/>
+      <c r="M5" s="156"/>
+      <c r="N5" s="156"/>
+      <c r="O5" s="156"/>
+      <c r="P5" s="156"/>
+      <c r="Q5" s="157"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="43"/>
       <c r="B6" s="44"/>
-      <c r="C6" s="142" t="s">
+      <c r="C6" s="149" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="143"/>
-      <c r="E6" s="143"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="143"/>
-      <c r="I6" s="143"/>
-      <c r="J6" s="143"/>
-      <c r="K6" s="143"/>
-      <c r="L6" s="143"/>
-      <c r="M6" s="143"/>
-      <c r="N6" s="143"/>
-      <c r="O6" s="143"/>
-      <c r="P6" s="143"/>
-      <c r="Q6" s="144"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="150"/>
+      <c r="K6" s="150"/>
+      <c r="L6" s="150"/>
+      <c r="M6" s="150"/>
+      <c r="N6" s="150"/>
+      <c r="O6" s="150"/>
+      <c r="P6" s="150"/>
+      <c r="Q6" s="151"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="43"/>
       <c r="B7" s="44"/>
-      <c r="C7" s="142"/>
-      <c r="D7" s="143"/>
-      <c r="E7" s="143"/>
-      <c r="F7" s="143"/>
-      <c r="G7" s="143"/>
-      <c r="H7" s="143"/>
-      <c r="I7" s="143"/>
-      <c r="J7" s="143"/>
-      <c r="K7" s="143"/>
-      <c r="L7" s="143"/>
-      <c r="M7" s="143"/>
-      <c r="N7" s="143"/>
-      <c r="O7" s="143"/>
-      <c r="P7" s="143"/>
-      <c r="Q7" s="144"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="150"/>
+      <c r="K7" s="150"/>
+      <c r="L7" s="150"/>
+      <c r="M7" s="150"/>
+      <c r="N7" s="150"/>
+      <c r="O7" s="150"/>
+      <c r="P7" s="150"/>
+      <c r="Q7" s="151"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="43"/>
       <c r="B8" s="44"/>
-      <c r="C8" s="142"/>
-      <c r="D8" s="143"/>
-      <c r="E8" s="143"/>
-      <c r="F8" s="143"/>
-      <c r="G8" s="143"/>
-      <c r="H8" s="143"/>
-      <c r="I8" s="143"/>
-      <c r="J8" s="143"/>
-      <c r="K8" s="143"/>
-      <c r="L8" s="143"/>
-      <c r="M8" s="143"/>
-      <c r="N8" s="143"/>
-      <c r="O8" s="143"/>
-      <c r="P8" s="143"/>
-      <c r="Q8" s="144"/>
+      <c r="C8" s="149"/>
+      <c r="D8" s="150"/>
+      <c r="E8" s="150"/>
+      <c r="F8" s="150"/>
+      <c r="G8" s="150"/>
+      <c r="H8" s="150"/>
+      <c r="I8" s="150"/>
+      <c r="J8" s="150"/>
+      <c r="K8" s="150"/>
+      <c r="L8" s="150"/>
+      <c r="M8" s="150"/>
+      <c r="N8" s="150"/>
+      <c r="O8" s="150"/>
+      <c r="P8" s="150"/>
+      <c r="Q8" s="151"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="45"/>
       <c r="B9" s="46"/>
-      <c r="C9" s="145"/>
-      <c r="D9" s="146"/>
-      <c r="E9" s="146"/>
-      <c r="F9" s="146"/>
-      <c r="G9" s="146"/>
-      <c r="H9" s="146"/>
-      <c r="I9" s="146"/>
-      <c r="J9" s="146"/>
-      <c r="K9" s="146"/>
-      <c r="L9" s="146"/>
-      <c r="M9" s="146"/>
-      <c r="N9" s="146"/>
-      <c r="O9" s="146"/>
-      <c r="P9" s="146"/>
-      <c r="Q9" s="147"/>
+      <c r="C9" s="152"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="153"/>
+      <c r="F9" s="153"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="153"/>
+      <c r="J9" s="153"/>
+      <c r="K9" s="153"/>
+      <c r="L9" s="153"/>
+      <c r="M9" s="153"/>
+      <c r="N9" s="153"/>
+      <c r="O9" s="153"/>
+      <c r="P9" s="153"/>
+      <c r="Q9" s="154"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="41" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="42"/>
-      <c r="C10" s="139"/>
-      <c r="D10" s="140"/>
-      <c r="E10" s="140"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="140"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="140"/>
-      <c r="K10" s="140"/>
-      <c r="L10" s="140"/>
-      <c r="M10" s="140"/>
-      <c r="N10" s="140"/>
-      <c r="O10" s="140"/>
-      <c r="P10" s="140"/>
-      <c r="Q10" s="141"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="156"/>
+      <c r="E10" s="156"/>
+      <c r="F10" s="156"/>
+      <c r="G10" s="156"/>
+      <c r="H10" s="156"/>
+      <c r="I10" s="156"/>
+      <c r="J10" s="156"/>
+      <c r="K10" s="156"/>
+      <c r="L10" s="156"/>
+      <c r="M10" s="156"/>
+      <c r="N10" s="156"/>
+      <c r="O10" s="156"/>
+      <c r="P10" s="156"/>
+      <c r="Q10" s="157"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="43"/>
       <c r="B11" s="44"/>
-      <c r="C11" s="142"/>
-      <c r="D11" s="143"/>
-      <c r="E11" s="143"/>
-      <c r="F11" s="143"/>
-      <c r="G11" s="143"/>
-      <c r="H11" s="143"/>
-      <c r="I11" s="143"/>
-      <c r="J11" s="143"/>
-      <c r="K11" s="143"/>
-      <c r="L11" s="143"/>
-      <c r="M11" s="143"/>
-      <c r="N11" s="143"/>
-      <c r="O11" s="143"/>
-      <c r="P11" s="143"/>
-      <c r="Q11" s="144"/>
+      <c r="C11" s="149"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="150"/>
+      <c r="G11" s="150"/>
+      <c r="H11" s="150"/>
+      <c r="I11" s="150"/>
+      <c r="J11" s="150"/>
+      <c r="K11" s="150"/>
+      <c r="L11" s="150"/>
+      <c r="M11" s="150"/>
+      <c r="N11" s="150"/>
+      <c r="O11" s="150"/>
+      <c r="P11" s="150"/>
+      <c r="Q11" s="151"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="43"/>
       <c r="B12" s="44"/>
-      <c r="C12" s="142"/>
-      <c r="D12" s="143"/>
-      <c r="E12" s="143"/>
-      <c r="F12" s="143"/>
-      <c r="G12" s="143"/>
-      <c r="H12" s="143"/>
-      <c r="I12" s="143"/>
-      <c r="J12" s="143"/>
-      <c r="K12" s="143"/>
-      <c r="L12" s="143"/>
-      <c r="M12" s="143"/>
-      <c r="N12" s="143"/>
-      <c r="O12" s="143"/>
-      <c r="P12" s="143"/>
-      <c r="Q12" s="144"/>
+      <c r="C12" s="149"/>
+      <c r="D12" s="150"/>
+      <c r="E12" s="150"/>
+      <c r="F12" s="150"/>
+      <c r="G12" s="150"/>
+      <c r="H12" s="150"/>
+      <c r="I12" s="150"/>
+      <c r="J12" s="150"/>
+      <c r="K12" s="150"/>
+      <c r="L12" s="150"/>
+      <c r="M12" s="150"/>
+      <c r="N12" s="150"/>
+      <c r="O12" s="150"/>
+      <c r="P12" s="150"/>
+      <c r="Q12" s="151"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="45"/>
       <c r="B13" s="46"/>
-      <c r="C13" s="145"/>
-      <c r="D13" s="146"/>
-      <c r="E13" s="146"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="146"/>
-      <c r="H13" s="146"/>
-      <c r="I13" s="146"/>
-      <c r="J13" s="146"/>
-      <c r="K13" s="146"/>
-      <c r="L13" s="146"/>
-      <c r="M13" s="146"/>
-      <c r="N13" s="146"/>
-      <c r="O13" s="146"/>
-      <c r="P13" s="146"/>
-      <c r="Q13" s="147"/>
+      <c r="C13" s="152"/>
+      <c r="D13" s="153"/>
+      <c r="E13" s="153"/>
+      <c r="F13" s="153"/>
+      <c r="G13" s="153"/>
+      <c r="H13" s="153"/>
+      <c r="I13" s="153"/>
+      <c r="J13" s="153"/>
+      <c r="K13" s="153"/>
+      <c r="L13" s="153"/>
+      <c r="M13" s="153"/>
+      <c r="N13" s="153"/>
+      <c r="O13" s="153"/>
+      <c r="P13" s="153"/>
+      <c r="Q13" s="154"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="41" t="s">
@@ -7127,390 +7077,397 @@
       <c r="B14" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="139"/>
-      <c r="D14" s="140"/>
-      <c r="E14" s="140"/>
-      <c r="F14" s="140"/>
-      <c r="G14" s="140"/>
-      <c r="H14" s="140"/>
-      <c r="I14" s="140"/>
-      <c r="J14" s="140"/>
-      <c r="K14" s="140"/>
-      <c r="L14" s="140"/>
-      <c r="M14" s="140"/>
-      <c r="N14" s="140"/>
-      <c r="O14" s="140"/>
-      <c r="P14" s="140"/>
-      <c r="Q14" s="141"/>
+      <c r="C14" s="155"/>
+      <c r="D14" s="156"/>
+      <c r="E14" s="156"/>
+      <c r="F14" s="156"/>
+      <c r="G14" s="156"/>
+      <c r="H14" s="156"/>
+      <c r="I14" s="156"/>
+      <c r="J14" s="156"/>
+      <c r="K14" s="156"/>
+      <c r="L14" s="156"/>
+      <c r="M14" s="156"/>
+      <c r="N14" s="156"/>
+      <c r="O14" s="156"/>
+      <c r="P14" s="156"/>
+      <c r="Q14" s="157"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="43"/>
       <c r="B15" s="44"/>
-      <c r="C15" s="142" t="s">
+      <c r="C15" s="149" t="s">
         <v>261</v>
       </c>
-      <c r="D15" s="143"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="143"/>
-      <c r="H15" s="143"/>
-      <c r="I15" s="143"/>
-      <c r="J15" s="143"/>
-      <c r="K15" s="143"/>
-      <c r="L15" s="143"/>
-      <c r="M15" s="143"/>
-      <c r="N15" s="143"/>
-      <c r="O15" s="143"/>
-      <c r="P15" s="143"/>
-      <c r="Q15" s="144"/>
+      <c r="D15" s="150"/>
+      <c r="E15" s="150"/>
+      <c r="F15" s="150"/>
+      <c r="G15" s="150"/>
+      <c r="H15" s="150"/>
+      <c r="I15" s="150"/>
+      <c r="J15" s="150"/>
+      <c r="K15" s="150"/>
+      <c r="L15" s="150"/>
+      <c r="M15" s="150"/>
+      <c r="N15" s="150"/>
+      <c r="O15" s="150"/>
+      <c r="P15" s="150"/>
+      <c r="Q15" s="151"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="43"/>
       <c r="B16" s="44"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="143"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="143"/>
-      <c r="H16" s="143"/>
-      <c r="I16" s="143"/>
-      <c r="J16" s="143"/>
-      <c r="K16" s="143"/>
-      <c r="L16" s="143"/>
-      <c r="M16" s="143"/>
-      <c r="N16" s="143"/>
-      <c r="O16" s="143"/>
-      <c r="P16" s="143"/>
-      <c r="Q16" s="144"/>
+      <c r="C16" s="149"/>
+      <c r="D16" s="150"/>
+      <c r="E16" s="150"/>
+      <c r="F16" s="150"/>
+      <c r="G16" s="150"/>
+      <c r="H16" s="150"/>
+      <c r="I16" s="150"/>
+      <c r="J16" s="150"/>
+      <c r="K16" s="150"/>
+      <c r="L16" s="150"/>
+      <c r="M16" s="150"/>
+      <c r="N16" s="150"/>
+      <c r="O16" s="150"/>
+      <c r="P16" s="150"/>
+      <c r="Q16" s="151"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="43"/>
       <c r="B17" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="142" t="s">
+      <c r="C17" s="149" t="s">
         <v>259</v>
       </c>
-      <c r="D17" s="143"/>
-      <c r="E17" s="143"/>
-      <c r="F17" s="143"/>
-      <c r="G17" s="143"/>
-      <c r="H17" s="143"/>
-      <c r="I17" s="143"/>
-      <c r="J17" s="143"/>
-      <c r="K17" s="143"/>
-      <c r="L17" s="143"/>
-      <c r="M17" s="143"/>
-      <c r="N17" s="143"/>
-      <c r="O17" s="143"/>
-      <c r="P17" s="143"/>
-      <c r="Q17" s="144"/>
+      <c r="D17" s="150"/>
+      <c r="E17" s="150"/>
+      <c r="F17" s="150"/>
+      <c r="G17" s="150"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="150"/>
+      <c r="J17" s="150"/>
+      <c r="K17" s="150"/>
+      <c r="L17" s="150"/>
+      <c r="M17" s="150"/>
+      <c r="N17" s="150"/>
+      <c r="O17" s="150"/>
+      <c r="P17" s="150"/>
+      <c r="Q17" s="151"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="43"/>
       <c r="B18" s="44"/>
-      <c r="C18" s="142"/>
-      <c r="D18" s="143"/>
-      <c r="E18" s="143"/>
-      <c r="F18" s="143"/>
-      <c r="G18" s="143"/>
-      <c r="H18" s="143"/>
-      <c r="I18" s="143"/>
-      <c r="J18" s="143"/>
-      <c r="K18" s="143"/>
-      <c r="L18" s="143"/>
-      <c r="M18" s="143"/>
-      <c r="N18" s="143"/>
-      <c r="O18" s="143"/>
-      <c r="P18" s="143"/>
-      <c r="Q18" s="144"/>
+      <c r="C18" s="149"/>
+      <c r="D18" s="150"/>
+      <c r="E18" s="150"/>
+      <c r="F18" s="150"/>
+      <c r="G18" s="150"/>
+      <c r="H18" s="150"/>
+      <c r="I18" s="150"/>
+      <c r="J18" s="150"/>
+      <c r="K18" s="150"/>
+      <c r="L18" s="150"/>
+      <c r="M18" s="150"/>
+      <c r="N18" s="150"/>
+      <c r="O18" s="150"/>
+      <c r="P18" s="150"/>
+      <c r="Q18" s="151"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="43"/>
       <c r="B19" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="142" t="s">
+      <c r="C19" s="149" t="s">
         <v>260</v>
       </c>
-      <c r="D19" s="143"/>
-      <c r="E19" s="143"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="143"/>
-      <c r="K19" s="143"/>
-      <c r="L19" s="143"/>
-      <c r="M19" s="143"/>
-      <c r="N19" s="143"/>
-      <c r="O19" s="143"/>
-      <c r="P19" s="143"/>
-      <c r="Q19" s="144"/>
+      <c r="D19" s="150"/>
+      <c r="E19" s="150"/>
+      <c r="F19" s="150"/>
+      <c r="G19" s="150"/>
+      <c r="H19" s="150"/>
+      <c r="I19" s="150"/>
+      <c r="J19" s="150"/>
+      <c r="K19" s="150"/>
+      <c r="L19" s="150"/>
+      <c r="M19" s="150"/>
+      <c r="N19" s="150"/>
+      <c r="O19" s="150"/>
+      <c r="P19" s="150"/>
+      <c r="Q19" s="151"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="43"/>
       <c r="B20" s="44"/>
-      <c r="C20" s="142"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="143"/>
-      <c r="K20" s="143"/>
-      <c r="L20" s="143"/>
-      <c r="M20" s="143"/>
-      <c r="N20" s="143"/>
-      <c r="O20" s="143"/>
-      <c r="P20" s="143"/>
-      <c r="Q20" s="144"/>
+      <c r="C20" s="149"/>
+      <c r="D20" s="150"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="150"/>
+      <c r="G20" s="150"/>
+      <c r="H20" s="150"/>
+      <c r="I20" s="150"/>
+      <c r="J20" s="150"/>
+      <c r="K20" s="150"/>
+      <c r="L20" s="150"/>
+      <c r="M20" s="150"/>
+      <c r="N20" s="150"/>
+      <c r="O20" s="150"/>
+      <c r="P20" s="150"/>
+      <c r="Q20" s="151"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="43"/>
       <c r="B21" s="44"/>
-      <c r="C21" s="142"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="143"/>
-      <c r="F21" s="143"/>
-      <c r="G21" s="143"/>
-      <c r="H21" s="143"/>
-      <c r="I21" s="143"/>
-      <c r="J21" s="143"/>
-      <c r="K21" s="143"/>
-      <c r="L21" s="143"/>
-      <c r="M21" s="143"/>
-      <c r="N21" s="143"/>
-      <c r="O21" s="143"/>
-      <c r="P21" s="143"/>
-      <c r="Q21" s="144"/>
+      <c r="C21" s="149"/>
+      <c r="D21" s="150"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="150"/>
+      <c r="G21" s="150"/>
+      <c r="H21" s="150"/>
+      <c r="I21" s="150"/>
+      <c r="J21" s="150"/>
+      <c r="K21" s="150"/>
+      <c r="L21" s="150"/>
+      <c r="M21" s="150"/>
+      <c r="N21" s="150"/>
+      <c r="O21" s="150"/>
+      <c r="P21" s="150"/>
+      <c r="Q21" s="151"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="42"/>
-      <c r="C22" s="139"/>
-      <c r="D22" s="140"/>
-      <c r="E22" s="140"/>
-      <c r="F22" s="140"/>
-      <c r="G22" s="140"/>
-      <c r="H22" s="140"/>
-      <c r="I22" s="140"/>
-      <c r="J22" s="140"/>
-      <c r="K22" s="140"/>
-      <c r="L22" s="140"/>
-      <c r="M22" s="140"/>
-      <c r="N22" s="140"/>
-      <c r="O22" s="140"/>
-      <c r="P22" s="140"/>
-      <c r="Q22" s="141"/>
+      <c r="C22" s="155"/>
+      <c r="D22" s="156"/>
+      <c r="E22" s="156"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="156"/>
+      <c r="K22" s="156"/>
+      <c r="L22" s="156"/>
+      <c r="M22" s="156"/>
+      <c r="N22" s="156"/>
+      <c r="O22" s="156"/>
+      <c r="P22" s="156"/>
+      <c r="Q22" s="157"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="43"/>
       <c r="B23" s="44"/>
-      <c r="C23" s="142"/>
-      <c r="D23" s="143"/>
-      <c r="E23" s="143"/>
-      <c r="F23" s="143"/>
-      <c r="G23" s="143"/>
-      <c r="H23" s="143"/>
-      <c r="I23" s="143"/>
-      <c r="J23" s="143"/>
-      <c r="K23" s="143"/>
-      <c r="L23" s="143"/>
-      <c r="M23" s="143"/>
-      <c r="N23" s="143"/>
-      <c r="O23" s="143"/>
-      <c r="P23" s="143"/>
-      <c r="Q23" s="144"/>
+      <c r="C23" s="149"/>
+      <c r="D23" s="150"/>
+      <c r="E23" s="150"/>
+      <c r="F23" s="150"/>
+      <c r="G23" s="150"/>
+      <c r="H23" s="150"/>
+      <c r="I23" s="150"/>
+      <c r="J23" s="150"/>
+      <c r="K23" s="150"/>
+      <c r="L23" s="150"/>
+      <c r="M23" s="150"/>
+      <c r="N23" s="150"/>
+      <c r="O23" s="150"/>
+      <c r="P23" s="150"/>
+      <c r="Q23" s="151"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="45"/>
       <c r="B24" s="46"/>
-      <c r="C24" s="145"/>
-      <c r="D24" s="146"/>
-      <c r="E24" s="146"/>
-      <c r="F24" s="146"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="146"/>
-      <c r="I24" s="146"/>
-      <c r="J24" s="146"/>
-      <c r="K24" s="146"/>
-      <c r="L24" s="146"/>
-      <c r="M24" s="146"/>
-      <c r="N24" s="146"/>
-      <c r="O24" s="146"/>
-      <c r="P24" s="146"/>
-      <c r="Q24" s="147"/>
+      <c r="C24" s="152"/>
+      <c r="D24" s="153"/>
+      <c r="E24" s="153"/>
+      <c r="F24" s="153"/>
+      <c r="G24" s="153"/>
+      <c r="H24" s="153"/>
+      <c r="I24" s="153"/>
+      <c r="J24" s="153"/>
+      <c r="K24" s="153"/>
+      <c r="L24" s="153"/>
+      <c r="M24" s="153"/>
+      <c r="N24" s="153"/>
+      <c r="O24" s="153"/>
+      <c r="P24" s="153"/>
+      <c r="Q24" s="154"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="41" t="s">
         <v>60</v>
       </c>
       <c r="B25" s="42"/>
-      <c r="C25" s="139"/>
-      <c r="D25" s="140"/>
-      <c r="E25" s="140"/>
-      <c r="F25" s="140"/>
-      <c r="G25" s="140"/>
-      <c r="H25" s="140"/>
-      <c r="I25" s="140"/>
-      <c r="J25" s="140"/>
-      <c r="K25" s="140"/>
-      <c r="L25" s="140"/>
-      <c r="M25" s="140"/>
-      <c r="N25" s="140"/>
-      <c r="O25" s="140"/>
-      <c r="P25" s="140"/>
-      <c r="Q25" s="141"/>
+      <c r="C25" s="155"/>
+      <c r="D25" s="156"/>
+      <c r="E25" s="156"/>
+      <c r="F25" s="156"/>
+      <c r="G25" s="156"/>
+      <c r="H25" s="156"/>
+      <c r="I25" s="156"/>
+      <c r="J25" s="156"/>
+      <c r="K25" s="156"/>
+      <c r="L25" s="156"/>
+      <c r="M25" s="156"/>
+      <c r="N25" s="156"/>
+      <c r="O25" s="156"/>
+      <c r="P25" s="156"/>
+      <c r="Q25" s="157"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="43"/>
       <c r="B26" s="44"/>
-      <c r="C26" s="142"/>
-      <c r="D26" s="143"/>
-      <c r="E26" s="143"/>
-      <c r="F26" s="143"/>
-      <c r="G26" s="143"/>
-      <c r="H26" s="143"/>
-      <c r="I26" s="143"/>
-      <c r="J26" s="143"/>
-      <c r="K26" s="143"/>
-      <c r="L26" s="143"/>
-      <c r="M26" s="143"/>
-      <c r="N26" s="143"/>
-      <c r="O26" s="143"/>
-      <c r="P26" s="143"/>
-      <c r="Q26" s="144"/>
+      <c r="C26" s="149"/>
+      <c r="D26" s="150"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="150"/>
+      <c r="L26" s="150"/>
+      <c r="M26" s="150"/>
+      <c r="N26" s="150"/>
+      <c r="O26" s="150"/>
+      <c r="P26" s="150"/>
+      <c r="Q26" s="151"/>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="43"/>
       <c r="B27" s="44"/>
-      <c r="C27" s="142"/>
-      <c r="D27" s="143"/>
-      <c r="E27" s="143"/>
-      <c r="F27" s="143"/>
-      <c r="G27" s="143"/>
-      <c r="H27" s="143"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="143"/>
-      <c r="K27" s="143"/>
-      <c r="L27" s="143"/>
-      <c r="M27" s="143"/>
-      <c r="N27" s="143"/>
-      <c r="O27" s="143"/>
-      <c r="P27" s="143"/>
-      <c r="Q27" s="144"/>
+      <c r="C27" s="149"/>
+      <c r="D27" s="150"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="150"/>
+      <c r="L27" s="150"/>
+      <c r="M27" s="150"/>
+      <c r="N27" s="150"/>
+      <c r="O27" s="150"/>
+      <c r="P27" s="150"/>
+      <c r="Q27" s="151"/>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="43"/>
       <c r="B28" s="44"/>
-      <c r="C28" s="142"/>
-      <c r="D28" s="143"/>
-      <c r="E28" s="143"/>
-      <c r="F28" s="143"/>
-      <c r="G28" s="143"/>
-      <c r="H28" s="143"/>
-      <c r="I28" s="143"/>
-      <c r="J28" s="143"/>
-      <c r="K28" s="143"/>
-      <c r="L28" s="143"/>
-      <c r="M28" s="143"/>
-      <c r="N28" s="143"/>
-      <c r="O28" s="143"/>
-      <c r="P28" s="143"/>
-      <c r="Q28" s="144"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="150"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="150"/>
+      <c r="N28" s="150"/>
+      <c r="O28" s="150"/>
+      <c r="P28" s="150"/>
+      <c r="Q28" s="151"/>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="45"/>
       <c r="B29" s="46"/>
-      <c r="C29" s="145"/>
-      <c r="D29" s="146"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="146"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="146"/>
-      <c r="I29" s="146"/>
-      <c r="J29" s="146"/>
-      <c r="K29" s="146"/>
-      <c r="L29" s="146"/>
-      <c r="M29" s="146"/>
-      <c r="N29" s="146"/>
-      <c r="O29" s="146"/>
-      <c r="P29" s="146"/>
-      <c r="Q29" s="147"/>
+      <c r="C29" s="152"/>
+      <c r="D29" s="153"/>
+      <c r="E29" s="153"/>
+      <c r="F29" s="153"/>
+      <c r="G29" s="153"/>
+      <c r="H29" s="153"/>
+      <c r="I29" s="153"/>
+      <c r="J29" s="153"/>
+      <c r="K29" s="153"/>
+      <c r="L29" s="153"/>
+      <c r="M29" s="153"/>
+      <c r="N29" s="153"/>
+      <c r="O29" s="153"/>
+      <c r="P29" s="153"/>
+      <c r="Q29" s="154"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="41" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="42"/>
-      <c r="C30" s="139"/>
-      <c r="D30" s="140"/>
-      <c r="E30" s="140"/>
-      <c r="F30" s="140"/>
-      <c r="G30" s="140"/>
-      <c r="H30" s="140"/>
-      <c r="I30" s="140"/>
-      <c r="J30" s="140"/>
-      <c r="K30" s="140"/>
-      <c r="L30" s="140"/>
-      <c r="M30" s="140"/>
-      <c r="N30" s="140"/>
-      <c r="O30" s="140"/>
-      <c r="P30" s="140"/>
-      <c r="Q30" s="141"/>
+      <c r="C30" s="155"/>
+      <c r="D30" s="156"/>
+      <c r="E30" s="156"/>
+      <c r="F30" s="156"/>
+      <c r="G30" s="156"/>
+      <c r="H30" s="156"/>
+      <c r="I30" s="156"/>
+      <c r="J30" s="156"/>
+      <c r="K30" s="156"/>
+      <c r="L30" s="156"/>
+      <c r="M30" s="156"/>
+      <c r="N30" s="156"/>
+      <c r="O30" s="156"/>
+      <c r="P30" s="156"/>
+      <c r="Q30" s="157"/>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="43"/>
       <c r="B31" s="44"/>
-      <c r="C31" s="142" t="s">
+      <c r="C31" s="149" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="143"/>
-      <c r="E31" s="143"/>
-      <c r="F31" s="143"/>
-      <c r="G31" s="143"/>
-      <c r="H31" s="143"/>
-      <c r="I31" s="143"/>
-      <c r="J31" s="143"/>
-      <c r="K31" s="143"/>
-      <c r="L31" s="143"/>
-      <c r="M31" s="143"/>
-      <c r="N31" s="143"/>
-      <c r="O31" s="143"/>
-      <c r="P31" s="143"/>
-      <c r="Q31" s="144"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="150"/>
+      <c r="L31" s="150"/>
+      <c r="M31" s="150"/>
+      <c r="N31" s="150"/>
+      <c r="O31" s="150"/>
+      <c r="P31" s="150"/>
+      <c r="Q31" s="151"/>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="45"/>
       <c r="B32" s="46"/>
-      <c r="C32" s="145"/>
-      <c r="D32" s="146"/>
-      <c r="E32" s="146"/>
-      <c r="F32" s="146"/>
-      <c r="G32" s="146"/>
-      <c r="H32" s="146"/>
-      <c r="I32" s="146"/>
-      <c r="J32" s="146"/>
-      <c r="K32" s="146"/>
-      <c r="L32" s="146"/>
-      <c r="M32" s="146"/>
-      <c r="N32" s="146"/>
-      <c r="O32" s="146"/>
-      <c r="P32" s="146"/>
-      <c r="Q32" s="147"/>
+      <c r="C32" s="152"/>
+      <c r="D32" s="153"/>
+      <c r="E32" s="153"/>
+      <c r="F32" s="153"/>
+      <c r="G32" s="153"/>
+      <c r="H32" s="153"/>
+      <c r="I32" s="153"/>
+      <c r="J32" s="153"/>
+      <c r="K32" s="153"/>
+      <c r="L32" s="153"/>
+      <c r="M32" s="153"/>
+      <c r="N32" s="153"/>
+      <c r="O32" s="153"/>
+      <c r="P32" s="153"/>
+      <c r="Q32" s="154"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C27:Q27"/>
-    <mergeCell ref="C29:Q29"/>
-    <mergeCell ref="C30:Q30"/>
-    <mergeCell ref="C31:Q31"/>
-    <mergeCell ref="C32:Q32"/>
-    <mergeCell ref="C28:Q28"/>
+    <mergeCell ref="C10:Q10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="C5:Q5"/>
+    <mergeCell ref="C6:Q6"/>
+    <mergeCell ref="C7:Q7"/>
+    <mergeCell ref="C8:Q8"/>
+    <mergeCell ref="C9:Q9"/>
     <mergeCell ref="C26:Q26"/>
     <mergeCell ref="C11:Q11"/>
     <mergeCell ref="C12:Q12"/>
@@ -7527,19 +7484,12 @@
     <mergeCell ref="C20:Q20"/>
     <mergeCell ref="C18:Q18"/>
     <mergeCell ref="C16:Q16"/>
-    <mergeCell ref="C10:Q10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="C5:Q5"/>
-    <mergeCell ref="C6:Q6"/>
-    <mergeCell ref="C7:Q7"/>
-    <mergeCell ref="C8:Q8"/>
-    <mergeCell ref="C9:Q9"/>
+    <mergeCell ref="C27:Q27"/>
+    <mergeCell ref="C29:Q29"/>
+    <mergeCell ref="C30:Q30"/>
+    <mergeCell ref="C31:Q31"/>
+    <mergeCell ref="C32:Q32"/>
+    <mergeCell ref="C28:Q28"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7552,8 +7502,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:AC89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7613,7 +7563,7 @@
         <v>236</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="E3" s="52" t="s">
         <v>238</v>
@@ -7774,51 +7724,38 @@
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="51"/>
-      <c r="B9" s="155"/>
-      <c r="C9" s="155"/>
-      <c r="D9" s="155"/>
-      <c r="E9" s="156" t="s">
+      <c r="E9" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="F9" s="155" t="s">
+      <c r="F9" t="s">
         <v>112</v>
       </c>
-      <c r="G9" s="155"/>
-      <c r="H9" s="155"/>
-      <c r="I9" s="155"/>
-      <c r="J9" s="155"/>
-      <c r="K9" s="155"/>
-      <c r="L9" s="155"/>
       <c r="M9" s="53"/>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="82" t="s">
         <v>235</v>
       </c>
-      <c r="B10" s="155"/>
-      <c r="C10" s="155"/>
-      <c r="D10" s="155"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="156" t="s">
+      <c r="E10" s="52"/>
+      <c r="F10" s="52" t="s">
         <v>237</v>
       </c>
-      <c r="G10" s="155"/>
-      <c r="H10" s="156" t="s">
+      <c r="H10" s="52" t="s">
         <v>239</v>
       </c>
-      <c r="I10" s="156" t="s">
+      <c r="I10" s="52" t="s">
         <v>240</v>
       </c>
-      <c r="J10" s="156" t="s">
+      <c r="J10" s="52" t="s">
         <v>241</v>
       </c>
-      <c r="K10" s="156" t="s">
+      <c r="K10" s="52" t="s">
         <v>242</v>
       </c>
-      <c r="L10" s="156" t="s">
+      <c r="L10" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="M10" s="163" t="s">
+      <c r="M10" s="93" t="s">
         <v>238</v>
       </c>
     </row>
@@ -7826,37 +7763,37 @@
       <c r="A11" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="157" t="s">
+      <c r="B11" s="158" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="158" t="s">
+      <c r="C11" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="158" t="s">
+      <c r="D11" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="159" t="s">
+      <c r="E11" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="157" t="s">
+      <c r="F11" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="159" t="s">
+      <c r="G11" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="H11" s="157" t="s">
+      <c r="H11" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="I11" s="157" t="s">
+      <c r="I11" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="J11" s="157" t="s">
+      <c r="J11" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="K11" s="157" t="s">
+      <c r="K11" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="L11" s="157" t="s">
+      <c r="L11" s="55" t="s">
         <v>266</v>
       </c>
       <c r="M11" s="56" t="s">
@@ -7867,60 +7804,52 @@
       <c r="A12" s="54">
         <v>1001</v>
       </c>
-      <c r="B12" s="160" t="s">
+      <c r="B12" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="160" t="s">
+      <c r="C12" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="D12" s="161" t="s">
+      <c r="D12" s="91" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="162" t="s">
+      <c r="E12" s="92" t="s">
         <v>103</v>
       </c>
-      <c r="F12" s="160" t="s">
+      <c r="F12" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="G12" s="162" t="s">
+      <c r="G12" s="92" t="s">
         <v>105</v>
       </c>
-      <c r="H12" s="160" t="s">
+      <c r="H12" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="I12" s="160" t="s">
+      <c r="I12" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="J12" s="160" t="s">
+      <c r="J12" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="K12" s="160" t="s">
+      <c r="K12" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="L12" s="158"/>
       <c r="M12" s="58"/>
     </row>
     <row r="13" spans="1:22" s="47" customFormat="1">
       <c r="A13" s="54"/>
-      <c r="B13" s="158">
+      <c r="B13" s="47">
         <v>1002</v>
       </c>
-      <c r="C13" s="160" t="s">
+      <c r="C13" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="160" t="s">
+      <c r="D13" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="E13" s="161" t="s">
+      <c r="E13" s="91" t="s">
         <v>102</v>
       </c>
-      <c r="F13" s="158"/>
-      <c r="G13" s="158"/>
-      <c r="H13" s="158"/>
-      <c r="I13" s="158"/>
-      <c r="J13" s="158"/>
-      <c r="K13" s="158"/>
-      <c r="L13" s="158"/>
       <c r="M13" s="58"/>
     </row>
     <row r="14" spans="1:22" ht="14.25" thickBot="1">
@@ -7937,19 +7866,6 @@
       <c r="K14" s="60"/>
       <c r="L14" s="60"/>
       <c r="M14" s="61"/>
-    </row>
-    <row r="15" spans="1:22">
-      <c r="A15" s="155"/>
-      <c r="B15" s="155"/>
-      <c r="C15" s="155"/>
-      <c r="D15" s="155"/>
-      <c r="E15" s="155"/>
-      <c r="F15" s="155"/>
-      <c r="G15" s="155"/>
-      <c r="H15" s="155"/>
-      <c r="I15" s="155"/>
-      <c r="J15" s="155"/>
-      <c r="K15" s="155"/>
     </row>
     <row r="17" spans="1:23" ht="14.25" thickBot="1"/>
     <row r="18" spans="1:23">
@@ -9994,6 +9910,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54BE7692-7AD4-4778-B75E-8DA7A0309643}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -10002,755 +9919,755 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="150" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="150" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9" style="150"/>
-    <col min="5" max="5" width="30.875" style="150" customWidth="1"/>
-    <col min="6" max="6" width="18.375" style="150" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="150"/>
+    <col min="1" max="1" width="16.125" style="86" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="86" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="86"/>
+    <col min="5" max="5" width="30.875" style="86" customWidth="1"/>
+    <col min="6" max="6" width="18.375" style="86" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="86"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="84" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="148" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="84" t="s">
         <v>191</v>
       </c>
-      <c r="D1" s="148" t="s">
+      <c r="D1" s="84" t="s">
         <v>192</v>
       </c>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="149">
+      <c r="A2" s="85">
         <v>1</v>
       </c>
-      <c r="B2" s="148" t="s">
+      <c r="B2" s="84" t="s">
         <v>190</v>
       </c>
-      <c r="C2" s="151">
+      <c r="C2" s="87">
         <v>9</v>
       </c>
-      <c r="D2" s="151">
+      <c r="D2" s="87">
         <v>1</v>
       </c>
-      <c r="E2" s="149" t="s">
+      <c r="E2" s="85" t="s">
         <v>197</v>
       </c>
-      <c r="F2" s="149"/>
+      <c r="F2" s="85"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="149">
+      <c r="A3" s="85">
         <v>2</v>
       </c>
-      <c r="B3" s="149" t="s">
+      <c r="B3" s="85" t="s">
         <v>222</v>
       </c>
-      <c r="C3" s="149">
+      <c r="C3" s="85">
         <v>9</v>
       </c>
-      <c r="D3" s="149">
+      <c r="D3" s="85">
         <v>2</v>
       </c>
-      <c r="E3" s="149" t="s">
+      <c r="E3" s="85" t="s">
         <v>223</v>
       </c>
-      <c r="F3" s="149"/>
+      <c r="F3" s="85"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="149">
+      <c r="A4" s="85">
         <v>3</v>
       </c>
-      <c r="B4" s="149" t="s">
+      <c r="B4" s="85" t="s">
         <v>224</v>
       </c>
-      <c r="C4" s="149">
+      <c r="C4" s="85">
         <v>9</v>
       </c>
-      <c r="D4" s="149">
+      <c r="D4" s="85">
         <v>1</v>
       </c>
-      <c r="E4" s="148" t="s">
+      <c r="E4" s="84" t="s">
         <v>233</v>
       </c>
-      <c r="F4" s="148"/>
+      <c r="F4" s="84"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="149">
+      <c r="A5" s="85">
         <v>4</v>
       </c>
-      <c r="B5" s="149" t="s">
+      <c r="B5" s="85" t="s">
         <v>232</v>
       </c>
-      <c r="C5" s="149">
+      <c r="C5" s="85">
         <v>9</v>
       </c>
-      <c r="D5" s="149">
+      <c r="D5" s="85">
         <v>10</v>
       </c>
-      <c r="E5" s="148" t="s">
+      <c r="E5" s="84" t="s">
         <v>206</v>
       </c>
-      <c r="F5" s="148"/>
+      <c r="F5" s="84"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="149">
+      <c r="A6" s="85">
         <v>5</v>
       </c>
-      <c r="B6" s="149" t="s">
+      <c r="B6" s="85" t="s">
         <v>231</v>
       </c>
-      <c r="C6" s="152" t="s">
+      <c r="C6" s="88" t="s">
         <v>193</v>
       </c>
-      <c r="D6" s="149">
+      <c r="D6" s="85">
         <v>40</v>
       </c>
-      <c r="E6" s="148" t="s">
+      <c r="E6" s="84" t="s">
         <v>220</v>
       </c>
-      <c r="F6" s="148"/>
+      <c r="F6" s="84"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="149">
+      <c r="A7" s="85">
         <v>6</v>
       </c>
-      <c r="B7" s="149" t="s">
+      <c r="B7" s="85" t="s">
         <v>225</v>
       </c>
-      <c r="C7" s="149">
+      <c r="C7" s="85">
         <v>9</v>
       </c>
-      <c r="D7" s="149">
+      <c r="D7" s="85">
         <v>4</v>
       </c>
-      <c r="E7" s="153" t="s">
+      <c r="E7" s="89" t="s">
         <v>226</v>
       </c>
-      <c r="F7" s="148" t="s">
+      <c r="F7" s="84" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="149">
+      <c r="A8" s="85">
         <v>7</v>
       </c>
-      <c r="B8" s="153" t="s">
+      <c r="B8" s="89" t="s">
         <v>227</v>
       </c>
-      <c r="C8" s="149">
+      <c r="C8" s="85">
         <v>9</v>
       </c>
-      <c r="D8" s="149">
+      <c r="D8" s="85">
         <v>4</v>
       </c>
-      <c r="E8" s="149"/>
-      <c r="F8" s="148" t="s">
+      <c r="E8" s="85"/>
+      <c r="F8" s="84" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="149">
+      <c r="A9" s="85">
         <v>8</v>
       </c>
-      <c r="B9" s="148" t="s">
+      <c r="B9" s="84" t="s">
         <v>228</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="88" t="s">
         <v>193</v>
       </c>
-      <c r="D9" s="149">
+      <c r="D9" s="85">
         <v>15</v>
       </c>
-      <c r="E9" s="148" t="s">
+      <c r="E9" s="84" t="s">
         <v>262</v>
       </c>
-      <c r="F9" s="148" t="s">
+      <c r="F9" s="84" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="149">
+      <c r="A10" s="85">
         <v>9</v>
       </c>
-      <c r="B10" s="148" t="s">
+      <c r="B10" s="84" t="s">
         <v>229</v>
       </c>
-      <c r="C10" s="149">
+      <c r="C10" s="85">
         <v>9</v>
       </c>
-      <c r="D10" s="149">
+      <c r="D10" s="85">
         <v>3</v>
       </c>
-      <c r="E10" s="149"/>
-      <c r="F10" s="148" t="s">
+      <c r="E10" s="85"/>
+      <c r="F10" s="84" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="149">
+      <c r="A11" s="85">
         <v>10</v>
       </c>
-      <c r="B11" s="148" t="s">
+      <c r="B11" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="C11" s="152" t="s">
+      <c r="C11" s="88" t="s">
         <v>193</v>
       </c>
-      <c r="D11" s="149">
+      <c r="D11" s="85">
         <v>15</v>
       </c>
-      <c r="E11" s="148" t="s">
+      <c r="E11" s="84" t="s">
         <v>262</v>
       </c>
-      <c r="F11" s="148" t="s">
+      <c r="F11" s="84" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="149">
+      <c r="A12" s="85">
         <v>11</v>
       </c>
-      <c r="B12" s="148" t="s">
+      <c r="B12" s="84" t="s">
         <v>212</v>
       </c>
-      <c r="C12" s="149">
+      <c r="C12" s="85">
         <v>9</v>
       </c>
-      <c r="D12" s="149">
+      <c r="D12" s="85">
         <v>1</v>
       </c>
-      <c r="E12" s="149"/>
-      <c r="F12" s="148" t="s">
+      <c r="E12" s="85"/>
+      <c r="F12" s="84" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="149">
+      <c r="A13" s="85">
         <v>12</v>
       </c>
-      <c r="B13" s="153" t="s">
+      <c r="B13" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="149">
+      <c r="C13" s="85">
         <v>9</v>
       </c>
-      <c r="D13" s="149">
+      <c r="D13" s="85">
         <v>7</v>
       </c>
-      <c r="E13" s="149"/>
-      <c r="F13" s="148" t="s">
+      <c r="E13" s="85"/>
+      <c r="F13" s="84" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="149">
+      <c r="A14" s="85">
         <v>13</v>
       </c>
-      <c r="B14" s="148" t="s">
+      <c r="B14" s="84" t="s">
         <v>194</v>
       </c>
-      <c r="C14" s="152" t="s">
+      <c r="C14" s="88" t="s">
         <v>193</v>
       </c>
-      <c r="D14" s="149">
+      <c r="D14" s="85">
         <v>17</v>
       </c>
-      <c r="E14" s="148" t="s">
+      <c r="E14" s="84" t="s">
         <v>195</v>
       </c>
-      <c r="F14" s="148"/>
+      <c r="F14" s="84"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="148" t="s">
+      <c r="A17" s="84" t="s">
         <v>187</v>
       </c>
-      <c r="B17" s="149"/>
-      <c r="C17" s="148" t="s">
+      <c r="B17" s="85"/>
+      <c r="C17" s="84" t="s">
         <v>191</v>
       </c>
-      <c r="D17" s="148" t="s">
+      <c r="D17" s="84" t="s">
         <v>192</v>
       </c>
-      <c r="E17" s="149"/>
-      <c r="F17" s="149"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="149">
+      <c r="A18" s="85">
         <v>1</v>
       </c>
-      <c r="B18" s="148" t="s">
+      <c r="B18" s="84" t="s">
         <v>190</v>
       </c>
-      <c r="C18" s="151">
+      <c r="C18" s="87">
         <v>9</v>
       </c>
-      <c r="D18" s="151">
+      <c r="D18" s="87">
         <v>1</v>
       </c>
-      <c r="E18" s="149" t="s">
+      <c r="E18" s="85" t="s">
         <v>198</v>
       </c>
-      <c r="F18" s="149"/>
+      <c r="F18" s="85"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="149">
+      <c r="A19" s="85">
         <v>2</v>
       </c>
-      <c r="B19" s="148" t="s">
+      <c r="B19" s="84" t="s">
         <v>208</v>
       </c>
-      <c r="C19" s="149">
+      <c r="C19" s="85">
         <v>9</v>
       </c>
-      <c r="D19" s="149">
+      <c r="D19" s="85">
         <v>4</v>
       </c>
-      <c r="E19" s="149"/>
-      <c r="F19" s="148" t="s">
+      <c r="E19" s="85"/>
+      <c r="F19" s="84" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="149">
+      <c r="A20" s="85">
         <v>3</v>
       </c>
-      <c r="B20" s="148" t="s">
+      <c r="B20" s="84" t="s">
         <v>209</v>
       </c>
-      <c r="C20" s="152" t="s">
+      <c r="C20" s="88" t="s">
         <v>193</v>
       </c>
-      <c r="D20" s="149">
+      <c r="D20" s="85">
         <v>15</v>
       </c>
-      <c r="E20" s="148" t="s">
+      <c r="E20" s="84" t="s">
         <v>262</v>
       </c>
-      <c r="F20" s="148" t="s">
+      <c r="F20" s="84" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="149">
+      <c r="A21" s="85">
         <v>4</v>
       </c>
-      <c r="B21" s="148" t="s">
+      <c r="B21" s="84" t="s">
         <v>210</v>
       </c>
-      <c r="C21" s="149">
+      <c r="C21" s="85">
         <v>9</v>
       </c>
-      <c r="D21" s="149">
+      <c r="D21" s="85">
         <v>3</v>
       </c>
-      <c r="E21" s="149"/>
-      <c r="F21" s="148" t="s">
+      <c r="E21" s="85"/>
+      <c r="F21" s="84" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="149">
+      <c r="A22" s="85">
         <v>5</v>
       </c>
-      <c r="B22" s="148" t="s">
+      <c r="B22" s="84" t="s">
         <v>211</v>
       </c>
-      <c r="C22" s="152" t="s">
+      <c r="C22" s="88" t="s">
         <v>193</v>
       </c>
-      <c r="D22" s="149">
+      <c r="D22" s="85">
         <v>15</v>
       </c>
-      <c r="E22" s="148" t="s">
+      <c r="E22" s="84" t="s">
         <v>263</v>
       </c>
-      <c r="F22" s="148" t="s">
+      <c r="F22" s="84" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="149">
+      <c r="A23" s="85">
         <v>6</v>
       </c>
-      <c r="B23" s="148" t="s">
+      <c r="B23" s="84" t="s">
         <v>194</v>
       </c>
-      <c r="C23" s="152" t="s">
+      <c r="C23" s="88" t="s">
         <v>193</v>
       </c>
-      <c r="D23" s="149">
+      <c r="D23" s="85">
         <v>4</v>
       </c>
-      <c r="E23" s="148" t="s">
+      <c r="E23" s="84" t="s">
         <v>195</v>
       </c>
-      <c r="F23" s="148"/>
+      <c r="F23" s="84"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="149">
+      <c r="A24" s="85">
         <v>7</v>
       </c>
-      <c r="B24" s="148" t="s">
+      <c r="B24" s="84" t="s">
         <v>212</v>
       </c>
-      <c r="C24" s="149">
+      <c r="C24" s="85">
         <v>9</v>
       </c>
-      <c r="D24" s="149">
+      <c r="D24" s="85">
         <v>1</v>
       </c>
-      <c r="E24" s="148" t="s">
+      <c r="E24" s="84" t="s">
         <v>213</v>
       </c>
-      <c r="F24" s="148" t="s">
+      <c r="F24" s="84" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="149">
+      <c r="A25" s="85">
         <v>8</v>
       </c>
-      <c r="B25" s="148" t="s">
+      <c r="B25" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="149">
+      <c r="C25" s="85">
         <v>9</v>
       </c>
-      <c r="D25" s="149">
+      <c r="D25" s="85">
         <v>7</v>
       </c>
-      <c r="E25" s="148" t="s">
+      <c r="E25" s="84" t="s">
         <v>221</v>
       </c>
-      <c r="F25" s="148" t="s">
+      <c r="F25" s="84" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="149">
+      <c r="A26" s="85">
         <v>9</v>
       </c>
-      <c r="B26" s="148" t="s">
+      <c r="B26" s="84" t="s">
         <v>214</v>
       </c>
-      <c r="C26" s="152" t="s">
+      <c r="C26" s="88" t="s">
         <v>193</v>
       </c>
-      <c r="D26" s="149">
+      <c r="D26" s="85">
         <v>30</v>
       </c>
-      <c r="E26" s="148" t="s">
+      <c r="E26" s="84" t="s">
         <v>220</v>
       </c>
-      <c r="F26" s="148" t="s">
+      <c r="F26" s="84" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="149">
+      <c r="A27" s="85">
         <v>10</v>
       </c>
-      <c r="B27" s="148" t="s">
+      <c r="B27" s="84" t="s">
         <v>215</v>
       </c>
-      <c r="C27" s="149">
+      <c r="C27" s="85">
         <v>9</v>
       </c>
-      <c r="D27" s="154">
+      <c r="D27" s="90">
         <v>10</v>
       </c>
-      <c r="E27" s="148" t="s">
+      <c r="E27" s="84" t="s">
         <v>221</v>
       </c>
-      <c r="F27" s="148" t="s">
+      <c r="F27" s="84" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="149">
+      <c r="A28" s="85">
         <v>11</v>
       </c>
-      <c r="B28" s="148" t="s">
+      <c r="B28" s="84" t="s">
         <v>216</v>
       </c>
-      <c r="C28" s="149">
+      <c r="C28" s="85">
         <v>9</v>
       </c>
-      <c r="D28" s="154">
+      <c r="D28" s="90">
         <v>1</v>
       </c>
-      <c r="E28" s="148" t="s">
+      <c r="E28" s="84" t="s">
         <v>234</v>
       </c>
-      <c r="F28" s="148"/>
+      <c r="F28" s="84"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="149">
+      <c r="A29" s="85">
         <v>12</v>
       </c>
-      <c r="B29" s="148" t="s">
+      <c r="B29" s="84" t="s">
         <v>217</v>
       </c>
-      <c r="C29" s="152" t="s">
+      <c r="C29" s="88" t="s">
         <v>193</v>
       </c>
-      <c r="D29" s="154">
+      <c r="D29" s="90">
         <v>20</v>
       </c>
-      <c r="E29" s="148" t="s">
+      <c r="E29" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="F29" s="148" t="s">
+      <c r="F29" s="84" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="149">
+      <c r="A30" s="85">
         <v>13</v>
       </c>
-      <c r="B30" s="148" t="s">
+      <c r="B30" s="84" t="s">
         <v>218</v>
       </c>
-      <c r="C30" s="149">
+      <c r="C30" s="85">
         <v>9</v>
       </c>
-      <c r="D30" s="149">
+      <c r="D30" s="85">
         <v>1</v>
       </c>
-      <c r="E30" s="148" t="s">
+      <c r="E30" s="84" t="s">
         <v>219</v>
       </c>
-      <c r="F30" s="148"/>
+      <c r="F30" s="84"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="149">
+      <c r="A31" s="85">
         <v>14</v>
       </c>
-      <c r="B31" s="148" t="s">
+      <c r="B31" s="84" t="s">
         <v>194</v>
       </c>
-      <c r="C31" s="152" t="s">
+      <c r="C31" s="88" t="s">
         <v>193</v>
       </c>
-      <c r="D31" s="149">
+      <c r="D31" s="85">
         <v>8</v>
       </c>
-      <c r="E31" s="148" t="s">
+      <c r="E31" s="84" t="s">
         <v>195</v>
       </c>
-      <c r="F31" s="148"/>
+      <c r="F31" s="84"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="149" t="s">
+      <c r="A34" s="85" t="s">
         <v>188</v>
       </c>
-      <c r="B34" s="149"/>
-      <c r="C34" s="148" t="s">
+      <c r="B34" s="85"/>
+      <c r="C34" s="84" t="s">
         <v>191</v>
       </c>
-      <c r="D34" s="148" t="s">
+      <c r="D34" s="84" t="s">
         <v>192</v>
       </c>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="149">
+      <c r="A35" s="85">
         <v>1</v>
       </c>
-      <c r="B35" s="148" t="s">
+      <c r="B35" s="84" t="s">
         <v>190</v>
       </c>
-      <c r="C35" s="151">
+      <c r="C35" s="87">
         <v>9</v>
       </c>
-      <c r="D35" s="151">
+      <c r="D35" s="87">
         <v>1</v>
       </c>
-      <c r="E35" s="149" t="s">
+      <c r="E35" s="85" t="s">
         <v>199</v>
       </c>
-      <c r="F35" s="149"/>
+      <c r="F35" s="85"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="149">
+      <c r="A36" s="85">
         <v>2</v>
       </c>
-      <c r="B36" s="149" t="s">
+      <c r="B36" s="85" t="s">
         <v>200</v>
       </c>
-      <c r="C36" s="151">
+      <c r="C36" s="87">
         <v>9</v>
       </c>
-      <c r="D36" s="149">
+      <c r="D36" s="85">
         <v>6</v>
       </c>
-      <c r="E36" s="148" t="s">
+      <c r="E36" s="84" t="s">
         <v>207</v>
       </c>
-      <c r="F36" s="148"/>
+      <c r="F36" s="84"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="149">
+      <c r="A37" s="85">
         <v>3</v>
       </c>
-      <c r="B37" s="148" t="s">
+      <c r="B37" s="84" t="s">
         <v>201</v>
       </c>
-      <c r="C37" s="151">
+      <c r="C37" s="87">
         <v>9</v>
       </c>
-      <c r="D37" s="149">
+      <c r="D37" s="85">
         <v>12</v>
       </c>
-      <c r="E37" s="148" t="s">
+      <c r="E37" s="84" t="s">
         <v>207</v>
       </c>
-      <c r="F37" s="148"/>
+      <c r="F37" s="84"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="149">
+      <c r="A38" s="85">
         <v>4</v>
       </c>
-      <c r="B38" s="148" t="s">
+      <c r="B38" s="84" t="s">
         <v>202</v>
       </c>
-      <c r="C38" s="151">
+      <c r="C38" s="87">
         <v>9</v>
       </c>
-      <c r="D38" s="149">
+      <c r="D38" s="85">
         <v>6</v>
       </c>
-      <c r="E38" s="148" t="s">
+      <c r="E38" s="84" t="s">
         <v>206</v>
       </c>
-      <c r="F38" s="148"/>
+      <c r="F38" s="84"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="149">
+      <c r="A39" s="85">
         <v>5</v>
       </c>
-      <c r="B39" s="148" t="s">
+      <c r="B39" s="84" t="s">
         <v>204</v>
       </c>
-      <c r="C39" s="151">
+      <c r="C39" s="87">
         <v>9</v>
       </c>
-      <c r="D39" s="149">
+      <c r="D39" s="85">
         <v>12</v>
       </c>
-      <c r="E39" s="148" t="s">
+      <c r="E39" s="84" t="s">
         <v>206</v>
       </c>
-      <c r="F39" s="148"/>
+      <c r="F39" s="84"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="149">
+      <c r="A40" s="85">
         <v>6</v>
       </c>
-      <c r="B40" s="148" t="s">
+      <c r="B40" s="84" t="s">
         <v>203</v>
       </c>
-      <c r="C40" s="151">
+      <c r="C40" s="87">
         <v>9</v>
       </c>
-      <c r="D40" s="149">
+      <c r="D40" s="85">
         <v>6</v>
       </c>
-      <c r="E40" s="148" t="s">
+      <c r="E40" s="84" t="s">
         <v>206</v>
       </c>
-      <c r="F40" s="148"/>
+      <c r="F40" s="84"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="149">
+      <c r="A41" s="85">
         <v>7</v>
       </c>
-      <c r="B41" s="148" t="s">
+      <c r="B41" s="84" t="s">
         <v>205</v>
       </c>
-      <c r="C41" s="151">
+      <c r="C41" s="87">
         <v>9</v>
       </c>
-      <c r="D41" s="149">
+      <c r="D41" s="85">
         <v>12</v>
       </c>
-      <c r="E41" s="148" t="s">
+      <c r="E41" s="84" t="s">
         <v>206</v>
       </c>
-      <c r="F41" s="148"/>
+      <c r="F41" s="84"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="149">
+      <c r="A42" s="85">
         <v>8</v>
       </c>
-      <c r="B42" s="148" t="s">
+      <c r="B42" s="84" t="s">
         <v>194</v>
       </c>
-      <c r="C42" s="152" t="s">
+      <c r="C42" s="88" t="s">
         <v>193</v>
       </c>
-      <c r="D42" s="149">
+      <c r="D42" s="85">
         <v>65</v>
       </c>
-      <c r="E42" s="148" t="s">
+      <c r="E42" s="84" t="s">
         <v>195</v>
       </c>
-      <c r="F42" s="148"/>
+      <c r="F42" s="84"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="148" t="s">
+      <c r="A45" s="84" t="s">
         <v>189</v>
       </c>
-      <c r="B45" s="149"/>
-      <c r="C45" s="148" t="s">
+      <c r="B45" s="85"/>
+      <c r="C45" s="84" t="s">
         <v>191</v>
       </c>
-      <c r="D45" s="148" t="s">
+      <c r="D45" s="84" t="s">
         <v>192</v>
       </c>
-      <c r="E45" s="149"/>
-      <c r="F45" s="149"/>
+      <c r="E45" s="85"/>
+      <c r="F45" s="85"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="149">
+      <c r="A46" s="85">
         <v>1</v>
       </c>
-      <c r="B46" s="148" t="s">
+      <c r="B46" s="84" t="s">
         <v>190</v>
       </c>
-      <c r="C46" s="151">
+      <c r="C46" s="87">
         <v>9</v>
       </c>
-      <c r="D46" s="151">
+      <c r="D46" s="87">
         <v>1</v>
       </c>
-      <c r="E46" s="149" t="s">
+      <c r="E46" s="85" t="s">
         <v>196</v>
       </c>
-      <c r="F46" s="149"/>
+      <c r="F46" s="85"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="149">
+      <c r="A47" s="85">
         <v>2</v>
       </c>
-      <c r="B47" s="148" t="s">
+      <c r="B47" s="84" t="s">
         <v>194</v>
       </c>
-      <c r="C47" s="152" t="s">
+      <c r="C47" s="88" t="s">
         <v>193</v>
       </c>
-      <c r="D47" s="151">
+      <c r="D47" s="87">
         <v>119</v>
       </c>
-      <c r="E47" s="148" t="s">
+      <c r="E47" s="84" t="s">
         <v>195</v>
       </c>
-      <c r="F47" s="148"/>
+      <c r="F47" s="84"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/市場_2025改修/詳細設計_2025/26_詳細設計書(口座データ) .xlsx
+++ b/市場_2025改修/詳細設計_2025/26_詳細設計書(口座データ) .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\si001\市場_2025改修\詳細設計_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0F875D-C008-4EB8-A0B2-9F3AD6CC91E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FDE051-C80D-46F9-80D5-BF66C134DDA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8535" yWindow="2445" windowWidth="18180" windowHeight="9885" tabRatio="888" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="888" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="170" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="プログラム機能" sheetId="172" r:id="rId5"/>
     <sheet name="口座データファイル" sheetId="174" r:id="rId6"/>
     <sheet name="全銀データ" sheetId="176" r:id="rId7"/>
+    <sheet name="印刷内容(振替案内)" sheetId="177" r:id="rId8"/>
+    <sheet name="印刷内容(振替済み)" sheetId="178" r:id="rId9"/>
+    <sheet name="印刷内容(振替不能)" sheetId="179" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="a">#REF!</definedName>
@@ -45,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="271">
   <si>
     <t>作成者</t>
   </si>
@@ -1862,6 +1865,62 @@
   </si>
   <si>
     <t>③</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>振替印刷指定の内容を一覧表示する（テナントコード、テナント名称、振替金額、入金金額）。</t>
+    <rPh sb="0" eb="2">
+      <t>フリカエ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>フリカエ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ニュウキン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>振替印刷指定の内容をEXCELに出力する</t>
+    <rPh sb="0" eb="2">
+      <t>フリカエ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュツリョク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2948,8 +3007,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4367,13 +4426,26 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7020F731-68FF-4BEC-B007-09CA368552CA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:H6"/>
+      <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="18.75" customHeight="1"/>
@@ -4493,7 +4565,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="110">
-        <v>45757</v>
+        <v>45901</v>
       </c>
       <c r="C5" s="110"/>
       <c r="D5" s="111" t="s">
@@ -4995,7 +5067,7 @@
   <dimension ref="A1:BF49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AO19" sqref="AO19:AT20"/>
+      <selection activeCell="AU28" sqref="AU28:BF29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="11.25"/>
@@ -6183,7 +6255,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="K11" sqref="K11:Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6792,10 +6864,10 @@
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:Q4"/>
+      <selection activeCell="C29" sqref="C29:Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7260,201 +7332,245 @@
     <row r="23" spans="1:17">
       <c r="A23" s="43"/>
       <c r="B23" s="44"/>
-      <c r="C23" s="149"/>
-      <c r="D23" s="150"/>
-      <c r="E23" s="150"/>
-      <c r="F23" s="150"/>
-      <c r="G23" s="150"/>
-      <c r="H23" s="150"/>
-      <c r="I23" s="150"/>
-      <c r="J23" s="150"/>
-      <c r="K23" s="150"/>
-      <c r="L23" s="150"/>
-      <c r="M23" s="150"/>
-      <c r="N23" s="150"/>
-      <c r="O23" s="150"/>
-      <c r="P23" s="150"/>
+      <c r="C23" s="149" t="s">
+        <v>269</v>
+      </c>
+      <c r="D23" s="158"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="158"/>
+      <c r="I23" s="158"/>
+      <c r="J23" s="158"/>
+      <c r="K23" s="158"/>
+      <c r="L23" s="158"/>
+      <c r="M23" s="158"/>
+      <c r="N23" s="158"/>
+      <c r="O23" s="158"/>
+      <c r="P23" s="158"/>
       <c r="Q23" s="151"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="45"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="152"/>
-      <c r="D24" s="153"/>
-      <c r="E24" s="153"/>
-      <c r="F24" s="153"/>
-      <c r="G24" s="153"/>
-      <c r="H24" s="153"/>
-      <c r="I24" s="153"/>
-      <c r="J24" s="153"/>
-      <c r="K24" s="153"/>
-      <c r="L24" s="153"/>
-      <c r="M24" s="153"/>
-      <c r="N24" s="153"/>
-      <c r="O24" s="153"/>
-      <c r="P24" s="153"/>
-      <c r="Q24" s="154"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="149"/>
+      <c r="D24" s="150"/>
+      <c r="E24" s="150"/>
+      <c r="F24" s="150"/>
+      <c r="G24" s="150"/>
+      <c r="H24" s="150"/>
+      <c r="I24" s="150"/>
+      <c r="J24" s="150"/>
+      <c r="K24" s="150"/>
+      <c r="L24" s="150"/>
+      <c r="M24" s="150"/>
+      <c r="N24" s="150"/>
+      <c r="O24" s="150"/>
+      <c r="P24" s="150"/>
+      <c r="Q24" s="151"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="43"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="149"/>
+      <c r="D25" s="150"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="150"/>
+      <c r="G25" s="150"/>
+      <c r="H25" s="150"/>
+      <c r="I25" s="150"/>
+      <c r="J25" s="150"/>
+      <c r="K25" s="150"/>
+      <c r="L25" s="150"/>
+      <c r="M25" s="150"/>
+      <c r="N25" s="150"/>
+      <c r="O25" s="150"/>
+      <c r="P25" s="150"/>
+      <c r="Q25" s="151"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="45"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="152"/>
+      <c r="D26" s="153"/>
+      <c r="E26" s="153"/>
+      <c r="F26" s="153"/>
+      <c r="G26" s="153"/>
+      <c r="H26" s="153"/>
+      <c r="I26" s="153"/>
+      <c r="J26" s="153"/>
+      <c r="K26" s="153"/>
+      <c r="L26" s="153"/>
+      <c r="M26" s="153"/>
+      <c r="N26" s="153"/>
+      <c r="O26" s="153"/>
+      <c r="P26" s="153"/>
+      <c r="Q26" s="154"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="155"/>
-      <c r="D25" s="156"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="156"/>
-      <c r="G25" s="156"/>
-      <c r="H25" s="156"/>
-      <c r="I25" s="156"/>
-      <c r="J25" s="156"/>
-      <c r="K25" s="156"/>
-      <c r="L25" s="156"/>
-      <c r="M25" s="156"/>
-      <c r="N25" s="156"/>
-      <c r="O25" s="156"/>
-      <c r="P25" s="156"/>
-      <c r="Q25" s="157"/>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="43"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="149"/>
-      <c r="D26" s="150"/>
-      <c r="E26" s="150"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="150"/>
-      <c r="N26" s="150"/>
-      <c r="O26" s="150"/>
-      <c r="P26" s="150"/>
-      <c r="Q26" s="151"/>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="43"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="149"/>
-      <c r="D27" s="150"/>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150"/>
-      <c r="N27" s="150"/>
-      <c r="O27" s="150"/>
-      <c r="P27" s="150"/>
-      <c r="Q27" s="151"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="155"/>
+      <c r="D27" s="156"/>
+      <c r="E27" s="156"/>
+      <c r="F27" s="156"/>
+      <c r="G27" s="156"/>
+      <c r="H27" s="156"/>
+      <c r="I27" s="156"/>
+      <c r="J27" s="156"/>
+      <c r="K27" s="156"/>
+      <c r="L27" s="156"/>
+      <c r="M27" s="156"/>
+      <c r="N27" s="156"/>
+      <c r="O27" s="156"/>
+      <c r="P27" s="156"/>
+      <c r="Q27" s="157"/>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="43"/>
       <c r="B28" s="44"/>
-      <c r="C28" s="149"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
-      <c r="N28" s="150"/>
-      <c r="O28" s="150"/>
-      <c r="P28" s="150"/>
+      <c r="C28" s="149" t="s">
+        <v>270</v>
+      </c>
+      <c r="D28" s="158"/>
+      <c r="E28" s="158"/>
+      <c r="F28" s="158"/>
+      <c r="G28" s="158"/>
+      <c r="H28" s="158"/>
+      <c r="I28" s="158"/>
+      <c r="J28" s="158"/>
+      <c r="K28" s="158"/>
+      <c r="L28" s="158"/>
+      <c r="M28" s="158"/>
+      <c r="N28" s="158"/>
+      <c r="O28" s="158"/>
+      <c r="P28" s="158"/>
       <c r="Q28" s="151"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="45"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="152"/>
-      <c r="D29" s="153"/>
-      <c r="E29" s="153"/>
-      <c r="F29" s="153"/>
-      <c r="G29" s="153"/>
-      <c r="H29" s="153"/>
-      <c r="I29" s="153"/>
-      <c r="J29" s="153"/>
-      <c r="K29" s="153"/>
-      <c r="L29" s="153"/>
-      <c r="M29" s="153"/>
-      <c r="N29" s="153"/>
-      <c r="O29" s="153"/>
-      <c r="P29" s="153"/>
-      <c r="Q29" s="154"/>
+      <c r="A29" s="43"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="149"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="150"/>
+      <c r="L29" s="150"/>
+      <c r="M29" s="150"/>
+      <c r="N29" s="150"/>
+      <c r="O29" s="150"/>
+      <c r="P29" s="150"/>
+      <c r="Q29" s="151"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="43"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="149"/>
+      <c r="D30" s="150"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="150"/>
+      <c r="L30" s="150"/>
+      <c r="M30" s="150"/>
+      <c r="N30" s="150"/>
+      <c r="O30" s="150"/>
+      <c r="P30" s="150"/>
+      <c r="Q30" s="151"/>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="45"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="152"/>
+      <c r="D31" s="153"/>
+      <c r="E31" s="153"/>
+      <c r="F31" s="153"/>
+      <c r="G31" s="153"/>
+      <c r="H31" s="153"/>
+      <c r="I31" s="153"/>
+      <c r="J31" s="153"/>
+      <c r="K31" s="153"/>
+      <c r="L31" s="153"/>
+      <c r="M31" s="153"/>
+      <c r="N31" s="153"/>
+      <c r="O31" s="153"/>
+      <c r="P31" s="153"/>
+      <c r="Q31" s="154"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="155"/>
-      <c r="D30" s="156"/>
-      <c r="E30" s="156"/>
-      <c r="F30" s="156"/>
-      <c r="G30" s="156"/>
-      <c r="H30" s="156"/>
-      <c r="I30" s="156"/>
-      <c r="J30" s="156"/>
-      <c r="K30" s="156"/>
-      <c r="L30" s="156"/>
-      <c r="M30" s="156"/>
-      <c r="N30" s="156"/>
-      <c r="O30" s="156"/>
-      <c r="P30" s="156"/>
-      <c r="Q30" s="157"/>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="43"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="149" t="s">
+      <c r="B32" s="42"/>
+      <c r="C32" s="155"/>
+      <c r="D32" s="156"/>
+      <c r="E32" s="156"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="156"/>
+      <c r="H32" s="156"/>
+      <c r="I32" s="156"/>
+      <c r="J32" s="156"/>
+      <c r="K32" s="156"/>
+      <c r="L32" s="156"/>
+      <c r="M32" s="156"/>
+      <c r="N32" s="156"/>
+      <c r="O32" s="156"/>
+      <c r="P32" s="156"/>
+      <c r="Q32" s="157"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="43"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="149" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
-      <c r="N31" s="150"/>
-      <c r="O31" s="150"/>
-      <c r="P31" s="150"/>
-      <c r="Q31" s="151"/>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="45"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="152"/>
-      <c r="D32" s="153"/>
-      <c r="E32" s="153"/>
-      <c r="F32" s="153"/>
-      <c r="G32" s="153"/>
-      <c r="H32" s="153"/>
-      <c r="I32" s="153"/>
-      <c r="J32" s="153"/>
-      <c r="K32" s="153"/>
-      <c r="L32" s="153"/>
-      <c r="M32" s="153"/>
-      <c r="N32" s="153"/>
-      <c r="O32" s="153"/>
-      <c r="P32" s="153"/>
-      <c r="Q32" s="154"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="150"/>
+      <c r="L33" s="150"/>
+      <c r="M33" s="150"/>
+      <c r="N33" s="150"/>
+      <c r="O33" s="150"/>
+      <c r="P33" s="150"/>
+      <c r="Q33" s="151"/>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="45"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="152"/>
+      <c r="D34" s="153"/>
+      <c r="E34" s="153"/>
+      <c r="F34" s="153"/>
+      <c r="G34" s="153"/>
+      <c r="H34" s="153"/>
+      <c r="I34" s="153"/>
+      <c r="J34" s="153"/>
+      <c r="K34" s="153"/>
+      <c r="L34" s="153"/>
+      <c r="M34" s="153"/>
+      <c r="N34" s="153"/>
+      <c r="O34" s="153"/>
+      <c r="P34" s="153"/>
+      <c r="Q34" s="154"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="37">
+    <mergeCell ref="C23:Q23"/>
+    <mergeCell ref="C24:Q24"/>
     <mergeCell ref="C10:Q10"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
@@ -7468,7 +7584,7 @@
     <mergeCell ref="C7:Q7"/>
     <mergeCell ref="C8:Q8"/>
     <mergeCell ref="C9:Q9"/>
-    <mergeCell ref="C26:Q26"/>
+    <mergeCell ref="C28:Q28"/>
     <mergeCell ref="C11:Q11"/>
     <mergeCell ref="C12:Q12"/>
     <mergeCell ref="C13:Q13"/>
@@ -7478,18 +7594,18 @@
     <mergeCell ref="C19:Q19"/>
     <mergeCell ref="C21:Q21"/>
     <mergeCell ref="C22:Q22"/>
-    <mergeCell ref="C24:Q24"/>
+    <mergeCell ref="C26:Q26"/>
+    <mergeCell ref="C27:Q27"/>
     <mergeCell ref="C25:Q25"/>
-    <mergeCell ref="C23:Q23"/>
     <mergeCell ref="C20:Q20"/>
     <mergeCell ref="C18:Q18"/>
     <mergeCell ref="C16:Q16"/>
-    <mergeCell ref="C27:Q27"/>
     <mergeCell ref="C29:Q29"/>
-    <mergeCell ref="C30:Q30"/>
     <mergeCell ref="C31:Q31"/>
     <mergeCell ref="C32:Q32"/>
-    <mergeCell ref="C28:Q28"/>
+    <mergeCell ref="C33:Q33"/>
+    <mergeCell ref="C34:Q34"/>
+    <mergeCell ref="C30:Q30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7502,8 +7618,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:AC89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7524,6 +7640,7 @@
     <col min="18" max="18" width="24.875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.125" customWidth="1"/>
     <col min="21" max="21" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="14.25" thickBot="1"/>
@@ -7763,7 +7880,7 @@
       <c r="A11" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="158" t="s">
+      <c r="B11" s="47" t="s">
         <v>97</v>
       </c>
       <c r="C11" s="47" t="s">
@@ -10674,4 +10791,30 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB369FD-4E01-4F3E-BF13-4D6E5D000744}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C11F75E-41D1-4801-9AFC-612A78E2B331}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/市場_2025改修/詳細設計_2025/26_詳細設計書(口座データ) .xlsx
+++ b/市場_2025改修/詳細設計_2025/26_詳細設計書(口座データ) .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\si001\市場_2025改修\詳細設計_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FDE051-C80D-46F9-80D5-BF66C134DDA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D9E273-3D45-42AE-978C-F5CBDBA93473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="888" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="888" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="170" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="269">
   <si>
     <t>作成者</t>
   </si>
@@ -382,10 +382,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テキストボックス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>処理手順</t>
     <rPh sb="0" eb="2">
       <t>ショリ</t>
@@ -454,13 +450,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>文字</t>
-    <rPh sb="0" eb="2">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>（master.xlsx）マスタブック【テナント区分】シートに登録されている</t>
     <rPh sb="24" eb="26">
       <t>クブン</t>
@@ -566,13 +555,6 @@
   <si>
     <t>CommandButton印刷</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作成日：2025/4/10</t>
-    <rPh sb="0" eb="3">
-      <t>サクセイビ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>藤城</t>
@@ -1713,42 +1695,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TextBoxテナント名称</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ComboBox月日</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テナント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テナント名</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TextBoxテナントコード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TextBox振替請求金額</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>振替請求金額</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TextBox振替済み金額</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>振替済み金額</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1759,39 +1706,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>kouza_yyyy.xlsxを元に全銀データを作成する</t>
-    <rPh sb="16" eb="17">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ギン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全銀データからkouza_yyyy.xlsxを更新する</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンギン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>kouza_yyyy.xlsxを作成する</t>
-    <rPh sb="16" eb="18">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>左詰残スペース　半角カナ</t>
     <rPh sb="0" eb="1">
       <t>ヒダリ</t>
@@ -1868,7 +1782,61 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>振替印刷指定の内容を一覧表示する（テナントコード、テナント名称、振替金額、入金金額）。</t>
+    <t>EXCEL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EXCELへ出力する</t>
+    <rPh sb="6" eb="8">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>案内・済み・不能の選択を行う</t>
+    <rPh sb="0" eb="2">
+      <t>アンナイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>フノウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CommandButtonEXCEL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面表示一覧をEXCELへ出力する</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>振替印刷指定の内容を一覧表示する（テナントコード、テナント名称、施設金額、電気金額、水道金額、売上高金額、振替金額、入金金額）。</t>
     <rPh sb="0" eb="2">
       <t>フリカエ</t>
     </rPh>
@@ -1891,21 +1859,51 @@
       <t>メイショウ</t>
     </rPh>
     <rPh sb="32" eb="34">
-      <t>フリカエ</t>
+      <t>シセツ</t>
     </rPh>
     <rPh sb="34" eb="36">
       <t>キンガク</t>
     </rPh>
     <rPh sb="37" eb="39">
-      <t>ニュウキン</t>
+      <t>デンキ</t>
     </rPh>
     <rPh sb="39" eb="41">
       <t>キンガク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>振替印刷指定の内容をEXCELに出力する</t>
+    <rPh sb="42" eb="44">
+      <t>スイドウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>フリカエ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ニュウキン</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>振替印刷指定（案内・済み・不能）の内容をEXCELに出力する</t>
     <rPh sb="0" eb="2">
       <t>フリカエ</t>
     </rPh>
@@ -1916,10 +1914,172 @@
       <t>シテイ</t>
     </rPh>
     <rPh sb="7" eb="9">
+      <t>アンナイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>フノウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
       <t>ナイヨウ</t>
     </rPh>
+    <rPh sb="26" eb="28">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成日：2025/8/28</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイビ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>kouza_yyyy.xlsxを作成する。再実行を可能ｔおする（前回処理分を削除し、再作成する）</t>
     <rPh sb="16" eb="18">
-      <t>シュツリョク</t>
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>サイジッコウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ゼンカイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t>サイサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kouza_yyyy.xlsxを元に全銀データを作成する。</t>
+    <rPh sb="16" eb="17">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ギン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全銀データからkouza_yyyy.xlsxを更新する（再取り込み可能とする。前回の済みを未にし再処理とする）</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンギン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ゼンカイ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　振替合計金額がマイナスの場合、警告表示し、処理を中断する。マイナスになるテナントコード、テナント名を表示する</t>
+    <rPh sb="1" eb="3">
+      <t>フリカエ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケイコク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>チュウダン</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引き落とし日の設定　２5日を基本とし、土日の場合は月曜にする</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ドニチ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ゲツヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2584,7 +2744,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2823,6 +2983,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2832,20 +3007,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2853,9 +3031,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2865,21 +3040,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2889,10 +3049,49 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
@@ -2901,85 +3100,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2989,6 +3149,15 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2996,18 +3165,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -3103,22 +3260,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>42774</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{311111AB-56AF-4E87-A464-BD6E202FC788}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54C3A034-ECC5-9C21-0172-E9B2E2579CBA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3127,15 +3284,21 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="152400" y="990600"/>
-          <a:ext cx="7334250" cy="3667125"/>
+          <a:off x="57150" y="866776"/>
+          <a:ext cx="7391400" cy="4338548"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4215,7 +4378,7 @@
   <dimension ref="C1:P23"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="22.5" customHeight="1"/>
@@ -4247,50 +4410,50 @@
     </row>
     <row r="6" spans="3:16" ht="22.5" customHeight="1">
       <c r="C6" s="13"/>
-      <c r="D6" s="99" t="s">
+      <c r="D6" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
       <c r="N6" s="14"/>
     </row>
     <row r="7" spans="3:16" ht="51" customHeight="1">
-      <c r="C7" s="101" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
-      <c r="N7" s="103"/>
+      <c r="C7" s="98" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="100"/>
     </row>
     <row r="8" spans="3:16" ht="39" customHeight="1">
       <c r="C8" s="13"/>
-      <c r="D8" s="99" t="s">
+      <c r="D8" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="97"/>
       <c r="N8" s="14"/>
     </row>
     <row r="9" spans="3:16" ht="22.5" customHeight="1" thickBot="1">
@@ -4313,10 +4476,10 @@
         <v>18</v>
       </c>
       <c r="G12" s="95"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="97"/>
-      <c r="K12" s="98"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="103"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
@@ -4339,44 +4502,44 @@
         <v>20</v>
       </c>
       <c r="G14" s="95"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="97"/>
-      <c r="K14" s="98"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="103"/>
     </row>
     <row r="15" spans="3:16" ht="22.5" customHeight="1">
       <c r="F15" s="94" t="s">
         <v>21</v>
       </c>
       <c r="G15" s="95"/>
-      <c r="H15" s="96" t="s">
-        <v>61</v>
-      </c>
-      <c r="I15" s="97"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="98"/>
+      <c r="H15" s="101" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="102"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="103"/>
     </row>
     <row r="16" spans="3:16" ht="22.5" customHeight="1">
       <c r="F16" s="94" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="95"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="98"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="103"/>
     </row>
     <row r="17" spans="6:16" ht="22.5" customHeight="1">
       <c r="F17" s="94" t="s">
         <v>23</v>
       </c>
       <c r="G17" s="95"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="97"/>
-      <c r="J17" s="97"/>
-      <c r="K17" s="98"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="103"/>
       <c r="N17" s="7" t="s">
-        <v>70</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="6:16" ht="22.5" customHeight="1">
@@ -4394,7 +4557,7 @@
       <c r="N22" s="21"/>
       <c r="O22" s="21"/>
       <c r="P22" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="6:16" ht="22.5" customHeight="1">
@@ -4404,12 +4567,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="C7:N7"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:K12"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="F14:G14"/>
@@ -4418,6 +4575,12 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:K16"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="C7:N7"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4428,9 +4591,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7020F731-68FF-4BEC-B007-09CA368552CA}">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
@@ -4459,56 +4623,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="109" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
       <c r="P1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="107" t="s">
-        <v>71</v>
-      </c>
-      <c r="R1" s="107"/>
+      <c r="Q1" s="112" t="s">
+        <v>68</v>
+      </c>
+      <c r="R1" s="112"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A2" s="104"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
       <c r="P2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="108">
+      <c r="Q2" s="113">
         <v>45757</v>
       </c>
-      <c r="R2" s="107"/>
+      <c r="R2" s="112"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" customHeight="1">
       <c r="A3" s="25"/>
@@ -4534,433 +4698,433 @@
       <c r="A4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105" t="s">
+      <c r="C4" s="111"/>
+      <c r="D4" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105" t="s">
+      <c r="E4" s="111"/>
+      <c r="F4" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105" t="s">
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="111"/>
+      <c r="O4" s="111"/>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="111"/>
+      <c r="R4" s="111"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" customHeight="1">
       <c r="A5" s="27">
         <v>1</v>
       </c>
-      <c r="B5" s="110">
+      <c r="B5" s="107">
         <v>45901</v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="111" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="114"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="114"/>
-      <c r="R5" s="114"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="108" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" customHeight="1">
       <c r="A6" s="28">
         <v>2</v>
       </c>
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="106"/>
-      <c r="K6" s="106"/>
-      <c r="L6" s="106"/>
-      <c r="M6" s="106"/>
-      <c r="N6" s="106"/>
-      <c r="O6" s="106"/>
-      <c r="P6" s="106"/>
-      <c r="Q6" s="106"/>
-      <c r="R6" s="106"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="104"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="104"/>
+      <c r="Q6" s="104"/>
+      <c r="R6" s="104"/>
     </row>
     <row r="7" spans="1:18" ht="27" customHeight="1">
       <c r="A7" s="28">
         <v>3</v>
       </c>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="106"/>
-      <c r="M7" s="106"/>
-      <c r="N7" s="106"/>
-      <c r="O7" s="106"/>
-      <c r="P7" s="106"/>
-      <c r="Q7" s="106"/>
-      <c r="R7" s="106"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
+      <c r="N7" s="104"/>
+      <c r="O7" s="104"/>
+      <c r="P7" s="104"/>
+      <c r="Q7" s="104"/>
+      <c r="R7" s="104"/>
     </row>
     <row r="8" spans="1:18" ht="27" customHeight="1">
       <c r="A8" s="28">
         <v>4</v>
       </c>
-      <c r="B8" s="112"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="106"/>
-      <c r="M8" s="106"/>
-      <c r="N8" s="106"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="106"/>
-      <c r="Q8" s="106"/>
-      <c r="R8" s="106"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="104"/>
+      <c r="R8" s="104"/>
     </row>
     <row r="9" spans="1:18" ht="27" customHeight="1">
       <c r="A9" s="28">
         <v>5</v>
       </c>
-      <c r="B9" s="112"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="106"/>
-      <c r="R9" s="106"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104"/>
+      <c r="R9" s="104"/>
     </row>
     <row r="10" spans="1:18" ht="27" customHeight="1">
       <c r="A10" s="28">
         <v>6</v>
       </c>
-      <c r="B10" s="112"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="113"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="106"/>
-      <c r="M10" s="106"/>
-      <c r="N10" s="106"/>
-      <c r="O10" s="106"/>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="106"/>
-      <c r="R10" s="106"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="104"/>
+      <c r="M10" s="104"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="104"/>
+      <c r="Q10" s="104"/>
+      <c r="R10" s="104"/>
     </row>
     <row r="11" spans="1:18" ht="27" customHeight="1">
       <c r="A11" s="28">
         <v>7</v>
       </c>
-      <c r="B11" s="112"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="113"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="113"/>
-      <c r="G11" s="113"/>
-      <c r="H11" s="113"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="106"/>
-      <c r="L11" s="106"/>
-      <c r="M11" s="106"/>
-      <c r="N11" s="106"/>
-      <c r="O11" s="106"/>
-      <c r="P11" s="106"/>
-      <c r="Q11" s="106"/>
-      <c r="R11" s="106"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="104"/>
+      <c r="N11" s="104"/>
+      <c r="O11" s="104"/>
+      <c r="P11" s="104"/>
+      <c r="Q11" s="104"/>
+      <c r="R11" s="104"/>
     </row>
     <row r="12" spans="1:18" ht="27" customHeight="1">
       <c r="A12" s="28">
         <v>8</v>
       </c>
-      <c r="B12" s="112"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="106"/>
-      <c r="K12" s="106"/>
-      <c r="L12" s="106"/>
-      <c r="M12" s="106"/>
-      <c r="N12" s="106"/>
-      <c r="O12" s="106"/>
-      <c r="P12" s="106"/>
-      <c r="Q12" s="106"/>
-      <c r="R12" s="106"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="104"/>
+      <c r="L12" s="104"/>
+      <c r="M12" s="104"/>
+      <c r="N12" s="104"/>
+      <c r="O12" s="104"/>
+      <c r="P12" s="104"/>
+      <c r="Q12" s="104"/>
+      <c r="R12" s="104"/>
     </row>
     <row r="13" spans="1:18" ht="27" customHeight="1">
       <c r="A13" s="28">
         <v>9</v>
       </c>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="106"/>
-      <c r="L13" s="106"/>
-      <c r="M13" s="106"/>
-      <c r="N13" s="106"/>
-      <c r="O13" s="106"/>
-      <c r="P13" s="106"/>
-      <c r="Q13" s="106"/>
-      <c r="R13" s="106"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="104"/>
+      <c r="M13" s="104"/>
+      <c r="N13" s="104"/>
+      <c r="O13" s="104"/>
+      <c r="P13" s="104"/>
+      <c r="Q13" s="104"/>
+      <c r="R13" s="104"/>
     </row>
     <row r="14" spans="1:18" ht="27" customHeight="1">
       <c r="A14" s="28">
         <v>10</v>
       </c>
-      <c r="B14" s="112"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="106"/>
-      <c r="L14" s="106"/>
-      <c r="M14" s="106"/>
-      <c r="N14" s="106"/>
-      <c r="O14" s="106"/>
-      <c r="P14" s="106"/>
-      <c r="Q14" s="106"/>
-      <c r="R14" s="106"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="104"/>
+      <c r="M14" s="104"/>
+      <c r="N14" s="104"/>
+      <c r="O14" s="104"/>
+      <c r="P14" s="104"/>
+      <c r="Q14" s="104"/>
+      <c r="R14" s="104"/>
     </row>
     <row r="15" spans="1:18" ht="27" customHeight="1">
       <c r="A15" s="28">
         <v>11</v>
       </c>
-      <c r="B15" s="112"/>
-      <c r="C15" s="112"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="106"/>
-      <c r="K15" s="106"/>
-      <c r="L15" s="106"/>
-      <c r="M15" s="106"/>
-      <c r="N15" s="106"/>
-      <c r="O15" s="106"/>
-      <c r="P15" s="106"/>
-      <c r="Q15" s="106"/>
-      <c r="R15" s="106"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="104"/>
+      <c r="M15" s="104"/>
+      <c r="N15" s="104"/>
+      <c r="O15" s="104"/>
+      <c r="P15" s="104"/>
+      <c r="Q15" s="104"/>
+      <c r="R15" s="104"/>
     </row>
     <row r="16" spans="1:18" ht="27" customHeight="1">
       <c r="A16" s="28">
         <v>12</v>
       </c>
-      <c r="B16" s="112"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="113"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="106"/>
-      <c r="K16" s="106"/>
-      <c r="L16" s="106"/>
-      <c r="M16" s="106"/>
-      <c r="N16" s="106"/>
-      <c r="O16" s="106"/>
-      <c r="P16" s="106"/>
-      <c r="Q16" s="106"/>
-      <c r="R16" s="106"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="104"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="104"/>
+      <c r="M16" s="104"/>
+      <c r="N16" s="104"/>
+      <c r="O16" s="104"/>
+      <c r="P16" s="104"/>
+      <c r="Q16" s="104"/>
+      <c r="R16" s="104"/>
     </row>
     <row r="17" spans="1:18" ht="27" customHeight="1">
       <c r="A17" s="28">
         <v>13</v>
       </c>
-      <c r="B17" s="112"/>
-      <c r="C17" s="112"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="113"/>
-      <c r="H17" s="113"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="106"/>
-      <c r="K17" s="106"/>
-      <c r="L17" s="106"/>
-      <c r="M17" s="106"/>
-      <c r="N17" s="106"/>
-      <c r="O17" s="106"/>
-      <c r="P17" s="106"/>
-      <c r="Q17" s="106"/>
-      <c r="R17" s="106"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="104"/>
+      <c r="M17" s="104"/>
+      <c r="N17" s="104"/>
+      <c r="O17" s="104"/>
+      <c r="P17" s="104"/>
+      <c r="Q17" s="104"/>
+      <c r="R17" s="104"/>
     </row>
     <row r="18" spans="1:18" ht="27" customHeight="1">
       <c r="A18" s="28">
         <v>14</v>
       </c>
-      <c r="B18" s="112"/>
-      <c r="C18" s="112"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="106"/>
-      <c r="J18" s="106"/>
-      <c r="K18" s="106"/>
-      <c r="L18" s="106"/>
-      <c r="M18" s="106"/>
-      <c r="N18" s="106"/>
-      <c r="O18" s="106"/>
-      <c r="P18" s="106"/>
-      <c r="Q18" s="106"/>
-      <c r="R18" s="106"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="104"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="104"/>
+      <c r="M18" s="104"/>
+      <c r="N18" s="104"/>
+      <c r="O18" s="104"/>
+      <c r="P18" s="104"/>
+      <c r="Q18" s="104"/>
+      <c r="R18" s="104"/>
     </row>
     <row r="19" spans="1:18" ht="27" customHeight="1">
       <c r="A19" s="28">
         <v>15</v>
       </c>
-      <c r="B19" s="112"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="113"/>
-      <c r="I19" s="106"/>
-      <c r="J19" s="106"/>
-      <c r="K19" s="106"/>
-      <c r="L19" s="106"/>
-      <c r="M19" s="106"/>
-      <c r="N19" s="106"/>
-      <c r="O19" s="106"/>
-      <c r="P19" s="106"/>
-      <c r="Q19" s="106"/>
-      <c r="R19" s="106"/>
+      <c r="B19" s="105"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="104"/>
+      <c r="K19" s="104"/>
+      <c r="L19" s="104"/>
+      <c r="M19" s="104"/>
+      <c r="N19" s="104"/>
+      <c r="O19" s="104"/>
+      <c r="P19" s="104"/>
+      <c r="Q19" s="104"/>
+      <c r="R19" s="104"/>
     </row>
     <row r="20" spans="1:18" ht="27" customHeight="1">
       <c r="A20" s="28">
         <v>16</v>
       </c>
-      <c r="B20" s="112"/>
-      <c r="C20" s="112"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="106"/>
-      <c r="J20" s="106"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="106"/>
-      <c r="M20" s="106"/>
-      <c r="N20" s="106"/>
-      <c r="O20" s="106"/>
-      <c r="P20" s="106"/>
-      <c r="Q20" s="106"/>
-      <c r="R20" s="106"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="104"/>
+      <c r="K20" s="104"/>
+      <c r="L20" s="104"/>
+      <c r="M20" s="104"/>
+      <c r="N20" s="104"/>
+      <c r="O20" s="104"/>
+      <c r="P20" s="104"/>
+      <c r="Q20" s="104"/>
+      <c r="R20" s="104"/>
     </row>
     <row r="21" spans="1:18" ht="27" customHeight="1">
       <c r="A21" s="28">
         <v>17</v>
       </c>
-      <c r="B21" s="112"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="106"/>
-      <c r="J21" s="106"/>
-      <c r="K21" s="106"/>
-      <c r="L21" s="106"/>
-      <c r="M21" s="106"/>
-      <c r="N21" s="106"/>
-      <c r="O21" s="106"/>
-      <c r="P21" s="106"/>
-      <c r="Q21" s="106"/>
-      <c r="R21" s="106"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="104"/>
+      <c r="K21" s="104"/>
+      <c r="L21" s="104"/>
+      <c r="M21" s="104"/>
+      <c r="N21" s="104"/>
+      <c r="O21" s="104"/>
+      <c r="P21" s="104"/>
+      <c r="Q21" s="104"/>
+      <c r="R21" s="104"/>
     </row>
     <row r="22" spans="1:18" ht="27" customHeight="1">
       <c r="A22" s="28">
         <v>18</v>
       </c>
-      <c r="B22" s="112"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="106"/>
-      <c r="K22" s="106"/>
-      <c r="L22" s="106"/>
-      <c r="M22" s="106"/>
-      <c r="N22" s="106"/>
-      <c r="O22" s="106"/>
-      <c r="P22" s="106"/>
-      <c r="Q22" s="106"/>
-      <c r="R22" s="106"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="104"/>
+      <c r="L22" s="104"/>
+      <c r="M22" s="104"/>
+      <c r="N22" s="104"/>
+      <c r="O22" s="104"/>
+      <c r="P22" s="104"/>
+      <c r="Q22" s="104"/>
+      <c r="R22" s="104"/>
     </row>
     <row r="23" spans="1:18" ht="27" customHeight="1"/>
     <row r="24" spans="1:18" ht="27" customHeight="1"/>
@@ -4971,14 +5135,62 @@
     <row r="29" spans="1:18" ht="27" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="I21:R21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:R22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="D1:O2"/>
+    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="I8:R8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:R6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="I11:R11"/>
+    <mergeCell ref="I12:R12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I9:R9"/>
+    <mergeCell ref="I10:R10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I15:R15"/>
+    <mergeCell ref="I16:R16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I13:R13"/>
+    <mergeCell ref="I14:R14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
     <mergeCell ref="I19:R19"/>
     <mergeCell ref="I20:R20"/>
     <mergeCell ref="B17:C17"/>
@@ -4995,62 +5207,14 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I15:R15"/>
-    <mergeCell ref="I16:R16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I13:R13"/>
-    <mergeCell ref="I14:R14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I11:R11"/>
-    <mergeCell ref="I12:R12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I9:R9"/>
-    <mergeCell ref="I10:R10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I8:R8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:R6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I5:R5"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="D1:O2"/>
-    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="I21:R21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:R22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -5067,7 +5231,7 @@
   <dimension ref="A1:BF49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AU28" sqref="AU28:BF29"/>
+      <selection activeCell="AU15" sqref="AU15:BF16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="11.25"/>
@@ -5076,213 +5240,213 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="30" customHeight="1">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="118" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="118"/>
-      <c r="S1" s="118"/>
-      <c r="T1" s="118"/>
-      <c r="U1" s="119" t="str">
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
+      <c r="U1" s="132" t="str">
         <f>表紙!C7</f>
         <v>施設使用料・償還金等料金計算及び納付書作成システム
 口座振替データ作成機能構築業務</v>
       </c>
-      <c r="V1" s="120"/>
-      <c r="W1" s="120"/>
-      <c r="X1" s="120"/>
-      <c r="Y1" s="120"/>
-      <c r="Z1" s="120"/>
-      <c r="AA1" s="120"/>
-      <c r="AB1" s="120"/>
-      <c r="AC1" s="120"/>
-      <c r="AD1" s="120"/>
-      <c r="AE1" s="120"/>
-      <c r="AF1" s="120"/>
-      <c r="AG1" s="120"/>
-      <c r="AH1" s="120"/>
-      <c r="AI1" s="121"/>
-      <c r="AJ1" s="122" t="s">
+      <c r="V1" s="133"/>
+      <c r="W1" s="133"/>
+      <c r="X1" s="133"/>
+      <c r="Y1" s="133"/>
+      <c r="Z1" s="133"/>
+      <c r="AA1" s="133"/>
+      <c r="AB1" s="133"/>
+      <c r="AC1" s="133"/>
+      <c r="AD1" s="133"/>
+      <c r="AE1" s="133"/>
+      <c r="AF1" s="133"/>
+      <c r="AG1" s="133"/>
+      <c r="AH1" s="133"/>
+      <c r="AI1" s="134"/>
+      <c r="AJ1" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="AK1" s="122"/>
-      <c r="AL1" s="122"/>
-      <c r="AM1" s="122"/>
-      <c r="AN1" s="122"/>
-      <c r="AO1" s="123" t="s">
+      <c r="AK1" s="130"/>
+      <c r="AL1" s="130"/>
+      <c r="AM1" s="130"/>
+      <c r="AN1" s="130"/>
+      <c r="AO1" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="AP1" s="123"/>
-      <c r="AQ1" s="123"/>
-      <c r="AR1" s="123"/>
-      <c r="AS1" s="123"/>
-      <c r="AT1" s="123"/>
-      <c r="AU1" s="123"/>
-      <c r="AV1" s="122" t="s">
+      <c r="AP1" s="125"/>
+      <c r="AQ1" s="125"/>
+      <c r="AR1" s="125"/>
+      <c r="AS1" s="125"/>
+      <c r="AT1" s="125"/>
+      <c r="AU1" s="125"/>
+      <c r="AV1" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="AW1" s="122"/>
-      <c r="AX1" s="122"/>
-      <c r="AY1" s="122"/>
-      <c r="AZ1" s="122"/>
-      <c r="BA1" s="123"/>
-      <c r="BB1" s="123"/>
-      <c r="BC1" s="123"/>
-      <c r="BD1" s="123"/>
-      <c r="BE1" s="123"/>
-      <c r="BF1" s="123"/>
+      <c r="AW1" s="130"/>
+      <c r="AX1" s="130"/>
+      <c r="AY1" s="130"/>
+      <c r="AZ1" s="130"/>
+      <c r="BA1" s="125"/>
+      <c r="BB1" s="125"/>
+      <c r="BC1" s="125"/>
+      <c r="BD1" s="125"/>
+      <c r="BE1" s="125"/>
+      <c r="BF1" s="125"/>
     </row>
     <row r="2" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A2" s="104"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="118" t="s">
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="118"/>
-      <c r="N2" s="118"/>
-      <c r="O2" s="118"/>
-      <c r="P2" s="118"/>
-      <c r="Q2" s="118"/>
-      <c r="R2" s="118"/>
-      <c r="S2" s="118"/>
-      <c r="T2" s="118"/>
-      <c r="U2" s="124" t="str">
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
+      <c r="U2" s="127" t="str">
         <f>表紙!H15</f>
         <v>口座データ</v>
       </c>
-      <c r="V2" s="125"/>
-      <c r="W2" s="125"/>
-      <c r="X2" s="125"/>
-      <c r="Y2" s="125"/>
-      <c r="Z2" s="125"/>
-      <c r="AA2" s="125"/>
-      <c r="AB2" s="125"/>
-      <c r="AC2" s="125"/>
-      <c r="AD2" s="125"/>
-      <c r="AE2" s="125"/>
-      <c r="AF2" s="125"/>
-      <c r="AG2" s="125"/>
-      <c r="AH2" s="125"/>
-      <c r="AI2" s="126"/>
-      <c r="AJ2" s="122" t="s">
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="128"/>
+      <c r="Z2" s="128"/>
+      <c r="AA2" s="128"/>
+      <c r="AB2" s="128"/>
+      <c r="AC2" s="128"/>
+      <c r="AD2" s="128"/>
+      <c r="AE2" s="128"/>
+      <c r="AF2" s="128"/>
+      <c r="AG2" s="128"/>
+      <c r="AH2" s="128"/>
+      <c r="AI2" s="129"/>
+      <c r="AJ2" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="122"/>
-      <c r="AL2" s="122"/>
-      <c r="AM2" s="122"/>
-      <c r="AN2" s="122"/>
-      <c r="AO2" s="127">
+      <c r="AK2" s="130"/>
+      <c r="AL2" s="130"/>
+      <c r="AM2" s="130"/>
+      <c r="AN2" s="130"/>
+      <c r="AO2" s="131">
         <v>45757</v>
       </c>
-      <c r="AP2" s="123"/>
-      <c r="AQ2" s="123"/>
-      <c r="AR2" s="123"/>
-      <c r="AS2" s="123"/>
-      <c r="AT2" s="123"/>
-      <c r="AU2" s="123"/>
-      <c r="AV2" s="122" t="s">
+      <c r="AP2" s="125"/>
+      <c r="AQ2" s="125"/>
+      <c r="AR2" s="125"/>
+      <c r="AS2" s="125"/>
+      <c r="AT2" s="125"/>
+      <c r="AU2" s="125"/>
+      <c r="AV2" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="AW2" s="122"/>
-      <c r="AX2" s="122"/>
-      <c r="AY2" s="122"/>
-      <c r="AZ2" s="122"/>
-      <c r="BA2" s="123"/>
-      <c r="BB2" s="123"/>
-      <c r="BC2" s="123"/>
-      <c r="BD2" s="123"/>
-      <c r="BE2" s="123"/>
-      <c r="BF2" s="123"/>
+      <c r="AW2" s="130"/>
+      <c r="AX2" s="130"/>
+      <c r="AY2" s="130"/>
+      <c r="AZ2" s="130"/>
+      <c r="BA2" s="125"/>
+      <c r="BB2" s="125"/>
+      <c r="BC2" s="125"/>
+      <c r="BD2" s="125"/>
+      <c r="BE2" s="125"/>
+      <c r="BF2" s="125"/>
     </row>
     <row r="3" spans="1:58" ht="15" customHeight="1">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="129"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="129"/>
-      <c r="L3" s="129"/>
-      <c r="M3" s="129"/>
-      <c r="N3" s="129"/>
-      <c r="O3" s="129"/>
-      <c r="P3" s="129"/>
-      <c r="Q3" s="129"/>
-      <c r="R3" s="129"/>
-      <c r="S3" s="129"/>
-      <c r="T3" s="129"/>
-      <c r="U3" s="129"/>
-      <c r="V3" s="129"/>
-      <c r="W3" s="129"/>
-      <c r="X3" s="129"/>
-      <c r="Y3" s="129"/>
-      <c r="Z3" s="129"/>
-      <c r="AA3" s="129"/>
-      <c r="AB3" s="129"/>
-      <c r="AC3" s="129"/>
-      <c r="AD3" s="129"/>
-      <c r="AE3" s="129"/>
-      <c r="AF3" s="129"/>
-      <c r="AG3" s="129"/>
-      <c r="AH3" s="129"/>
-      <c r="AI3" s="129"/>
-      <c r="AJ3" s="129"/>
-      <c r="AK3" s="129"/>
-      <c r="AL3" s="129"/>
-      <c r="AM3" s="129"/>
-      <c r="AN3" s="130"/>
-      <c r="AO3" s="128" t="s">
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="123"/>
+      <c r="P3" s="123"/>
+      <c r="Q3" s="123"/>
+      <c r="R3" s="123"/>
+      <c r="S3" s="123"/>
+      <c r="T3" s="123"/>
+      <c r="U3" s="123"/>
+      <c r="V3" s="123"/>
+      <c r="W3" s="123"/>
+      <c r="X3" s="123"/>
+      <c r="Y3" s="123"/>
+      <c r="Z3" s="123"/>
+      <c r="AA3" s="123"/>
+      <c r="AB3" s="123"/>
+      <c r="AC3" s="123"/>
+      <c r="AD3" s="123"/>
+      <c r="AE3" s="123"/>
+      <c r="AF3" s="123"/>
+      <c r="AG3" s="123"/>
+      <c r="AH3" s="123"/>
+      <c r="AI3" s="123"/>
+      <c r="AJ3" s="123"/>
+      <c r="AK3" s="123"/>
+      <c r="AL3" s="123"/>
+      <c r="AM3" s="123"/>
+      <c r="AN3" s="124"/>
+      <c r="AO3" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="AP3" s="129"/>
-      <c r="AQ3" s="129"/>
-      <c r="AR3" s="129"/>
-      <c r="AS3" s="129"/>
-      <c r="AT3" s="129"/>
-      <c r="AU3" s="129"/>
-      <c r="AV3" s="129"/>
-      <c r="AW3" s="129"/>
-      <c r="AX3" s="129"/>
-      <c r="AY3" s="129"/>
-      <c r="AZ3" s="129"/>
-      <c r="BA3" s="129"/>
-      <c r="BB3" s="129"/>
-      <c r="BC3" s="129"/>
-      <c r="BD3" s="129"/>
-      <c r="BE3" s="129"/>
-      <c r="BF3" s="130"/>
+      <c r="AP3" s="123"/>
+      <c r="AQ3" s="123"/>
+      <c r="AR3" s="123"/>
+      <c r="AS3" s="123"/>
+      <c r="AT3" s="123"/>
+      <c r="AU3" s="123"/>
+      <c r="AV3" s="123"/>
+      <c r="AW3" s="123"/>
+      <c r="AX3" s="123"/>
+      <c r="AY3" s="123"/>
+      <c r="AZ3" s="123"/>
+      <c r="BA3" s="123"/>
+      <c r="BB3" s="123"/>
+      <c r="BC3" s="123"/>
+      <c r="BD3" s="123"/>
+      <c r="BE3" s="123"/>
+      <c r="BF3" s="124"/>
     </row>
     <row r="4" spans="1:58">
       <c r="A4" s="2"/>
@@ -5296,13 +5460,13 @@
       <c r="AO5" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="AP5" s="106"/>
-      <c r="AQ5" s="106"/>
-      <c r="AR5" s="106"/>
-      <c r="AS5" s="106"/>
-      <c r="AT5" s="106"/>
+      <c r="AP5" s="104"/>
+      <c r="AQ5" s="104"/>
+      <c r="AR5" s="104"/>
+      <c r="AS5" s="104"/>
+      <c r="AT5" s="104"/>
       <c r="AU5" s="116" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV5" s="116"/>
       <c r="AW5" s="116"/>
@@ -5320,11 +5484,11 @@
       <c r="A6" s="2"/>
       <c r="AN6" s="3"/>
       <c r="AO6" s="115"/>
-      <c r="AP6" s="106"/>
-      <c r="AQ6" s="106"/>
-      <c r="AR6" s="106"/>
-      <c r="AS6" s="106"/>
-      <c r="AT6" s="106"/>
+      <c r="AP6" s="104"/>
+      <c r="AQ6" s="104"/>
+      <c r="AR6" s="104"/>
+      <c r="AS6" s="104"/>
+      <c r="AT6" s="104"/>
       <c r="AU6" s="116"/>
       <c r="AV6" s="116"/>
       <c r="AW6" s="116"/>
@@ -5342,15 +5506,15 @@
       <c r="A7" s="2"/>
       <c r="AN7" s="3"/>
       <c r="AO7" s="115" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP7" s="106"/>
-      <c r="AQ7" s="106"/>
-      <c r="AR7" s="106"/>
-      <c r="AS7" s="106"/>
-      <c r="AT7" s="106"/>
+        <v>54</v>
+      </c>
+      <c r="AP7" s="104"/>
+      <c r="AQ7" s="104"/>
+      <c r="AR7" s="104"/>
+      <c r="AS7" s="104"/>
+      <c r="AT7" s="104"/>
       <c r="AU7" s="116" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AV7" s="116"/>
       <c r="AW7" s="116"/>
@@ -5368,11 +5532,11 @@
       <c r="A8" s="2"/>
       <c r="AN8" s="3"/>
       <c r="AO8" s="115"/>
-      <c r="AP8" s="106"/>
-      <c r="AQ8" s="106"/>
-      <c r="AR8" s="106"/>
-      <c r="AS8" s="106"/>
-      <c r="AT8" s="106"/>
+      <c r="AP8" s="104"/>
+      <c r="AQ8" s="104"/>
+      <c r="AR8" s="104"/>
+      <c r="AS8" s="104"/>
+      <c r="AT8" s="104"/>
       <c r="AU8" s="116"/>
       <c r="AV8" s="116"/>
       <c r="AW8" s="116"/>
@@ -5390,15 +5554,15 @@
       <c r="A9" s="2"/>
       <c r="AN9" s="3"/>
       <c r="AO9" s="115" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP9" s="106"/>
-      <c r="AQ9" s="106"/>
-      <c r="AR9" s="106"/>
-      <c r="AS9" s="106"/>
-      <c r="AT9" s="106"/>
+        <v>55</v>
+      </c>
+      <c r="AP9" s="104"/>
+      <c r="AQ9" s="104"/>
+      <c r="AR9" s="104"/>
+      <c r="AS9" s="104"/>
+      <c r="AT9" s="104"/>
       <c r="AU9" s="116" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AV9" s="116"/>
       <c r="AW9" s="116"/>
@@ -5416,11 +5580,11 @@
       <c r="A10" s="2"/>
       <c r="AN10" s="3"/>
       <c r="AO10" s="115"/>
-      <c r="AP10" s="106"/>
-      <c r="AQ10" s="106"/>
-      <c r="AR10" s="106"/>
-      <c r="AS10" s="106"/>
-      <c r="AT10" s="106"/>
+      <c r="AP10" s="104"/>
+      <c r="AQ10" s="104"/>
+      <c r="AR10" s="104"/>
+      <c r="AS10" s="104"/>
+      <c r="AT10" s="104"/>
       <c r="AU10" s="116"/>
       <c r="AV10" s="116"/>
       <c r="AW10" s="116"/>
@@ -5437,16 +5601,16 @@
     <row r="11" spans="1:58" ht="16.5" customHeight="1">
       <c r="A11" s="2"/>
       <c r="AN11" s="3"/>
-      <c r="AO11" s="131" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP11" s="132"/>
-      <c r="AQ11" s="132"/>
-      <c r="AR11" s="132"/>
-      <c r="AS11" s="132"/>
-      <c r="AT11" s="132"/>
+      <c r="AO11" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP11" s="119"/>
+      <c r="AQ11" s="119"/>
+      <c r="AR11" s="119"/>
+      <c r="AS11" s="119"/>
+      <c r="AT11" s="119"/>
       <c r="AU11" s="116" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AV11" s="116"/>
       <c r="AW11" s="116"/>
@@ -5463,12 +5627,12 @@
     <row r="12" spans="1:58">
       <c r="A12" s="2"/>
       <c r="AN12" s="3"/>
-      <c r="AO12" s="133"/>
-      <c r="AP12" s="134"/>
-      <c r="AQ12" s="134"/>
-      <c r="AR12" s="134"/>
-      <c r="AS12" s="134"/>
-      <c r="AT12" s="134"/>
+      <c r="AO12" s="120"/>
+      <c r="AP12" s="121"/>
+      <c r="AQ12" s="121"/>
+      <c r="AR12" s="121"/>
+      <c r="AS12" s="121"/>
+      <c r="AT12" s="121"/>
       <c r="AU12" s="116"/>
       <c r="AV12" s="116"/>
       <c r="AW12" s="116"/>
@@ -5486,14 +5650,16 @@
       <c r="A13" s="2"/>
       <c r="AN13" s="3"/>
       <c r="AO13" s="115" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP13" s="106"/>
-      <c r="AQ13" s="106"/>
-      <c r="AR13" s="106"/>
-      <c r="AS13" s="106"/>
-      <c r="AT13" s="106"/>
-      <c r="AU13" s="116"/>
+        <v>57</v>
+      </c>
+      <c r="AP13" s="104"/>
+      <c r="AQ13" s="104"/>
+      <c r="AR13" s="104"/>
+      <c r="AS13" s="104"/>
+      <c r="AT13" s="104"/>
+      <c r="AU13" s="116" t="s">
+        <v>257</v>
+      </c>
       <c r="AV13" s="116"/>
       <c r="AW13" s="116"/>
       <c r="AX13" s="116"/>
@@ -5510,11 +5676,11 @@
       <c r="A14" s="2"/>
       <c r="AN14" s="3"/>
       <c r="AO14" s="115"/>
-      <c r="AP14" s="106"/>
-      <c r="AQ14" s="106"/>
-      <c r="AR14" s="106"/>
-      <c r="AS14" s="106"/>
-      <c r="AT14" s="106"/>
+      <c r="AP14" s="104"/>
+      <c r="AQ14" s="104"/>
+      <c r="AR14" s="104"/>
+      <c r="AS14" s="104"/>
+      <c r="AT14" s="104"/>
       <c r="AU14" s="116"/>
       <c r="AV14" s="116"/>
       <c r="AW14" s="116"/>
@@ -5534,13 +5700,13 @@
       <c r="AO15" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="AP15" s="106"/>
-      <c r="AQ15" s="106"/>
-      <c r="AR15" s="106"/>
-      <c r="AS15" s="106"/>
-      <c r="AT15" s="106"/>
+      <c r="AP15" s="104"/>
+      <c r="AQ15" s="104"/>
+      <c r="AR15" s="104"/>
+      <c r="AS15" s="104"/>
+      <c r="AT15" s="104"/>
       <c r="AU15" s="116" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AV15" s="116"/>
       <c r="AW15" s="116"/>
@@ -5558,11 +5724,11 @@
       <c r="A16" s="2"/>
       <c r="AN16" s="3"/>
       <c r="AO16" s="115"/>
-      <c r="AP16" s="106"/>
-      <c r="AQ16" s="106"/>
-      <c r="AR16" s="106"/>
-      <c r="AS16" s="106"/>
-      <c r="AT16" s="106"/>
+      <c r="AP16" s="104"/>
+      <c r="AQ16" s="104"/>
+      <c r="AR16" s="104"/>
+      <c r="AS16" s="104"/>
+      <c r="AT16" s="104"/>
       <c r="AU16" s="116"/>
       <c r="AV16" s="116"/>
       <c r="AW16" s="116"/>
@@ -5580,15 +5746,15 @@
       <c r="A17" s="2"/>
       <c r="AN17" s="3"/>
       <c r="AO17" s="115" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP17" s="106"/>
-      <c r="AQ17" s="106"/>
-      <c r="AR17" s="106"/>
-      <c r="AS17" s="106"/>
-      <c r="AT17" s="106"/>
+        <v>58</v>
+      </c>
+      <c r="AP17" s="104"/>
+      <c r="AQ17" s="104"/>
+      <c r="AR17" s="104"/>
+      <c r="AS17" s="104"/>
+      <c r="AT17" s="104"/>
       <c r="AU17" s="116" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AV17" s="116"/>
       <c r="AW17" s="116"/>
@@ -5606,11 +5772,11 @@
       <c r="A18" s="2"/>
       <c r="AN18" s="3"/>
       <c r="AO18" s="115"/>
-      <c r="AP18" s="106"/>
-      <c r="AQ18" s="106"/>
-      <c r="AR18" s="106"/>
-      <c r="AS18" s="106"/>
-      <c r="AT18" s="106"/>
+      <c r="AP18" s="104"/>
+      <c r="AQ18" s="104"/>
+      <c r="AR18" s="104"/>
+      <c r="AS18" s="104"/>
+      <c r="AT18" s="104"/>
       <c r="AU18" s="116"/>
       <c r="AV18" s="116"/>
       <c r="AW18" s="116"/>
@@ -5628,15 +5794,15 @@
       <c r="A19" s="2"/>
       <c r="AN19" s="3"/>
       <c r="AO19" s="115" t="s">
-        <v>246</v>
-      </c>
-      <c r="AP19" s="106"/>
-      <c r="AQ19" s="106"/>
-      <c r="AR19" s="106"/>
-      <c r="AS19" s="106"/>
-      <c r="AT19" s="106"/>
+        <v>243</v>
+      </c>
+      <c r="AP19" s="104"/>
+      <c r="AQ19" s="104"/>
+      <c r="AR19" s="104"/>
+      <c r="AS19" s="104"/>
+      <c r="AT19" s="104"/>
       <c r="AU19" s="116" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AV19" s="116"/>
       <c r="AW19" s="116"/>
@@ -5654,11 +5820,11 @@
       <c r="A20" s="2"/>
       <c r="AN20" s="3"/>
       <c r="AO20" s="115"/>
-      <c r="AP20" s="106"/>
-      <c r="AQ20" s="106"/>
-      <c r="AR20" s="106"/>
-      <c r="AS20" s="106"/>
-      <c r="AT20" s="106"/>
+      <c r="AP20" s="104"/>
+      <c r="AQ20" s="104"/>
+      <c r="AR20" s="104"/>
+      <c r="AS20" s="104"/>
+      <c r="AT20" s="104"/>
       <c r="AU20" s="116"/>
       <c r="AV20" s="116"/>
       <c r="AW20" s="116"/>
@@ -5675,13 +5841,17 @@
     <row r="21" spans="1:58">
       <c r="A21" s="2"/>
       <c r="AN21" s="3"/>
-      <c r="AO21" s="115"/>
-      <c r="AP21" s="106"/>
-      <c r="AQ21" s="106"/>
-      <c r="AR21" s="106"/>
-      <c r="AS21" s="106"/>
-      <c r="AT21" s="106"/>
-      <c r="AU21" s="116"/>
+      <c r="AO21" s="115" t="s">
+        <v>255</v>
+      </c>
+      <c r="AP21" s="104"/>
+      <c r="AQ21" s="104"/>
+      <c r="AR21" s="104"/>
+      <c r="AS21" s="104"/>
+      <c r="AT21" s="104"/>
+      <c r="AU21" s="116" t="s">
+        <v>256</v>
+      </c>
       <c r="AV21" s="116"/>
       <c r="AW21" s="116"/>
       <c r="AX21" s="116"/>
@@ -5698,11 +5868,11 @@
       <c r="A22" s="2"/>
       <c r="AN22" s="3"/>
       <c r="AO22" s="115"/>
-      <c r="AP22" s="106"/>
-      <c r="AQ22" s="106"/>
-      <c r="AR22" s="106"/>
-      <c r="AS22" s="106"/>
-      <c r="AT22" s="106"/>
+      <c r="AP22" s="104"/>
+      <c r="AQ22" s="104"/>
+      <c r="AR22" s="104"/>
+      <c r="AS22" s="104"/>
+      <c r="AT22" s="104"/>
       <c r="AU22" s="116"/>
       <c r="AV22" s="116"/>
       <c r="AW22" s="116"/>
@@ -5726,11 +5896,11 @@
       <c r="A24" s="2"/>
       <c r="AN24" s="3"/>
       <c r="AO24" s="115"/>
-      <c r="AP24" s="106"/>
-      <c r="AQ24" s="106"/>
-      <c r="AR24" s="106"/>
-      <c r="AS24" s="106"/>
-      <c r="AT24" s="106"/>
+      <c r="AP24" s="104"/>
+      <c r="AQ24" s="104"/>
+      <c r="AR24" s="104"/>
+      <c r="AS24" s="104"/>
+      <c r="AT24" s="104"/>
       <c r="AU24" s="116"/>
       <c r="AV24" s="116"/>
       <c r="AW24" s="116"/>
@@ -5748,11 +5918,11 @@
       <c r="A25" s="2"/>
       <c r="AN25" s="3"/>
       <c r="AO25" s="115"/>
-      <c r="AP25" s="106"/>
-      <c r="AQ25" s="106"/>
-      <c r="AR25" s="106"/>
-      <c r="AS25" s="106"/>
-      <c r="AT25" s="106"/>
+      <c r="AP25" s="104"/>
+      <c r="AQ25" s="104"/>
+      <c r="AR25" s="104"/>
+      <c r="AS25" s="104"/>
+      <c r="AT25" s="104"/>
       <c r="AU25" s="116"/>
       <c r="AV25" s="116"/>
       <c r="AW25" s="116"/>
@@ -5770,11 +5940,11 @@
       <c r="A26" s="2"/>
       <c r="AN26" s="3"/>
       <c r="AO26" s="115"/>
-      <c r="AP26" s="106"/>
-      <c r="AQ26" s="106"/>
-      <c r="AR26" s="106"/>
-      <c r="AS26" s="106"/>
-      <c r="AT26" s="106"/>
+      <c r="AP26" s="104"/>
+      <c r="AQ26" s="104"/>
+      <c r="AR26" s="104"/>
+      <c r="AS26" s="104"/>
+      <c r="AT26" s="104"/>
       <c r="AU26" s="116"/>
       <c r="AV26" s="116"/>
       <c r="AW26" s="116"/>
@@ -5792,11 +5962,11 @@
       <c r="A27" s="2"/>
       <c r="AN27" s="3"/>
       <c r="AO27" s="115"/>
-      <c r="AP27" s="106"/>
-      <c r="AQ27" s="106"/>
-      <c r="AR27" s="106"/>
-      <c r="AS27" s="106"/>
-      <c r="AT27" s="106"/>
+      <c r="AP27" s="104"/>
+      <c r="AQ27" s="104"/>
+      <c r="AR27" s="104"/>
+      <c r="AS27" s="104"/>
+      <c r="AT27" s="104"/>
       <c r="AU27" s="116"/>
       <c r="AV27" s="116"/>
       <c r="AW27" s="116"/>
@@ -5814,11 +5984,11 @@
       <c r="A28" s="2"/>
       <c r="AN28" s="3"/>
       <c r="AO28" s="115"/>
-      <c r="AP28" s="106"/>
-      <c r="AQ28" s="106"/>
-      <c r="AR28" s="106"/>
-      <c r="AS28" s="106"/>
-      <c r="AT28" s="106"/>
+      <c r="AP28" s="104"/>
+      <c r="AQ28" s="104"/>
+      <c r="AR28" s="104"/>
+      <c r="AS28" s="104"/>
+      <c r="AT28" s="104"/>
       <c r="AU28" s="116"/>
       <c r="AV28" s="116"/>
       <c r="AW28" s="116"/>
@@ -5836,11 +6006,11 @@
       <c r="A29" s="2"/>
       <c r="AN29" s="3"/>
       <c r="AO29" s="115"/>
-      <c r="AP29" s="106"/>
-      <c r="AQ29" s="106"/>
-      <c r="AR29" s="106"/>
-      <c r="AS29" s="106"/>
-      <c r="AT29" s="106"/>
+      <c r="AP29" s="104"/>
+      <c r="AQ29" s="104"/>
+      <c r="AR29" s="104"/>
+      <c r="AS29" s="104"/>
+      <c r="AT29" s="104"/>
       <c r="AU29" s="116"/>
       <c r="AV29" s="116"/>
       <c r="AW29" s="116"/>
@@ -5858,11 +6028,11 @@
       <c r="A30" s="2"/>
       <c r="AN30" s="3"/>
       <c r="AO30" s="115"/>
-      <c r="AP30" s="106"/>
-      <c r="AQ30" s="106"/>
-      <c r="AR30" s="106"/>
-      <c r="AS30" s="106"/>
-      <c r="AT30" s="106"/>
+      <c r="AP30" s="104"/>
+      <c r="AQ30" s="104"/>
+      <c r="AR30" s="104"/>
+      <c r="AS30" s="104"/>
+      <c r="AT30" s="104"/>
       <c r="AU30" s="116"/>
       <c r="AV30" s="116"/>
       <c r="AW30" s="116"/>
@@ -5880,11 +6050,11 @@
       <c r="A31" s="2"/>
       <c r="AN31" s="3"/>
       <c r="AO31" s="115"/>
-      <c r="AP31" s="106"/>
-      <c r="AQ31" s="106"/>
-      <c r="AR31" s="106"/>
-      <c r="AS31" s="106"/>
-      <c r="AT31" s="106"/>
+      <c r="AP31" s="104"/>
+      <c r="AQ31" s="104"/>
+      <c r="AR31" s="104"/>
+      <c r="AS31" s="104"/>
+      <c r="AT31" s="104"/>
       <c r="AU31" s="116"/>
       <c r="AV31" s="116"/>
       <c r="AW31" s="116"/>
@@ -5902,11 +6072,11 @@
       <c r="A32" s="2"/>
       <c r="AN32" s="3"/>
       <c r="AO32" s="115"/>
-      <c r="AP32" s="106"/>
-      <c r="AQ32" s="106"/>
-      <c r="AR32" s="106"/>
-      <c r="AS32" s="106"/>
-      <c r="AT32" s="106"/>
+      <c r="AP32" s="104"/>
+      <c r="AQ32" s="104"/>
+      <c r="AR32" s="104"/>
+      <c r="AS32" s="104"/>
+      <c r="AT32" s="104"/>
       <c r="AU32" s="116"/>
       <c r="AV32" s="116"/>
       <c r="AW32" s="116"/>
@@ -5924,11 +6094,11 @@
       <c r="A33" s="2"/>
       <c r="AN33" s="3"/>
       <c r="AO33" s="115"/>
-      <c r="AP33" s="106"/>
-      <c r="AQ33" s="106"/>
-      <c r="AR33" s="106"/>
-      <c r="AS33" s="106"/>
-      <c r="AT33" s="106"/>
+      <c r="AP33" s="104"/>
+      <c r="AQ33" s="104"/>
+      <c r="AR33" s="104"/>
+      <c r="AS33" s="104"/>
+      <c r="AT33" s="104"/>
       <c r="AU33" s="116"/>
       <c r="AV33" s="116"/>
       <c r="AW33" s="116"/>
@@ -5946,11 +6116,11 @@
       <c r="A34" s="2"/>
       <c r="AN34" s="3"/>
       <c r="AO34" s="115"/>
-      <c r="AP34" s="106"/>
-      <c r="AQ34" s="106"/>
-      <c r="AR34" s="106"/>
-      <c r="AS34" s="106"/>
-      <c r="AT34" s="106"/>
+      <c r="AP34" s="104"/>
+      <c r="AQ34" s="104"/>
+      <c r="AR34" s="104"/>
+      <c r="AS34" s="104"/>
+      <c r="AT34" s="104"/>
       <c r="AU34" s="116"/>
       <c r="AV34" s="116"/>
       <c r="AW34" s="116"/>
@@ -5968,11 +6138,11 @@
       <c r="A35" s="2"/>
       <c r="AN35" s="3"/>
       <c r="AO35" s="115"/>
-      <c r="AP35" s="106"/>
-      <c r="AQ35" s="106"/>
-      <c r="AR35" s="106"/>
-      <c r="AS35" s="106"/>
-      <c r="AT35" s="106"/>
+      <c r="AP35" s="104"/>
+      <c r="AQ35" s="104"/>
+      <c r="AR35" s="104"/>
+      <c r="AS35" s="104"/>
+      <c r="AT35" s="104"/>
       <c r="AU35" s="116"/>
       <c r="AV35" s="116"/>
       <c r="AW35" s="116"/>
@@ -5990,11 +6160,11 @@
       <c r="A36" s="2"/>
       <c r="AN36" s="3"/>
       <c r="AO36" s="115"/>
-      <c r="AP36" s="106"/>
-      <c r="AQ36" s="106"/>
-      <c r="AR36" s="106"/>
-      <c r="AS36" s="106"/>
-      <c r="AT36" s="106"/>
+      <c r="AP36" s="104"/>
+      <c r="AQ36" s="104"/>
+      <c r="AR36" s="104"/>
+      <c r="AS36" s="104"/>
+      <c r="AT36" s="104"/>
       <c r="AU36" s="116"/>
       <c r="AV36" s="116"/>
       <c r="AW36" s="116"/>
@@ -6012,11 +6182,11 @@
       <c r="A37" s="2"/>
       <c r="AN37" s="3"/>
       <c r="AO37" s="115"/>
-      <c r="AP37" s="106"/>
-      <c r="AQ37" s="106"/>
-      <c r="AR37" s="106"/>
-      <c r="AS37" s="106"/>
-      <c r="AT37" s="106"/>
+      <c r="AP37" s="104"/>
+      <c r="AQ37" s="104"/>
+      <c r="AR37" s="104"/>
+      <c r="AS37" s="104"/>
+      <c r="AT37" s="104"/>
       <c r="AU37" s="116"/>
       <c r="AV37" s="116"/>
       <c r="AW37" s="116"/>
@@ -6034,11 +6204,11 @@
       <c r="A38" s="2"/>
       <c r="AN38" s="3"/>
       <c r="AO38" s="115"/>
-      <c r="AP38" s="106"/>
-      <c r="AQ38" s="106"/>
-      <c r="AR38" s="106"/>
-      <c r="AS38" s="106"/>
-      <c r="AT38" s="106"/>
+      <c r="AP38" s="104"/>
+      <c r="AQ38" s="104"/>
+      <c r="AR38" s="104"/>
+      <c r="AS38" s="104"/>
+      <c r="AT38" s="104"/>
       <c r="AU38" s="116"/>
       <c r="AV38" s="116"/>
       <c r="AW38" s="116"/>
@@ -6056,11 +6226,11 @@
       <c r="A39" s="2"/>
       <c r="AN39" s="3"/>
       <c r="AO39" s="115"/>
-      <c r="AP39" s="106"/>
-      <c r="AQ39" s="106"/>
-      <c r="AR39" s="106"/>
-      <c r="AS39" s="106"/>
-      <c r="AT39" s="106"/>
+      <c r="AP39" s="104"/>
+      <c r="AQ39" s="104"/>
+      <c r="AR39" s="104"/>
+      <c r="AS39" s="104"/>
+      <c r="AT39" s="104"/>
       <c r="AU39" s="116"/>
       <c r="AV39" s="116"/>
       <c r="AW39" s="116"/>
@@ -6190,45 +6360,6 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="AO21:AT22"/>
-    <mergeCell ref="AU21:BF22"/>
-    <mergeCell ref="AO15:AT16"/>
-    <mergeCell ref="AU15:BF16"/>
-    <mergeCell ref="AO17:AT18"/>
-    <mergeCell ref="AU17:BF18"/>
-    <mergeCell ref="AO19:AT20"/>
-    <mergeCell ref="AU19:BF20"/>
-    <mergeCell ref="AO9:AT10"/>
-    <mergeCell ref="AU9:BF10"/>
-    <mergeCell ref="AO11:AT12"/>
-    <mergeCell ref="AU11:BF12"/>
-    <mergeCell ref="AO13:AT14"/>
-    <mergeCell ref="AU13:BF14"/>
-    <mergeCell ref="A3:AN3"/>
-    <mergeCell ref="AO3:BF3"/>
-    <mergeCell ref="AO5:AT6"/>
-    <mergeCell ref="AU5:BF6"/>
-    <mergeCell ref="AO7:AT8"/>
-    <mergeCell ref="AU7:BF8"/>
-    <mergeCell ref="BA1:BF1"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="U2:AI2"/>
-    <mergeCell ref="AJ2:AN2"/>
-    <mergeCell ref="AO2:AU2"/>
-    <mergeCell ref="AV2:AZ2"/>
-    <mergeCell ref="BA2:BF2"/>
-    <mergeCell ref="AV1:AZ1"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="U1:AI1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AO1:AU1"/>
-    <mergeCell ref="AO24:AT25"/>
-    <mergeCell ref="AU24:BF25"/>
-    <mergeCell ref="AO26:AT27"/>
-    <mergeCell ref="AU26:BF27"/>
-    <mergeCell ref="AO28:AT29"/>
-    <mergeCell ref="AU28:BF29"/>
     <mergeCell ref="AO36:AT37"/>
     <mergeCell ref="AU36:BF37"/>
     <mergeCell ref="AO38:AT39"/>
@@ -6239,6 +6370,45 @@
     <mergeCell ref="AU32:BF33"/>
     <mergeCell ref="AO34:AT35"/>
     <mergeCell ref="AU34:BF35"/>
+    <mergeCell ref="AO24:AT25"/>
+    <mergeCell ref="AU24:BF25"/>
+    <mergeCell ref="AO26:AT27"/>
+    <mergeCell ref="AU26:BF27"/>
+    <mergeCell ref="AO28:AT29"/>
+    <mergeCell ref="AU28:BF29"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="U1:AI1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AO1:AU1"/>
+    <mergeCell ref="BA1:BF1"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="U2:AI2"/>
+    <mergeCell ref="AJ2:AN2"/>
+    <mergeCell ref="AO2:AU2"/>
+    <mergeCell ref="AV2:AZ2"/>
+    <mergeCell ref="BA2:BF2"/>
+    <mergeCell ref="AV1:AZ1"/>
+    <mergeCell ref="A3:AN3"/>
+    <mergeCell ref="AO3:BF3"/>
+    <mergeCell ref="AO5:AT6"/>
+    <mergeCell ref="AU5:BF6"/>
+    <mergeCell ref="AO7:AT8"/>
+    <mergeCell ref="AU7:BF8"/>
+    <mergeCell ref="AO9:AT10"/>
+    <mergeCell ref="AU9:BF10"/>
+    <mergeCell ref="AO11:AT12"/>
+    <mergeCell ref="AU11:BF12"/>
+    <mergeCell ref="AO13:AT14"/>
+    <mergeCell ref="AU13:BF14"/>
+    <mergeCell ref="AO21:AT22"/>
+    <mergeCell ref="AU21:BF22"/>
+    <mergeCell ref="AO15:AT16"/>
+    <mergeCell ref="AU15:BF16"/>
+    <mergeCell ref="AO17:AT18"/>
+    <mergeCell ref="AU17:BF18"/>
+    <mergeCell ref="AO19:AT20"/>
+    <mergeCell ref="AU19:BF20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6255,7 +6425,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11:Q11"/>
+      <selection activeCell="K12" sqref="K12:Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6264,27 +6434,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="34" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="140" t="s">
+      <c r="B1" s="137"/>
+      <c r="C1" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="141"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="143" t="str">
+      <c r="D1" s="139"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="141" t="str">
         <f>表紙!C7</f>
         <v>施設使用料・償還金等料金計算及び納付書作成システム
 口座振替データ作成機能構築業務</v>
       </c>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
-      <c r="L1" s="144"/>
-      <c r="M1" s="145"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="143"/>
       <c r="N1" s="23" t="s">
         <v>0</v>
       </c>
@@ -6299,24 +6469,24 @@
       </c>
     </row>
     <row r="2" spans="1:17" s="34" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="139"/>
-      <c r="B2" s="139"/>
-      <c r="C2" s="140" t="s">
+      <c r="A2" s="137"/>
+      <c r="B2" s="137"/>
+      <c r="C2" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="141"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="146" t="str">
+      <c r="D2" s="139"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="144" t="str">
         <f>表紙!H15</f>
         <v>口座データ</v>
       </c>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147"/>
-      <c r="L2" s="147"/>
-      <c r="M2" s="148"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="146"/>
       <c r="N2" s="23" t="s">
         <v>4</v>
       </c>
@@ -6406,7 +6576,7 @@
       <c r="I6" s="38"/>
       <c r="J6" s="38"/>
       <c r="K6" s="136" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L6" s="136"/>
       <c r="M6" s="136"/>
@@ -6417,7 +6587,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="135" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B7" s="135"/>
       <c r="C7" s="135" t="s">
@@ -6433,7 +6603,7 @@
       <c r="I7" s="38"/>
       <c r="J7" s="38"/>
       <c r="K7" s="136" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L7" s="136"/>
       <c r="M7" s="136"/>
@@ -6444,7 +6614,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="135" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8" s="135"/>
       <c r="C8" s="135" t="s">
@@ -6460,7 +6630,7 @@
       <c r="I8" s="38"/>
       <c r="J8" s="38"/>
       <c r="K8" s="136" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L8" s="136"/>
       <c r="M8" s="136"/>
@@ -6471,7 +6641,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="135" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B9" s="135"/>
       <c r="C9" s="135" t="s">
@@ -6487,7 +6657,7 @@
       <c r="I9" s="38"/>
       <c r="J9" s="38"/>
       <c r="K9" s="136" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L9" s="136"/>
       <c r="M9" s="136"/>
@@ -6498,7 +6668,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="135" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B10" s="135"/>
       <c r="C10" s="135" t="s">
@@ -6514,7 +6684,7 @@
       <c r="I10" s="38"/>
       <c r="J10" s="38"/>
       <c r="K10" s="136" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L10" s="136"/>
       <c r="M10" s="136"/>
@@ -6525,7 +6695,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="135" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B11" s="135"/>
       <c r="C11" s="135" t="s">
@@ -6541,7 +6711,7 @@
       <c r="I11" s="38"/>
       <c r="J11" s="38"/>
       <c r="K11" s="136" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L11" s="136"/>
       <c r="M11" s="136"/>
@@ -6570,12 +6740,12 @@
       <c r="Q12" s="136"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="137" t="s">
-        <v>246</v>
-      </c>
-      <c r="B13" s="138"/>
+      <c r="A13" s="147" t="s">
+        <v>243</v>
+      </c>
+      <c r="B13" s="148"/>
       <c r="C13" s="135" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D13" s="135"/>
       <c r="E13" s="40" t="s">
@@ -6584,14 +6754,14 @@
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
       <c r="H13" s="38" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="I13" s="38" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J13" s="38"/>
       <c r="K13" s="136" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="L13" s="136"/>
       <c r="M13" s="136"/>
@@ -6602,11 +6772,11 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="135" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B14" s="135"/>
       <c r="C14" s="135" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D14" s="135"/>
       <c r="E14" s="40" t="s">
@@ -6614,13 +6784,11 @@
       </c>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
-      <c r="H14" s="38" t="s">
-        <v>52</v>
-      </c>
+      <c r="H14" s="38"/>
       <c r="I14" s="38"/>
       <c r="J14" s="38"/>
       <c r="K14" s="136" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="L14" s="136"/>
       <c r="M14" s="136"/>
@@ -6630,27 +6798,17 @@
       <c r="Q14" s="136"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="135" t="s">
-        <v>252</v>
-      </c>
+      <c r="A15" s="135"/>
       <c r="B15" s="135"/>
-      <c r="C15" s="135" t="s">
-        <v>43</v>
-      </c>
+      <c r="C15" s="135"/>
       <c r="D15" s="135"/>
-      <c r="E15" s="40" t="s">
-        <v>41</v>
-      </c>
+      <c r="E15" s="40"/>
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
-      <c r="H15" s="38" t="s">
-        <v>52</v>
-      </c>
+      <c r="H15" s="38"/>
       <c r="I15" s="38"/>
       <c r="J15" s="38"/>
-      <c r="K15" s="136" t="s">
-        <v>249</v>
-      </c>
+      <c r="K15" s="136"/>
       <c r="L15" s="136"/>
       <c r="M15" s="136"/>
       <c r="N15" s="136"/>
@@ -6659,27 +6817,17 @@
       <c r="Q15" s="136"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="135" t="s">
-        <v>255</v>
-      </c>
+      <c r="A16" s="135"/>
       <c r="B16" s="135"/>
-      <c r="C16" s="135" t="s">
-        <v>43</v>
-      </c>
+      <c r="C16" s="135"/>
       <c r="D16" s="135"/>
-      <c r="E16" s="40" t="s">
-        <v>41</v>
-      </c>
+      <c r="E16" s="40"/>
       <c r="F16" s="38"/>
       <c r="G16" s="38"/>
-      <c r="H16" s="38" t="s">
-        <v>258</v>
-      </c>
+      <c r="H16" s="38"/>
       <c r="I16" s="38"/>
       <c r="J16" s="38"/>
-      <c r="K16" s="136" t="s">
-        <v>254</v>
-      </c>
+      <c r="K16" s="136"/>
       <c r="L16" s="136"/>
       <c r="M16" s="136"/>
       <c r="N16" s="136"/>
@@ -6688,27 +6836,17 @@
       <c r="Q16" s="136"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="135" t="s">
-        <v>257</v>
-      </c>
+      <c r="A17" s="135"/>
       <c r="B17" s="135"/>
-      <c r="C17" s="135" t="s">
-        <v>43</v>
-      </c>
+      <c r="C17" s="135"/>
       <c r="D17" s="135"/>
-      <c r="E17" s="40" t="s">
-        <v>41</v>
-      </c>
+      <c r="E17" s="40"/>
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
-      <c r="H17" s="38" t="s">
-        <v>258</v>
-      </c>
+      <c r="H17" s="38"/>
       <c r="I17" s="38"/>
       <c r="J17" s="38"/>
-      <c r="K17" s="136" t="s">
-        <v>256</v>
-      </c>
+      <c r="K17" s="136"/>
       <c r="L17" s="136"/>
       <c r="M17" s="136"/>
       <c r="N17" s="136"/>
@@ -6794,40 +6932,21 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="K20:Q20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="K21:Q21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="K18:Q18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="K19:Q19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="K16:Q16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="K17:Q17"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:Q5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="K12:Q12"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="K8:Q8"/>
@@ -6837,21 +6956,40 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="K9:Q9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="K12:Q12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="K15:Q15"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="K13:Q13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:Q5"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6864,10 +7002,10 @@
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:Q29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6878,32 +7016,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="34" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="140" t="s">
+      <c r="B1" s="137"/>
+      <c r="C1" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="141"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="143" t="str">
+      <c r="D1" s="139"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="141" t="str">
         <f>表紙!C7</f>
         <v>施設使用料・償還金等料金計算及び納付書作成システム
 口座振替データ作成機能構築業務</v>
       </c>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
-      <c r="L1" s="144"/>
-      <c r="M1" s="145"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="143"/>
       <c r="N1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="O1" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P1" s="23" t="s">
         <v>5</v>
@@ -6911,29 +7049,29 @@
       <c r="Q1" s="33"/>
     </row>
     <row r="2" spans="1:17" s="34" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="139"/>
-      <c r="B2" s="139"/>
-      <c r="C2" s="140" t="s">
+      <c r="A2" s="137"/>
+      <c r="B2" s="137"/>
+      <c r="C2" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="141"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="146" t="str">
+      <c r="D2" s="139"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="144" t="str">
         <f>表紙!H15</f>
         <v>口座データ</v>
       </c>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147"/>
-      <c r="L2" s="147"/>
-      <c r="M2" s="148"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="146"/>
       <c r="N2" s="23" t="s">
         <v>4</v>
       </c>
       <c r="O2" s="35">
-        <v>45910</v>
+        <v>45894</v>
       </c>
       <c r="P2" s="36" t="s">
         <v>1</v>
@@ -6942,11 +7080,11 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="135" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="135"/>
       <c r="C4" s="135" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="135"/>
       <c r="E4" s="135"/>
@@ -6965,32 +7103,32 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="42"/>
-      <c r="C5" s="155" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="156"/>
-      <c r="E5" s="156"/>
-      <c r="F5" s="156"/>
-      <c r="G5" s="156"/>
-      <c r="H5" s="156"/>
-      <c r="I5" s="156"/>
-      <c r="J5" s="156"/>
-      <c r="K5" s="156"/>
-      <c r="L5" s="156"/>
-      <c r="M5" s="156"/>
-      <c r="N5" s="156"/>
-      <c r="O5" s="156"/>
-      <c r="P5" s="156"/>
-      <c r="Q5" s="157"/>
+      <c r="C5" s="152" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="153"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="153"/>
+      <c r="G5" s="153"/>
+      <c r="H5" s="153"/>
+      <c r="I5" s="153"/>
+      <c r="J5" s="153"/>
+      <c r="K5" s="153"/>
+      <c r="L5" s="153"/>
+      <c r="M5" s="153"/>
+      <c r="N5" s="153"/>
+      <c r="O5" s="153"/>
+      <c r="P5" s="153"/>
+      <c r="Q5" s="154"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="43"/>
       <c r="B6" s="44"/>
       <c r="C6" s="149" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="150"/>
       <c r="E6" s="150"/>
@@ -7010,7 +7148,9 @@
     <row r="7" spans="1:17">
       <c r="A7" s="43"/>
       <c r="B7" s="44"/>
-      <c r="C7" s="149"/>
+      <c r="C7" s="149" t="s">
+        <v>268</v>
+      </c>
       <c r="D7" s="150"/>
       <c r="E7" s="150"/>
       <c r="F7" s="150"/>
@@ -7048,42 +7188,44 @@
     <row r="9" spans="1:17">
       <c r="A9" s="45"/>
       <c r="B9" s="46"/>
-      <c r="C9" s="152"/>
-      <c r="D9" s="153"/>
-      <c r="E9" s="153"/>
-      <c r="F9" s="153"/>
-      <c r="G9" s="153"/>
-      <c r="H9" s="153"/>
-      <c r="I9" s="153"/>
-      <c r="J9" s="153"/>
-      <c r="K9" s="153"/>
-      <c r="L9" s="153"/>
-      <c r="M9" s="153"/>
-      <c r="N9" s="153"/>
-      <c r="O9" s="153"/>
-      <c r="P9" s="153"/>
-      <c r="Q9" s="154"/>
+      <c r="C9" s="155"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="156"/>
+      <c r="F9" s="156"/>
+      <c r="G9" s="156"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="156"/>
+      <c r="J9" s="156"/>
+      <c r="K9" s="156"/>
+      <c r="L9" s="156"/>
+      <c r="M9" s="156"/>
+      <c r="N9" s="156"/>
+      <c r="O9" s="156"/>
+      <c r="P9" s="156"/>
+      <c r="Q9" s="157"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="42"/>
-      <c r="C10" s="155"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="156"/>
-      <c r="H10" s="156"/>
-      <c r="I10" s="156"/>
-      <c r="J10" s="156"/>
-      <c r="K10" s="156"/>
-      <c r="L10" s="156"/>
-      <c r="M10" s="156"/>
-      <c r="N10" s="156"/>
-      <c r="O10" s="156"/>
-      <c r="P10" s="156"/>
-      <c r="Q10" s="157"/>
+      <c r="C10" s="152" t="s">
+        <v>259</v>
+      </c>
+      <c r="D10" s="153"/>
+      <c r="E10" s="153"/>
+      <c r="F10" s="153"/>
+      <c r="G10" s="153"/>
+      <c r="H10" s="153"/>
+      <c r="I10" s="153"/>
+      <c r="J10" s="153"/>
+      <c r="K10" s="153"/>
+      <c r="L10" s="153"/>
+      <c r="M10" s="153"/>
+      <c r="N10" s="153"/>
+      <c r="O10" s="153"/>
+      <c r="P10" s="153"/>
+      <c r="Q10" s="154"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="43"/>
@@ -7126,50 +7268,50 @@
     <row r="13" spans="1:17">
       <c r="A13" s="45"/>
       <c r="B13" s="46"/>
-      <c r="C13" s="152"/>
-      <c r="D13" s="153"/>
-      <c r="E13" s="153"/>
-      <c r="F13" s="153"/>
-      <c r="G13" s="153"/>
-      <c r="H13" s="153"/>
-      <c r="I13" s="153"/>
-      <c r="J13" s="153"/>
-      <c r="K13" s="153"/>
-      <c r="L13" s="153"/>
-      <c r="M13" s="153"/>
-      <c r="N13" s="153"/>
-      <c r="O13" s="153"/>
-      <c r="P13" s="153"/>
-      <c r="Q13" s="154"/>
+      <c r="C13" s="155"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="156"/>
+      <c r="G13" s="156"/>
+      <c r="H13" s="156"/>
+      <c r="I13" s="156"/>
+      <c r="J13" s="156"/>
+      <c r="K13" s="156"/>
+      <c r="L13" s="156"/>
+      <c r="M13" s="156"/>
+      <c r="N13" s="156"/>
+      <c r="O13" s="156"/>
+      <c r="P13" s="156"/>
+      <c r="Q13" s="157"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="41" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="155"/>
-      <c r="D14" s="156"/>
-      <c r="E14" s="156"/>
-      <c r="F14" s="156"/>
-      <c r="G14" s="156"/>
-      <c r="H14" s="156"/>
-      <c r="I14" s="156"/>
-      <c r="J14" s="156"/>
-      <c r="K14" s="156"/>
-      <c r="L14" s="156"/>
-      <c r="M14" s="156"/>
-      <c r="N14" s="156"/>
-      <c r="O14" s="156"/>
-      <c r="P14" s="156"/>
-      <c r="Q14" s="157"/>
+        <v>54</v>
+      </c>
+      <c r="C14" s="152"/>
+      <c r="D14" s="153"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="153"/>
+      <c r="I14" s="153"/>
+      <c r="J14" s="153"/>
+      <c r="K14" s="153"/>
+      <c r="L14" s="153"/>
+      <c r="M14" s="153"/>
+      <c r="N14" s="153"/>
+      <c r="O14" s="153"/>
+      <c r="P14" s="153"/>
+      <c r="Q14" s="154"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="43"/>
       <c r="B15" s="44"/>
       <c r="C15" s="149" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D15" s="150"/>
       <c r="E15" s="150"/>
@@ -7189,7 +7331,9 @@
     <row r="16" spans="1:17">
       <c r="A16" s="43"/>
       <c r="B16" s="44"/>
-      <c r="C16" s="149"/>
+      <c r="C16" s="149" t="s">
+        <v>267</v>
+      </c>
       <c r="D16" s="150"/>
       <c r="E16" s="150"/>
       <c r="F16" s="150"/>
@@ -7207,12 +7351,8 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="43"/>
-      <c r="B17" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="149" t="s">
-        <v>259</v>
-      </c>
+      <c r="B17" s="44"/>
+      <c r="C17" s="149"/>
       <c r="D17" s="150"/>
       <c r="E17" s="150"/>
       <c r="F17" s="150"/>
@@ -7250,10 +7390,10 @@
     <row r="19" spans="1:17">
       <c r="A19" s="43"/>
       <c r="B19" s="44" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C19" s="149" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D19" s="150"/>
       <c r="E19" s="150"/>
@@ -7291,8 +7431,12 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="43"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="149"/>
+      <c r="B21" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="149" t="s">
+        <v>266</v>
+      </c>
       <c r="D21" s="150"/>
       <c r="E21" s="150"/>
       <c r="F21" s="150"/>
@@ -7309,45 +7453,45 @@
       <c r="Q21" s="151"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="155"/>
-      <c r="D22" s="156"/>
-      <c r="E22" s="156"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="156"/>
-      <c r="K22" s="156"/>
-      <c r="L22" s="156"/>
-      <c r="M22" s="156"/>
-      <c r="N22" s="156"/>
-      <c r="O22" s="156"/>
-      <c r="P22" s="156"/>
-      <c r="Q22" s="157"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="150"/>
+      <c r="F22" s="150"/>
+      <c r="G22" s="150"/>
+      <c r="H22" s="150"/>
+      <c r="I22" s="150"/>
+      <c r="J22" s="150"/>
+      <c r="K22" s="150"/>
+      <c r="L22" s="150"/>
+      <c r="M22" s="150"/>
+      <c r="N22" s="150"/>
+      <c r="O22" s="150"/>
+      <c r="P22" s="150"/>
+      <c r="Q22" s="151"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="43"/>
-      <c r="B23" s="44"/>
+      <c r="B23" s="44" t="s">
+        <v>255</v>
+      </c>
       <c r="C23" s="149" t="s">
-        <v>269</v>
-      </c>
-      <c r="D23" s="158"/>
-      <c r="E23" s="158"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="158"/>
-      <c r="J23" s="158"/>
-      <c r="K23" s="158"/>
-      <c r="L23" s="158"/>
-      <c r="M23" s="158"/>
-      <c r="N23" s="158"/>
-      <c r="O23" s="158"/>
-      <c r="P23" s="158"/>
+        <v>260</v>
+      </c>
+      <c r="D23" s="150"/>
+      <c r="E23" s="150"/>
+      <c r="F23" s="150"/>
+      <c r="G23" s="150"/>
+      <c r="H23" s="150"/>
+      <c r="I23" s="150"/>
+      <c r="J23" s="150"/>
+      <c r="K23" s="150"/>
+      <c r="L23" s="150"/>
+      <c r="M23" s="150"/>
+      <c r="N23" s="150"/>
+      <c r="O23" s="150"/>
+      <c r="P23" s="150"/>
       <c r="Q23" s="151"/>
     </row>
     <row r="24" spans="1:17">
@@ -7370,169 +7514,169 @@
       <c r="Q24" s="151"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="43"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="149"/>
-      <c r="D25" s="150"/>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="150"/>
-      <c r="N25" s="150"/>
-      <c r="O25" s="150"/>
-      <c r="P25" s="150"/>
-      <c r="Q25" s="151"/>
+      <c r="A25" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="42"/>
+      <c r="C25" s="152"/>
+      <c r="D25" s="153"/>
+      <c r="E25" s="153"/>
+      <c r="F25" s="153"/>
+      <c r="G25" s="153"/>
+      <c r="H25" s="153"/>
+      <c r="I25" s="153"/>
+      <c r="J25" s="153"/>
+      <c r="K25" s="153"/>
+      <c r="L25" s="153"/>
+      <c r="M25" s="153"/>
+      <c r="N25" s="153"/>
+      <c r="O25" s="153"/>
+      <c r="P25" s="153"/>
+      <c r="Q25" s="154"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="45"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="152"/>
-      <c r="D26" s="153"/>
-      <c r="E26" s="153"/>
-      <c r="F26" s="153"/>
-      <c r="G26" s="153"/>
-      <c r="H26" s="153"/>
-      <c r="I26" s="153"/>
-      <c r="J26" s="153"/>
-      <c r="K26" s="153"/>
-      <c r="L26" s="153"/>
-      <c r="M26" s="153"/>
-      <c r="N26" s="153"/>
-      <c r="O26" s="153"/>
-      <c r="P26" s="153"/>
-      <c r="Q26" s="154"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="149" t="s">
+        <v>261</v>
+      </c>
+      <c r="D26" s="150"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="150"/>
+      <c r="L26" s="150"/>
+      <c r="M26" s="150"/>
+      <c r="N26" s="150"/>
+      <c r="O26" s="150"/>
+      <c r="P26" s="150"/>
+      <c r="Q26" s="151"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="155"/>
-      <c r="D27" s="156"/>
-      <c r="E27" s="156"/>
-      <c r="F27" s="156"/>
-      <c r="G27" s="156"/>
-      <c r="H27" s="156"/>
-      <c r="I27" s="156"/>
-      <c r="J27" s="156"/>
-      <c r="K27" s="156"/>
-      <c r="L27" s="156"/>
-      <c r="M27" s="156"/>
-      <c r="N27" s="156"/>
-      <c r="O27" s="156"/>
-      <c r="P27" s="156"/>
-      <c r="Q27" s="157"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="149"/>
+      <c r="D27" s="150"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="150"/>
+      <c r="L27" s="150"/>
+      <c r="M27" s="150"/>
+      <c r="N27" s="150"/>
+      <c r="O27" s="150"/>
+      <c r="P27" s="150"/>
+      <c r="Q27" s="151"/>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="43"/>
       <c r="B28" s="44"/>
-      <c r="C28" s="149" t="s">
-        <v>270</v>
-      </c>
-      <c r="D28" s="158"/>
-      <c r="E28" s="158"/>
-      <c r="F28" s="158"/>
-      <c r="G28" s="158"/>
-      <c r="H28" s="158"/>
-      <c r="I28" s="158"/>
-      <c r="J28" s="158"/>
-      <c r="K28" s="158"/>
-      <c r="L28" s="158"/>
-      <c r="M28" s="158"/>
-      <c r="N28" s="158"/>
-      <c r="O28" s="158"/>
-      <c r="P28" s="158"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="150"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="150"/>
+      <c r="N28" s="150"/>
+      <c r="O28" s="150"/>
+      <c r="P28" s="150"/>
       <c r="Q28" s="151"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="43"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="149"/>
-      <c r="D29" s="150"/>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
-      <c r="N29" s="150"/>
-      <c r="O29" s="150"/>
-      <c r="P29" s="150"/>
-      <c r="Q29" s="151"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="155"/>
+      <c r="D29" s="156"/>
+      <c r="E29" s="156"/>
+      <c r="F29" s="156"/>
+      <c r="G29" s="156"/>
+      <c r="H29" s="156"/>
+      <c r="I29" s="156"/>
+      <c r="J29" s="156"/>
+      <c r="K29" s="156"/>
+      <c r="L29" s="156"/>
+      <c r="M29" s="156"/>
+      <c r="N29" s="156"/>
+      <c r="O29" s="156"/>
+      <c r="P29" s="156"/>
+      <c r="Q29" s="157"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="43"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="149"/>
-      <c r="D30" s="150"/>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="150"/>
-      <c r="N30" s="150"/>
-      <c r="O30" s="150"/>
-      <c r="P30" s="150"/>
-      <c r="Q30" s="151"/>
+      <c r="A30" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="42"/>
+      <c r="C30" s="152"/>
+      <c r="D30" s="153"/>
+      <c r="E30" s="153"/>
+      <c r="F30" s="153"/>
+      <c r="G30" s="153"/>
+      <c r="H30" s="153"/>
+      <c r="I30" s="153"/>
+      <c r="J30" s="153"/>
+      <c r="K30" s="153"/>
+      <c r="L30" s="153"/>
+      <c r="M30" s="153"/>
+      <c r="N30" s="153"/>
+      <c r="O30" s="153"/>
+      <c r="P30" s="153"/>
+      <c r="Q30" s="154"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="45"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="152"/>
-      <c r="D31" s="153"/>
-      <c r="E31" s="153"/>
-      <c r="F31" s="153"/>
-      <c r="G31" s="153"/>
-      <c r="H31" s="153"/>
-      <c r="I31" s="153"/>
-      <c r="J31" s="153"/>
-      <c r="K31" s="153"/>
-      <c r="L31" s="153"/>
-      <c r="M31" s="153"/>
-      <c r="N31" s="153"/>
-      <c r="O31" s="153"/>
-      <c r="P31" s="153"/>
-      <c r="Q31" s="154"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="149" t="s">
+        <v>262</v>
+      </c>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="150"/>
+      <c r="L31" s="150"/>
+      <c r="M31" s="150"/>
+      <c r="N31" s="150"/>
+      <c r="O31" s="150"/>
+      <c r="P31" s="150"/>
+      <c r="Q31" s="151"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="155"/>
-      <c r="D32" s="156"/>
-      <c r="E32" s="156"/>
-      <c r="F32" s="156"/>
-      <c r="G32" s="156"/>
-      <c r="H32" s="156"/>
-      <c r="I32" s="156"/>
-      <c r="J32" s="156"/>
-      <c r="K32" s="156"/>
-      <c r="L32" s="156"/>
-      <c r="M32" s="156"/>
-      <c r="N32" s="156"/>
-      <c r="O32" s="156"/>
-      <c r="P32" s="156"/>
-      <c r="Q32" s="157"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="150"/>
+      <c r="L32" s="150"/>
+      <c r="M32" s="150"/>
+      <c r="N32" s="150"/>
+      <c r="O32" s="150"/>
+      <c r="P32" s="150"/>
+      <c r="Q32" s="151"/>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="43"/>
       <c r="B33" s="44"/>
-      <c r="C33" s="149" t="s">
-        <v>49</v>
-      </c>
+      <c r="C33" s="149"/>
       <c r="D33" s="150"/>
       <c r="E33" s="150"/>
       <c r="F33" s="150"/>
@@ -7551,61 +7695,125 @@
     <row r="34" spans="1:17">
       <c r="A34" s="45"/>
       <c r="B34" s="46"/>
-      <c r="C34" s="152"/>
-      <c r="D34" s="153"/>
-      <c r="E34" s="153"/>
-      <c r="F34" s="153"/>
-      <c r="G34" s="153"/>
-      <c r="H34" s="153"/>
-      <c r="I34" s="153"/>
-      <c r="J34" s="153"/>
-      <c r="K34" s="153"/>
-      <c r="L34" s="153"/>
-      <c r="M34" s="153"/>
-      <c r="N34" s="153"/>
-      <c r="O34" s="153"/>
-      <c r="P34" s="153"/>
-      <c r="Q34" s="154"/>
+      <c r="C34" s="155"/>
+      <c r="D34" s="156"/>
+      <c r="E34" s="156"/>
+      <c r="F34" s="156"/>
+      <c r="G34" s="156"/>
+      <c r="H34" s="156"/>
+      <c r="I34" s="156"/>
+      <c r="J34" s="156"/>
+      <c r="K34" s="156"/>
+      <c r="L34" s="156"/>
+      <c r="M34" s="156"/>
+      <c r="N34" s="156"/>
+      <c r="O34" s="156"/>
+      <c r="P34" s="156"/>
+      <c r="Q34" s="157"/>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="42"/>
+      <c r="C35" s="152"/>
+      <c r="D35" s="153"/>
+      <c r="E35" s="153"/>
+      <c r="F35" s="153"/>
+      <c r="G35" s="153"/>
+      <c r="H35" s="153"/>
+      <c r="I35" s="153"/>
+      <c r="J35" s="153"/>
+      <c r="K35" s="153"/>
+      <c r="L35" s="153"/>
+      <c r="M35" s="153"/>
+      <c r="N35" s="153"/>
+      <c r="O35" s="153"/>
+      <c r="P35" s="153"/>
+      <c r="Q35" s="154"/>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="43"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="149" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="150"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="150"/>
+      <c r="K36" s="150"/>
+      <c r="L36" s="150"/>
+      <c r="M36" s="150"/>
+      <c r="N36" s="150"/>
+      <c r="O36" s="150"/>
+      <c r="P36" s="150"/>
+      <c r="Q36" s="151"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="45"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="155"/>
+      <c r="D37" s="156"/>
+      <c r="E37" s="156"/>
+      <c r="F37" s="156"/>
+      <c r="G37" s="156"/>
+      <c r="H37" s="156"/>
+      <c r="I37" s="156"/>
+      <c r="J37" s="156"/>
+      <c r="K37" s="156"/>
+      <c r="L37" s="156"/>
+      <c r="M37" s="156"/>
+      <c r="N37" s="156"/>
+      <c r="O37" s="156"/>
+      <c r="P37" s="156"/>
+      <c r="Q37" s="157"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="C23:Q23"/>
+  <mergeCells count="40">
+    <mergeCell ref="C32:Q32"/>
+    <mergeCell ref="C34:Q34"/>
+    <mergeCell ref="C35:Q35"/>
+    <mergeCell ref="C36:Q36"/>
+    <mergeCell ref="C37:Q37"/>
+    <mergeCell ref="C33:Q33"/>
+    <mergeCell ref="C8:Q8"/>
+    <mergeCell ref="C9:Q9"/>
+    <mergeCell ref="C22:Q22"/>
+    <mergeCell ref="C31:Q31"/>
+    <mergeCell ref="C11:Q11"/>
+    <mergeCell ref="C12:Q12"/>
+    <mergeCell ref="C13:Q13"/>
+    <mergeCell ref="C14:Q14"/>
+    <mergeCell ref="C15:Q15"/>
+    <mergeCell ref="C19:Q19"/>
+    <mergeCell ref="C21:Q21"/>
     <mergeCell ref="C24:Q24"/>
-    <mergeCell ref="C10:Q10"/>
+    <mergeCell ref="C25:Q25"/>
+    <mergeCell ref="C29:Q29"/>
+    <mergeCell ref="C30:Q30"/>
+    <mergeCell ref="C28:Q28"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="C5:Q5"/>
+    <mergeCell ref="C6:Q6"/>
+    <mergeCell ref="C7:Q7"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="C5:Q5"/>
-    <mergeCell ref="C6:Q6"/>
-    <mergeCell ref="C7:Q7"/>
-    <mergeCell ref="C8:Q8"/>
-    <mergeCell ref="C9:Q9"/>
-    <mergeCell ref="C28:Q28"/>
-    <mergeCell ref="C11:Q11"/>
-    <mergeCell ref="C12:Q12"/>
-    <mergeCell ref="C13:Q13"/>
-    <mergeCell ref="C14:Q14"/>
-    <mergeCell ref="C15:Q15"/>
     <mergeCell ref="C17:Q17"/>
-    <mergeCell ref="C19:Q19"/>
-    <mergeCell ref="C21:Q21"/>
-    <mergeCell ref="C22:Q22"/>
+    <mergeCell ref="C16:Q16"/>
     <mergeCell ref="C26:Q26"/>
     <mergeCell ref="C27:Q27"/>
-    <mergeCell ref="C25:Q25"/>
+    <mergeCell ref="C10:Q10"/>
+    <mergeCell ref="C23:Q23"/>
     <mergeCell ref="C20:Q20"/>
     <mergeCell ref="C18:Q18"/>
-    <mergeCell ref="C16:Q16"/>
-    <mergeCell ref="C29:Q29"/>
-    <mergeCell ref="C31:Q31"/>
-    <mergeCell ref="C32:Q32"/>
-    <mergeCell ref="C33:Q33"/>
-    <mergeCell ref="C34:Q34"/>
-    <mergeCell ref="C30:Q30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7618,8 +7826,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:AC89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7650,10 +7858,10 @@
       <c r="C2" s="49"/>
       <c r="D2" s="49"/>
       <c r="E2" s="49" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F2" s="49" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G2" s="49"/>
       <c r="H2" s="49"/>
@@ -7674,124 +7882,124 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="82" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>233</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>254</v>
+      </c>
+      <c r="E3" s="52" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="F3" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="D3" s="52" t="s">
-        <v>268</v>
-      </c>
-      <c r="E3" s="52" t="s">
+      <c r="G3" s="52" t="s">
+        <v>237</v>
+      </c>
+      <c r="H3" s="52" t="s">
         <v>238</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="I3" s="52" t="s">
         <v>239</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="J3" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="O3" s="52" t="s">
         <v>240</v>
-      </c>
-      <c r="H3" s="52" t="s">
-        <v>241</v>
-      </c>
-      <c r="I3" s="52" t="s">
-        <v>242</v>
-      </c>
-      <c r="J3" s="52" t="s">
-        <v>245</v>
-      </c>
-      <c r="O3" s="52" t="s">
-        <v>243</v>
       </c>
       <c r="V3" s="53"/>
     </row>
     <row r="4" spans="1:22" s="47" customFormat="1">
       <c r="A4" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="55" t="s">
-        <v>266</v>
-      </c>
-      <c r="D4" s="55" t="s">
+      <c r="E4" s="55" t="s">
+        <v>253</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="55" t="s">
-        <v>267</v>
-      </c>
-      <c r="F4" s="55" t="s">
+      <c r="H4" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4" t="s">
+        <v>222</v>
+      </c>
+      <c r="K4" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="L4" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="H4" s="55" t="s">
+      <c r="M4" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="I4" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="J4" t="s">
-        <v>225</v>
-      </c>
-      <c r="K4" s="65" t="s">
+      <c r="N4" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="L4" s="69" t="s">
+      <c r="O4" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="M4" s="75" t="s">
+      <c r="P4" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="Q4" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="O4" s="47" t="s">
+      <c r="R4" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="S4" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="T4" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="U4" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="V4" s="58" t="s">
         <v>91</v>
-      </c>
-      <c r="P4" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q4" s="47" t="s">
-        <v>93</v>
-      </c>
-      <c r="R4" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="S4" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="T4" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="U4" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="V4" s="58" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="56.25" customHeight="1">
       <c r="A5" s="51"/>
       <c r="J5" s="83" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K5" s="78" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L5" s="79" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M5" s="80" t="s">
+        <v>178</v>
+      </c>
+      <c r="N5" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="N5" s="76" t="s">
-        <v>184</v>
-      </c>
       <c r="O5" s="81" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="V5" s="53"/>
     </row>
@@ -7826,10 +8034,10 @@
       <c r="C8" s="49"/>
       <c r="D8" s="49"/>
       <c r="E8" s="49" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F8" s="49" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G8" s="49"/>
       <c r="H8" s="49"/>
@@ -7842,79 +8050,79 @@
     <row r="9" spans="1:22">
       <c r="A9" s="51"/>
       <c r="E9" s="52" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M9" s="53"/>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="82" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E10" s="52"/>
       <c r="F10" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="H10" s="52" t="s">
+        <v>236</v>
+      </c>
+      <c r="I10" s="52" t="s">
         <v>237</v>
       </c>
-      <c r="H10" s="52" t="s">
+      <c r="J10" s="52" t="s">
+        <v>238</v>
+      </c>
+      <c r="K10" s="52" t="s">
         <v>239</v>
       </c>
-      <c r="I10" s="52" t="s">
-        <v>240</v>
-      </c>
-      <c r="J10" s="52" t="s">
-        <v>241</v>
-      </c>
-      <c r="K10" s="52" t="s">
-        <v>242</v>
-      </c>
       <c r="L10" s="52" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="M10" s="93" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:22" s="47" customFormat="1">
       <c r="A11" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="G11" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="G11" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="I11" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="J11" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="K11" s="55" t="s">
-        <v>100</v>
-      </c>
       <c r="L11" s="55" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="M11" s="56" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:22" s="47" customFormat="1">
@@ -7922,34 +8130,34 @@
         <v>1001</v>
       </c>
       <c r="B12" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="91" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="92" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="G12" s="92" t="s">
         <v>102</v>
       </c>
-      <c r="D12" s="91" t="s">
-        <v>102</v>
-      </c>
-      <c r="E12" s="92" t="s">
+      <c r="H12" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="F12" s="57" t="s">
+      <c r="I12" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="G12" s="92" t="s">
+      <c r="J12" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="H12" s="57" t="s">
+      <c r="K12" s="57" t="s">
         <v>106</v>
-      </c>
-      <c r="I12" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="J12" s="57" t="s">
-        <v>108</v>
-      </c>
-      <c r="K12" s="57" t="s">
-        <v>109</v>
       </c>
       <c r="M12" s="58"/>
     </row>
@@ -7959,13 +8167,13 @@
         <v>1002</v>
       </c>
       <c r="C13" s="57" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D13" s="57" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E13" s="91" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M13" s="58"/>
     </row>
@@ -7991,10 +8199,10 @@
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
       <c r="E18" s="49" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F18" s="49" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G18" s="49"/>
       <c r="H18" s="49"/>
@@ -8017,10 +8225,10 @@
     <row r="19" spans="1:23">
       <c r="A19" s="51"/>
       <c r="E19" s="52" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F19" s="52" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="W19" s="53"/>
     </row>
@@ -8030,73 +8238,73 @@
     </row>
     <row r="21" spans="1:23" s="47" customFormat="1">
       <c r="A21" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="62" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="62" t="s">
+      <c r="E21" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="F21" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="D21" s="62" t="s">
+      <c r="G21" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="E21" s="62" t="s">
+      <c r="H21" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="F21" s="62" t="s">
+      <c r="I21" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="G21" s="63" t="s">
+      <c r="J21" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="H21" s="63" t="s">
+      <c r="K21" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="I21" s="63" t="s">
+      <c r="L21" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="J21" s="62" t="s">
+      <c r="M21" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="K21" s="62" t="s">
+      <c r="N21" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="L21" s="62" t="s">
+      <c r="O21" s="66" t="s">
+        <v>162</v>
+      </c>
+      <c r="P21" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="M21" s="62" t="s">
+      <c r="Q21" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="N21" s="62" t="s">
+      <c r="R21" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="O21" s="66" t="s">
-        <v>165</v>
-      </c>
-      <c r="P21" s="63" t="s">
+      <c r="S21" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="Q21" s="63" t="s">
+      <c r="T21" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="R21" s="63" t="s">
+      <c r="U21" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="S21" s="62" t="s">
+      <c r="V21" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="T21" s="62" t="s">
+      <c r="W21" s="67" t="s">
         <v>132</v>
-      </c>
-      <c r="U21" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="V21" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="W21" s="67" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:23" s="47" customFormat="1">
@@ -8107,13 +8315,13 @@
         <v>1001</v>
       </c>
       <c r="C22" s="57" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D22" s="47">
         <v>11</v>
       </c>
       <c r="E22" s="47" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F22" s="47">
         <v>1</v>
@@ -8149,13 +8357,13 @@
         <v>1001</v>
       </c>
       <c r="C23" s="57" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D23" s="47">
         <v>12</v>
       </c>
       <c r="E23" s="47" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F23" s="47">
         <v>1</v>
@@ -8179,13 +8387,13 @@
         <v>1001</v>
       </c>
       <c r="C24" s="57" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D24" s="47">
         <v>13</v>
       </c>
       <c r="E24" s="47" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F24" s="47">
         <v>1</v>
@@ -8209,13 +8417,13 @@
         <v>1001</v>
       </c>
       <c r="C25" s="57" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D25" s="47">
         <v>14</v>
       </c>
       <c r="E25" s="47" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F25" s="47">
         <v>1</v>
@@ -8239,13 +8447,13 @@
         <v>1001</v>
       </c>
       <c r="C26" s="57" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D26" s="47">
         <v>51</v>
       </c>
       <c r="E26" s="47" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F26" s="47">
         <v>1</v>
@@ -8269,13 +8477,13 @@
         <v>1001</v>
       </c>
       <c r="C27" s="57" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D27" s="47">
         <v>52</v>
       </c>
       <c r="E27" s="47" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F27" s="47">
         <v>1</v>
@@ -8299,13 +8507,13 @@
         <v>1001</v>
       </c>
       <c r="C28" s="57" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D28" s="47">
         <v>71</v>
       </c>
       <c r="E28" s="47" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F28" s="47">
         <v>1</v>
@@ -8329,13 +8537,13 @@
         <v>1001</v>
       </c>
       <c r="C29" s="57" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D29" s="47">
         <v>72</v>
       </c>
       <c r="E29" s="47" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F29" s="47">
         <v>1</v>
@@ -8359,13 +8567,13 @@
         <v>1002</v>
       </c>
       <c r="C30" s="57" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D30" s="47">
         <v>1</v>
       </c>
       <c r="E30" s="47" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F30" s="47">
         <v>1</v>
@@ -8429,10 +8637,10 @@
       <c r="C35" s="49"/>
       <c r="D35" s="49"/>
       <c r="E35" s="49" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F35" s="49" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G35" s="49"/>
       <c r="H35" s="49"/>
@@ -8457,10 +8665,10 @@
     <row r="36" spans="1:25">
       <c r="A36" s="51"/>
       <c r="E36" s="52" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F36" s="52" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Y36" s="53"/>
     </row>
@@ -8470,76 +8678,76 @@
     </row>
     <row r="38" spans="1:25" s="47" customFormat="1">
       <c r="A38" s="64" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B38" s="62" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C38" s="62" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D38" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="E38" s="62" t="s">
+        <v>146</v>
+      </c>
+      <c r="F38" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="G38" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="E38" s="62" t="s">
+      <c r="H38" s="63" t="s">
         <v>149</v>
       </c>
-      <c r="F38" s="62" t="s">
+      <c r="I38" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="G38" s="63" t="s">
+      <c r="J38" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="H38" s="63" t="s">
+      <c r="K38" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="I38" s="63" t="s">
+      <c r="L38" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="J38" s="63" t="s">
+      <c r="M38" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="K38" s="62" t="s">
-        <v>155</v>
-      </c>
-      <c r="L38" s="62" t="s">
+      <c r="N38" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="O38" s="68" t="s">
+        <v>164</v>
+      </c>
+      <c r="P38" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q38" s="62" t="s">
+        <v>177</v>
+      </c>
+      <c r="R38" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="M38" s="62" t="s">
+      <c r="S38" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="T38" s="63" t="s">
         <v>157</v>
       </c>
-      <c r="N38" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="O38" s="68" t="s">
-        <v>167</v>
-      </c>
-      <c r="P38" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q38" s="62" t="s">
-        <v>180</v>
-      </c>
-      <c r="R38" s="63" t="s">
-        <v>159</v>
-      </c>
-      <c r="S38" s="63" t="s">
+      <c r="U38" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="V38" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="T38" s="63" t="s">
-        <v>160</v>
-      </c>
-      <c r="U38" s="62" t="s">
+      <c r="W38" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="X38" s="47" t="s">
         <v>131</v>
-      </c>
-      <c r="V38" s="62" t="s">
-        <v>132</v>
-      </c>
-      <c r="W38" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="X38" s="47" t="s">
-        <v>134</v>
       </c>
       <c r="Y38" s="58"/>
     </row>
@@ -8551,13 +8759,13 @@
         <v>1001</v>
       </c>
       <c r="C39" s="57" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D39" s="47">
         <v>2</v>
       </c>
       <c r="E39" s="47" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F39" s="47">
         <v>79</v>
@@ -8596,13 +8804,13 @@
         <v>1001</v>
       </c>
       <c r="C40" s="57" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D40" s="47">
         <v>1</v>
       </c>
       <c r="E40" s="47" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F40" s="47">
         <v>80</v>
@@ -8629,13 +8837,13 @@
         <v>1001</v>
       </c>
       <c r="C41" s="57" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D41" s="47">
         <v>1</v>
       </c>
       <c r="E41" s="47" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F41" s="47">
         <v>81</v>
@@ -8662,13 +8870,13 @@
         <v>1001</v>
       </c>
       <c r="C42" s="57" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D42" s="47">
         <v>2</v>
       </c>
       <c r="E42" s="47" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F42" s="47">
         <v>90</v>
@@ -8695,13 +8903,13 @@
         <v>1001</v>
       </c>
       <c r="C43" s="57" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D43" s="47">
         <v>1</v>
       </c>
       <c r="E43" s="47" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F43" s="47">
         <v>91</v>
@@ -8728,13 +8936,13 @@
         <v>1001</v>
       </c>
       <c r="C44" s="57" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D44" s="47">
         <v>1</v>
       </c>
       <c r="E44" s="47" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F44" s="47">
         <v>92</v>
@@ -8761,13 +8969,13 @@
         <v>1001</v>
       </c>
       <c r="C45" s="57" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D45" s="47">
         <v>2</v>
       </c>
       <c r="E45" s="47" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F45" s="47">
         <v>105</v>
@@ -8794,13 +9002,13 @@
         <v>1001</v>
       </c>
       <c r="C46" s="57" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D46" s="47">
         <v>2</v>
       </c>
       <c r="E46" s="47" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F46" s="47">
         <v>106</v>
@@ -8827,13 +9035,13 @@
         <v>1001</v>
       </c>
       <c r="C47" s="57" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D47" s="47">
         <v>2</v>
       </c>
       <c r="E47" s="47" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F47" s="47">
         <v>107</v>
@@ -8860,13 +9068,13 @@
         <v>1001</v>
       </c>
       <c r="C48" s="57" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D48" s="47">
         <v>2</v>
       </c>
       <c r="E48" s="47" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F48" s="47">
         <v>108</v>
@@ -8893,13 +9101,13 @@
         <v>1001</v>
       </c>
       <c r="C49" s="57" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D49" s="47">
         <v>2</v>
       </c>
       <c r="E49" s="47" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F49" s="47">
         <v>142</v>
@@ -8926,13 +9134,13 @@
         <v>1001</v>
       </c>
       <c r="C50" s="57" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D50" s="47">
         <v>1</v>
       </c>
       <c r="E50" s="47" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F50" s="47">
         <v>143</v>
@@ -8959,13 +9167,13 @@
         <v>1001</v>
       </c>
       <c r="C51" s="57" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D51" s="47">
         <v>2</v>
       </c>
       <c r="E51" s="47" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F51" s="47">
         <v>169</v>
@@ -8992,13 +9200,13 @@
         <v>1001</v>
       </c>
       <c r="C52" s="57" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D52" s="47">
         <v>2</v>
       </c>
       <c r="E52" s="47" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F52" s="47">
         <v>170</v>
@@ -9025,13 +9233,13 @@
         <v>1001</v>
       </c>
       <c r="C53" s="57" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D53" s="47">
         <v>2</v>
       </c>
       <c r="E53" s="47" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F53" s="47">
         <v>172</v>
@@ -9058,13 +9266,13 @@
         <v>1001</v>
       </c>
       <c r="C54" s="57" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D54" s="47">
         <v>2</v>
       </c>
       <c r="E54" s="47" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F54" s="47">
         <v>175</v>
@@ -9091,13 +9299,13 @@
         <v>1001</v>
       </c>
       <c r="C55" s="57" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D55" s="47">
         <v>2</v>
       </c>
       <c r="E55" s="47" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F55" s="47">
         <v>176</v>
@@ -9124,13 +9332,13 @@
         <v>1001</v>
       </c>
       <c r="C56" s="57" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D56" s="47">
         <v>1</v>
       </c>
       <c r="E56" s="47" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F56" s="47">
         <v>178</v>
@@ -9157,13 +9365,13 @@
         <v>1001</v>
       </c>
       <c r="C57" s="57" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D57" s="47">
         <v>1</v>
       </c>
       <c r="E57" s="47" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F57" s="47">
         <v>182</v>
@@ -9190,13 +9398,13 @@
         <v>1001</v>
       </c>
       <c r="C58" s="57" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D58" s="47">
         <v>2</v>
       </c>
       <c r="E58" s="47" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F58" s="47">
         <v>263</v>
@@ -9223,13 +9431,13 @@
         <v>1001</v>
       </c>
       <c r="C59" s="57" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D59" s="47">
         <v>2</v>
       </c>
       <c r="E59" s="47" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F59" s="47">
         <v>269</v>
@@ -9256,13 +9464,13 @@
         <v>1001</v>
       </c>
       <c r="C60" s="57" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D60" s="47">
         <v>1</v>
       </c>
       <c r="E60" s="47" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F60" s="47">
         <v>270</v>
@@ -9289,13 +9497,13 @@
         <v>1001</v>
       </c>
       <c r="C61" s="57" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D61" s="47">
         <v>2</v>
       </c>
       <c r="E61" s="47" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F61" s="47">
         <v>271</v>
@@ -9322,13 +9530,13 @@
         <v>1001</v>
       </c>
       <c r="C62" s="57" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D62" s="47">
         <v>2</v>
       </c>
       <c r="E62" s="47" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F62" s="47">
         <v>272</v>
@@ -9355,13 +9563,13 @@
         <v>1001</v>
       </c>
       <c r="C63" s="57" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D63" s="47">
         <v>1</v>
       </c>
       <c r="E63" s="47" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F63" s="47">
         <v>273</v>
@@ -9388,13 +9596,13 @@
         <v>1001</v>
       </c>
       <c r="C64" s="57" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D64" s="47">
         <v>2</v>
       </c>
       <c r="E64" s="47" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F64" s="47">
         <v>309</v>
@@ -9421,13 +9629,13 @@
         <v>1001</v>
       </c>
       <c r="C65" s="57" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D65" s="47">
         <v>2</v>
       </c>
       <c r="E65" s="47" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F65" s="47">
         <v>310</v>
@@ -9454,13 +9662,13 @@
         <v>1002</v>
       </c>
       <c r="C66" s="57" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D66" s="47">
         <v>2</v>
       </c>
       <c r="E66" s="47" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F66" s="47">
         <v>168</v>
@@ -9525,10 +9733,10 @@
       <c r="C70" s="49"/>
       <c r="D70" s="49"/>
       <c r="E70" s="49" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F70" s="49" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G70" s="49"/>
       <c r="H70" s="49"/>
@@ -9557,97 +9765,97 @@
     <row r="71" spans="1:29">
       <c r="A71" s="51"/>
       <c r="E71" s="52" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F71" s="52" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AC71" s="53"/>
     </row>
     <row r="72" spans="1:29" s="47" customFormat="1">
       <c r="A72" s="64" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B72" s="62" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C72" s="62" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D72" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="E72" s="62" t="s">
+        <v>168</v>
+      </c>
+      <c r="F72" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="G72" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="E72" s="62" t="s">
+      <c r="H72" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="I72" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="J72" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="K72" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="L72" s="62" t="s">
+        <v>152</v>
+      </c>
+      <c r="M72" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="N72" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="O72" s="62" t="s">
+        <v>170</v>
+      </c>
+      <c r="P72" s="63" t="s">
         <v>171</v>
       </c>
-      <c r="F72" s="62" t="s">
-        <v>150</v>
-      </c>
-      <c r="G72" s="63" t="s">
-        <v>151</v>
-      </c>
-      <c r="H72" s="63" t="s">
-        <v>152</v>
-      </c>
-      <c r="I72" s="63" t="s">
-        <v>153</v>
-      </c>
-      <c r="J72" s="63" t="s">
-        <v>154</v>
-      </c>
-      <c r="K72" s="63" t="s">
+      <c r="Q72" s="63" t="s">
         <v>172</v>
       </c>
-      <c r="L72" s="62" t="s">
+      <c r="R72" s="63" t="s">
+        <v>173</v>
+      </c>
+      <c r="S72" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="M72" s="62" t="s">
+      <c r="T72" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="U72" s="74" t="s">
+        <v>178</v>
+      </c>
+      <c r="V72" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="N72" s="62" t="s">
+      <c r="W72" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="X72" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="O72" s="62" t="s">
-        <v>173</v>
-      </c>
-      <c r="P72" s="63" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q72" s="63" t="s">
-        <v>175</v>
-      </c>
-      <c r="R72" s="63" t="s">
-        <v>176</v>
-      </c>
-      <c r="S72" s="62" t="s">
-        <v>158</v>
-      </c>
-      <c r="T72" s="62" t="s">
-        <v>177</v>
-      </c>
-      <c r="U72" s="74" t="s">
-        <v>181</v>
-      </c>
-      <c r="V72" s="62" t="s">
-        <v>159</v>
-      </c>
-      <c r="W72" s="62" t="s">
+      <c r="Y72" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z72" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="X72" s="62" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y72" s="62" t="s">
+      <c r="AA72" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB72" s="47" t="s">
         <v>131</v>
-      </c>
-      <c r="Z72" s="62" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA72" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB72" s="47" t="s">
-        <v>134</v>
       </c>
       <c r="AC72" s="58"/>
     </row>
@@ -9659,13 +9867,13 @@
         <v>1001</v>
       </c>
       <c r="C73" s="57" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D73" s="47">
         <v>3</v>
       </c>
       <c r="E73" s="47" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F73" s="47">
         <v>82</v>
@@ -9710,13 +9918,13 @@
         <v>1001</v>
       </c>
       <c r="C74" s="57" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D74" s="47">
         <v>3</v>
       </c>
       <c r="E74" s="47" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F74" s="47">
         <v>83</v>
@@ -9746,13 +9954,13 @@
         <v>1001</v>
       </c>
       <c r="C75" s="57" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D75" s="47">
         <v>3</v>
       </c>
       <c r="E75" s="47" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F75" s="47">
         <v>144</v>
@@ -9782,13 +9990,13 @@
         <v>1001</v>
       </c>
       <c r="C76" s="57" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D76" s="47">
         <v>3</v>
       </c>
       <c r="E76" s="47" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F76" s="47">
         <v>284</v>
@@ -9818,13 +10026,13 @@
         <v>1001</v>
       </c>
       <c r="C77" s="57" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D77" s="47">
         <v>3</v>
       </c>
       <c r="E77" s="47" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F77" s="47">
         <v>285</v>
@@ -9854,13 +10062,13 @@
         <v>1002</v>
       </c>
       <c r="C78" s="57" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D78" s="47">
         <v>3</v>
       </c>
       <c r="E78" s="47" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F78" s="47">
         <v>167</v>
@@ -9905,13 +10113,13 @@
         <v>1002</v>
       </c>
       <c r="C79" s="71" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D79" s="72">
         <v>3</v>
       </c>
       <c r="E79" s="72" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F79" s="72">
         <v>259</v>
@@ -9957,10 +10165,10 @@
       <c r="C82" s="49"/>
       <c r="D82" s="49"/>
       <c r="E82" s="49" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F82" s="49" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G82" s="49"/>
       <c r="H82" s="49"/>
@@ -9969,20 +10177,20 @@
     <row r="83" spans="1:9">
       <c r="A83" s="51"/>
       <c r="E83" s="52" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F83" s="52" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I83" s="53"/>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="51"/>
       <c r="B84" s="47" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C84" s="76" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I84" s="53"/>
     </row>
@@ -10030,7 +10238,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
@@ -10046,14 +10254,14 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="84" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B1" s="85"/>
       <c r="C1" s="84" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D1" s="84" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E1" s="85"/>
       <c r="F1" s="85"/>
@@ -10063,7 +10271,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C2" s="87">
         <v>9</v>
@@ -10072,7 +10280,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="85" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F2" s="85"/>
     </row>
@@ -10081,7 +10289,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="85" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C3" s="85">
         <v>9</v>
@@ -10090,7 +10298,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="85" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F3" s="85"/>
     </row>
@@ -10099,7 +10307,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="85" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C4" s="85">
         <v>9</v>
@@ -10108,7 +10316,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="84" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F4" s="84"/>
     </row>
@@ -10117,7 +10325,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="85" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C5" s="85">
         <v>9</v>
@@ -10126,7 +10334,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="84" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F5" s="84"/>
     </row>
@@ -10135,16 +10343,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="85" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C6" s="88" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D6" s="85">
         <v>40</v>
       </c>
       <c r="E6" s="84" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F6" s="84"/>
     </row>
@@ -10153,7 +10361,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="85" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C7" s="85">
         <v>9</v>
@@ -10162,10 +10370,10 @@
         <v>4</v>
       </c>
       <c r="E7" s="89" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F7" s="84" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10173,7 +10381,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="89" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C8" s="85">
         <v>9</v>
@@ -10183,7 +10391,7 @@
       </c>
       <c r="E8" s="85"/>
       <c r="F8" s="84" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -10191,19 +10399,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="84" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C9" s="88" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D9" s="85">
         <v>15</v>
       </c>
       <c r="E9" s="84" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="F9" s="84" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -10211,7 +10419,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="84" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C10" s="85">
         <v>9</v>
@@ -10221,7 +10429,7 @@
       </c>
       <c r="E10" s="85"/>
       <c r="F10" s="84" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -10229,19 +10437,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="84" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C11" s="88" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D11" s="85">
         <v>15</v>
       </c>
       <c r="E11" s="84" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="F11" s="84" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -10249,7 +10457,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="84" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C12" s="85">
         <v>9</v>
@@ -10259,7 +10467,7 @@
       </c>
       <c r="E12" s="85"/>
       <c r="F12" s="84" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -10267,7 +10475,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="89" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C13" s="85">
         <v>9</v>
@@ -10277,7 +10485,7 @@
       </c>
       <c r="E13" s="85"/>
       <c r="F13" s="84" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -10285,29 +10493,29 @@
         <v>13</v>
       </c>
       <c r="B14" s="84" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C14" s="88" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D14" s="85">
         <v>17</v>
       </c>
       <c r="E14" s="84" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F14" s="84"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="84" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B17" s="85"/>
       <c r="C17" s="84" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D17" s="84" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E17" s="85"/>
       <c r="F17" s="85"/>
@@ -10317,7 +10525,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="84" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C18" s="87">
         <v>9</v>
@@ -10326,7 +10534,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="85" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F18" s="85"/>
     </row>
@@ -10335,7 +10543,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="84" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C19" s="85">
         <v>9</v>
@@ -10345,7 +10553,7 @@
       </c>
       <c r="E19" s="85"/>
       <c r="F19" s="84" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -10353,19 +10561,19 @@
         <v>3</v>
       </c>
       <c r="B20" s="84" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C20" s="88" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D20" s="85">
         <v>15</v>
       </c>
       <c r="E20" s="84" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="F20" s="84" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -10373,7 +10581,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="84" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C21" s="85">
         <v>9</v>
@@ -10383,7 +10591,7 @@
       </c>
       <c r="E21" s="85"/>
       <c r="F21" s="84" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -10391,19 +10599,19 @@
         <v>5</v>
       </c>
       <c r="B22" s="84" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C22" s="88" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D22" s="85">
         <v>15</v>
       </c>
       <c r="E22" s="84" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="F22" s="84" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -10411,16 +10619,16 @@
         <v>6</v>
       </c>
       <c r="B23" s="84" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C23" s="88" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D23" s="85">
         <v>4</v>
       </c>
       <c r="E23" s="84" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F23" s="84"/>
     </row>
@@ -10429,7 +10637,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="84" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C24" s="85">
         <v>9</v>
@@ -10438,10 +10646,10 @@
         <v>1</v>
       </c>
       <c r="E24" s="84" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F24" s="84" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -10449,7 +10657,7 @@
         <v>8</v>
       </c>
       <c r="B25" s="84" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C25" s="85">
         <v>9</v>
@@ -10458,10 +10666,10 @@
         <v>7</v>
       </c>
       <c r="E25" s="84" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F25" s="84" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -10469,19 +10677,19 @@
         <v>9</v>
       </c>
       <c r="B26" s="84" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C26" s="88" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D26" s="85">
         <v>30</v>
       </c>
       <c r="E26" s="84" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F26" s="84" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -10489,7 +10697,7 @@
         <v>10</v>
       </c>
       <c r="B27" s="84" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C27" s="85">
         <v>9</v>
@@ -10498,10 +10706,10 @@
         <v>10</v>
       </c>
       <c r="E27" s="84" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F27" s="84" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -10509,7 +10717,7 @@
         <v>11</v>
       </c>
       <c r="B28" s="84" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C28" s="85">
         <v>9</v>
@@ -10518,7 +10726,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="84" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F28" s="84"/>
     </row>
@@ -10527,19 +10735,19 @@
         <v>12</v>
       </c>
       <c r="B29" s="84" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C29" s="88" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D29" s="90">
         <v>20</v>
       </c>
       <c r="E29" s="84" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="F29" s="84" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -10547,7 +10755,7 @@
         <v>13</v>
       </c>
       <c r="B30" s="84" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C30" s="85">
         <v>9</v>
@@ -10556,7 +10764,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="84" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F30" s="84"/>
     </row>
@@ -10565,29 +10773,29 @@
         <v>14</v>
       </c>
       <c r="B31" s="84" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C31" s="88" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D31" s="85">
         <v>8</v>
       </c>
       <c r="E31" s="84" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F31" s="84"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="85" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B34" s="85"/>
       <c r="C34" s="84" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D34" s="84" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E34" s="85"/>
       <c r="F34" s="85"/>
@@ -10597,7 +10805,7 @@
         <v>1</v>
       </c>
       <c r="B35" s="84" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C35" s="87">
         <v>9</v>
@@ -10606,7 +10814,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="85" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F35" s="85"/>
     </row>
@@ -10615,7 +10823,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="85" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C36" s="87">
         <v>9</v>
@@ -10624,7 +10832,7 @@
         <v>6</v>
       </c>
       <c r="E36" s="84" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F36" s="84"/>
     </row>
@@ -10633,7 +10841,7 @@
         <v>3</v>
       </c>
       <c r="B37" s="84" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C37" s="87">
         <v>9</v>
@@ -10642,7 +10850,7 @@
         <v>12</v>
       </c>
       <c r="E37" s="84" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F37" s="84"/>
     </row>
@@ -10651,7 +10859,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="84" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C38" s="87">
         <v>9</v>
@@ -10660,7 +10868,7 @@
         <v>6</v>
       </c>
       <c r="E38" s="84" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F38" s="84"/>
     </row>
@@ -10669,7 +10877,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="84" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C39" s="87">
         <v>9</v>
@@ -10678,7 +10886,7 @@
         <v>12</v>
       </c>
       <c r="E39" s="84" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F39" s="84"/>
     </row>
@@ -10687,7 +10895,7 @@
         <v>6</v>
       </c>
       <c r="B40" s="84" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C40" s="87">
         <v>9</v>
@@ -10696,7 +10904,7 @@
         <v>6</v>
       </c>
       <c r="E40" s="84" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F40" s="84"/>
     </row>
@@ -10705,7 +10913,7 @@
         <v>7</v>
       </c>
       <c r="B41" s="84" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C41" s="87">
         <v>9</v>
@@ -10714,7 +10922,7 @@
         <v>12</v>
       </c>
       <c r="E41" s="84" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F41" s="84"/>
     </row>
@@ -10723,29 +10931,29 @@
         <v>8</v>
       </c>
       <c r="B42" s="84" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C42" s="88" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D42" s="85">
         <v>65</v>
       </c>
       <c r="E42" s="84" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F42" s="84"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="84" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B45" s="85"/>
       <c r="C45" s="84" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D45" s="84" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E45" s="85"/>
       <c r="F45" s="85"/>
@@ -10755,7 +10963,7 @@
         <v>1</v>
       </c>
       <c r="B46" s="84" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C46" s="87">
         <v>9</v>
@@ -10764,7 +10972,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="85" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F46" s="85"/>
     </row>
@@ -10773,16 +10981,16 @@
         <v>2</v>
       </c>
       <c r="B47" s="84" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C47" s="88" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D47" s="87">
         <v>119</v>
       </c>
       <c r="E47" s="84" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F47" s="84"/>
     </row>
@@ -10795,6 +11003,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB369FD-4E01-4F3E-BF13-4D6E5D000744}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10808,6 +11017,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C11F75E-41D1-4801-9AFC-612A78E2B331}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
